--- a/corpus/corpus_v3_13.xlsx
+++ b/corpus/corpus_v3_13.xlsx
@@ -537,7 +537,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=STARTS,https://cran.r-project.org/package=SAR,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=STAREG,https://cran.r-project.org/package=STAT,https://cran.r-project.org/package=TAR</t>
+          <t>https://cran.r-project.org/package=TAR,https://cran.r-project.org/package=STARTS,https://cran.r-project.org/package=STAT,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=STAREG,https://cran.r-project.org/package=SAR</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -589,7 +589,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=STARTS,https://cran.r-project.org/package=SAR,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=STAREG,https://cran.r-project.org/package=STAT,https://cran.r-project.org/package=TAR</t>
+          <t>https://cran.r-project.org/package=TAR,https://cran.r-project.org/package=STARTS,https://cran.r-project.org/package=STAT,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=STAREG,https://cran.r-project.org/package=SAR</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=GABB,https://github.com/samueltc/ABBYY,https://pypi.org/project/ABBYY/,https://github.com/abbyy/RTR-SDK.Android,https://github.com/abbyy/barcode_detection_benchmark,https://github.com/abbyy/ocrsdk.com,https://github.com/gojiplus/abbyyR,https://github.com/dannguyen/abbyy-finereader-ocr-senate</t>
+          <t>https://github.com/abbyy/ocrsdk.com,https://github.com/samueltc/ABBYY,https://pypi.org/project/ABBYY/,https://github.com/dannguyen/abbyy-finereader-ocr-senate,https://github.com/abbyy/RTR-SDK.Android,https://github.com/gojiplus/abbyyR,https://cran.r-project.org/package=GABB,https://github.com/abbyy/barcode_detection_benchmark</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -693,7 +693,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=GABB,https://github.com/samueltc/ABBYY,https://pypi.org/project/ABBYY/,https://github.com/abbyy/RTR-SDK.Android,https://github.com/abbyy/barcode_detection_benchmark,https://github.com/abbyy/ocrsdk.com,https://github.com/gojiplus/abbyyR,https://github.com/dannguyen/abbyy-finereader-ocr-senate</t>
+          <t>https://github.com/abbyy/ocrsdk.com,https://github.com/samueltc/ABBYY,https://pypi.org/project/ABBYY/,https://github.com/dannguyen/abbyy-finereader-ocr-senate,https://github.com/abbyy/RTR-SDK.Android,https://github.com/gojiplus/abbyyR,https://cran.r-project.org/package=GABB,https://github.com/abbyy/barcode_detection_benchmark</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -745,7 +745,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=GABB,https://github.com/samueltc/ABBYY,https://pypi.org/project/ABBYY/,https://github.com/abbyy/RTR-SDK.Android,https://github.com/abbyy/barcode_detection_benchmark,https://github.com/abbyy/ocrsdk.com,https://github.com/gojiplus/abbyyR,https://github.com/dannguyen/abbyy-finereader-ocr-senate</t>
+          <t>https://github.com/abbyy/ocrsdk.com,https://github.com/samueltc/ABBYY,https://pypi.org/project/ABBYY/,https://github.com/dannguyen/abbyy-finereader-ocr-senate,https://github.com/abbyy/RTR-SDK.Android,https://github.com/gojiplus/abbyyR,https://cran.r-project.org/package=GABB,https://github.com/abbyy/barcode_detection_benchmark</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -797,7 +797,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=GABB,https://github.com/samueltc/ABBYY,https://pypi.org/project/ABBYY/,https://github.com/abbyy/RTR-SDK.Android,https://github.com/abbyy/barcode_detection_benchmark,https://github.com/abbyy/ocrsdk.com,https://github.com/gojiplus/abbyyR,https://github.com/dannguyen/abbyy-finereader-ocr-senate</t>
+          <t>https://github.com/abbyy/ocrsdk.com,https://github.com/samueltc/ABBYY,https://pypi.org/project/ABBYY/,https://github.com/dannguyen/abbyy-finereader-ocr-senate,https://github.com/abbyy/RTR-SDK.Android,https://github.com/gojiplus/abbyyR,https://cran.r-project.org/package=GABB,https://github.com/abbyy/barcode_detection_benchmark</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -849,7 +849,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=GABB,https://github.com/samueltc/ABBYY,https://pypi.org/project/ABBYY/,https://github.com/abbyy/RTR-SDK.Android,https://github.com/abbyy/barcode_detection_benchmark,https://github.com/abbyy/ocrsdk.com,https://github.com/gojiplus/abbyyR,https://github.com/dannguyen/abbyy-finereader-ocr-senate</t>
+          <t>https://github.com/abbyy/ocrsdk.com,https://github.com/samueltc/ABBYY,https://pypi.org/project/ABBYY/,https://github.com/dannguyen/abbyy-finereader-ocr-senate,https://github.com/abbyy/RTR-SDK.Android,https://github.com/gojiplus/abbyyR,https://cran.r-project.org/package=GABB,https://github.com/abbyy/barcode_detection_benchmark</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -901,7 +901,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://github.com/giabaio/BCEA/,https://github.com/clippit/Paw-BCEAuthDynamicValue,https://cran.r-project.org/package=BCEE,https://github.com/InseeFrLab/formation-bceao,https://github.com/asaluau292922129017/Karthi_BCEAAC2CB95E3B785A04DBFC7140965A,https://github.com/giabaio/BCEAweb,https://cran.r-project.org/package=BCRA,https://cran.r-project.org/package=CEDA,https://github.com/cran/BCEA,https://cran.r-project.org/package=BCEA</t>
+          <t>https://github.com/cran/BCEA,https://github.com/InseeFrLab/formation-bceao,https://github.com/asaluau292922129017/Karthi_BCEAAC2CB95E3B785A04DBFC7140965A,https://cran.r-project.org/package=BCEE,https://github.com/giabaio/BCEAweb,https://github.com/giabaio/BCEA/,https://cran.r-project.org/package=CEDA,https://github.com/clippit/Paw-BCEAuthDynamicValue,https://cran.r-project.org/package=BCEA,https://cran.r-project.org/package=BCRA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -957,7 +957,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://github.com/wention/BeautifulSoup9,https://github.com/wention/BeautifulSoup4,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup11,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup6,https://github.com/wention/BeautifulSoup13,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/icodeu/BeautifulSoup,https://github.com/wention/BeautifulSoup12</t>
+          <t>https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup12,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup11,https://pypi.org/project/BeautifulSoup/,https://github.com/wention/BeautifulSoup4,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup6,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup9,https://pypi.org/project/beautifulsoup4/,https://github.com/icodeu/BeautifulSoup,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup13</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1013,7 +1013,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://github.com/wention/BeautifulSoup9,https://github.com/wention/BeautifulSoup4,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup11,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup6,https://github.com/wention/BeautifulSoup13,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/icodeu/BeautifulSoup,https://github.com/wention/BeautifulSoup12</t>
+          <t>https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup12,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup11,https://pypi.org/project/BeautifulSoup/,https://github.com/wention/BeautifulSoup4,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup6,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup9,https://pypi.org/project/beautifulsoup4/,https://github.com/icodeu/BeautifulSoup,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup13</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1069,7 +1069,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://github.com/wention/BeautifulSoup9,https://github.com/wention/BeautifulSoup4,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup11,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup6,https://github.com/wention/BeautifulSoup13,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/icodeu/BeautifulSoup,https://github.com/wention/BeautifulSoup12</t>
+          <t>https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup12,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup11,https://pypi.org/project/BeautifulSoup/,https://github.com/wention/BeautifulSoup4,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup6,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup9,https://pypi.org/project/beautifulsoup4/,https://github.com/icodeu/BeautifulSoup,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup13</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://github.com/wention/BeautifulSoup9,https://github.com/wention/BeautifulSoup4,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup11,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup6,https://github.com/wention/BeautifulSoup13,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/icodeu/BeautifulSoup,https://github.com/wention/BeautifulSoup12</t>
+          <t>https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup12,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup11,https://pypi.org/project/BeautifulSoup/,https://github.com/wention/BeautifulSoup4,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup6,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup9,https://pypi.org/project/beautifulsoup4/,https://github.com/icodeu/BeautifulSoup,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup13</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1173,7 +1173,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://github.com/wention/BeautifulSoup9,https://github.com/wention/BeautifulSoup4,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup11,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup6,https://github.com/wention/BeautifulSoup13,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/icodeu/BeautifulSoup,https://github.com/wention/BeautifulSoup12</t>
+          <t>https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup12,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup11,https://pypi.org/project/BeautifulSoup/,https://github.com/wention/BeautifulSoup4,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup6,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup9,https://pypi.org/project/beautifulsoup4/,https://github.com/icodeu/BeautifulSoup,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup13</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1229,7 +1229,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://github.com/wention/BeautifulSoup9,https://github.com/wention/BeautifulSoup4,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup11,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup6,https://github.com/wention/BeautifulSoup13,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/icodeu/BeautifulSoup,https://github.com/wention/BeautifulSoup12</t>
+          <t>https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup12,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup11,https://pypi.org/project/BeautifulSoup/,https://github.com/wention/BeautifulSoup4,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup6,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup9,https://pypi.org/project/beautifulsoup4/,https://github.com/icodeu/BeautifulSoup,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup13</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1281,7 +1281,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://github.com/wention/BeautifulSoup9,https://github.com/wention/BeautifulSoup4,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup11,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup6,https://github.com/wention/BeautifulSoup13,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/icodeu/BeautifulSoup,https://github.com/wention/BeautifulSoup12</t>
+          <t>https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup12,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup11,https://pypi.org/project/BeautifulSoup/,https://github.com/wention/BeautifulSoup4,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup6,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup9,https://pypi.org/project/beautifulsoup4/,https://github.com/icodeu/BeautifulSoup,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup13</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1333,7 +1333,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://github.com/wention/BeautifulSoup9,https://github.com/wention/BeautifulSoup4,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup11,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup6,https://github.com/wention/BeautifulSoup13,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/icodeu/BeautifulSoup,https://github.com/wention/BeautifulSoup12</t>
+          <t>https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup12,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup11,https://pypi.org/project/BeautifulSoup/,https://github.com/wention/BeautifulSoup4,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup6,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup9,https://pypi.org/project/beautifulsoup4/,https://github.com/icodeu/BeautifulSoup,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup13</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1389,7 +1389,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://github.com/wention/BeautifulSoup9,https://github.com/wention/BeautifulSoup4,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup11,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup6,https://github.com/wention/BeautifulSoup13,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/icodeu/BeautifulSoup,https://github.com/wention/BeautifulSoup12</t>
+          <t>https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup12,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup11,https://pypi.org/project/BeautifulSoup/,https://github.com/wention/BeautifulSoup4,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup6,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup9,https://pypi.org/project/beautifulsoup4/,https://github.com/icodeu/BeautifulSoup,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup13</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1445,7 +1445,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://github.com/wention/BeautifulSoup9,https://github.com/wention/BeautifulSoup4,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup11,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup6,https://github.com/wention/BeautifulSoup13,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/icodeu/BeautifulSoup,https://github.com/wention/BeautifulSoup12</t>
+          <t>https://github.com/wention/BeautifulSoup5,https://github.com/wention/BeautifulSoup10,https://github.com/wention/BeautifulSoup12,https://github.com/wention/BeautifulSoup8,https://github.com/wention/BeautifulSoup11,https://pypi.org/project/BeautifulSoup/,https://github.com/wention/BeautifulSoup4,https://github.com/DeronW/beautifulsoup,https://github.com/wention/BeautifulSoup6,https://github.com/collegue1337/BeautifulSoup4,https://github.com/wention/BeautifulSoup9,https://pypi.org/project/beautifulsoup4/,https://github.com/icodeu/BeautifulSoup,https://github.com/beautifulSoup/RtmpRecoder,https://github.com/wention/BeautifulSoup7,https://github.com/wention/BeautifulSoup13</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://github.com/ECOAP/module_coapthon,https://cran.r-project.org/package=XRPython,https://github.com/Tanganelli/CoAPthon3,https://cran.r-project.org/package=Arothron,https://cran.r-project.org/package=thorn,https://github.com/thscowns/coapthon_rasec,https://github.com/goslim56/CoAPthon</t>
+          <t>https://github.com/goslim56/CoAPthon,https://github.com/ECOAP/module_coapthon,https://pypi.org/project/CoAPthon/,https://github.com/Tanganelli/CoAPthon,https://cran.r-project.org/package=thorn,https://github.com/thscowns/coapthon_rasec,https://cran.r-project.org/package=XRPython,https://cran.r-project.org/package=Arothron,https://github.com/Tanganelli/CoAPthon3</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1549,7 +1549,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://github.com/ECOAP/module_coapthon,https://cran.r-project.org/package=XRPython,https://github.com/Tanganelli/CoAPthon3,https://cran.r-project.org/package=Arothron,https://cran.r-project.org/package=thorn,https://github.com/thscowns/coapthon_rasec,https://github.com/goslim56/CoAPthon</t>
+          <t>https://github.com/goslim56/CoAPthon,https://github.com/ECOAP/module_coapthon,https://pypi.org/project/CoAPthon/,https://github.com/Tanganelli/CoAPthon,https://cran.r-project.org/package=thorn,https://github.com/thscowns/coapthon_rasec,https://cran.r-project.org/package=XRPython,https://cran.r-project.org/package=Arothron,https://github.com/Tanganelli/CoAPthon3</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=DiagrammeR,https://cran.r-project.org/package=DiagrammeRsvg,https://github.com/cran/DiagrammeRsvg,https://cran.r-project.org/package=diagram,https://github.com/rich-iannone/DiagrammeRsvg,https://github.com/conda-forge/r-diagrammersvg-feedstock</t>
+          <t>https://github.com/cran/DiagrammeRsvg,https://cran.r-project.org/package=DiagrammeR,https://cran.r-project.org/package=diagram,https://github.com/rich-iannone/DiagrammeRsvg,https://github.com/conda-forge/r-diagrammersvg-feedstock,https://cran.r-project.org/package=DiagrammeRsvg</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1657,7 +1657,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://github.com/wsvincent/awesome-django,https://cran.r-project.org/package=vangogh,https://cran.r-project.org/package=randgeo,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://github.com/encode/django-rest-framework,https://github.com/cookiecutter/cookiecutter-django,https://cran.r-project.org/package=rang,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://cran.r-project.org/package=jage</t>
+          <t>https://github.com/cookiecutter/cookiecutter-django,https://github.com/encode/django-rest-framework,https://cran.r-project.org/package=rang,https://cran.r-project.org/package=jage,https://cran.r-project.org/package=randgeo,https://github.com/wsvincent/awesome-django,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://cran.r-project.org/package=vangogh</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1713,7 +1713,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://github.com/wsvincent/awesome-django,https://cran.r-project.org/package=vangogh,https://cran.r-project.org/package=randgeo,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://github.com/encode/django-rest-framework,https://github.com/cookiecutter/cookiecutter-django,https://cran.r-project.org/package=rang,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://cran.r-project.org/package=jage</t>
+          <t>https://github.com/cookiecutter/cookiecutter-django,https://github.com/encode/django-rest-framework,https://cran.r-project.org/package=rang,https://cran.r-project.org/package=jage,https://cran.r-project.org/package=randgeo,https://github.com/wsvincent/awesome-django,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://cran.r-project.org/package=vangogh</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1769,7 +1769,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://github.com/wsvincent/awesome-django,https://cran.r-project.org/package=vangogh,https://cran.r-project.org/package=randgeo,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://github.com/encode/django-rest-framework,https://github.com/cookiecutter/cookiecutter-django,https://cran.r-project.org/package=rang,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://cran.r-project.org/package=jage</t>
+          <t>https://github.com/cookiecutter/cookiecutter-django,https://github.com/encode/django-rest-framework,https://cran.r-project.org/package=rang,https://cran.r-project.org/package=jage,https://cran.r-project.org/package=randgeo,https://github.com/wsvincent/awesome-django,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://cran.r-project.org/package=vangogh</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1825,7 +1825,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://github.com/wsvincent/awesome-django,https://cran.r-project.org/package=vangogh,https://cran.r-project.org/package=randgeo,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://github.com/encode/django-rest-framework,https://github.com/cookiecutter/cookiecutter-django,https://cran.r-project.org/package=rang,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://cran.r-project.org/package=jage</t>
+          <t>https://github.com/cookiecutter/cookiecutter-django,https://github.com/encode/django-rest-framework,https://cran.r-project.org/package=rang,https://cran.r-project.org/package=jage,https://cran.r-project.org/package=randgeo,https://github.com/wsvincent/awesome-django,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://cran.r-project.org/package=vangogh</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1881,7 +1881,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://github.com/wsvincent/awesome-django,https://cran.r-project.org/package=vangogh,https://cran.r-project.org/package=randgeo,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://github.com/encode/django-rest-framework,https://github.com/cookiecutter/cookiecutter-django,https://cran.r-project.org/package=rang,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://cran.r-project.org/package=jage</t>
+          <t>https://github.com/cookiecutter/cookiecutter-django,https://github.com/encode/django-rest-framework,https://cran.r-project.org/package=rang,https://cran.r-project.org/package=jage,https://cran.r-project.org/package=randgeo,https://github.com/wsvincent/awesome-django,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://cran.r-project.org/package=vangogh</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1937,7 +1937,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://github.com/wsvincent/awesome-django,https://cran.r-project.org/package=vangogh,https://cran.r-project.org/package=randgeo,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://github.com/encode/django-rest-framework,https://github.com/cookiecutter/cookiecutter-django,https://cran.r-project.org/package=rang,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://cran.r-project.org/package=jage</t>
+          <t>https://github.com/cookiecutter/cookiecutter-django,https://github.com/encode/django-rest-framework,https://cran.r-project.org/package=rang,https://cran.r-project.org/package=jage,https://cran.r-project.org/package=randgeo,https://github.com/wsvincent/awesome-django,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://cran.r-project.org/package=vangogh</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1993,7 +1993,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://github.com/wsvincent/awesome-django,https://cran.r-project.org/package=vangogh,https://cran.r-project.org/package=randgeo,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://github.com/encode/django-rest-framework,https://github.com/cookiecutter/cookiecutter-django,https://cran.r-project.org/package=rang,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://cran.r-project.org/package=jage</t>
+          <t>https://github.com/cookiecutter/cookiecutter-django,https://github.com/encode/django-rest-framework,https://cran.r-project.org/package=rang,https://cran.r-project.org/package=jage,https://cran.r-project.org/package=randgeo,https://github.com/wsvincent/awesome-django,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://cran.r-project.org/package=vangogh</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2049,7 +2049,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://github.com/wsvincent/awesome-django,https://cran.r-project.org/package=vangogh,https://cran.r-project.org/package=randgeo,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://github.com/encode/django-rest-framework,https://github.com/cookiecutter/cookiecutter-django,https://cran.r-project.org/package=rang,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://cran.r-project.org/package=jage</t>
+          <t>https://github.com/cookiecutter/cookiecutter-django,https://github.com/encode/django-rest-framework,https://cran.r-project.org/package=rang,https://cran.r-project.org/package=jage,https://cran.r-project.org/package=randgeo,https://github.com/wsvincent/awesome-django,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://cran.r-project.org/package=vangogh</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://github.com/wsvincent/awesome-django,https://cran.r-project.org/package=vangogh,https://cran.r-project.org/package=randgeo,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://github.com/encode/django-rest-framework,https://github.com/cookiecutter/cookiecutter-django,https://cran.r-project.org/package=rang,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://cran.r-project.org/package=jage</t>
+          <t>https://github.com/cookiecutter/cookiecutter-django,https://github.com/encode/django-rest-framework,https://cran.r-project.org/package=rang,https://cran.r-project.org/package=jage,https://cran.r-project.org/package=randgeo,https://github.com/wsvincent/awesome-django,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://cran.r-project.org/package=vangogh</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2157,7 +2157,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://github.com/wsvincent/awesome-django,https://cran.r-project.org/package=vangogh,https://cran.r-project.org/package=randgeo,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://github.com/encode/django-rest-framework,https://github.com/cookiecutter/cookiecutter-django,https://cran.r-project.org/package=rang,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://cran.r-project.org/package=jage</t>
+          <t>https://github.com/cookiecutter/cookiecutter-django,https://github.com/encode/django-rest-framework,https://cran.r-project.org/package=rang,https://cran.r-project.org/package=jage,https://cran.r-project.org/package=randgeo,https://github.com/wsvincent/awesome-django,https://github.com/django/django,https://cran.r-project.org/package=janitor,https://github.com/django-cms/django-cms,https://pypi.org/project/Django/,https://cran.r-project.org/package=vangogh</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2213,7 +2213,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=IntCal,https://github.com/felixfan/FinCal,https://github.com/zgsrc/fincal,https://github.com/pensierinmusica/fincalc,https://github.com/cran/FinCal,https://cran.r-project.org/package=signal,https://github.com/mratsim/ReactFincal,https://cran.r-project.org/package=FinCal,https://github.com/bsonnino/FinCalc,https://cran.r-project.org/package=LinCal</t>
+          <t>https://cran.r-project.org/package=FinCal,https://github.com/zgsrc/fincal,https://github.com/bsonnino/FinCalc,https://github.com/mratsim/ReactFincal,https://cran.r-project.org/package=IntCal,https://github.com/cran/FinCal,https://github.com/felixfan/FinCal,https://github.com/pensierinmusica/fincalc,https://cran.r-project.org/package=signal,https://cran.r-project.org/package=LinCal</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2265,7 +2265,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rlas,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://github.com/pallets/flask,https://github.com/pallets-eco/flask-admin,https://github.com/flask-restful/flask-restful,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://pypi.org/project/Flask/,https://cran.r-project.org/package=ltsk,https://github.com/humiaozuzu/awesome-flask</t>
+          <t>https://cran.r-project.org/package=ltsk,https://pypi.org/project/Flask/,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://github.com/flask-restful/flask-restful,https://github.com/pallets-eco/flask-admin,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://cran.r-project.org/package=rlas,https://github.com/humiaozuzu/awesome-flask,https://github.com/pallets/flask</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2321,7 +2321,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rlas,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://github.com/pallets/flask,https://github.com/pallets-eco/flask-admin,https://github.com/flask-restful/flask-restful,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://pypi.org/project/Flask/,https://cran.r-project.org/package=ltsk,https://github.com/humiaozuzu/awesome-flask</t>
+          <t>https://cran.r-project.org/package=ltsk,https://pypi.org/project/Flask/,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://github.com/flask-restful/flask-restful,https://github.com/pallets-eco/flask-admin,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://cran.r-project.org/package=rlas,https://github.com/humiaozuzu/awesome-flask,https://github.com/pallets/flask</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2377,7 +2377,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rlas,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://github.com/pallets/flask,https://github.com/pallets-eco/flask-admin,https://github.com/flask-restful/flask-restful,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://pypi.org/project/Flask/,https://cran.r-project.org/package=ltsk,https://github.com/humiaozuzu/awesome-flask</t>
+          <t>https://cran.r-project.org/package=ltsk,https://pypi.org/project/Flask/,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://github.com/flask-restful/flask-restful,https://github.com/pallets-eco/flask-admin,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://cran.r-project.org/package=rlas,https://github.com/humiaozuzu/awesome-flask,https://github.com/pallets/flask</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2433,7 +2433,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rlas,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://github.com/pallets/flask,https://github.com/pallets-eco/flask-admin,https://github.com/flask-restful/flask-restful,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://pypi.org/project/Flask/,https://cran.r-project.org/package=ltsk,https://github.com/humiaozuzu/awesome-flask</t>
+          <t>https://cran.r-project.org/package=ltsk,https://pypi.org/project/Flask/,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://github.com/flask-restful/flask-restful,https://github.com/pallets-eco/flask-admin,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://cran.r-project.org/package=rlas,https://github.com/humiaozuzu/awesome-flask,https://github.com/pallets/flask</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2489,7 +2489,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rlas,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://github.com/pallets/flask,https://github.com/pallets-eco/flask-admin,https://github.com/flask-restful/flask-restful,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://pypi.org/project/Flask/,https://cran.r-project.org/package=ltsk,https://github.com/humiaozuzu/awesome-flask</t>
+          <t>https://cran.r-project.org/package=ltsk,https://pypi.org/project/Flask/,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://github.com/flask-restful/flask-restful,https://github.com/pallets-eco/flask-admin,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://cran.r-project.org/package=rlas,https://github.com/humiaozuzu/awesome-flask,https://github.com/pallets/flask</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2545,7 +2545,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rlas,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://github.com/pallets/flask,https://github.com/pallets-eco/flask-admin,https://github.com/flask-restful/flask-restful,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://pypi.org/project/Flask/,https://cran.r-project.org/package=ltsk,https://github.com/humiaozuzu/awesome-flask</t>
+          <t>https://cran.r-project.org/package=ltsk,https://pypi.org/project/Flask/,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://github.com/flask-restful/flask-restful,https://github.com/pallets-eco/flask-admin,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://cran.r-project.org/package=rlas,https://github.com/humiaozuzu/awesome-flask,https://github.com/pallets/flask</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2597,7 +2597,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rlas,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://github.com/pallets/flask,https://github.com/pallets-eco/flask-admin,https://github.com/flask-restful/flask-restful,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://pypi.org/project/Flask/,https://cran.r-project.org/package=ltsk,https://github.com/humiaozuzu/awesome-flask</t>
+          <t>https://cran.r-project.org/package=ltsk,https://pypi.org/project/Flask/,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://github.com/flask-restful/flask-restful,https://github.com/pallets-eco/flask-admin,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://cran.r-project.org/package=rlas,https://github.com/humiaozuzu/awesome-flask,https://github.com/pallets/flask</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2653,7 +2653,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rlas,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://github.com/pallets/flask,https://github.com/pallets-eco/flask-admin,https://github.com/flask-restful/flask-restful,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://pypi.org/project/Flask/,https://cran.r-project.org/package=ltsk,https://github.com/humiaozuzu/awesome-flask</t>
+          <t>https://cran.r-project.org/package=ltsk,https://pypi.org/project/Flask/,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://github.com/flask-restful/flask-restful,https://github.com/pallets-eco/flask-admin,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://cran.r-project.org/package=rlas,https://github.com/humiaozuzu/awesome-flask,https://github.com/pallets/flask</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2709,7 +2709,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rlas,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://github.com/pallets/flask,https://github.com/pallets-eco/flask-admin,https://github.com/flask-restful/flask-restful,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://pypi.org/project/Flask/,https://cran.r-project.org/package=ltsk,https://github.com/humiaozuzu/awesome-flask</t>
+          <t>https://cran.r-project.org/package=ltsk,https://pypi.org/project/Flask/,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://github.com/flask-restful/flask-restful,https://github.com/pallets-eco/flask-admin,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://cran.r-project.org/package=rlas,https://github.com/humiaozuzu/awesome-flask,https://github.com/pallets/flask</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rlas,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://github.com/pallets/flask,https://github.com/pallets-eco/flask-admin,https://github.com/flask-restful/flask-restful,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://pypi.org/project/Flask/,https://cran.r-project.org/package=ltsk,https://github.com/humiaozuzu/awesome-flask</t>
+          <t>https://cran.r-project.org/package=ltsk,https://pypi.org/project/Flask/,https://github.com/miguelgrinberg/flasky,https://cran.r-project.org/package=Familias,https://github.com/flask-restful/flask-restful,https://github.com/pallets-eco/flask-admin,https://cran.r-project.org/package=DIFlasso,https://cran.r-project.org/package=lars,https://github.com/pallets/flask/,https://cran.r-project.org/package=rlas,https://github.com/humiaozuzu/awesome-flask,https://github.com/pallets/flask</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2813,7 +2813,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://github.com/cran/GillespieSSA,https://github.com/himanshugangal/GillespieSSA,https://cran.r-project.org/package=GillespieSSA,https://github.com/rcannood/GillespieSSA,https://github.com/rcannood/GillespieSSA2,https://cran.r-project.org/package=GillespieSSA2,https://cran.r-project.org/package=Allspice,https://github.com/mouridoullah/GillespieSSA</t>
+          <t>https://github.com/rcannood/GillespieSSA2,https://cran.r-project.org/package=Allspice,https://github.com/mouridoullah/GillespieSSA,https://github.com/cran/GillespieSSA,https://github.com/himanshugangal/GillespieSSA,https://cran.r-project.org/package=GillespieSSA,https://github.com/rcannood/GillespieSSA,https://cran.r-project.org/package=GillespieSSA2</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2869,7 +2869,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://github.com/cran/GillespieSSA,https://github.com/himanshugangal/GillespieSSA,https://cran.r-project.org/package=GillespieSSA,https://github.com/rcannood/GillespieSSA,https://github.com/rcannood/GillespieSSA2,https://cran.r-project.org/package=GillespieSSA2,https://cran.r-project.org/package=Allspice,https://github.com/mouridoullah/GillespieSSA</t>
+          <t>https://github.com/rcannood/GillespieSSA2,https://cran.r-project.org/package=Allspice,https://github.com/mouridoullah/GillespieSSA,https://github.com/cran/GillespieSSA,https://github.com/himanshugangal/GillespieSSA,https://cran.r-project.org/package=GillespieSSA,https://github.com/rcannood/GillespieSSA,https://cran.r-project.org/package=GillespieSSA2</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2925,7 +2925,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://github.com/cran/GillespieSSA,https://github.com/himanshugangal/GillespieSSA,https://cran.r-project.org/package=GillespieSSA,https://github.com/rcannood/GillespieSSA,https://github.com/rcannood/GillespieSSA2,https://cran.r-project.org/package=GillespieSSA2,https://cran.r-project.org/package=Allspice,https://github.com/mouridoullah/GillespieSSA</t>
+          <t>https://github.com/rcannood/GillespieSSA2,https://cran.r-project.org/package=Allspice,https://github.com/mouridoullah/GillespieSSA,https://github.com/cran/GillespieSSA,https://github.com/himanshugangal/GillespieSSA,https://cran.r-project.org/package=GillespieSSA,https://github.com/rcannood/GillespieSSA,https://cran.r-project.org/package=GillespieSSA2</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2981,7 +2981,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://github.com/cran/GillespieSSA,https://github.com/himanshugangal/GillespieSSA,https://cran.r-project.org/package=GillespieSSA,https://github.com/rcannood/GillespieSSA,https://github.com/rcannood/GillespieSSA2,https://cran.r-project.org/package=GillespieSSA2,https://cran.r-project.org/package=Allspice,https://github.com/mouridoullah/GillespieSSA</t>
+          <t>https://github.com/rcannood/GillespieSSA2,https://cran.r-project.org/package=Allspice,https://github.com/mouridoullah/GillespieSSA,https://github.com/cran/GillespieSSA,https://github.com/himanshugangal/GillespieSSA,https://cran.r-project.org/package=GillespieSSA,https://github.com/rcannood/GillespieSSA,https://cran.r-project.org/package=GillespieSSA2</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3033,7 +3033,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://github.com/cran/GillespieSSA,https://github.com/himanshugangal/GillespieSSA,https://cran.r-project.org/package=GillespieSSA,https://github.com/rcannood/GillespieSSA,https://github.com/rcannood/GillespieSSA2,https://cran.r-project.org/package=GillespieSSA2,https://cran.r-project.org/package=Allspice,https://github.com/mouridoullah/GillespieSSA</t>
+          <t>https://github.com/rcannood/GillespieSSA2,https://cran.r-project.org/package=Allspice,https://github.com/mouridoullah/GillespieSSA,https://github.com/cran/GillespieSSA,https://github.com/himanshugangal/GillespieSSA,https://cran.r-project.org/package=GillespieSSA,https://github.com/rcannood/GillespieSSA,https://cran.r-project.org/package=GillespieSSA2</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3089,7 +3089,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/web/packages/HIV.LifeTables/index.html,https://cran.r-project.org/package=LifeTables,https://cran.r-project.org/package=DiffXTables,https://github.com/PPgp/HIV.LifeTables,https://github.com/cran/HIV.LifeTables,https://cran.r-project.org/package=TideTables,https://cran.r-project.org/package=Lifertable</t>
+          <t>https://github.com/PPgp/HIV.LifeTables,https://cran.r-project.org/package=LifeTables,https://cran.r-project.org/package=DiffXTables,https://cran.r-project.org/package=TideTables,https://cran.r-project.org/web/packages/HIV.LifeTables/index.html,https://github.com/cran/HIV.LifeTables,https://cran.r-project.org/package=Lifertable</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3141,7 +3141,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://github.com/cran/HydeNet,https://cran.r-project.org/package=debest,https://github.com/carda749/hydenetcms,https://github.com/nutterb/HydeNet,https://cran.r-project.org/web/packages/HydeNet/index.html</t>
+          <t>https://github.com/cran/HydeNet,https://cran.r-project.org/web/packages/HydeNet/index.html,https://github.com/carda749/hydenetcms,https://cran.r-project.org/package=debest,https://github.com/nutterb/HydeNet</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3193,7 +3193,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://github.com/MG-RAST/MG-RAST,https://github.com/MG-RAST/MG-RAST-Tools,https://cran.r-project.org/package=MiRKAT,https://cran.r-project.org/package=RAT,https://github.com/MG-RAST/Shock,https://cran.r-project.org/package=MAT,https://cran.r-project.org/package=GAS,https://github.com/MG-RAST/AWE,https://github.com/MG-RAST/matR,https://cran.r-project.org/package=MST</t>
+          <t>https://github.com/MG-RAST/matR,https://cran.r-project.org/package=MST,https://github.com/MG-RAST/Shock,https://cran.r-project.org/package=MAT,https://cran.r-project.org/package=RAT,https://cran.r-project.org/package=GAS,https://cran.r-project.org/package=MiRKAT,https://github.com/MG-RAST/AWE,https://github.com/MG-RAST/MG-RAST,https://github.com/MG-RAST/MG-RAST-Tools</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3245,7 +3245,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://github.com/MG-RAST/MG-RAST,https://github.com/MG-RAST/MG-RAST-Tools,https://cran.r-project.org/package=MiRKAT,https://cran.r-project.org/package=RAT,https://github.com/MG-RAST/Shock,https://cran.r-project.org/package=MAT,https://cran.r-project.org/package=GAS,https://github.com/MG-RAST/AWE,https://github.com/MG-RAST/matR,https://cran.r-project.org/package=MST</t>
+          <t>https://github.com/MG-RAST/matR,https://cran.r-project.org/package=MST,https://github.com/MG-RAST/Shock,https://cran.r-project.org/package=MAT,https://cran.r-project.org/package=RAT,https://cran.r-project.org/package=GAS,https://cran.r-project.org/package=MiRKAT,https://github.com/MG-RAST/AWE,https://github.com/MG-RAST/MG-RAST,https://github.com/MG-RAST/MG-RAST-Tools</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3297,7 +3297,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://github.com/MG-RAST/MG-RAST,https://github.com/MG-RAST/MG-RAST-Tools,https://cran.r-project.org/package=MiRKAT,https://cran.r-project.org/package=RAT,https://github.com/MG-RAST/Shock,https://cran.r-project.org/package=MAT,https://cran.r-project.org/package=GAS,https://github.com/MG-RAST/AWE,https://github.com/MG-RAST/matR,https://cran.r-project.org/package=MST</t>
+          <t>https://github.com/MG-RAST/matR,https://cran.r-project.org/package=MST,https://github.com/MG-RAST/Shock,https://cran.r-project.org/package=MAT,https://cran.r-project.org/package=RAT,https://cran.r-project.org/package=GAS,https://cran.r-project.org/package=MiRKAT,https://github.com/MG-RAST/AWE,https://github.com/MG-RAST/MG-RAST,https://github.com/MG-RAST/MG-RAST-Tools</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3349,7 +3349,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://github.com/MG-RAST/MG-RAST,https://github.com/MG-RAST/MG-RAST-Tools,https://cran.r-project.org/package=MiRKAT,https://cran.r-project.org/package=RAT,https://github.com/MG-RAST/Shock,https://cran.r-project.org/package=MAT,https://cran.r-project.org/package=GAS,https://github.com/MG-RAST/AWE,https://github.com/MG-RAST/matR,https://cran.r-project.org/package=MST</t>
+          <t>https://github.com/MG-RAST/matR,https://cran.r-project.org/package=MST,https://github.com/MG-RAST/Shock,https://cran.r-project.org/package=MAT,https://cran.r-project.org/package=RAT,https://cran.r-project.org/package=GAS,https://cran.r-project.org/package=MiRKAT,https://github.com/MG-RAST/AWE,https://github.com/MG-RAST/MG-RAST,https://github.com/MG-RAST/MG-RAST-Tools</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3401,7 +3401,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://github.com/MG-RAST/MG-RAST,https://github.com/MG-RAST/MG-RAST-Tools,https://cran.r-project.org/package=MiRKAT,https://cran.r-project.org/package=RAT,https://github.com/MG-RAST/Shock,https://cran.r-project.org/package=MAT,https://cran.r-project.org/package=GAS,https://github.com/MG-RAST/AWE,https://github.com/MG-RAST/matR,https://cran.r-project.org/package=MST</t>
+          <t>https://github.com/MG-RAST/matR,https://cran.r-project.org/package=MST,https://github.com/MG-RAST/Shock,https://cran.r-project.org/package=MAT,https://cran.r-project.org/package=RAT,https://cran.r-project.org/package=GAS,https://cran.r-project.org/package=MiRKAT,https://github.com/MG-RAST/AWE,https://github.com/MG-RAST/MG-RAST,https://github.com/MG-RAST/MG-RAST-Tools</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3453,7 +3453,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=MGDrivE,https://github.com/cran/MGDrivE,https://github.com/Salomon21/MGDrivE_Graph_Tool,https://cran.r-project.org/package=MGDrivE2,https://github.com/Moviesgalaxy7/mgdrive,https://cran.r-project.org/package=DivE,https://github.com/MarshallLab/MGDrivE,https://github.com/mln27/MGDrivE_Disease-Induced-Mortality,https://github.com/conducive333/mgdrive-fdml-app</t>
+          <t>https://cran.r-project.org/package=MGDrivE,https://github.com/conducive333/mgdrive-fdml-app,https://github.com/Moviesgalaxy7/mgdrive,https://cran.r-project.org/package=MGDrivE2,https://github.com/Salomon21/MGDrivE_Graph_Tool,https://github.com/mln27/MGDrivE_Disease-Induced-Mortality,https://github.com/cran/MGDrivE,https://github.com/MarshallLab/MGDrivE,https://cran.r-project.org/package=DivE</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3505,7 +3505,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=MGDrivE,https://github.com/cran/MGDrivE,https://github.com/Salomon21/MGDrivE_Graph_Tool,https://cran.r-project.org/package=MGDrivE2,https://github.com/Moviesgalaxy7/mgdrive,https://cran.r-project.org/package=DivE,https://github.com/MarshallLab/MGDrivE,https://github.com/mln27/MGDrivE_Disease-Induced-Mortality,https://github.com/conducive333/mgdrive-fdml-app</t>
+          <t>https://cran.r-project.org/package=MGDrivE,https://github.com/conducive333/mgdrive-fdml-app,https://github.com/Moviesgalaxy7/mgdrive,https://cran.r-project.org/package=MGDrivE2,https://github.com/Salomon21/MGDrivE_Graph_Tool,https://github.com/mln27/MGDrivE_Disease-Induced-Mortality,https://github.com/cran/MGDrivE,https://github.com/MarshallLab/MGDrivE,https://cran.r-project.org/package=DivE</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3557,7 +3557,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=MGDrivE,https://github.com/cran/MGDrivE,https://github.com/Salomon21/MGDrivE_Graph_Tool,https://cran.r-project.org/package=MGDrivE2,https://github.com/Moviesgalaxy7/mgdrive,https://cran.r-project.org/package=DivE,https://github.com/MarshallLab/MGDrivE,https://github.com/mln27/MGDrivE_Disease-Induced-Mortality,https://github.com/conducive333/mgdrive-fdml-app</t>
+          <t>https://cran.r-project.org/package=MGDrivE,https://github.com/conducive333/mgdrive-fdml-app,https://github.com/Moviesgalaxy7/mgdrive,https://cran.r-project.org/package=MGDrivE2,https://github.com/Salomon21/MGDrivE_Graph_Tool,https://github.com/mln27/MGDrivE_Disease-Induced-Mortality,https://github.com/cran/MGDrivE,https://github.com/MarshallLab/MGDrivE,https://cran.r-project.org/package=DivE</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3609,7 +3609,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=MGDrivE,https://github.com/cran/MGDrivE,https://github.com/Salomon21/MGDrivE_Graph_Tool,https://cran.r-project.org/package=MGDrivE2,https://github.com/Moviesgalaxy7/mgdrive,https://cran.r-project.org/package=DivE,https://github.com/MarshallLab/MGDrivE,https://github.com/mln27/MGDrivE_Disease-Induced-Mortality,https://github.com/conducive333/mgdrive-fdml-app</t>
+          <t>https://cran.r-project.org/package=MGDrivE,https://github.com/conducive333/mgdrive-fdml-app,https://github.com/Moviesgalaxy7/mgdrive,https://cran.r-project.org/package=MGDrivE2,https://github.com/Salomon21/MGDrivE_Graph_Tool,https://github.com/mln27/MGDrivE_Disease-Induced-Mortality,https://github.com/cran/MGDrivE,https://github.com/MarshallLab/MGDrivE,https://cran.r-project.org/package=DivE</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3661,7 +3661,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=MGDrivE,https://github.com/cran/MGDrivE,https://github.com/Salomon21/MGDrivE_Graph_Tool,https://cran.r-project.org/package=MGDrivE2,https://github.com/Moviesgalaxy7/mgdrive,https://cran.r-project.org/package=DivE,https://github.com/MarshallLab/MGDrivE,https://github.com/mln27/MGDrivE_Disease-Induced-Mortality,https://github.com/conducive333/mgdrive-fdml-app</t>
+          <t>https://cran.r-project.org/package=MGDrivE,https://github.com/conducive333/mgdrive-fdml-app,https://github.com/Moviesgalaxy7/mgdrive,https://cran.r-project.org/package=MGDrivE2,https://github.com/Salomon21/MGDrivE_Graph_Tool,https://github.com/mln27/MGDrivE_Disease-Induced-Mortality,https://github.com/cran/MGDrivE,https://github.com/MarshallLab/MGDrivE,https://cran.r-project.org/package=DivE</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3713,7 +3713,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=MultiSkew,https://github.com/epierson9/multiphenotype_methods,https://github.com/multiphenics/multiphenicsx,https://cran.r-project.org/package=MultiKink,https://github.com/Dario-Galanti/multipheno_GWAS,https://cran.r-project.org/package=rMultiNet,https://github.com/PhiFEM/publication_Poisson-Mixed-Boundary-Fracture-Interface_multiphenics,https://github.com/cran/MultiPhen,https://github.com/multiphenics/multiphenics,https://cran.r-project.org/package=MultiPhen</t>
+          <t>https://github.com/multiphenics/multiphenics,https://cran.r-project.org/package=MultiPhen,https://github.com/Dario-Galanti/multipheno_GWAS,https://github.com/PhiFEM/publication_Poisson-Mixed-Boundary-Fracture-Interface_multiphenics,https://github.com/cran/MultiPhen,https://github.com/multiphenics/multiphenicsx,https://cran.r-project.org/package=MultiKink,https://cran.r-project.org/package=rMultiNet,https://cran.r-project.org/package=MultiSkew,https://github.com/epierson9/multiphenotype_methods</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3765,7 +3765,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=MultiSkew,https://github.com/epierson9/multiphenotype_methods,https://github.com/multiphenics/multiphenicsx,https://cran.r-project.org/package=MultiKink,https://github.com/Dario-Galanti/multipheno_GWAS,https://cran.r-project.org/package=rMultiNet,https://github.com/PhiFEM/publication_Poisson-Mixed-Boundary-Fracture-Interface_multiphenics,https://github.com/cran/MultiPhen,https://github.com/multiphenics/multiphenics,https://cran.r-project.org/package=MultiPhen</t>
+          <t>https://github.com/multiphenics/multiphenics,https://cran.r-project.org/package=MultiPhen,https://github.com/Dario-Galanti/multipheno_GWAS,https://github.com/PhiFEM/publication_Poisson-Mixed-Boundary-Fracture-Interface_multiphenics,https://github.com/cran/MultiPhen,https://github.com/multiphenics/multiphenicsx,https://cran.r-project.org/package=MultiKink,https://cran.r-project.org/package=rMultiNet,https://cran.r-project.org/package=MultiSkew,https://github.com/epierson9/multiphenotype_methods</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=MultiSkew,https://github.com/epierson9/multiphenotype_methods,https://github.com/multiphenics/multiphenicsx,https://cran.r-project.org/package=MultiKink,https://github.com/Dario-Galanti/multipheno_GWAS,https://cran.r-project.org/package=rMultiNet,https://github.com/PhiFEM/publication_Poisson-Mixed-Boundary-Fracture-Interface_multiphenics,https://github.com/cran/MultiPhen,https://github.com/multiphenics/multiphenics,https://cran.r-project.org/package=MultiPhen</t>
+          <t>https://github.com/multiphenics/multiphenics,https://cran.r-project.org/package=MultiPhen,https://github.com/Dario-Galanti/multipheno_GWAS,https://github.com/PhiFEM/publication_Poisson-Mixed-Boundary-Fracture-Interface_multiphenics,https://github.com/cran/MultiPhen,https://github.com/multiphenics/multiphenicsx,https://cran.r-project.org/package=MultiKink,https://cran.r-project.org/package=rMultiNet,https://cran.r-project.org/package=MultiSkew,https://github.com/epierson9/multiphenotype_methods</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3869,7 +3869,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=MultiSkew,https://github.com/epierson9/multiphenotype_methods,https://github.com/multiphenics/multiphenicsx,https://cran.r-project.org/package=MultiKink,https://github.com/Dario-Galanti/multipheno_GWAS,https://cran.r-project.org/package=rMultiNet,https://github.com/PhiFEM/publication_Poisson-Mixed-Boundary-Fracture-Interface_multiphenics,https://github.com/cran/MultiPhen,https://github.com/multiphenics/multiphenics,https://cran.r-project.org/package=MultiPhen</t>
+          <t>https://github.com/multiphenics/multiphenics,https://cran.r-project.org/package=MultiPhen,https://github.com/Dario-Galanti/multipheno_GWAS,https://github.com/PhiFEM/publication_Poisson-Mixed-Boundary-Fracture-Interface_multiphenics,https://github.com/cran/MultiPhen,https://github.com/multiphenics/multiphenicsx,https://cran.r-project.org/package=MultiKink,https://cran.r-project.org/package=rMultiNet,https://cran.r-project.org/package=MultiSkew,https://github.com/epierson9/multiphenotype_methods</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=MultiSkew,https://github.com/epierson9/multiphenotype_methods,https://github.com/multiphenics/multiphenicsx,https://cran.r-project.org/package=MultiKink,https://github.com/Dario-Galanti/multipheno_GWAS,https://cran.r-project.org/package=rMultiNet,https://github.com/PhiFEM/publication_Poisson-Mixed-Boundary-Fracture-Interface_multiphenics,https://github.com/cran/MultiPhen,https://github.com/multiphenics/multiphenics,https://cran.r-project.org/package=MultiPhen</t>
+          <t>https://github.com/multiphenics/multiphenics,https://cran.r-project.org/package=MultiPhen,https://github.com/Dario-Galanti/multipheno_GWAS,https://github.com/PhiFEM/publication_Poisson-Mixed-Boundary-Fracture-Interface_multiphenics,https://github.com/cran/MultiPhen,https://github.com/multiphenics/multiphenicsx,https://cran.r-project.org/package=MultiKink,https://cran.r-project.org/package=rMultiNet,https://cran.r-project.org/package=MultiSkew,https://github.com/epierson9/multiphenotype_methods</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3973,7 +3973,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://github.com/s-k/nlmeans,https://cran.r-project.org/package=Certara.RsNLME.ModelExecutor,https://cran.r-project.org/package=Certara.RsNLME.ModelBuilder,https://cran.r-project.org/package=Certara.Xpose.NLME,https://github.com/nonlocalmodels/NLMech,https://cran.r-project.org/package=Certara.RsNLME,https://github.com/cran/nlme,https://cran.r-project.org/package=nlme,https://github.com/npd/nlmeans,https://github.com/pvskand/NLMeansSpeckleFilter,https://github.com/LifangzhouSia/Colored-NLmeans-for-Infrared-Mixed-Noise-Removal,https://cran.r-project.org/package=Certara.NLME8</t>
+          <t>https://cran.r-project.org/package=Certara.RsNLME.ModelExecutor,https://cran.r-project.org/package=nlme,https://github.com/npd/nlmeans,https://cran.r-project.org/package=Certara.RsNLME.ModelBuilder,https://cran.r-project.org/package=Certara.RsNLME,https://cran.r-project.org/package=Certara.Xpose.NLME,https://cran.r-project.org/package=Certara.NLME8,https://github.com/pvskand/NLMeansSpeckleFilter,https://github.com/LifangzhouSia/Colored-NLmeans-for-Infrared-Mixed-Noise-Removal,https://github.com/cran/nlme,https://github.com/nonlocalmodels/NLMech,https://github.com/s-k/nlmeans</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -4025,7 +4025,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://github.com/s-k/nlmeans,https://cran.r-project.org/package=Certara.RsNLME.ModelExecutor,https://cran.r-project.org/package=Certara.RsNLME.ModelBuilder,https://cran.r-project.org/package=Certara.Xpose.NLME,https://github.com/nonlocalmodels/NLMech,https://cran.r-project.org/package=Certara.RsNLME,https://github.com/cran/nlme,https://cran.r-project.org/package=nlme,https://github.com/npd/nlmeans,https://github.com/pvskand/NLMeansSpeckleFilter,https://github.com/LifangzhouSia/Colored-NLmeans-for-Infrared-Mixed-Noise-Removal,https://cran.r-project.org/package=Certara.NLME8</t>
+          <t>https://cran.r-project.org/package=Certara.RsNLME.ModelExecutor,https://cran.r-project.org/package=nlme,https://github.com/npd/nlmeans,https://cran.r-project.org/package=Certara.RsNLME.ModelBuilder,https://cran.r-project.org/package=Certara.RsNLME,https://cran.r-project.org/package=Certara.Xpose.NLME,https://cran.r-project.org/package=Certara.NLME8,https://github.com/pvskand/NLMeansSpeckleFilter,https://github.com/LifangzhouSia/Colored-NLmeans-for-Infrared-Mixed-Noise-Removal,https://github.com/cran/nlme,https://github.com/nonlocalmodels/NLMech,https://github.com/s-k/nlmeans</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4077,7 +4077,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://github.com/s-k/nlmeans,https://cran.r-project.org/package=Certara.RsNLME.ModelExecutor,https://cran.r-project.org/package=Certara.RsNLME.ModelBuilder,https://cran.r-project.org/package=Certara.Xpose.NLME,https://github.com/nonlocalmodels/NLMech,https://cran.r-project.org/package=Certara.RsNLME,https://github.com/cran/nlme,https://cran.r-project.org/package=nlme,https://github.com/npd/nlmeans,https://github.com/pvskand/NLMeansSpeckleFilter,https://github.com/LifangzhouSia/Colored-NLmeans-for-Infrared-Mixed-Noise-Removal,https://cran.r-project.org/package=Certara.NLME8</t>
+          <t>https://cran.r-project.org/package=Certara.RsNLME.ModelExecutor,https://cran.r-project.org/package=nlme,https://github.com/npd/nlmeans,https://cran.r-project.org/package=Certara.RsNLME.ModelBuilder,https://cran.r-project.org/package=Certara.RsNLME,https://cran.r-project.org/package=Certara.Xpose.NLME,https://cran.r-project.org/package=Certara.NLME8,https://github.com/pvskand/NLMeansSpeckleFilter,https://github.com/LifangzhouSia/Colored-NLmeans-for-Infrared-Mixed-Noise-Removal,https://github.com/cran/nlme,https://github.com/nonlocalmodels/NLMech,https://github.com/s-k/nlmeans</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4129,7 +4129,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://github.com/s-k/nlmeans,https://cran.r-project.org/package=Certara.RsNLME.ModelExecutor,https://cran.r-project.org/package=Certara.RsNLME.ModelBuilder,https://cran.r-project.org/package=Certara.Xpose.NLME,https://github.com/nonlocalmodels/NLMech,https://cran.r-project.org/package=Certara.RsNLME,https://github.com/cran/nlme,https://cran.r-project.org/package=nlme,https://github.com/npd/nlmeans,https://github.com/pvskand/NLMeansSpeckleFilter,https://github.com/LifangzhouSia/Colored-NLmeans-for-Infrared-Mixed-Noise-Removal,https://cran.r-project.org/package=Certara.NLME8</t>
+          <t>https://cran.r-project.org/package=Certara.RsNLME.ModelExecutor,https://cran.r-project.org/package=nlme,https://github.com/npd/nlmeans,https://cran.r-project.org/package=Certara.RsNLME.ModelBuilder,https://cran.r-project.org/package=Certara.RsNLME,https://cran.r-project.org/package=Certara.Xpose.NLME,https://cran.r-project.org/package=Certara.NLME8,https://github.com/pvskand/NLMeansSpeckleFilter,https://github.com/LifangzhouSia/Colored-NLmeans-for-Infrared-Mixed-Noise-Removal,https://github.com/cran/nlme,https://github.com/nonlocalmodels/NLMech,https://github.com/s-k/nlmeans</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4181,7 +4181,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://github.com/s-k/nlmeans,https://cran.r-project.org/package=Certara.RsNLME.ModelExecutor,https://cran.r-project.org/package=Certara.RsNLME.ModelBuilder,https://cran.r-project.org/package=Certara.Xpose.NLME,https://github.com/nonlocalmodels/NLMech,https://cran.r-project.org/package=Certara.RsNLME,https://github.com/cran/nlme,https://cran.r-project.org/package=nlme,https://github.com/npd/nlmeans,https://github.com/pvskand/NLMeansSpeckleFilter,https://github.com/LifangzhouSia/Colored-NLmeans-for-Infrared-Mixed-Noise-Removal,https://cran.r-project.org/package=Certara.NLME8</t>
+          <t>https://cran.r-project.org/package=Certara.RsNLME.ModelExecutor,https://cran.r-project.org/package=nlme,https://github.com/npd/nlmeans,https://cran.r-project.org/package=Certara.RsNLME.ModelBuilder,https://cran.r-project.org/package=Certara.RsNLME,https://cran.r-project.org/package=Certara.Xpose.NLME,https://cran.r-project.org/package=Certara.NLME8,https://github.com/pvskand/NLMeansSpeckleFilter,https://github.com/LifangzhouSia/Colored-NLmeans-for-Infrared-Mixed-Noise-Removal,https://github.com/cran/nlme,https://github.com/nonlocalmodels/NLMech,https://github.com/s-k/nlmeans</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4233,7 +4233,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=SPADAR,https://cran.r-project.org/package=ExPanDaR,https://github.com/ZaixuCui/PANDA,https://github.com/sinaptik-ai/pandas-ai,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://cran.r-project.org/package=RPANDA,https://cran.r-project.org/package=PRANA</t>
+          <t>https://github.com/ZaixuCui/PANDA,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=RPANDA,https://cran.r-project.org/package=SPADAR,https://cran.r-project.org/package=ExPanDaR,https://cran.r-project.org/package=PRANA,https://github.com/guipsamora/pandas_exercises,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://github.com/sinaptik-ai/pandas-ai</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4285,7 +4285,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=SPADAR,https://cran.r-project.org/package=ExPanDaR,https://github.com/ZaixuCui/PANDA,https://github.com/sinaptik-ai/pandas-ai,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://cran.r-project.org/package=RPANDA,https://cran.r-project.org/package=PRANA</t>
+          <t>https://github.com/ZaixuCui/PANDA,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=RPANDA,https://cran.r-project.org/package=SPADAR,https://cran.r-project.org/package=ExPanDaR,https://cran.r-project.org/package=PRANA,https://github.com/guipsamora/pandas_exercises,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://github.com/sinaptik-ai/pandas-ai</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4337,7 +4337,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=SPADAR,https://cran.r-project.org/package=ExPanDaR,https://github.com/ZaixuCui/PANDA,https://github.com/sinaptik-ai/pandas-ai,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://cran.r-project.org/package=RPANDA,https://cran.r-project.org/package=PRANA</t>
+          <t>https://github.com/ZaixuCui/PANDA,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=RPANDA,https://cran.r-project.org/package=SPADAR,https://cran.r-project.org/package=ExPanDaR,https://cran.r-project.org/package=PRANA,https://github.com/guipsamora/pandas_exercises,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://github.com/sinaptik-ai/pandas-ai</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4389,7 +4389,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=SPADAR,https://cran.r-project.org/package=ExPanDaR,https://github.com/ZaixuCui/PANDA,https://github.com/sinaptik-ai/pandas-ai,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://cran.r-project.org/package=RPANDA,https://cran.r-project.org/package=PRANA</t>
+          <t>https://github.com/ZaixuCui/PANDA,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=RPANDA,https://cran.r-project.org/package=SPADAR,https://cran.r-project.org/package=ExPanDaR,https://cran.r-project.org/package=PRANA,https://github.com/guipsamora/pandas_exercises,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://github.com/sinaptik-ai/pandas-ai</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4441,7 +4441,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=SPADAR,https://cran.r-project.org/package=ExPanDaR,https://github.com/ZaixuCui/PANDA,https://github.com/sinaptik-ai/pandas-ai,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://cran.r-project.org/package=RPANDA,https://cran.r-project.org/package=PRANA</t>
+          <t>https://github.com/ZaixuCui/PANDA,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=RPANDA,https://cran.r-project.org/package=SPADAR,https://cran.r-project.org/package=ExPanDaR,https://cran.r-project.org/package=PRANA,https://github.com/guipsamora/pandas_exercises,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://github.com/sinaptik-ai/pandas-ai</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4493,7 +4493,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=SPADAR,https://cran.r-project.org/package=ExPanDaR,https://github.com/ZaixuCui/PANDA,https://github.com/sinaptik-ai/pandas-ai,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://cran.r-project.org/package=RPANDA,https://cran.r-project.org/package=PRANA</t>
+          <t>https://github.com/ZaixuCui/PANDA,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=RPANDA,https://cran.r-project.org/package=SPADAR,https://cran.r-project.org/package=ExPanDaR,https://cran.r-project.org/package=PRANA,https://github.com/guipsamora/pandas_exercises,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://github.com/sinaptik-ai/pandas-ai</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4601,7 +4601,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=PheCAP,https://cran.r-project.org/package=POSSA,https://cran.r-project.org/package=PP,https://github.com/inpacdb/POAP,https://github.com/decentraland-scenes/POAP-Booth,https://cran.r-project.org/package=COAP,https://github.com/poap-xyz/poap-bot-v2,https://github.com/ljdursi/poapy,https://github.com/poap-xyz/poap-website,https://cran.r-project.org/package=SpPOP,https://github.com/waxcloud2021/poap</t>
+          <t>https://github.com/poap-xyz/poap-bot-v2,https://pypi.org/project/POAP/,https://github.com/decentraland-scenes/POAP-Booth,https://github.com/waxcloud2021/poap,https://cran.r-project.org/package=COAP,https://cran.r-project.org/package=PheCAP,https://github.com/poap-xyz/poap-website,https://cran.r-project.org/package=PP,https://cran.r-project.org/package=POSSA,https://github.com/inpacdb/POAP,https://github.com/ljdursi/poapy,https://cran.r-project.org/package=SpPOP</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4653,7 +4653,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=PheCAP,https://cran.r-project.org/package=POSSA,https://cran.r-project.org/package=PP,https://github.com/inpacdb/POAP,https://github.com/decentraland-scenes/POAP-Booth,https://cran.r-project.org/package=COAP,https://github.com/poap-xyz/poap-bot-v2,https://github.com/ljdursi/poapy,https://github.com/poap-xyz/poap-website,https://cran.r-project.org/package=SpPOP,https://github.com/waxcloud2021/poap</t>
+          <t>https://github.com/poap-xyz/poap-bot-v2,https://pypi.org/project/POAP/,https://github.com/decentraland-scenes/POAP-Booth,https://github.com/waxcloud2021/poap,https://cran.r-project.org/package=COAP,https://cran.r-project.org/package=PheCAP,https://github.com/poap-xyz/poap-website,https://cran.r-project.org/package=PP,https://cran.r-project.org/package=POSSA,https://github.com/inpacdb/POAP,https://github.com/ljdursi/poapy,https://cran.r-project.org/package=SpPOP</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4705,7 +4705,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=PheCAP,https://cran.r-project.org/package=POSSA,https://cran.r-project.org/package=PP,https://github.com/inpacdb/POAP,https://github.com/decentraland-scenes/POAP-Booth,https://cran.r-project.org/package=COAP,https://github.com/poap-xyz/poap-bot-v2,https://github.com/ljdursi/poapy,https://github.com/poap-xyz/poap-website,https://cran.r-project.org/package=SpPOP,https://github.com/waxcloud2021/poap</t>
+          <t>https://github.com/poap-xyz/poap-bot-v2,https://pypi.org/project/POAP/,https://github.com/decentraland-scenes/POAP-Booth,https://github.com/waxcloud2021/poap,https://cran.r-project.org/package=COAP,https://cran.r-project.org/package=PheCAP,https://github.com/poap-xyz/poap-website,https://cran.r-project.org/package=PP,https://cran.r-project.org/package=POSSA,https://github.com/inpacdb/POAP,https://github.com/ljdursi/poapy,https://cran.r-project.org/package=SpPOP</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=PheCAP,https://cran.r-project.org/package=POSSA,https://cran.r-project.org/package=PP,https://github.com/inpacdb/POAP,https://github.com/decentraland-scenes/POAP-Booth,https://cran.r-project.org/package=COAP,https://github.com/poap-xyz/poap-bot-v2,https://github.com/ljdursi/poapy,https://github.com/poap-xyz/poap-website,https://cran.r-project.org/package=SpPOP,https://github.com/waxcloud2021/poap</t>
+          <t>https://github.com/poap-xyz/poap-bot-v2,https://pypi.org/project/POAP/,https://github.com/decentraland-scenes/POAP-Booth,https://github.com/waxcloud2021/poap,https://cran.r-project.org/package=COAP,https://cran.r-project.org/package=PheCAP,https://github.com/poap-xyz/poap-website,https://cran.r-project.org/package=PP,https://cran.r-project.org/package=POSSA,https://github.com/inpacdb/POAP,https://github.com/ljdursi/poapy,https://cran.r-project.org/package=SpPOP</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4809,7 +4809,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=PheCAP,https://cran.r-project.org/package=POSSA,https://cran.r-project.org/package=PP,https://github.com/inpacdb/POAP,https://github.com/decentraland-scenes/POAP-Booth,https://cran.r-project.org/package=COAP,https://github.com/poap-xyz/poap-bot-v2,https://github.com/ljdursi/poapy,https://github.com/poap-xyz/poap-website,https://cran.r-project.org/package=SpPOP,https://github.com/waxcloud2021/poap</t>
+          <t>https://github.com/poap-xyz/poap-bot-v2,https://pypi.org/project/POAP/,https://github.com/decentraland-scenes/POAP-Booth,https://github.com/waxcloud2021/poap,https://cran.r-project.org/package=COAP,https://cran.r-project.org/package=PheCAP,https://github.com/poap-xyz/poap-website,https://cran.r-project.org/package=PP,https://cran.r-project.org/package=POSSA,https://github.com/inpacdb/POAP,https://github.com/ljdursi/poapy,https://cran.r-project.org/package=SpPOP</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4861,7 +4861,7 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=ads,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=and,https://cran.r-project.org/package=ada,https://pypi.org/project/pandas/,https://cran.r-project.org/package=nda</t>
+          <t>https://cran.r-project.org/package=and,https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://pypi.org/project/pandas/,https://github.com/pandas-dev/pandas,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=ads,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=nda,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=ada</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4917,7 +4917,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=ads,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=and,https://cran.r-project.org/package=ada,https://pypi.org/project/pandas/,https://cran.r-project.org/package=nda</t>
+          <t>https://cran.r-project.org/package=and,https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://pypi.org/project/pandas/,https://github.com/pandas-dev/pandas,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=ads,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=nda,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=ada</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4973,7 +4973,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=ads,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=and,https://cran.r-project.org/package=ada,https://pypi.org/project/pandas/,https://cran.r-project.org/package=nda</t>
+          <t>https://cran.r-project.org/package=and,https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://pypi.org/project/pandas/,https://github.com/pandas-dev/pandas,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=ads,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=nda,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=ada</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5029,7 +5029,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=ads,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=and,https://cran.r-project.org/package=ada,https://pypi.org/project/pandas/,https://cran.r-project.org/package=nda</t>
+          <t>https://cran.r-project.org/package=and,https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://pypi.org/project/pandas/,https://github.com/pandas-dev/pandas,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=ads,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=nda,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=ada</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5085,7 +5085,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=ads,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=and,https://cran.r-project.org/package=ada,https://pypi.org/project/pandas/,https://cran.r-project.org/package=nda</t>
+          <t>https://cran.r-project.org/package=and,https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://pypi.org/project/pandas/,https://github.com/pandas-dev/pandas,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=ads,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=nda,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=ada</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5141,7 +5141,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=ads,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=and,https://cran.r-project.org/package=ada,https://pypi.org/project/pandas/,https://cran.r-project.org/package=nda</t>
+          <t>https://cran.r-project.org/package=and,https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://pypi.org/project/pandas/,https://github.com/pandas-dev/pandas,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=ads,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=nda,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=ada</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5197,7 +5197,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://github.com/bpdurham/Culture_Metabolomics_PresenceAbsence,https://github.com/cran/PresenceAbsence,https://cran.r-project.org/package=PresenceAbsence,https://github.com/ykanno/presenceAbsence,https://github.com/conda-forge/r-presenceabsence-feedstock,https://github.com/elsander/PresenceAbsenceNetworks</t>
+          <t>https://cran.r-project.org/package=PresenceAbsence,https://github.com/elsander/PresenceAbsenceNetworks,https://github.com/bpdurham/Culture_Metabolomics_PresenceAbsence,https://github.com/cran/PresenceAbsence,https://github.com/conda-forge/r-presenceabsence-feedstock,https://github.com/ykanno/presenceAbsence</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -5249,7 +5249,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://github.com/bpdurham/Culture_Metabolomics_PresenceAbsence,https://github.com/cran/PresenceAbsence,https://cran.r-project.org/package=PresenceAbsence,https://github.com/ykanno/presenceAbsence,https://github.com/conda-forge/r-presenceabsence-feedstock,https://github.com/elsander/PresenceAbsenceNetworks</t>
+          <t>https://cran.r-project.org/package=PresenceAbsence,https://github.com/elsander/PresenceAbsenceNetworks,https://github.com/bpdurham/Culture_Metabolomics_PresenceAbsence,https://github.com/cran/PresenceAbsence,https://github.com/conda-forge/r-presenceabsence-feedstock,https://github.com/ykanno/presenceAbsence</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5301,7 +5301,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://github.com/bpdurham/Culture_Metabolomics_PresenceAbsence,https://github.com/cran/PresenceAbsence,https://cran.r-project.org/package=PresenceAbsence,https://github.com/ykanno/presenceAbsence,https://github.com/conda-forge/r-presenceabsence-feedstock,https://github.com/elsander/PresenceAbsenceNetworks</t>
+          <t>https://cran.r-project.org/package=PresenceAbsence,https://github.com/elsander/PresenceAbsenceNetworks,https://github.com/bpdurham/Culture_Metabolomics_PresenceAbsence,https://github.com/cran/PresenceAbsence,https://github.com/conda-forge/r-presenceabsence-feedstock,https://github.com/ykanno/presenceAbsence</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5357,7 +5357,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://github.com/bpdurham/Culture_Metabolomics_PresenceAbsence,https://github.com/cran/PresenceAbsence,https://cran.r-project.org/package=PresenceAbsence,https://github.com/ykanno/presenceAbsence,https://github.com/conda-forge/r-presenceabsence-feedstock,https://github.com/elsander/PresenceAbsenceNetworks</t>
+          <t>https://cran.r-project.org/package=PresenceAbsence,https://github.com/elsander/PresenceAbsenceNetworks,https://github.com/bpdurham/Culture_Metabolomics_PresenceAbsence,https://github.com/cran/PresenceAbsence,https://github.com/conda-forge/r-presenceabsence-feedstock,https://github.com/ykanno/presenceAbsence</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5413,7 +5413,7 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://github.com/bpdurham/Culture_Metabolomics_PresenceAbsence,https://github.com/cran/PresenceAbsence,https://cran.r-project.org/package=PresenceAbsence,https://github.com/ykanno/presenceAbsence,https://github.com/conda-forge/r-presenceabsence-feedstock,https://github.com/elsander/PresenceAbsenceNetworks</t>
+          <t>https://cran.r-project.org/package=PresenceAbsence,https://github.com/elsander/PresenceAbsenceNetworks,https://github.com/bpdurham/Culture_Metabolomics_PresenceAbsence,https://github.com/cran/PresenceAbsence,https://github.com/conda-forge/r-presenceabsence-feedstock,https://github.com/ykanno/presenceAbsence</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5469,7 +5469,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://github.com/Mr-Li-admin/pysiology2,https://github.com/jperge/pysiology,https://cran.r-project.org/package=AeRobiology,https://github.com/Cpetter1/Pysiology,https://github.com/janaalkassar/pysiology,https://pypi.org/project/pysiology/,https://github.com/Gabrock94/Pysiology</t>
+          <t>https://cran.r-project.org/package=AeRobiology,https://github.com/Cpetter1/Pysiology,https://github.com/jperge/pysiology,https://github.com/Mr-Li-admin/pysiology2,https://github.com/janaalkassar/pysiology,https://pypi.org/project/pysiology/,https://github.com/Gabrock94/Pysiology</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -5517,7 +5517,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://pypi.org/project/Pygments/,https://github.com/pygments/pygments,https://github.com/pygments/pygments.rb,https://cran.r-project.org/package=gets,https://github.com/idleberg/base16-pygments,https://cran.r-project.org/package=ibdsegments,https://github.com/richleland/pygments-css,https://cran.r-project.org/package=moments,https://cran.r-project.org/package=mets,https://github.com/trevorturk/pygments,https://cran.r-project.org/package=symmoments</t>
+          <t>https://cran.r-project.org/package=symmoments,https://github.com/pygments/pygments,https://github.com/trevorturk/pygments,https://github.com/pygments/pygments.rb,https://cran.r-project.org/package=moments,https://pypi.org/project/Pygments/,https://cran.r-project.org/package=gets,https://cran.r-project.org/package=ibdsegments,https://cran.r-project.org/package=mets,https://github.com/richleland/pygments-css,https://github.com/idleberg/base16-pygments</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5733,7 +5733,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://github.com/Soluto/python-flask-sklearn-docker-template,https://github.com/microsoft/python-sklearn-clustering-cookiecutter,https://github.com/Python-templates/sklearn-project-template,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/microsoft/python-sklearn-classifier-cookiecutter,https://github.com/13days/Python-sklearn-DataAnalysis</t>
+          <t>https://github.com/13days/Python-sklearn-DataAnalysis,https://github.com/microsoft/python-sklearn-clustering-cookiecutter,https://github.com/scikit-learn/scikit-learn,https://github.com/Python-templates/sklearn-project-template,https://github.com/Soluto/python-flask-sklearn-docker-template,https://pypi.org/project/scikit-learn/,https://github.com/microsoft/python-sklearn-classifier-cookiecutter</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -5789,7 +5789,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://github.com/Soluto/python-flask-sklearn-docker-template,https://github.com/microsoft/python-sklearn-clustering-cookiecutter,https://github.com/Python-templates/sklearn-project-template,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/microsoft/python-sklearn-classifier-cookiecutter,https://github.com/13days/Python-sklearn-DataAnalysis</t>
+          <t>https://github.com/13days/Python-sklearn-DataAnalysis,https://github.com/microsoft/python-sklearn-clustering-cookiecutter,https://github.com/scikit-learn/scikit-learn,https://github.com/Python-templates/sklearn-project-template,https://github.com/Soluto/python-flask-sklearn-docker-template,https://pypi.org/project/scikit-learn/,https://github.com/microsoft/python-sklearn-classifier-cookiecutter</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5845,7 +5845,7 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://github.com/Soluto/python-flask-sklearn-docker-template,https://github.com/microsoft/python-sklearn-clustering-cookiecutter,https://github.com/Python-templates/sklearn-project-template,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/microsoft/python-sklearn-classifier-cookiecutter,https://github.com/13days/Python-sklearn-DataAnalysis</t>
+          <t>https://github.com/13days/Python-sklearn-DataAnalysis,https://github.com/microsoft/python-sklearn-clustering-cookiecutter,https://github.com/scikit-learn/scikit-learn,https://github.com/Python-templates/sklearn-project-template,https://github.com/Soluto/python-flask-sklearn-docker-template,https://pypi.org/project/scikit-learn/,https://github.com/microsoft/python-sklearn-classifier-cookiecutter</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -5901,7 +5901,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://github.com/Soluto/python-flask-sklearn-docker-template,https://github.com/microsoft/python-sklearn-clustering-cookiecutter,https://github.com/Python-templates/sklearn-project-template,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/microsoft/python-sklearn-classifier-cookiecutter,https://github.com/13days/Python-sklearn-DataAnalysis</t>
+          <t>https://github.com/13days/Python-sklearn-DataAnalysis,https://github.com/microsoft/python-sklearn-clustering-cookiecutter,https://github.com/scikit-learn/scikit-learn,https://github.com/Python-templates/sklearn-project-template,https://github.com/Soluto/python-flask-sklearn-docker-template,https://pypi.org/project/scikit-learn/,https://github.com/microsoft/python-sklearn-classifier-cookiecutter</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -5957,7 +5957,7 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://github.com/Soluto/python-flask-sklearn-docker-template,https://github.com/microsoft/python-sklearn-clustering-cookiecutter,https://github.com/Python-templates/sklearn-project-template,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/microsoft/python-sklearn-classifier-cookiecutter,https://github.com/13days/Python-sklearn-DataAnalysis</t>
+          <t>https://github.com/13days/Python-sklearn-DataAnalysis,https://github.com/microsoft/python-sklearn-clustering-cookiecutter,https://github.com/scikit-learn/scikit-learn,https://github.com/Python-templates/sklearn-project-template,https://github.com/Soluto/python-flask-sklearn-docker-template,https://pypi.org/project/scikit-learn/,https://github.com/microsoft/python-sklearn-classifier-cookiecutter</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6013,7 +6013,7 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://github.com/Soluto/python-flask-sklearn-docker-template,https://github.com/microsoft/python-sklearn-clustering-cookiecutter,https://github.com/Python-templates/sklearn-project-template,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/microsoft/python-sklearn-classifier-cookiecutter,https://github.com/13days/Python-sklearn-DataAnalysis</t>
+          <t>https://github.com/13days/Python-sklearn-DataAnalysis,https://github.com/microsoft/python-sklearn-clustering-cookiecutter,https://github.com/scikit-learn/scikit-learn,https://github.com/Python-templates/sklearn-project-template,https://github.com/Soluto/python-flask-sklearn-docker-template,https://pypi.org/project/scikit-learn/,https://github.com/microsoft/python-sklearn-classifier-cookiecutter</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6069,7 +6069,7 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://github.com/harshsingh1834/HandWritten-Digit-Recognition-Using-MNIST-Dataset-Using-Python-Sklearn-Library,https://github.com/scikit-learn/scikit-learn,https://github.com/EmalIsmail/Predict-The-Stock-Market-With-Machine-Learning-And-Python-s-library-sklearn--RandomForestClassifier-,https://pypi.org/project/scikit-learn/,https://github.com/sree38/Machine-Learning-Project-Web-Page-Traffic-Prediction-Part1-using-SkLearn-Python-Library,https://github.com/xinxiaobao/Python_sklearn_library_application,https://github.com/SSimmondsR/Sklearn-library---Python</t>
+          <t>https://github.com/EmalIsmail/Predict-The-Stock-Market-With-Machine-Learning-And-Python-s-library-sklearn--RandomForestClassifier-,https://github.com/harshsingh1834/HandWritten-Digit-Recognition-Using-MNIST-Dataset-Using-Python-Sklearn-Library,https://github.com/scikit-learn/scikit-learn,https://github.com/SSimmondsR/Sklearn-library---Python,https://github.com/sree38/Machine-Learning-Project-Web-Page-Traffic-Prediction-Part1-using-SkLearn-Python-Library,https://github.com/xinxiaobao/Python_sklearn_library_application,https://pypi.org/project/scikit-learn/</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6125,7 +6125,7 @@
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://github.com/harshsingh1834/HandWritten-Digit-Recognition-Using-MNIST-Dataset-Using-Python-Sklearn-Library,https://github.com/scikit-learn/scikit-learn,https://github.com/EmalIsmail/Predict-The-Stock-Market-With-Machine-Learning-And-Python-s-library-sklearn--RandomForestClassifier-,https://pypi.org/project/scikit-learn/,https://github.com/sree38/Machine-Learning-Project-Web-Page-Traffic-Prediction-Part1-using-SkLearn-Python-Library,https://github.com/xinxiaobao/Python_sklearn_library_application,https://github.com/SSimmondsR/Sklearn-library---Python</t>
+          <t>https://github.com/EmalIsmail/Predict-The-Stock-Market-With-Machine-Learning-And-Python-s-library-sklearn--RandomForestClassifier-,https://github.com/harshsingh1834/HandWritten-Digit-Recognition-Using-MNIST-Dataset-Using-Python-Sklearn-Library,https://github.com/scikit-learn/scikit-learn,https://github.com/SSimmondsR/Sklearn-library---Python,https://github.com/sree38/Machine-Learning-Project-Web-Page-Traffic-Prediction-Part1-using-SkLearn-Python-Library,https://github.com/xinxiaobao/Python_sklearn_library_application,https://pypi.org/project/scikit-learn/</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6181,7 +6181,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://github.com/harshsingh1834/HandWritten-Digit-Recognition-Using-MNIST-Dataset-Using-Python-Sklearn-Library,https://github.com/scikit-learn/scikit-learn,https://github.com/EmalIsmail/Predict-The-Stock-Market-With-Machine-Learning-And-Python-s-library-sklearn--RandomForestClassifier-,https://pypi.org/project/scikit-learn/,https://github.com/sree38/Machine-Learning-Project-Web-Page-Traffic-Prediction-Part1-using-SkLearn-Python-Library,https://github.com/xinxiaobao/Python_sklearn_library_application,https://github.com/SSimmondsR/Sklearn-library---Python</t>
+          <t>https://github.com/EmalIsmail/Predict-The-Stock-Market-With-Machine-Learning-And-Python-s-library-sklearn--RandomForestClassifier-,https://github.com/harshsingh1834/HandWritten-Digit-Recognition-Using-MNIST-Dataset-Using-Python-Sklearn-Library,https://github.com/scikit-learn/scikit-learn,https://github.com/SSimmondsR/Sklearn-library---Python,https://github.com/sree38/Machine-Learning-Project-Web-Page-Traffic-Prediction-Part1-using-SkLearn-Python-Library,https://github.com/xinxiaobao/Python_sklearn_library_application,https://pypi.org/project/scikit-learn/</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6237,7 +6237,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://github.com/harshsingh1834/HandWritten-Digit-Recognition-Using-MNIST-Dataset-Using-Python-Sklearn-Library,https://github.com/scikit-learn/scikit-learn,https://github.com/EmalIsmail/Predict-The-Stock-Market-With-Machine-Learning-And-Python-s-library-sklearn--RandomForestClassifier-,https://pypi.org/project/scikit-learn/,https://github.com/sree38/Machine-Learning-Project-Web-Page-Traffic-Prediction-Part1-using-SkLearn-Python-Library,https://github.com/xinxiaobao/Python_sklearn_library_application,https://github.com/SSimmondsR/Sklearn-library---Python</t>
+          <t>https://github.com/EmalIsmail/Predict-The-Stock-Market-With-Machine-Learning-And-Python-s-library-sklearn--RandomForestClassifier-,https://github.com/harshsingh1834/HandWritten-Digit-Recognition-Using-MNIST-Dataset-Using-Python-Sklearn-Library,https://github.com/scikit-learn/scikit-learn,https://github.com/SSimmondsR/Sklearn-library---Python,https://github.com/sree38/Machine-Learning-Project-Web-Page-Traffic-Prediction-Part1-using-SkLearn-Python-Library,https://github.com/xinxiaobao/Python_sklearn_library_application,https://pypi.org/project/scikit-learn/</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -6293,7 +6293,7 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://github.com/qcluster/QCluster,https://pypi.org/project/QCluster/,https://github.com/jkomyno/bioalgo-QCluster-vs-isONclust,https://github.com/CominLab/Qcluster,https://cran.r-project.org/package=qcluster,https://cran.r-project.org/package=ClusterR,https://github.com/CominLab/QCluster,https://cran.r-project.org/package=ImCluster,https://github.com/bie90/QCluster,https://github.com/QsonLabs/qcluster,https://cran.r-project.org/package=DCluster,https://cran.r-project.org/package=WCluster</t>
+          <t>https://github.com/bie90/QCluster,https://github.com/jkomyno/bioalgo-QCluster-vs-isONclust,https://cran.r-project.org/package=qcluster,https://github.com/CominLab/Qcluster,https://cran.r-project.org/package=ClusterR,https://cran.r-project.org/package=DCluster,https://github.com/QsonLabs/qcluster,https://cran.r-project.org/package=ImCluster,https://cran.r-project.org/package=WCluster,https://pypi.org/project/QCluster/,https://github.com/CominLab/QCluster,https://github.com/qcluster/QCluster</t>
         </is>
       </c>
       <c r="K109" t="inlineStr"/>
@@ -6345,7 +6345,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://github.com/qcluster/QCluster,https://pypi.org/project/QCluster/,https://github.com/jkomyno/bioalgo-QCluster-vs-isONclust,https://github.com/CominLab/Qcluster,https://cran.r-project.org/package=qcluster,https://cran.r-project.org/package=ClusterR,https://github.com/CominLab/QCluster,https://cran.r-project.org/package=ImCluster,https://github.com/bie90/QCluster,https://github.com/QsonLabs/qcluster,https://cran.r-project.org/package=DCluster,https://cran.r-project.org/package=WCluster</t>
+          <t>https://github.com/bie90/QCluster,https://github.com/jkomyno/bioalgo-QCluster-vs-isONclust,https://cran.r-project.org/package=qcluster,https://github.com/CominLab/Qcluster,https://cran.r-project.org/package=ClusterR,https://cran.r-project.org/package=DCluster,https://github.com/QsonLabs/qcluster,https://cran.r-project.org/package=ImCluster,https://cran.r-project.org/package=WCluster,https://pypi.org/project/QCluster/,https://github.com/CominLab/QCluster,https://github.com/qcluster/QCluster</t>
         </is>
       </c>
       <c r="K110" t="inlineStr"/>
@@ -6397,7 +6397,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://github.com/qcluster/QCluster,https://pypi.org/project/QCluster/,https://github.com/jkomyno/bioalgo-QCluster-vs-isONclust,https://github.com/CominLab/Qcluster,https://cran.r-project.org/package=qcluster,https://cran.r-project.org/package=ClusterR,https://github.com/CominLab/QCluster,https://cran.r-project.org/package=ImCluster,https://github.com/bie90/QCluster,https://github.com/QsonLabs/qcluster,https://cran.r-project.org/package=DCluster,https://cran.r-project.org/package=WCluster</t>
+          <t>https://github.com/bie90/QCluster,https://github.com/jkomyno/bioalgo-QCluster-vs-isONclust,https://cran.r-project.org/package=qcluster,https://github.com/CominLab/Qcluster,https://cran.r-project.org/package=ClusterR,https://cran.r-project.org/package=DCluster,https://github.com/QsonLabs/qcluster,https://cran.r-project.org/package=ImCluster,https://cran.r-project.org/package=WCluster,https://pypi.org/project/QCluster/,https://github.com/CominLab/QCluster,https://github.com/qcluster/QCluster</t>
         </is>
       </c>
       <c r="K111" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://github.com/qcluster/QCluster,https://pypi.org/project/QCluster/,https://github.com/jkomyno/bioalgo-QCluster-vs-isONclust,https://github.com/CominLab/Qcluster,https://cran.r-project.org/package=qcluster,https://cran.r-project.org/package=ClusterR,https://github.com/CominLab/QCluster,https://cran.r-project.org/package=ImCluster,https://github.com/bie90/QCluster,https://github.com/QsonLabs/qcluster,https://cran.r-project.org/package=DCluster,https://cran.r-project.org/package=WCluster</t>
+          <t>https://github.com/bie90/QCluster,https://github.com/jkomyno/bioalgo-QCluster-vs-isONclust,https://cran.r-project.org/package=qcluster,https://github.com/CominLab/Qcluster,https://cran.r-project.org/package=ClusterR,https://cran.r-project.org/package=DCluster,https://github.com/QsonLabs/qcluster,https://cran.r-project.org/package=ImCluster,https://cran.r-project.org/package=WCluster,https://pypi.org/project/QCluster/,https://github.com/CominLab/QCluster,https://github.com/qcluster/QCluster</t>
         </is>
       </c>
       <c r="K112" t="inlineStr"/>
@@ -6501,7 +6501,7 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://github.com/qcluster/QCluster,https://pypi.org/project/QCluster/,https://github.com/jkomyno/bioalgo-QCluster-vs-isONclust,https://github.com/CominLab/Qcluster,https://cran.r-project.org/package=qcluster,https://cran.r-project.org/package=ClusterR,https://github.com/CominLab/QCluster,https://cran.r-project.org/package=ImCluster,https://github.com/bie90/QCluster,https://github.com/QsonLabs/qcluster,https://cran.r-project.org/package=DCluster,https://cran.r-project.org/package=WCluster</t>
+          <t>https://github.com/bie90/QCluster,https://github.com/jkomyno/bioalgo-QCluster-vs-isONclust,https://cran.r-project.org/package=qcluster,https://github.com/CominLab/Qcluster,https://cran.r-project.org/package=ClusterR,https://cran.r-project.org/package=DCluster,https://github.com/QsonLabs/qcluster,https://cran.r-project.org/package=ImCluster,https://cran.r-project.org/package=WCluster,https://pypi.org/project/QCluster/,https://github.com/CominLab/QCluster,https://github.com/qcluster/QCluster</t>
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
@@ -6553,7 +6553,7 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://github.com/luc-mo/react-package-starter,https://github.com/genxium/ReactNativeStarterPackage,https://cran.r-project.org/package=packager,https://github.com/ClusterH/react-starter-package,https://cran.r-project.org/package=packageRank,https://github.com/alexdobin/STAR,https://github.com/GoingGeniusGroup/R3F-NextJS-Starter-Package,https://github.com/TimMikeladze/typescript-react-package-starter</t>
+          <t>https://github.com/luc-mo/react-package-starter,https://github.com/genxium/ReactNativeStarterPackage,https://github.com/TimMikeladze/typescript-react-package-starter,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=packager,https://cran.r-project.org/package=packageRank,https://github.com/ClusterH/react-starter-package,https://github.com/GoingGeniusGroup/R3F-NextJS-Starter-Package</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -6609,7 +6609,7 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://github.com/RNAcentral/r2dt-web,https://github.com/r2dt-bio/r2dt,https://github.com/r2dt-bio/r2dt.bio,https://cran.r-project.org/package=R2DT,https://github.com/r2dt-bio/R2DT,https://cran.r-project.org/package=RCDT,https://github.com/comprna/R2Dtool,https://cran.r-project.org/package=BRDT,https://cran.r-project.org/package=R2PPT,https://github.com/NHERI-SimCenter/R2DTool</t>
+          <t>https://cran.r-project.org/package=BRDT,https://github.com/NHERI-SimCenter/R2DTool,https://cran.r-project.org/package=RCDT,https://cran.r-project.org/package=R2PPT,https://github.com/RNAcentral/r2dt-web,https://github.com/comprna/R2Dtool,https://github.com/r2dt-bio/R2DT,https://github.com/r2dt-bio/r2dt,https://cran.r-project.org/package=R2DT,https://github.com/r2dt-bio/r2dt.bio</t>
         </is>
       </c>
       <c r="K115" t="inlineStr"/>
@@ -6661,7 +6661,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=RABR,https://cran.r-project.org/package=RAINBOWR,https://github.com/KosukeHamazaki/RAINBOWR,https://github.com/RainbowRedux/RainbowRedux,https://github.com/djnavarro/rainbowr,https://github.com/smstele/RainbowRat,https://github.com/richfitz/rainbowrite,https://github.com/cran/RAINBOWR</t>
+          <t>https://cran.r-project.org/package=RABR,https://github.com/djnavarro/rainbowr,https://github.com/cran/RAINBOWR,https://github.com/KosukeHamazaki/RAINBOWR,https://github.com/RainbowRedux/RainbowRedux,https://cran.r-project.org/package=RAINBOWR,https://github.com/smstele/RainbowRat,https://github.com/richfitz/rainbowrite</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -6717,7 +6717,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=RABR,https://cran.r-project.org/package=RAINBOWR,https://github.com/KosukeHamazaki/RAINBOWR,https://github.com/RainbowRedux/RainbowRedux,https://github.com/djnavarro/rainbowr,https://github.com/smstele/RainbowRat,https://github.com/richfitz/rainbowrite,https://github.com/cran/RAINBOWR</t>
+          <t>https://cran.r-project.org/package=RABR,https://github.com/djnavarro/rainbowr,https://github.com/cran/RAINBOWR,https://github.com/KosukeHamazaki/RAINBOWR,https://github.com/RainbowRedux/RainbowRedux,https://cran.r-project.org/package=RAINBOWR,https://github.com/smstele/RainbowRat,https://github.com/richfitz/rainbowrite</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -6773,7 +6773,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=RABR,https://cran.r-project.org/package=RAINBOWR,https://github.com/KosukeHamazaki/RAINBOWR,https://github.com/RainbowRedux/RainbowRedux,https://github.com/djnavarro/rainbowr,https://github.com/smstele/RainbowRat,https://github.com/richfitz/rainbowrite,https://github.com/cran/RAINBOWR</t>
+          <t>https://cran.r-project.org/package=RABR,https://github.com/djnavarro/rainbowr,https://github.com/cran/RAINBOWR,https://github.com/KosukeHamazaki/RAINBOWR,https://github.com/RainbowRedux/RainbowRedux,https://cran.r-project.org/package=RAINBOWR,https://github.com/smstele/RainbowRat,https://github.com/richfitz/rainbowrite</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -6829,7 +6829,7 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=RABR,https://cran.r-project.org/package=RAINBOWR,https://github.com/KosukeHamazaki/RAINBOWR,https://github.com/RainbowRedux/RainbowRedux,https://github.com/djnavarro/rainbowr,https://github.com/smstele/RainbowRat,https://github.com/richfitz/rainbowrite,https://github.com/cran/RAINBOWR</t>
+          <t>https://cran.r-project.org/package=RABR,https://github.com/djnavarro/rainbowr,https://github.com/cran/RAINBOWR,https://github.com/KosukeHamazaki/RAINBOWR,https://github.com/RainbowRedux/RainbowRedux,https://cran.r-project.org/package=RAINBOWR,https://github.com/smstele/RainbowRat,https://github.com/richfitz/rainbowrite</t>
         </is>
       </c>
       <c r="K119" t="inlineStr"/>
@@ -6881,7 +6881,7 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=RABR,https://cran.r-project.org/package=RAINBOWR,https://github.com/KosukeHamazaki/RAINBOWR,https://github.com/RainbowRedux/RainbowRedux,https://github.com/djnavarro/rainbowr,https://github.com/smstele/RainbowRat,https://github.com/richfitz/rainbowrite,https://github.com/cran/RAINBOWR</t>
+          <t>https://cran.r-project.org/package=RABR,https://github.com/djnavarro/rainbowr,https://github.com/cran/RAINBOWR,https://github.com/KosukeHamazaki/RAINBOWR,https://github.com/RainbowRedux/RainbowRedux,https://cran.r-project.org/package=RAINBOWR,https://github.com/smstele/RainbowRat,https://github.com/richfitz/rainbowrite</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -6937,7 +6937,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://github.com/tmcd82070/Rdistance,https://cran.r-project.org/package=colordistance,https://github.com/Chrisjb/RDistanceMatrix,https://cran.r-project.org/package=gdistance,https://github.com/hale/rdistance,https://cran.r-project.org/package=distances,https://github.com/cran/Rdistance,https://github.com/dill/RDistanceBook,https://github.com/tmcd82070/Rdistance/wiki,https://cran.r-project.org/package=Rdistance</t>
+          <t>https://github.com/dill/RDistanceBook,https://github.com/tmcd82070/Rdistance/wiki,https://cran.r-project.org/package=Rdistance,https://cran.r-project.org/package=gdistance,https://cran.r-project.org/package=colordistance,https://github.com/cran/Rdistance,https://github.com/Chrisjb/RDistanceMatrix,https://github.com/hale/rdistance,https://github.com/tmcd82070/Rdistance,https://cran.r-project.org/package=distances</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -6993,7 +6993,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=trackeR,https://cran.r-project.org/package=Rtrack,https://cran.r-project.org/package=tripack,https://github.com/cran/Rtrack,https://github.com/rupertoverall/Rtrack,https://github.com/lawremi/rtracklayer,https://github.com/NorahGreen/RTracker,https://github.com/sethjwilliamson/LoRTracker,https://github.com/justinnoah/rtracker,https://cran.r-project.org/package=trackdf,https://github.com/rob-miller/rTracker</t>
+          <t>https://cran.r-project.org/package=trackdf,https://github.com/rupertoverall/Rtrack,https://cran.r-project.org/package=tripack,https://github.com/NorahGreen/RTracker,https://github.com/cran/Rtrack,https://cran.r-project.org/package=Rtrack,https://cran.r-project.org/package=trackeR,https://github.com/justinnoah/rtracker,https://github.com/sethjwilliamson/LoRTracker,https://github.com/lawremi/rtracklayer,https://github.com/rob-miller/rTracker</t>
         </is>
       </c>
       <c r="K122" t="inlineStr"/>
@@ -7045,7 +7045,7 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=SCI,https://github.com/cran/SCINA,https://cran.r-project.org/package=SCINA,https://github.com/jcao89757/SCINA,https://cran.r-project.org/package=SPINA,https://github.com/plutoinc/scinapse-web-client,https://github.com/oleg-nenashev/FaaScinator,https://cran.r-project.org/package=CINNA,https://github.com/Skarbo/hass-scinan-thermostat,https://github.com/PetterRuud/com.scinan.api</t>
+          <t>https://cran.r-project.org/package=CINNA,https://github.com/PetterRuud/com.scinan.api,https://github.com/Skarbo/hass-scinan-thermostat,https://github.com/plutoinc/scinapse-web-client,https://github.com/cran/SCINA,https://cran.r-project.org/package=SCI,https://cran.r-project.org/package=SPINA,https://cran.r-project.org/package=SCINA,https://github.com/jcao89757/SCINA,https://github.com/oleg-nenashev/FaaScinator</t>
         </is>
       </c>
       <c r="K123" t="inlineStr"/>
@@ -7097,7 +7097,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=SCI,https://github.com/cran/SCINA,https://cran.r-project.org/package=SCINA,https://github.com/jcao89757/SCINA,https://cran.r-project.org/package=SPINA,https://github.com/plutoinc/scinapse-web-client,https://github.com/oleg-nenashev/FaaScinator,https://cran.r-project.org/package=CINNA,https://github.com/Skarbo/hass-scinan-thermostat,https://github.com/PetterRuud/com.scinan.api</t>
+          <t>https://cran.r-project.org/package=CINNA,https://github.com/PetterRuud/com.scinan.api,https://github.com/Skarbo/hass-scinan-thermostat,https://github.com/plutoinc/scinapse-web-client,https://github.com/cran/SCINA,https://cran.r-project.org/package=SCI,https://cran.r-project.org/package=SPINA,https://cran.r-project.org/package=SCINA,https://github.com/jcao89757/SCINA,https://github.com/oleg-nenashev/FaaScinator</t>
         </is>
       </c>
       <c r="K124" t="inlineStr"/>
@@ -7149,7 +7149,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=SCI,https://github.com/cran/SCINA,https://cran.r-project.org/package=SCINA,https://github.com/jcao89757/SCINA,https://cran.r-project.org/package=SPINA,https://github.com/plutoinc/scinapse-web-client,https://github.com/oleg-nenashev/FaaScinator,https://cran.r-project.org/package=CINNA,https://github.com/Skarbo/hass-scinan-thermostat,https://github.com/PetterRuud/com.scinan.api</t>
+          <t>https://cran.r-project.org/package=CINNA,https://github.com/PetterRuud/com.scinan.api,https://github.com/Skarbo/hass-scinan-thermostat,https://github.com/plutoinc/scinapse-web-client,https://github.com/cran/SCINA,https://cran.r-project.org/package=SCI,https://cran.r-project.org/package=SPINA,https://cran.r-project.org/package=SCINA,https://github.com/jcao89757/SCINA,https://github.com/oleg-nenashev/FaaScinator</t>
         </is>
       </c>
       <c r="K125" t="inlineStr"/>
@@ -7201,7 +7201,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=SCI,https://github.com/cran/SCINA,https://cran.r-project.org/package=SCINA,https://github.com/jcao89757/SCINA,https://cran.r-project.org/package=SPINA,https://github.com/plutoinc/scinapse-web-client,https://github.com/oleg-nenashev/FaaScinator,https://cran.r-project.org/package=CINNA,https://github.com/Skarbo/hass-scinan-thermostat,https://github.com/PetterRuud/com.scinan.api</t>
+          <t>https://cran.r-project.org/package=CINNA,https://github.com/PetterRuud/com.scinan.api,https://github.com/Skarbo/hass-scinan-thermostat,https://github.com/plutoinc/scinapse-web-client,https://github.com/cran/SCINA,https://cran.r-project.org/package=SCI,https://cran.r-project.org/package=SPINA,https://cran.r-project.org/package=SCINA,https://github.com/jcao89757/SCINA,https://github.com/oleg-nenashev/FaaScinator</t>
         </is>
       </c>
       <c r="K126" t="inlineStr"/>
@@ -7253,7 +7253,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=SCI,https://github.com/cran/SCINA,https://cran.r-project.org/package=SCINA,https://github.com/jcao89757/SCINA,https://cran.r-project.org/package=SPINA,https://github.com/plutoinc/scinapse-web-client,https://github.com/oleg-nenashev/FaaScinator,https://cran.r-project.org/package=CINNA,https://github.com/Skarbo/hass-scinan-thermostat,https://github.com/PetterRuud/com.scinan.api</t>
+          <t>https://cran.r-project.org/package=CINNA,https://github.com/PetterRuud/com.scinan.api,https://github.com/Skarbo/hass-scinan-thermostat,https://github.com/plutoinc/scinapse-web-client,https://github.com/cran/SCINA,https://cran.r-project.org/package=SCI,https://cran.r-project.org/package=SPINA,https://cran.r-project.org/package=SCINA,https://github.com/jcao89757/SCINA,https://github.com/oleg-nenashev/FaaScinator</t>
         </is>
       </c>
       <c r="K127" t="inlineStr"/>
@@ -7305,7 +7305,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=SAR,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=SEA,https://pypi.org/project/scikit-learn/,https://github.com/apachecn/sklearn-doc-zh,https://cran.r-project.org/package=SEARS,https://cran.r-project.org/package=DCLEAR,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/jakevdp/sklearn_tutorial,https://cran.r-project.org/package=SLCARE</t>
+          <t>https://github.com/automl/auto-sklearn,https://pypi.org/project/sklearn/,https://cran.r-project.org/package=SEA,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=SEARS,https://cran.r-project.org/package=SLCARE,https://cran.r-project.org/package=SAR,https://pypi.org/project/scikit-learn/,https://cran.r-project.org/package=DCLEAR,https://github.com/jakevdp/sklearn_tutorial,https://github.com/apachecn/sklearn-doc-zh</t>
         </is>
       </c>
       <c r="K128" t="inlineStr"/>
@@ -7357,7 +7357,7 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=SAR,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=SEA,https://pypi.org/project/scikit-learn/,https://github.com/apachecn/sklearn-doc-zh,https://cran.r-project.org/package=SEARS,https://cran.r-project.org/package=DCLEAR,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/jakevdp/sklearn_tutorial,https://cran.r-project.org/package=SLCARE</t>
+          <t>https://github.com/automl/auto-sklearn,https://pypi.org/project/sklearn/,https://cran.r-project.org/package=SEA,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=SEARS,https://cran.r-project.org/package=SLCARE,https://cran.r-project.org/package=SAR,https://pypi.org/project/scikit-learn/,https://cran.r-project.org/package=DCLEAR,https://github.com/jakevdp/sklearn_tutorial,https://github.com/apachecn/sklearn-doc-zh</t>
         </is>
       </c>
       <c r="K129" t="inlineStr"/>
@@ -7409,7 +7409,7 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=SAR,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=SEA,https://pypi.org/project/scikit-learn/,https://github.com/apachecn/sklearn-doc-zh,https://cran.r-project.org/package=SEARS,https://cran.r-project.org/package=DCLEAR,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/jakevdp/sklearn_tutorial,https://cran.r-project.org/package=SLCARE</t>
+          <t>https://github.com/automl/auto-sklearn,https://pypi.org/project/sklearn/,https://cran.r-project.org/package=SEA,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=SEARS,https://cran.r-project.org/package=SLCARE,https://cran.r-project.org/package=SAR,https://pypi.org/project/scikit-learn/,https://cran.r-project.org/package=DCLEAR,https://github.com/jakevdp/sklearn_tutorial,https://github.com/apachecn/sklearn-doc-zh</t>
         </is>
       </c>
       <c r="K130" t="inlineStr"/>
@@ -7461,7 +7461,7 @@
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=SAR,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=SEA,https://pypi.org/project/scikit-learn/,https://github.com/apachecn/sklearn-doc-zh,https://cran.r-project.org/package=SEARS,https://cran.r-project.org/package=DCLEAR,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/jakevdp/sklearn_tutorial,https://cran.r-project.org/package=SLCARE</t>
+          <t>https://github.com/automl/auto-sklearn,https://pypi.org/project/sklearn/,https://cran.r-project.org/package=SEA,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=SEARS,https://cran.r-project.org/package=SLCARE,https://cran.r-project.org/package=SAR,https://pypi.org/project/scikit-learn/,https://cran.r-project.org/package=DCLEAR,https://github.com/jakevdp/sklearn_tutorial,https://github.com/apachecn/sklearn-doc-zh</t>
         </is>
       </c>
       <c r="K131" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=SAR,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=SEA,https://pypi.org/project/scikit-learn/,https://github.com/apachecn/sklearn-doc-zh,https://cran.r-project.org/package=SEARS,https://cran.r-project.org/package=DCLEAR,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/jakevdp/sklearn_tutorial,https://cran.r-project.org/package=SLCARE</t>
+          <t>https://github.com/automl/auto-sklearn,https://pypi.org/project/sklearn/,https://cran.r-project.org/package=SEA,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=SEARS,https://cran.r-project.org/package=SLCARE,https://cran.r-project.org/package=SAR,https://pypi.org/project/scikit-learn/,https://cran.r-project.org/package=DCLEAR,https://github.com/jakevdp/sklearn_tutorial,https://github.com/apachecn/sklearn-doc-zh</t>
         </is>
       </c>
       <c r="K132" t="inlineStr"/>
@@ -7565,7 +7565,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=SAR,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=SEA,https://pypi.org/project/scikit-learn/,https://github.com/apachecn/sklearn-doc-zh,https://cran.r-project.org/package=SEARS,https://cran.r-project.org/package=DCLEAR,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/jakevdp/sklearn_tutorial,https://cran.r-project.org/package=SLCARE</t>
+          <t>https://github.com/automl/auto-sklearn,https://pypi.org/project/sklearn/,https://cran.r-project.org/package=SEA,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=SEARS,https://cran.r-project.org/package=SLCARE,https://cran.r-project.org/package=SAR,https://pypi.org/project/scikit-learn/,https://cran.r-project.org/package=DCLEAR,https://github.com/jakevdp/sklearn_tutorial,https://github.com/apachecn/sklearn-doc-zh</t>
         </is>
       </c>
       <c r="K133" t="inlineStr"/>
@@ -7617,7 +7617,7 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=RSStest,https://cran.r-project.org/package=SPAtest,https://github.com/leeshawn/SPAtest,https://github.com/cran/SPAtest,https://cran.r-project.org/package=SetTest,https://github.com/xxpCodiing/spaTest,https://github.com/sowthiram/spatest,https://github.com/tomasbulva/spatest,https://github.com/erickfelip/spatest,https://cran.r-project.org/package=RPtests</t>
+          <t>https://cran.r-project.org/package=SetTest,https://cran.r-project.org/package=RSStest,https://cran.r-project.org/package=RPtests,https://github.com/tomasbulva/spatest,https://github.com/xxpCodiing/spaTest,https://github.com/sowthiram/spatest,https://github.com/erickfelip/spatest,https://github.com/leeshawn/SPAtest,https://github.com/cran/SPAtest,https://cran.r-project.org/package=SPAtest</t>
         </is>
       </c>
       <c r="K134" t="inlineStr"/>
@@ -7669,7 +7669,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=countSTAR,https://github.com/sahat/hackathon-starter,https://github.com/starship/starship,https://cran.r-project.org/package=BAYSTAR,https://github.com/google/web-starter-kit,https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DstarM,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=EffectStars</t>
+          <t>https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=BAYSTAR,https://cran.r-project.org/package=DstarM,https://github.com/alexdobin/STAR,https://github.com/google/web-starter-kit,https://cran.r-project.org/package=countSTAR,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/sahat/hackathon-starter</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -7725,7 +7725,7 @@
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=countSTAR,https://github.com/sahat/hackathon-starter,https://github.com/starship/starship,https://cran.r-project.org/package=BAYSTAR,https://github.com/google/web-starter-kit,https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DstarM,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=EffectStars</t>
+          <t>https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=BAYSTAR,https://cran.r-project.org/package=DstarM,https://github.com/alexdobin/STAR,https://github.com/google/web-starter-kit,https://cran.r-project.org/package=countSTAR,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/sahat/hackathon-starter</t>
         </is>
       </c>
       <c r="K136" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=countSTAR,https://github.com/sahat/hackathon-starter,https://github.com/starship/starship,https://cran.r-project.org/package=BAYSTAR,https://github.com/google/web-starter-kit,https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DstarM,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=EffectStars</t>
+          <t>https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=BAYSTAR,https://cran.r-project.org/package=DstarM,https://github.com/alexdobin/STAR,https://github.com/google/web-starter-kit,https://cran.r-project.org/package=countSTAR,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/sahat/hackathon-starter</t>
         </is>
       </c>
       <c r="K137" t="inlineStr"/>
@@ -7829,7 +7829,7 @@
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=countSTAR,https://github.com/sahat/hackathon-starter,https://github.com/starship/starship,https://cran.r-project.org/package=BAYSTAR,https://github.com/google/web-starter-kit,https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DstarM,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=EffectStars</t>
+          <t>https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=BAYSTAR,https://cran.r-project.org/package=DstarM,https://github.com/alexdobin/STAR,https://github.com/google/web-starter-kit,https://cran.r-project.org/package=countSTAR,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/sahat/hackathon-starter</t>
         </is>
       </c>
       <c r="K138" t="inlineStr"/>
@@ -7881,7 +7881,7 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=countSTAR,https://github.com/sahat/hackathon-starter,https://github.com/starship/starship,https://cran.r-project.org/package=BAYSTAR,https://github.com/google/web-starter-kit,https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DstarM,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=EffectStars</t>
+          <t>https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=BAYSTAR,https://cran.r-project.org/package=DstarM,https://github.com/alexdobin/STAR,https://github.com/google/web-starter-kit,https://cran.r-project.org/package=countSTAR,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/sahat/hackathon-starter</t>
         </is>
       </c>
       <c r="K139" t="inlineStr"/>
@@ -7985,7 +7985,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=packagepal,https://github.com/RYanXuDev/ShootingStarPackages,https://github.com/chrisdemars/bulp-starter-package,https://cran.r-project.org/package=FSTpackage,https://github.com/LottePitcher/opinionated-package-starter,https://cran.r-project.org/package=packager,https://cran.r-project.org/package=packageDiff,https://github.com/nestjsplus/nestjs-package-starter,https://cran.r-project.org/package=packageRank,https://github.com/alexdobin/STAR,https://github.com/TimMikeladze/typescript-react-package-starter</t>
+          <t>https://github.com/RYanXuDev/ShootingStarPackages,https://cran.r-project.org/package=FSTpackage,https://github.com/TimMikeladze/typescript-react-package-starter,https://github.com/nestjsplus/nestjs-package-starter,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=packager,https://github.com/chrisdemars/bulp-starter-package,https://cran.r-project.org/package=packageRank,https://cran.r-project.org/package=packagepal,https://github.com/LottePitcher/opinionated-package-starter,https://cran.r-project.org/package=packageDiff</t>
         </is>
       </c>
       <c r="K141" t="inlineStr"/>
@@ -8037,7 +8037,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=packagepal,https://github.com/RYanXuDev/ShootingStarPackages,https://github.com/chrisdemars/bulp-starter-package,https://cran.r-project.org/package=FSTpackage,https://github.com/LottePitcher/opinionated-package-starter,https://cran.r-project.org/package=packager,https://cran.r-project.org/package=packageDiff,https://github.com/nestjsplus/nestjs-package-starter,https://cran.r-project.org/package=packageRank,https://github.com/alexdobin/STAR,https://github.com/TimMikeladze/typescript-react-package-starter</t>
+          <t>https://github.com/RYanXuDev/ShootingStarPackages,https://cran.r-project.org/package=FSTpackage,https://github.com/TimMikeladze/typescript-react-package-starter,https://github.com/nestjsplus/nestjs-package-starter,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=packager,https://github.com/chrisdemars/bulp-starter-package,https://cran.r-project.org/package=packageRank,https://cran.r-project.org/package=packagepal,https://github.com/LottePitcher/opinionated-package-starter,https://cran.r-project.org/package=packageDiff</t>
         </is>
       </c>
       <c r="K142" t="inlineStr"/>
@@ -8089,7 +8089,7 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=STARTS,https://cran.r-project.org/package=SAR,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=STAREG,https://cran.r-project.org/package=STAT,https://cran.r-project.org/package=TAR</t>
+          <t>https://cran.r-project.org/package=TAR,https://cran.r-project.org/package=STARTS,https://cran.r-project.org/package=STAT,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=STAREG,https://cran.r-project.org/package=SAR</t>
         </is>
       </c>
       <c r="K143" t="inlineStr"/>
@@ -8141,7 +8141,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=STARTS,https://cran.r-project.org/package=SAR,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=STAREG,https://cran.r-project.org/package=STAT,https://cran.r-project.org/package=TAR</t>
+          <t>https://cran.r-project.org/package=TAR,https://cran.r-project.org/package=STARTS,https://cran.r-project.org/package=STAT,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=STAREG,https://cran.r-project.org/package=SAR</t>
         </is>
       </c>
       <c r="K144" t="inlineStr"/>
@@ -8245,7 +8245,7 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>https://github.com/alexdobin/STAR,https://cran.r-project.org/package=ggaligner</t>
+          <t>https://cran.r-project.org/package=ggaligner,https://github.com/alexdobin/STAR</t>
         </is>
       </c>
       <c r="K146" t="inlineStr"/>
@@ -8297,7 +8297,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ShinyItemAnalysis,https://github.com/Edward1Chou/SentimentAnalysis,https://github.com/sfeuerriegel/SentimentAnalysis,https://cran.r-project.org/package=StemAnalysis,https://github.com/cran/SentimentAnalysis,https://github.com/virgoC0der/SentimentAnalysisOfProductReview,https://cran.r-project.org/package=SorptionAnalysis,https://cran.r-project.org/package=SentimentAnalysis,https://github.com/barissayil/SentimentAnalysis,https://github.com/CUHKSZ-TQL/WeiboSpider_SentimentAnalysis,https://github.com/anycodes/SentimentAnalysis</t>
+          <t>https://github.com/barissayil/SentimentAnalysis,https://github.com/cran/SentimentAnalysis,https://github.com/anycodes/SentimentAnalysis,https://cran.r-project.org/package=StemAnalysis,https://github.com/sfeuerriegel/SentimentAnalysis,https://cran.r-project.org/package=ShinyItemAnalysis,https://github.com/CUHKSZ-TQL/WeiboSpider_SentimentAnalysis,https://github.com/Edward1Chou/SentimentAnalysis,https://pypi.org/project/SentimentAnalysis/,https://github.com/virgoC0der/SentimentAnalysisOfProductReview,https://cran.r-project.org/package=SentimentAnalysis,https://cran.r-project.org/package=SorptionAnalysis,https://github.com/arunkottilukkal/AnalyseSentiment</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -8353,7 +8353,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ShinyItemAnalysis,https://github.com/Edward1Chou/SentimentAnalysis,https://github.com/sfeuerriegel/SentimentAnalysis,https://cran.r-project.org/package=StemAnalysis,https://github.com/cran/SentimentAnalysis,https://github.com/virgoC0der/SentimentAnalysisOfProductReview,https://cran.r-project.org/package=SorptionAnalysis,https://cran.r-project.org/package=SentimentAnalysis,https://github.com/barissayil/SentimentAnalysis,https://github.com/CUHKSZ-TQL/WeiboSpider_SentimentAnalysis,https://github.com/anycodes/SentimentAnalysis</t>
+          <t>https://github.com/barissayil/SentimentAnalysis,https://github.com/cran/SentimentAnalysis,https://github.com/anycodes/SentimentAnalysis,https://cran.r-project.org/package=StemAnalysis,https://github.com/sfeuerriegel/SentimentAnalysis,https://cran.r-project.org/package=ShinyItemAnalysis,https://github.com/CUHKSZ-TQL/WeiboSpider_SentimentAnalysis,https://github.com/Edward1Chou/SentimentAnalysis,https://pypi.org/project/SentimentAnalysis/,https://github.com/virgoC0der/SentimentAnalysisOfProductReview,https://cran.r-project.org/package=SentimentAnalysis,https://cran.r-project.org/package=SorptionAnalysis,https://github.com/arunkottilukkal/AnalyseSentiment</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -8409,7 +8409,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ShinyItemAnalysis,https://github.com/Edward1Chou/SentimentAnalysis,https://github.com/sfeuerriegel/SentimentAnalysis,https://cran.r-project.org/package=StemAnalysis,https://github.com/cran/SentimentAnalysis,https://github.com/virgoC0der/SentimentAnalysisOfProductReview,https://cran.r-project.org/package=SorptionAnalysis,https://cran.r-project.org/package=SentimentAnalysis,https://github.com/barissayil/SentimentAnalysis,https://github.com/CUHKSZ-TQL/WeiboSpider_SentimentAnalysis,https://github.com/anycodes/SentimentAnalysis</t>
+          <t>https://github.com/barissayil/SentimentAnalysis,https://github.com/cran/SentimentAnalysis,https://github.com/anycodes/SentimentAnalysis,https://cran.r-project.org/package=StemAnalysis,https://github.com/sfeuerriegel/SentimentAnalysis,https://cran.r-project.org/package=ShinyItemAnalysis,https://github.com/CUHKSZ-TQL/WeiboSpider_SentimentAnalysis,https://github.com/Edward1Chou/SentimentAnalysis,https://pypi.org/project/SentimentAnalysis/,https://github.com/virgoC0der/SentimentAnalysisOfProductReview,https://cran.r-project.org/package=SentimentAnalysis,https://cran.r-project.org/package=SorptionAnalysis,https://github.com/arunkottilukkal/AnalyseSentiment</t>
         </is>
       </c>
       <c r="K149" t="inlineStr"/>
@@ -8461,7 +8461,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=Seurat,https://cran.r-project.org/package=SeuratObject,https://github.com/cran/SeuratObject,https://github.com/satijalab/seurat-object,https://cran.r-project.org/package=eudract,https://github.com/conda-forge/r-seuratobject-feedstock</t>
+          <t>https://cran.r-project.org/package=eudract,https://cran.r-project.org/package=SeuratObject,https://github.com/satijalab/seurat-object,https://github.com/conda-forge/r-seuratobject-feedstock,https://cran.r-project.org/package=Seurat,https://github.com/cran/SeuratObject</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -8517,7 +8517,7 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=Seurat,https://cran.r-project.org/package=SeuratObject,https://github.com/cran/SeuratObject,https://github.com/satijalab/seurat-object,https://cran.r-project.org/package=eudract,https://github.com/conda-forge/r-seuratobject-feedstock</t>
+          <t>https://cran.r-project.org/package=eudract,https://cran.r-project.org/package=SeuratObject,https://github.com/satijalab/seurat-object,https://github.com/conda-forge/r-seuratobject-feedstock,https://cran.r-project.org/package=Seurat,https://github.com/cran/SeuratObject</t>
         </is>
       </c>
       <c r="K151" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=SparseMDC,https://github.com/cran/SparseDC,https://cran.r-project.org/package=SparseICA,https://cran.r-project.org/package=SparseDC,https://github.com/WHU-USI3DV/SparseDC,https://cran.r-project.org/package=SparseVFC</t>
+          <t>https://cran.r-project.org/package=SparseVFC,https://cran.r-project.org/package=SparseDC,https://github.com/WHU-USI3DV/SparseDC,https://cran.r-project.org/package=SparseMDC,https://cran.r-project.org/package=SparseICA,https://github.com/cran/SparseDC</t>
         </is>
       </c>
       <c r="K152" t="inlineStr"/>
@@ -8985,7 +8985,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=countSTAR,https://github.com/sahat/hackathon-starter,https://github.com/starship/starship,https://cran.r-project.org/package=BAYSTAR,https://github.com/google/web-starter-kit,https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DstarM,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=EffectStars</t>
+          <t>https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=BAYSTAR,https://cran.r-project.org/package=DstarM,https://github.com/alexdobin/STAR,https://github.com/google/web-starter-kit,https://cran.r-project.org/package=countSTAR,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/sahat/hackathon-starter</t>
         </is>
       </c>
       <c r="K160" t="inlineStr"/>
@@ -9037,7 +9037,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=countSTAR,https://github.com/sahat/hackathon-starter,https://github.com/starship/starship,https://cran.r-project.org/package=BAYSTAR,https://github.com/google/web-starter-kit,https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DstarM,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=EffectStars</t>
+          <t>https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=BAYSTAR,https://cran.r-project.org/package=DstarM,https://github.com/alexdobin/STAR,https://github.com/google/web-starter-kit,https://cran.r-project.org/package=countSTAR,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/sahat/hackathon-starter</t>
         </is>
       </c>
       <c r="K161" t="inlineStr"/>
@@ -9089,7 +9089,7 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=countSTAR,https://github.com/sahat/hackathon-starter,https://github.com/starship/starship,https://cran.r-project.org/package=BAYSTAR,https://github.com/google/web-starter-kit,https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DstarM,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=EffectStars</t>
+          <t>https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=BAYSTAR,https://cran.r-project.org/package=DstarM,https://github.com/alexdobin/STAR,https://github.com/google/web-starter-kit,https://cran.r-project.org/package=countSTAR,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/sahat/hackathon-starter</t>
         </is>
       </c>
       <c r="K162" t="inlineStr"/>
@@ -9141,7 +9141,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=tatest,https://cran.r-project.org/package=getmstatistic,https://cran.r-project.org/package=visStatistics,https://github.com/coenribbens/Netflix-statistix,https://github.com/arjangosens/NetflixStatistix,https://github.com/piotrgrabowski2501/Statistix,https://cran.r-project.org/package=kStatistics,https://github.com/Trio-opdracht-P2RD2/Netflix-statistix,https://github.com/bmsimons/NetflixStatistix,https://cran.r-project.org/package=mStats,https://github.com/GuusLieben/Netflix-Statistix</t>
+          <t>https://cran.r-project.org/package=getmstatistic,https://github.com/arjangosens/NetflixStatistix,https://github.com/piotrgrabowski2501/Statistix,https://cran.r-project.org/package=visStatistics,https://cran.r-project.org/package=tatest,https://github.com/GuusLieben/Netflix-Statistix,https://github.com/Trio-opdracht-P2RD2/Netflix-statistix,https://github.com/coenribbens/Netflix-statistix,https://github.com/bmsimons/NetflixStatistix,https://cran.r-project.org/package=kStatistics,https://cran.r-project.org/package=mStats</t>
         </is>
       </c>
       <c r="K163" t="inlineStr"/>
@@ -9193,7 +9193,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=eyeRead,https://pypi.org/project/TreeToReads/,https://cran.r-project.org/package=roads,https://github.com/snacktavish/TreeToReads,https://cran.r-project.org/package=TreeTools</t>
+          <t>https://github.com/snacktavish/TreeToReads,https://cran.r-project.org/package=roads,https://cran.r-project.org/package=eyeRead,https://cran.r-project.org/package=TreeTools,https://pypi.org/project/TreeToReads/</t>
         </is>
       </c>
       <c r="K164" t="inlineStr"/>
@@ -9241,7 +9241,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=eyeRead,https://pypi.org/project/TreeToReads/,https://cran.r-project.org/package=roads,https://github.com/snacktavish/TreeToReads,https://cran.r-project.org/package=TreeTools</t>
+          <t>https://github.com/snacktavish/TreeToReads,https://cran.r-project.org/package=roads,https://cran.r-project.org/package=eyeRead,https://cran.r-project.org/package=TreeTools,https://pypi.org/project/TreeToReads/</t>
         </is>
       </c>
       <c r="K165" t="inlineStr"/>
@@ -9289,7 +9289,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=eyeRead,https://pypi.org/project/TreeToReads/,https://cran.r-project.org/package=roads,https://github.com/snacktavish/TreeToReads,https://cran.r-project.org/package=TreeTools</t>
+          <t>https://github.com/snacktavish/TreeToReads,https://cran.r-project.org/package=roads,https://cran.r-project.org/package=eyeRead,https://cran.r-project.org/package=TreeTools,https://pypi.org/project/TreeToReads/</t>
         </is>
       </c>
       <c r="K166" t="inlineStr"/>
@@ -9337,7 +9337,7 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=eyeRead,https://pypi.org/project/TreeToReads/,https://cran.r-project.org/package=roads,https://github.com/snacktavish/TreeToReads,https://cran.r-project.org/package=TreeTools</t>
+          <t>https://github.com/snacktavish/TreeToReads,https://cran.r-project.org/package=roads,https://cran.r-project.org/package=eyeRead,https://cran.r-project.org/package=TreeTools,https://pypi.org/project/TreeToReads/</t>
         </is>
       </c>
       <c r="K167" t="inlineStr"/>
@@ -9385,7 +9385,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=eyeRead,https://pypi.org/project/TreeToReads/,https://cran.r-project.org/package=roads,https://github.com/snacktavish/TreeToReads,https://cran.r-project.org/package=TreeTools</t>
+          <t>https://github.com/snacktavish/TreeToReads,https://cran.r-project.org/package=roads,https://cran.r-project.org/package=eyeRead,https://cran.r-project.org/package=TreeTools,https://pypi.org/project/TreeToReads/</t>
         </is>
       </c>
       <c r="K168" t="inlineStr"/>
@@ -9433,7 +9433,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=rnetcarto,https://github.com/cran/TunePareto,https://cran.r-project.org/package=Pareto</t>
+          <t>https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=rnetcarto,https://cran.r-project.org/package=Pareto,https://github.com/cran/TunePareto</t>
         </is>
       </c>
       <c r="K169" t="inlineStr"/>
@@ -9485,7 +9485,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=rnetcarto,https://github.com/cran/TunePareto,https://cran.r-project.org/package=Pareto</t>
+          <t>https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=rnetcarto,https://cran.r-project.org/package=Pareto,https://github.com/cran/TunePareto</t>
         </is>
       </c>
       <c r="K170" t="inlineStr"/>
@@ -9537,7 +9537,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=rnetcarto,https://github.com/cran/TunePareto,https://cran.r-project.org/package=Pareto</t>
+          <t>https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=rnetcarto,https://cran.r-project.org/package=Pareto,https://github.com/cran/TunePareto</t>
         </is>
       </c>
       <c r="K171" t="inlineStr"/>
@@ -9589,7 +9589,7 @@
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=rnetcarto,https://github.com/cran/TunePareto,https://cran.r-project.org/package=Pareto</t>
+          <t>https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=rnetcarto,https://cran.r-project.org/package=Pareto,https://github.com/cran/TunePareto</t>
         </is>
       </c>
       <c r="K172" t="inlineStr"/>
@@ -9641,7 +9641,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=rnetcarto,https://github.com/cran/TunePareto,https://cran.r-project.org/package=Pareto</t>
+          <t>https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=rnetcarto,https://cran.r-project.org/package=Pareto,https://github.com/cran/TunePareto</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -9697,7 +9697,7 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>https://github.com/ergohaven/velvet,https://cran.r-project.org/package=relevent,https://github.com/noamr/velvette,https://github.com/sgwoodjr/velvet,https://github.com/vitalight/Velvet,https://github.com/dzerbino/velvet,https://cran.r-project.org/package=revert,https://cran.r-project.org/package=elect,https://github.com/caro401/royal-velvet,https://cran.r-project.org/package=event,https://pypi.org/project/velvet/,https://cran.r-project.org/package=lvnet</t>
+          <t>https://cran.r-project.org/package=elect,https://github.com/caro401/royal-velvet,https://cran.r-project.org/package=event,https://cran.r-project.org/package=relevent,https://pypi.org/project/velvet/,https://github.com/ergohaven/velvet,https://cran.r-project.org/package=revert,https://github.com/noamr/velvette,https://cran.r-project.org/package=lvnet,https://github.com/vitalight/Velvet,https://github.com/dzerbino/velvet,https://github.com/sgwoodjr/velvet</t>
         </is>
       </c>
       <c r="K174" t="inlineStr"/>
@@ -9749,7 +9749,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>https://github.com/ergohaven/velvet,https://cran.r-project.org/package=relevent,https://github.com/noamr/velvette,https://github.com/sgwoodjr/velvet,https://github.com/vitalight/Velvet,https://github.com/dzerbino/velvet,https://cran.r-project.org/package=revert,https://cran.r-project.org/package=elect,https://github.com/caro401/royal-velvet,https://cran.r-project.org/package=event,https://pypi.org/project/velvet/,https://cran.r-project.org/package=lvnet</t>
+          <t>https://cran.r-project.org/package=elect,https://github.com/caro401/royal-velvet,https://cran.r-project.org/package=event,https://cran.r-project.org/package=relevent,https://pypi.org/project/velvet/,https://github.com/ergohaven/velvet,https://cran.r-project.org/package=revert,https://github.com/noamr/velvette,https://cran.r-project.org/package=lvnet,https://github.com/vitalight/Velvet,https://github.com/dzerbino/velvet,https://github.com/sgwoodjr/velvet</t>
         </is>
       </c>
       <c r="K175" t="inlineStr"/>
@@ -9801,7 +9801,7 @@
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>https://github.com/ergohaven/velvet,https://cran.r-project.org/package=relevent,https://github.com/noamr/velvette,https://github.com/sgwoodjr/velvet,https://github.com/vitalight/Velvet,https://github.com/dzerbino/velvet,https://cran.r-project.org/package=revert,https://cran.r-project.org/package=elect,https://github.com/caro401/royal-velvet,https://cran.r-project.org/package=event,https://pypi.org/project/velvet/,https://cran.r-project.org/package=lvnet</t>
+          <t>https://cran.r-project.org/package=elect,https://github.com/caro401/royal-velvet,https://cran.r-project.org/package=event,https://cran.r-project.org/package=relevent,https://pypi.org/project/velvet/,https://github.com/ergohaven/velvet,https://cran.r-project.org/package=revert,https://github.com/noamr/velvette,https://cran.r-project.org/package=lvnet,https://github.com/vitalight/Velvet,https://github.com/dzerbino/velvet,https://github.com/sgwoodjr/velvet</t>
         </is>
       </c>
       <c r="K176" t="inlineStr"/>
@@ -9853,7 +9853,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>https://github.com/ergohaven/velvet,https://cran.r-project.org/package=relevent,https://github.com/noamr/velvette,https://github.com/sgwoodjr/velvet,https://github.com/vitalight/Velvet,https://github.com/dzerbino/velvet,https://cran.r-project.org/package=revert,https://cran.r-project.org/package=elect,https://github.com/caro401/royal-velvet,https://cran.r-project.org/package=event,https://pypi.org/project/velvet/,https://cran.r-project.org/package=lvnet</t>
+          <t>https://cran.r-project.org/package=elect,https://github.com/caro401/royal-velvet,https://cran.r-project.org/package=event,https://cran.r-project.org/package=relevent,https://pypi.org/project/velvet/,https://github.com/ergohaven/velvet,https://cran.r-project.org/package=revert,https://github.com/noamr/velvette,https://cran.r-project.org/package=lvnet,https://github.com/vitalight/Velvet,https://github.com/dzerbino/velvet,https://github.com/sgwoodjr/velvet</t>
         </is>
       </c>
       <c r="K177" t="inlineStr"/>
@@ -9905,7 +9905,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>https://github.com/ergohaven/velvet,https://cran.r-project.org/package=relevent,https://github.com/noamr/velvette,https://github.com/sgwoodjr/velvet,https://github.com/vitalight/Velvet,https://github.com/dzerbino/velvet,https://cran.r-project.org/package=revert,https://cran.r-project.org/package=elect,https://github.com/caro401/royal-velvet,https://cran.r-project.org/package=event,https://pypi.org/project/velvet/,https://cran.r-project.org/package=lvnet</t>
+          <t>https://cran.r-project.org/package=elect,https://github.com/caro401/royal-velvet,https://cran.r-project.org/package=event,https://cran.r-project.org/package=relevent,https://pypi.org/project/velvet/,https://github.com/ergohaven/velvet,https://cran.r-project.org/package=revert,https://github.com/noamr/velvette,https://cran.r-project.org/package=lvnet,https://github.com/vitalight/Velvet,https://github.com/dzerbino/velvet,https://github.com/sgwoodjr/velvet</t>
         </is>
       </c>
       <c r="K178" t="inlineStr"/>
@@ -9957,7 +9957,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>https://github.com/cran/WeightedROC,https://github.com/tdhock/WeightedROC,https://cran.r-project.org/package=weightedRank,https://cran.r-project.org/package=weightedGCM,https://cran.r-project.org/package=weightedCL,https://cran.r-project.org/package=WeightedROC</t>
+          <t>https://github.com/cran/WeightedROC,https://cran.r-project.org/package=weightedRank,https://cran.r-project.org/package=weightedCL,https://github.com/tdhock/WeightedROC,https://cran.r-project.org/package=WeightedROC,https://cran.r-project.org/package=weightedGCM</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -10013,7 +10013,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>https://github.com/cran/WeightedROC,https://github.com/tdhock/WeightedROC,https://cran.r-project.org/package=weightedRank,https://cran.r-project.org/package=weightedGCM,https://cran.r-project.org/package=weightedCL,https://cran.r-project.org/package=WeightedROC</t>
+          <t>https://github.com/cran/WeightedROC,https://cran.r-project.org/package=weightedRank,https://cran.r-project.org/package=weightedCL,https://github.com/tdhock/WeightedROC,https://cran.r-project.org/package=WeightedROC,https://cran.r-project.org/package=weightedGCM</t>
         </is>
       </c>
       <c r="K180" t="inlineStr"/>
@@ -10065,7 +10065,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>https://github.com/guillaume-chevalier/LSTM-Human-Activity-Recognition,https://github.com/cran/activity,https://cran.r-project.org/package=activityCounts,https://github.com/Shpota/github-activity-generator,https://cran.r-project.org/package=PhysicalActivity,https://cran.r-project.org/package=ActivityIndex,https://github.com/Ereza/CustomActivityOnCrash,https://github.com/ActivityWatch/activitywatch,https://github.com/spatie/laravel-activitylog,https://cran.r-project.org/package=biologicalActivityIndices,https://cran.r-project.org/package=activity</t>
+          <t>https://github.com/Ereza/CustomActivityOnCrash,https://cran.r-project.org/package=activity,https://github.com/cran/activity,https://cran.r-project.org/package=PhysicalActivity,https://cran.r-project.org/package=biologicalActivityIndices,https://cran.r-project.org/package=activityCounts,https://github.com/guillaume-chevalier/LSTM-Human-Activity-Recognition,https://github.com/Shpota/github-activity-generator,https://github.com/spatie/laravel-activitylog,https://github.com/ActivityWatch/activitywatch,https://cran.r-project.org/package=ActivityIndex</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -10121,7 +10121,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>https://github.com/guillaume-chevalier/LSTM-Human-Activity-Recognition,https://github.com/cran/activity,https://cran.r-project.org/package=activityCounts,https://github.com/Shpota/github-activity-generator,https://cran.r-project.org/package=PhysicalActivity,https://cran.r-project.org/package=ActivityIndex,https://github.com/Ereza/CustomActivityOnCrash,https://github.com/ActivityWatch/activitywatch,https://github.com/spatie/laravel-activitylog,https://cran.r-project.org/package=biologicalActivityIndices,https://cran.r-project.org/package=activity</t>
+          <t>https://github.com/Ereza/CustomActivityOnCrash,https://cran.r-project.org/package=activity,https://github.com/cran/activity,https://cran.r-project.org/package=PhysicalActivity,https://cran.r-project.org/package=biologicalActivityIndices,https://cran.r-project.org/package=activityCounts,https://github.com/guillaume-chevalier/LSTM-Human-Activity-Recognition,https://github.com/Shpota/github-activity-generator,https://github.com/spatie/laravel-activitylog,https://github.com/ActivityWatch/activitywatch,https://cran.r-project.org/package=ActivityIndex</t>
         </is>
       </c>
       <c r="K182" t="inlineStr"/>
@@ -10173,7 +10173,7 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>https://github.com/guillaume-chevalier/LSTM-Human-Activity-Recognition,https://github.com/cran/activity,https://cran.r-project.org/package=activityCounts,https://github.com/Shpota/github-activity-generator,https://cran.r-project.org/package=PhysicalActivity,https://cran.r-project.org/package=ActivityIndex,https://github.com/Ereza/CustomActivityOnCrash,https://github.com/ActivityWatch/activitywatch,https://github.com/spatie/laravel-activitylog,https://cran.r-project.org/package=biologicalActivityIndices,https://cran.r-project.org/package=activity</t>
+          <t>https://github.com/Ereza/CustomActivityOnCrash,https://cran.r-project.org/package=activity,https://github.com/cran/activity,https://cran.r-project.org/package=PhysicalActivity,https://cran.r-project.org/package=biologicalActivityIndices,https://cran.r-project.org/package=activityCounts,https://github.com/guillaume-chevalier/LSTM-Human-Activity-Recognition,https://github.com/Shpota/github-activity-generator,https://github.com/spatie/laravel-activitylog,https://github.com/ActivityWatch/activitywatch,https://cran.r-project.org/package=ActivityIndex</t>
         </is>
       </c>
       <c r="K183" t="inlineStr"/>
@@ -10225,7 +10225,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>https://github.com/guillaume-chevalier/LSTM-Human-Activity-Recognition,https://github.com/cran/activity,https://cran.r-project.org/package=activityCounts,https://github.com/Shpota/github-activity-generator,https://cran.r-project.org/package=PhysicalActivity,https://cran.r-project.org/package=ActivityIndex,https://github.com/Ereza/CustomActivityOnCrash,https://github.com/ActivityWatch/activitywatch,https://github.com/spatie/laravel-activitylog,https://cran.r-project.org/package=biologicalActivityIndices,https://cran.r-project.org/package=activity</t>
+          <t>https://github.com/Ereza/CustomActivityOnCrash,https://cran.r-project.org/package=activity,https://github.com/cran/activity,https://cran.r-project.org/package=PhysicalActivity,https://cran.r-project.org/package=biologicalActivityIndices,https://cran.r-project.org/package=activityCounts,https://github.com/guillaume-chevalier/LSTM-Human-Activity-Recognition,https://github.com/Shpota/github-activity-generator,https://github.com/spatie/laravel-activitylog,https://github.com/ActivityWatch/activitywatch,https://cran.r-project.org/package=ActivityIndex</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -10281,7 +10281,7 @@
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>https://github.com/guillaume-chevalier/LSTM-Human-Activity-Recognition,https://github.com/cran/activity,https://cran.r-project.org/package=activityCounts,https://github.com/Shpota/github-activity-generator,https://cran.r-project.org/package=PhysicalActivity,https://cran.r-project.org/package=ActivityIndex,https://github.com/Ereza/CustomActivityOnCrash,https://github.com/ActivityWatch/activitywatch,https://github.com/spatie/laravel-activitylog,https://cran.r-project.org/package=biologicalActivityIndices,https://cran.r-project.org/package=activity</t>
+          <t>https://github.com/Ereza/CustomActivityOnCrash,https://cran.r-project.org/package=activity,https://github.com/cran/activity,https://cran.r-project.org/package=PhysicalActivity,https://cran.r-project.org/package=biologicalActivityIndices,https://cran.r-project.org/package=activityCounts,https://github.com/guillaume-chevalier/LSTM-Human-Activity-Recognition,https://github.com/Shpota/github-activity-generator,https://github.com/spatie/laravel-activitylog,https://github.com/ActivityWatch/activitywatch,https://cran.r-project.org/package=ActivityIndex</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -10337,7 +10337,7 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=appleadsR,https://pypi.org/project/ads/,https://github.com/kboghdady/youTube_ads_4_pi-hole,https://github.com/jerryn70/GoodbyeAds,https://cran.r-project.org/package=adsDataHubR,https://github.com/TG-Twilight/AWAvenue-Ads-Rule,https://cran.r-project.org/package=amazonadsR,https://github.com/cran/ads,https://cran.r-project.org/package=ads,https://github.com/adsbypasser/adsbypasser,https://github.com/revive-adserver/revive-adserver,https://github.com/andycasey/ads,https://cran.r-project.org/package=AdsorpR</t>
+          <t>https://cran.r-project.org/package=appleadsR,https://github.com/revive-adserver/revive-adserver,https://cran.r-project.org/package=AdsorpR,https://cran.r-project.org/package=amazonadsR,https://github.com/adsbypasser/adsbypasser,https://pypi.org/project/ads/,https://cran.r-project.org/package=ads,https://github.com/kboghdady/youTube_ads_4_pi-hole,https://github.com/cran/ads,https://github.com/jerryn70/GoodbyeAds,https://cran.r-project.org/package=adsDataHubR,https://github.com/TG-Twilight/AWAvenue-Ads-Rule,https://github.com/andycasey/ads</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -10393,7 +10393,7 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>https://github.com/arguman/ampirik,https://cran.r-project.org/package=ampir,https://cran.r-project.org/package=mpr,https://cran.r-project.org/package=amp,https://github.com/Legana/ampir,https://github.com/cran/ampir,https://github.com/iracooke/ampir_shiny,https://cran.r-project.org/package=ami,https://github.com/Aveglia/vAMPirus,https://github.com/ampir-nn/android_kernel_leeco_msm8976-9.x</t>
+          <t>https://github.com/arguman/ampirik,https://cran.r-project.org/package=ami,https://cran.r-project.org/package=mpr,https://github.com/ampir-nn/android_kernel_leeco_msm8976-9.x,https://cran.r-project.org/package=amp,https://github.com/Legana/ampir,https://github.com/cran/ampir,https://github.com/iracooke/ampir_shiny,https://github.com/Aveglia/vAMPirus,https://cran.r-project.org/package=ampir</t>
         </is>
       </c>
       <c r="K187" t="inlineStr"/>
@@ -10445,7 +10445,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rofanova,https://cran.r-project.org/package=granova,https://cran.r-project.org/package=kanova,https://github.com/cran/anocva,https://github.com/conda-forge/r-anocva-feedstock,https://cran.r-project.org/package=anocva,https://github.com/davicaetano/anocva</t>
+          <t>https://cran.r-project.org/package=anocva,https://github.com/davicaetano/anocva,https://github.com/cran/anocva,https://cran.r-project.org/package=rofanova,https://cran.r-project.org/package=kanova,https://github.com/conda-forge/r-anocva-feedstock,https://cran.r-project.org/package=granova</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -10501,7 +10501,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>https://github.com/cavega36/AssignPopModule,https://cran.r-project.org/package=BayesDesign,https://cran.r-project.org/package=Massign,https://cran.r-project.org/package=assignPOP,https://github.com/cran/assignPOP,https://github.com/alexkychen/assignPOP,https://github.com/ishratc/Cross_Validation_and_AssignPop,https://cran.r-project.org/package=assignR</t>
+          <t>https://cran.r-project.org/package=Massign,https://cran.r-project.org/package=assignR,https://cran.r-project.org/package=BayesDesign,https://github.com/cran/assignPOP,https://github.com/cavega36/AssignPopModule,https://cran.r-project.org/package=assignPOP,https://github.com/alexkychen/assignPOP,https://github.com/ishratc/Cross_Validation_and_AssignPop</t>
         </is>
       </c>
       <c r="K189" t="inlineStr"/>
@@ -10553,7 +10553,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>https://github.com/cavega36/AssignPopModule,https://cran.r-project.org/package=BayesDesign,https://cran.r-project.org/package=Massign,https://cran.r-project.org/package=assignPOP,https://github.com/cran/assignPOP,https://github.com/alexkychen/assignPOP,https://github.com/ishratc/Cross_Validation_and_AssignPop,https://cran.r-project.org/package=assignR</t>
+          <t>https://cran.r-project.org/package=Massign,https://cran.r-project.org/package=assignR,https://cran.r-project.org/package=BayesDesign,https://github.com/cran/assignPOP,https://github.com/cavega36/AssignPopModule,https://cran.r-project.org/package=assignPOP,https://github.com/alexkychen/assignPOP,https://github.com/ishratc/Cross_Validation_and_AssignPop</t>
         </is>
       </c>
       <c r="K190" t="inlineStr"/>
@@ -10605,7 +10605,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>https://github.com/cavega36/AssignPopModule,https://cran.r-project.org/package=BayesDesign,https://cran.r-project.org/package=Massign,https://cran.r-project.org/package=assignPOP,https://github.com/cran/assignPOP,https://github.com/alexkychen/assignPOP,https://github.com/ishratc/Cross_Validation_and_AssignPop,https://cran.r-project.org/package=assignR</t>
+          <t>https://cran.r-project.org/package=Massign,https://cran.r-project.org/package=assignR,https://cran.r-project.org/package=BayesDesign,https://github.com/cran/assignPOP,https://github.com/cavega36/AssignPopModule,https://cran.r-project.org/package=assignPOP,https://github.com/alexkychen/assignPOP,https://github.com/ishratc/Cross_Validation_and_AssignPop</t>
         </is>
       </c>
       <c r="K191" t="inlineStr"/>
@@ -10657,7 +10657,7 @@
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr">
         <is>
-          <t>https://github.com/cavega36/AssignPopModule,https://cran.r-project.org/package=BayesDesign,https://cran.r-project.org/package=Massign,https://cran.r-project.org/package=assignPOP,https://github.com/cran/assignPOP,https://github.com/alexkychen/assignPOP,https://github.com/ishratc/Cross_Validation_and_AssignPop,https://cran.r-project.org/package=assignR</t>
+          <t>https://cran.r-project.org/package=Massign,https://cran.r-project.org/package=assignR,https://cran.r-project.org/package=BayesDesign,https://github.com/cran/assignPOP,https://github.com/cavega36/AssignPopModule,https://cran.r-project.org/package=assignPOP,https://github.com/alexkychen/assignPOP,https://github.com/ishratc/Cross_Validation_and_AssignPop</t>
         </is>
       </c>
       <c r="K192" t="inlineStr"/>
@@ -10709,7 +10709,7 @@
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>https://github.com/cavega36/AssignPopModule,https://cran.r-project.org/package=BayesDesign,https://cran.r-project.org/package=Massign,https://cran.r-project.org/package=assignPOP,https://github.com/cran/assignPOP,https://github.com/alexkychen/assignPOP,https://github.com/ishratc/Cross_Validation_and_AssignPop,https://cran.r-project.org/package=assignR</t>
+          <t>https://cran.r-project.org/package=Massign,https://cran.r-project.org/package=assignR,https://cran.r-project.org/package=BayesDesign,https://github.com/cran/assignPOP,https://github.com/cavega36/AssignPopModule,https://cran.r-project.org/package=assignPOP,https://github.com/alexkychen/assignPOP,https://github.com/ishratc/Cross_Validation_and_AssignPop</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -10765,7 +10765,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>https://github.com/wention/BeautifulSoup4,https://github.com/collegue1337/BeautifulSoup4,https://github.com/meteopavel/BeautifulSoup4_PEP_Parser,https://github.com/PythonDevMaster/beautifulSoup4,https://github.com/YouXianMing/BeautifulSoup4-WebCralwer</t>
+          <t>https://github.com/YouXianMing/BeautifulSoup4-WebCralwer,https://github.com/meteopavel/BeautifulSoup4_PEP_Parser,https://github.com/wention/BeautifulSoup4,https://github.com/collegue1337/BeautifulSoup4,https://pypi.org/project/beautifulsoup4/,https://github.com/PythonDevMaster/beautifulSoup4</t>
         </is>
       </c>
       <c r="K194" t="inlineStr"/>
@@ -10817,7 +10817,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>https://github.com/cran/beepr,https://github.com/xreef/MKS_WIFI_upgrade_with_BeePrint_web_interface,https://cran.r-project.org/package=epr,https://cran.r-project.org/package=debkeepr,https://github.com/xreef/beeprint_3d_printer_web_interface,https://github.com/beeverycreative/helloBEEprusa-hardware,https://cran.r-project.org/package=beepr,https://cran.r-project.org/package=bpr,https://github.com/rasmusab/beepr,https://github.com/panyanyany/beeprint</t>
+          <t>https://cran.r-project.org/package=bpr,https://cran.r-project.org/package=epr,https://github.com/xreef/MKS_WIFI_upgrade_with_BeePrint_web_interface,https://github.com/beeverycreative/helloBEEprusa-hardware,https://cran.r-project.org/package=beepr,https://github.com/rasmusab/beepr,https://github.com/panyanyany/beeprint,https://github.com/cran/beepr,https://cran.r-project.org/package=debkeepr,https://github.com/xreef/beeprint_3d_printer_web_interface</t>
         </is>
       </c>
       <c r="K195" t="inlineStr"/>
@@ -10865,7 +10865,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>https://github.com/cran/beepr,https://github.com/xreef/MKS_WIFI_upgrade_with_BeePrint_web_interface,https://cran.r-project.org/package=epr,https://cran.r-project.org/package=debkeepr,https://github.com/xreef/beeprint_3d_printer_web_interface,https://github.com/beeverycreative/helloBEEprusa-hardware,https://cran.r-project.org/package=beepr,https://cran.r-project.org/package=bpr,https://github.com/rasmusab/beepr,https://github.com/panyanyany/beeprint</t>
+          <t>https://cran.r-project.org/package=bpr,https://cran.r-project.org/package=epr,https://github.com/xreef/MKS_WIFI_upgrade_with_BeePrint_web_interface,https://github.com/beeverycreative/helloBEEprusa-hardware,https://cran.r-project.org/package=beepr,https://github.com/rasmusab/beepr,https://github.com/panyanyany/beeprint,https://github.com/cran/beepr,https://cran.r-project.org/package=debkeepr,https://github.com/xreef/beeprint_3d_printer_web_interface</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -10917,7 +10917,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bitops,https://cran.r-project.org/package=iopsych,https://github.com/biopython/biopython.github.io,https://cran.r-project.org/package=ioncopy,https://github.com/biopython/biopython,https://github.com/jheled/biopy,https://github.com/bigwiv/Biopython-cn,https://github.com/peterjc/biopython_workshop,https://cran.r-project.org/package=rbioapi,https://github.com/tiagoantao/biopython-notebook,https://cran.r-project.org/package=mcbiopi</t>
+          <t>https://github.com/jheled/biopy,https://cran.r-project.org/package=ioncopy,https://github.com/tiagoantao/biopython-notebook,https://cran.r-project.org/package=iopsych,https://github.com/bigwiv/Biopython-cn,https://github.com/biopython/biopython.github.io,https://cran.r-project.org/package=mcbiopi,https://cran.r-project.org/package=bitops,https://pypi.org/project/biopy/,https://cran.r-project.org/package=rbioapi,https://github.com/peterjc/biopython_workshop,https://github.com/biopython/biopython,https://github.com/BioPyTeam/biopy</t>
         </is>
       </c>
       <c r="K197" t="inlineStr"/>
@@ -10969,7 +10969,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bitops,https://cran.r-project.org/package=iopsych,https://github.com/biopython/biopython.github.io,https://cran.r-project.org/package=ioncopy,https://github.com/biopython/biopython,https://github.com/jheled/biopy,https://github.com/bigwiv/Biopython-cn,https://github.com/peterjc/biopython_workshop,https://cran.r-project.org/package=rbioapi,https://github.com/tiagoantao/biopython-notebook,https://cran.r-project.org/package=mcbiopi</t>
+          <t>https://github.com/jheled/biopy,https://cran.r-project.org/package=ioncopy,https://github.com/tiagoantao/biopython-notebook,https://cran.r-project.org/package=iopsych,https://github.com/bigwiv/Biopython-cn,https://github.com/biopython/biopython.github.io,https://cran.r-project.org/package=mcbiopi,https://cran.r-project.org/package=bitops,https://pypi.org/project/biopy/,https://cran.r-project.org/package=rbioapi,https://github.com/peterjc/biopython_workshop,https://github.com/biopython/biopython,https://github.com/BioPyTeam/biopy</t>
         </is>
       </c>
       <c r="K198" t="inlineStr"/>
@@ -11021,7 +11021,7 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bitops,https://cran.r-project.org/package=iopsych,https://github.com/biopython/biopython.github.io,https://cran.r-project.org/package=ioncopy,https://github.com/biopython/biopython,https://github.com/jheled/biopy,https://github.com/bigwiv/Biopython-cn,https://github.com/peterjc/biopython_workshop,https://cran.r-project.org/package=rbioapi,https://github.com/tiagoantao/biopython-notebook,https://cran.r-project.org/package=mcbiopi</t>
+          <t>https://github.com/jheled/biopy,https://cran.r-project.org/package=ioncopy,https://github.com/tiagoantao/biopython-notebook,https://cran.r-project.org/package=iopsych,https://github.com/bigwiv/Biopython-cn,https://github.com/biopython/biopython.github.io,https://cran.r-project.org/package=mcbiopi,https://cran.r-project.org/package=bitops,https://pypi.org/project/biopy/,https://cran.r-project.org/package=rbioapi,https://github.com/peterjc/biopython_workshop,https://github.com/biopython/biopython,https://github.com/BioPyTeam/biopy</t>
         </is>
       </c>
       <c r="K199" t="inlineStr"/>
@@ -11073,7 +11073,7 @@
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bitops,https://cran.r-project.org/package=iopsych,https://github.com/biopython/biopython.github.io,https://cran.r-project.org/package=ioncopy,https://github.com/biopython/biopython,https://github.com/jheled/biopy,https://github.com/bigwiv/Biopython-cn,https://github.com/peterjc/biopython_workshop,https://cran.r-project.org/package=rbioapi,https://github.com/tiagoantao/biopython-notebook,https://cran.r-project.org/package=mcbiopi</t>
+          <t>https://github.com/jheled/biopy,https://cran.r-project.org/package=ioncopy,https://github.com/tiagoantao/biopython-notebook,https://cran.r-project.org/package=iopsych,https://github.com/bigwiv/Biopython-cn,https://github.com/biopython/biopython.github.io,https://cran.r-project.org/package=mcbiopi,https://cran.r-project.org/package=bitops,https://pypi.org/project/biopy/,https://cran.r-project.org/package=rbioapi,https://github.com/peterjc/biopython_workshop,https://github.com/biopython/biopython,https://github.com/BioPyTeam/biopy</t>
         </is>
       </c>
       <c r="K200" t="inlineStr"/>
@@ -11125,7 +11125,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bitops,https://cran.r-project.org/package=iopsych,https://github.com/biopython/biopython.github.io,https://cran.r-project.org/package=ioncopy,https://github.com/biopython/biopython,https://github.com/jheled/biopy,https://github.com/bigwiv/Biopython-cn,https://github.com/peterjc/biopython_workshop,https://cran.r-project.org/package=rbioapi,https://github.com/tiagoantao/biopython-notebook,https://cran.r-project.org/package=mcbiopi</t>
+          <t>https://github.com/jheled/biopy,https://cran.r-project.org/package=ioncopy,https://github.com/tiagoantao/biopython-notebook,https://cran.r-project.org/package=iopsych,https://github.com/bigwiv/Biopython-cn,https://github.com/biopython/biopython.github.io,https://cran.r-project.org/package=mcbiopi,https://cran.r-project.org/package=bitops,https://pypi.org/project/biopy/,https://cran.r-project.org/package=rbioapi,https://github.com/peterjc/biopython_workshop,https://github.com/biopython/biopython,https://github.com/BioPyTeam/biopy</t>
         </is>
       </c>
       <c r="K201" t="inlineStr"/>
@@ -11177,7 +11177,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=biosignalEMG,https://github.com/cran/biosignalEMG,https://cran.r-project.org/package=signal,https://cran.r-project.org/package=gsignal,https://cran.r-project.org/package=phylosignal</t>
+          <t>https://cran.r-project.org/package=phylosignal,https://github.com/cran/biosignalEMG,https://cran.r-project.org/package=biosignalEMG,https://cran.r-project.org/package=gsignal,https://cran.r-project.org/package=signal</t>
         </is>
       </c>
       <c r="K202" t="inlineStr"/>
@@ -11229,7 +11229,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=biosignalEMG,https://github.com/cran/biosignalEMG,https://cran.r-project.org/package=signal,https://cran.r-project.org/package=gsignal,https://cran.r-project.org/package=phylosignal</t>
+          <t>https://cran.r-project.org/package=phylosignal,https://github.com/cran/biosignalEMG,https://cran.r-project.org/package=biosignalEMG,https://cran.r-project.org/package=gsignal,https://cran.r-project.org/package=signal</t>
         </is>
       </c>
       <c r="K203" t="inlineStr"/>
@@ -11281,7 +11281,7 @@
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
-          <t>https://github.com/gsk3/bootLR,https://cran.r-project.org/package=bootLR,https://github.com/7srikanth7/SpringBootlrn,https://github.com/irinakostikova/bootLR2,https://cran.r-project.org/package=bootUR,https://github.com/Gustavolmo/bootlr,https://github.com/cran/bootLR,https://cran.r-project.org/package=boot</t>
+          <t>https://github.com/irinakostikova/bootLR2,https://github.com/cran/bootLR,https://github.com/Gustavolmo/bootlr,https://cran.r-project.org/package=boot,https://cran.r-project.org/package=bootLR,https://cran.r-project.org/package=bootUR,https://github.com/7srikanth7/SpringBootlrn,https://github.com/gsk3/bootLR</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -11337,7 +11337,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>https://github.com/gsk3/bootLR,https://cran.r-project.org/package=bootLR,https://github.com/7srikanth7/SpringBootlrn,https://github.com/irinakostikova/bootLR2,https://cran.r-project.org/package=bootUR,https://github.com/Gustavolmo/bootlr,https://github.com/cran/bootLR,https://cran.r-project.org/package=boot</t>
+          <t>https://github.com/irinakostikova/bootLR2,https://github.com/cran/bootLR,https://github.com/Gustavolmo/bootlr,https://cran.r-project.org/package=boot,https://cran.r-project.org/package=bootLR,https://cran.r-project.org/package=bootUR,https://github.com/7srikanth7/SpringBootlrn,https://github.com/gsk3/bootLR</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -11393,7 +11393,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>https://github.com/MahShaaban/cRegulomedb,https://cran.r-project.org/package=glme,https://github.com/ropensci/cRegulome,https://cran.r-project.org/package=credule,https://cran.r-project.org/package=cglm,https://github.com/ropensci-docs/cRegulome,https://github.com/cran/cRegulome,https://github.com/mmulvahill/berd009_ropensci_cregulomereview</t>
+          <t>https://cran.r-project.org/package=cglm,https://cran.r-project.org/package=credule,https://github.com/ropensci-docs/cRegulome,https://github.com/MahShaaban/cRegulomedb,https://github.com/ropensci/cRegulome,https://cran.r-project.org/package=glme,https://github.com/cran/cRegulome,https://github.com/mmulvahill/berd009_ropensci_cregulomereview</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -11449,7 +11449,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>https://github.com/MahShaaban/cRegulomedb,https://cran.r-project.org/package=glme,https://github.com/ropensci/cRegulome,https://cran.r-project.org/package=credule,https://cran.r-project.org/package=cglm,https://github.com/ropensci-docs/cRegulome,https://github.com/cran/cRegulome,https://github.com/mmulvahill/berd009_ropensci_cregulomereview</t>
+          <t>https://cran.r-project.org/package=cglm,https://cran.r-project.org/package=credule,https://github.com/ropensci-docs/cRegulome,https://github.com/MahShaaban/cRegulomedb,https://github.com/ropensci/cRegulome,https://cran.r-project.org/package=glme,https://github.com/cran/cRegulome,https://github.com/mmulvahill/berd009_ropensci_cregulomereview</t>
         </is>
       </c>
       <c r="K207" t="inlineStr"/>
@@ -11501,7 +11501,7 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>https://github.com/MahShaaban/cRegulomedb,https://cran.r-project.org/package=glme,https://github.com/ropensci/cRegulome,https://cran.r-project.org/package=credule,https://cran.r-project.org/package=cglm,https://github.com/ropensci-docs/cRegulome,https://github.com/cran/cRegulome,https://github.com/mmulvahill/berd009_ropensci_cregulomereview</t>
+          <t>https://cran.r-project.org/package=cglm,https://cran.r-project.org/package=credule,https://github.com/ropensci-docs/cRegulome,https://github.com/MahShaaban/cRegulomedb,https://github.com/ropensci/cRegulome,https://cran.r-project.org/package=glme,https://github.com/cran/cRegulome,https://github.com/mmulvahill/berd009_ropensci_cregulomereview</t>
         </is>
       </c>
       <c r="K208" t="inlineStr"/>
@@ -11553,7 +11553,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>https://github.com/MahShaaban/cRegulomedb,https://cran.r-project.org/package=glme,https://github.com/ropensci/cRegulome,https://cran.r-project.org/package=credule,https://cran.r-project.org/package=cglm,https://github.com/ropensci-docs/cRegulome,https://github.com/cran/cRegulome,https://github.com/mmulvahill/berd009_ropensci_cregulomereview</t>
+          <t>https://cran.r-project.org/package=cglm,https://cran.r-project.org/package=credule,https://github.com/ropensci-docs/cRegulome,https://github.com/MahShaaban/cRegulomedb,https://github.com/ropensci/cRegulome,https://cran.r-project.org/package=glme,https://github.com/cran/cRegulome,https://github.com/mmulvahill/berd009_ropensci_cregulomereview</t>
         </is>
       </c>
       <c r="K209" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr">
         <is>
-          <t>http://github.com/tpq/catmap,https://github.com/burritomaps/catmapper,https://github.com/cran/catmap,https://github.com/oawu/catmap_ios,https://github.com/VerkehrsbetriebeZuerich/catmaply,https://github.com/SUNCAT-Center/catmap,https://github.com/mainframed/CATMAP,https://cran.r-project.org/package=catmap,https://cran.r-project.org/package=catmaply,https://cran.r-project.org/package=catdap</t>
+          <t>http://github.com/tpq/catmap,https://github.com/SUNCAT-Center/catmap,https://github.com/burritomaps/catmapper,https://cran.r-project.org/package=catmaply,https://github.com/mainframed/CATMAP,https://github.com/oawu/catmap_ios,https://cran.r-project.org/package=catmap,https://github.com/cran/catmap,https://cran.r-project.org/package=catdap,https://github.com/VerkehrsbetriebeZuerich/catmaply</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -11661,7 +11661,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>http://github.com/tpq/catmap,https://github.com/burritomaps/catmapper,https://github.com/cran/catmap,https://github.com/oawu/catmap_ios,https://github.com/VerkehrsbetriebeZuerich/catmaply,https://github.com/SUNCAT-Center/catmap,https://github.com/mainframed/CATMAP,https://cran.r-project.org/package=catmap,https://cran.r-project.org/package=catmaply,https://cran.r-project.org/package=catdap</t>
+          <t>http://github.com/tpq/catmap,https://github.com/SUNCAT-Center/catmap,https://github.com/burritomaps/catmapper,https://cran.r-project.org/package=catmaply,https://github.com/mainframed/CATMAP,https://github.com/oawu/catmap_ios,https://cran.r-project.org/package=catmap,https://github.com/cran/catmap,https://cran.r-project.org/package=catdap,https://github.com/VerkehrsbetriebeZuerich/catmaply</t>
         </is>
       </c>
       <c r="K211" t="inlineStr"/>
@@ -11713,7 +11713,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>http://github.com/tpq/catmap,https://github.com/burritomaps/catmapper,https://github.com/cran/catmap,https://github.com/oawu/catmap_ios,https://github.com/VerkehrsbetriebeZuerich/catmaply,https://github.com/SUNCAT-Center/catmap,https://github.com/mainframed/CATMAP,https://cran.r-project.org/package=catmap,https://cran.r-project.org/package=catmaply,https://cran.r-project.org/package=catdap</t>
+          <t>http://github.com/tpq/catmap,https://github.com/SUNCAT-Center/catmap,https://github.com/burritomaps/catmapper,https://cran.r-project.org/package=catmaply,https://github.com/mainframed/CATMAP,https://github.com/oawu/catmap_ios,https://cran.r-project.org/package=catmap,https://github.com/cran/catmap,https://cran.r-project.org/package=catdap,https://github.com/VerkehrsbetriebeZuerich/catmaply</t>
         </is>
       </c>
       <c r="K212" t="inlineStr"/>
@@ -11765,7 +11765,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>http://github.com/tpq/catmap,https://github.com/burritomaps/catmapper,https://github.com/cran/catmap,https://github.com/oawu/catmap_ios,https://github.com/VerkehrsbetriebeZuerich/catmaply,https://github.com/SUNCAT-Center/catmap,https://github.com/mainframed/CATMAP,https://cran.r-project.org/package=catmap,https://cran.r-project.org/package=catmaply,https://cran.r-project.org/package=catdap</t>
+          <t>http://github.com/tpq/catmap,https://github.com/SUNCAT-Center/catmap,https://github.com/burritomaps/catmapper,https://cran.r-project.org/package=catmaply,https://github.com/mainframed/CATMAP,https://github.com/oawu/catmap_ios,https://cran.r-project.org/package=catmap,https://github.com/cran/catmap,https://cran.r-project.org/package=catdap,https://github.com/VerkehrsbetriebeZuerich/catmaply</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -11821,7 +11821,7 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>http://github.com/tpq/catmap,https://github.com/burritomaps/catmapper,https://github.com/cran/catmap,https://github.com/oawu/catmap_ios,https://github.com/VerkehrsbetriebeZuerich/catmaply,https://github.com/SUNCAT-Center/catmap,https://github.com/mainframed/CATMAP,https://cran.r-project.org/package=catmap,https://cran.r-project.org/package=catmaply,https://cran.r-project.org/package=catdap</t>
+          <t>http://github.com/tpq/catmap,https://github.com/SUNCAT-Center/catmap,https://github.com/burritomaps/catmapper,https://cran.r-project.org/package=catmaply,https://github.com/mainframed/CATMAP,https://github.com/oawu/catmap_ios,https://cran.r-project.org/package=catmap,https://github.com/cran/catmap,https://cran.r-project.org/package=catdap,https://github.com/VerkehrsbetriebeZuerich/catmaply</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -11877,7 +11877,7 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=cleaner,https://github.com/10XGenomics/cellranger-atac,https://github.com/rsheets/cellranger,https://cran.r-project.org/package=changer,https://github.com/crazyhottommy/pyflow-cellranger,https://github.com/hb-gitified/cellrangerRkit,https://cran.r-project.org/package=cellranger,https://github.com/10XGenomics/cellranger,https://cran.r-project.org/package=ranger,https://github.com/cran/cellranger</t>
+          <t>https://cran.r-project.org/package=cleaner,https://github.com/crazyhottommy/pyflow-cellranger,https://github.com/cran/cellranger,https://github.com/rsheets/cellranger,https://cran.r-project.org/package=cellranger,https://cran.r-project.org/package=ranger,https://github.com/10XGenomics/cellranger,https://github.com/hb-gitified/cellrangerRkit,https://github.com/10XGenomics/cellranger-atac,https://cran.r-project.org/package=changer</t>
         </is>
       </c>
       <c r="K215" t="inlineStr"/>
@@ -11929,7 +11929,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=cleaner,https://github.com/10XGenomics/cellranger-atac,https://github.com/rsheets/cellranger,https://cran.r-project.org/package=changer,https://github.com/crazyhottommy/pyflow-cellranger,https://github.com/hb-gitified/cellrangerRkit,https://cran.r-project.org/package=cellranger,https://github.com/10XGenomics/cellranger,https://cran.r-project.org/package=ranger,https://github.com/cran/cellranger</t>
+          <t>https://cran.r-project.org/package=cleaner,https://github.com/crazyhottommy/pyflow-cellranger,https://github.com/cran/cellranger,https://github.com/rsheets/cellranger,https://cran.r-project.org/package=cellranger,https://cran.r-project.org/package=ranger,https://github.com/10XGenomics/cellranger,https://github.com/hb-gitified/cellrangerRkit,https://github.com/10XGenomics/cellranger-atac,https://cran.r-project.org/package=changer</t>
         </is>
       </c>
       <c r="K216" t="inlineStr"/>
@@ -11981,7 +11981,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=cleaner,https://github.com/10XGenomics/cellranger-atac,https://github.com/rsheets/cellranger,https://cran.r-project.org/package=changer,https://github.com/crazyhottommy/pyflow-cellranger,https://github.com/hb-gitified/cellrangerRkit,https://cran.r-project.org/package=cellranger,https://github.com/10XGenomics/cellranger,https://cran.r-project.org/package=ranger,https://github.com/cran/cellranger</t>
+          <t>https://cran.r-project.org/package=cleaner,https://github.com/crazyhottommy/pyflow-cellranger,https://github.com/cran/cellranger,https://github.com/rsheets/cellranger,https://cran.r-project.org/package=cellranger,https://cran.r-project.org/package=ranger,https://github.com/10XGenomics/cellranger,https://github.com/hb-gitified/cellrangerRkit,https://github.com/10XGenomics/cellranger-atac,https://cran.r-project.org/package=changer</t>
         </is>
       </c>
       <c r="K217" t="inlineStr"/>
@@ -12033,7 +12033,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=cleaner,https://github.com/10XGenomics/cellranger-atac,https://github.com/rsheets/cellranger,https://cran.r-project.org/package=changer,https://github.com/crazyhottommy/pyflow-cellranger,https://github.com/hb-gitified/cellrangerRkit,https://cran.r-project.org/package=cellranger,https://github.com/10XGenomics/cellranger,https://cran.r-project.org/package=ranger,https://github.com/cran/cellranger</t>
+          <t>https://cran.r-project.org/package=cleaner,https://github.com/crazyhottommy/pyflow-cellranger,https://github.com/cran/cellranger,https://github.com/rsheets/cellranger,https://cran.r-project.org/package=cellranger,https://cran.r-project.org/package=ranger,https://github.com/10XGenomics/cellranger,https://github.com/hb-gitified/cellrangerRkit,https://github.com/10XGenomics/cellranger-atac,https://cran.r-project.org/package=changer</t>
         </is>
       </c>
       <c r="K218" t="inlineStr"/>
@@ -12085,7 +12085,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=cleaner,https://github.com/10XGenomics/cellranger-atac,https://github.com/rsheets/cellranger,https://cran.r-project.org/package=changer,https://github.com/crazyhottommy/pyflow-cellranger,https://github.com/hb-gitified/cellrangerRkit,https://cran.r-project.org/package=cellranger,https://github.com/10XGenomics/cellranger,https://cran.r-project.org/package=ranger,https://github.com/cran/cellranger</t>
+          <t>https://cran.r-project.org/package=cleaner,https://github.com/crazyhottommy/pyflow-cellranger,https://github.com/cran/cellranger,https://github.com/rsheets/cellranger,https://cran.r-project.org/package=cellranger,https://cran.r-project.org/package=ranger,https://github.com/10XGenomics/cellranger,https://github.com/hb-gitified/cellrangerRkit,https://github.com/10XGenomics/cellranger-atac,https://cran.r-project.org/package=changer</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -12141,7 +12141,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>https://github.com/brunokim/cgraph,https://cran.r-project.org/package=incgraph,https://cran.r-project.org/package=MetricGraph,https://cran.r-project.org/package=SBICgraph,https://github.com/ChunelFeng/CGraph-lite,https://github.com/julesjacobs/cgraphs,https://github.com/ChunelFeng/CGraph,https://github.com/Poil/CGraphz,https://cran.r-project.org/package=sgraph,https://github.com/trailofbits/ObjCGraphView</t>
+          <t>https://cran.r-project.org/package=MetricGraph,https://github.com/ChunelFeng/CGraph-lite,https://cran.r-project.org/package=incgraph,https://github.com/ChunelFeng/CGraph,https://github.com/brunokim/cgraph,https://github.com/trailofbits/ObjCGraphView,https://github.com/julesjacobs/cgraphs,https://github.com/Poil/CGraphz,https://cran.r-project.org/package=SBICgraph,https://cran.r-project.org/package=sgraph</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -12197,7 +12197,7 @@
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=corpmetrics,https://github.com/maruedt/chemometrics,https://cran.r-project.org/package=pedometrics,https://github.com/EBjerrum/Deep-Chemometrics,https://cran.r-project.org/package=chemometrics,https://cran.r-project.org/package=recometrics,https://github.com/caseykneale/ChemometricsTools.jl,https://github.com/rwehrens/ChemometricsWithR,https://github.com/cran/chemometrics,https://pypi.org/project/chemometrics/,https://github.com/Gscorreia89/pyChemometrics</t>
+          <t>https://cran.r-project.org/package=corpmetrics,https://cran.r-project.org/package=recometrics,https://github.com/cran/chemometrics,https://github.com/maruedt/chemometrics,https://cran.r-project.org/package=pedometrics,https://github.com/EBjerrum/Deep-Chemometrics,https://github.com/caseykneale/ChemometricsTools.jl,https://pypi.org/project/chemometrics/,https://cran.r-project.org/package=chemometrics,https://github.com/rwehrens/ChemometricsWithR,https://github.com/Gscorreia89/pyChemometrics</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -12253,7 +12253,7 @@
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=corpmetrics,https://github.com/maruedt/chemometrics,https://cran.r-project.org/package=pedometrics,https://github.com/EBjerrum/Deep-Chemometrics,https://cran.r-project.org/package=chemometrics,https://cran.r-project.org/package=recometrics,https://github.com/caseykneale/ChemometricsTools.jl,https://github.com/rwehrens/ChemometricsWithR,https://github.com/cran/chemometrics,https://pypi.org/project/chemometrics/,https://github.com/Gscorreia89/pyChemometrics</t>
+          <t>https://cran.r-project.org/package=corpmetrics,https://cran.r-project.org/package=recometrics,https://github.com/cran/chemometrics,https://github.com/maruedt/chemometrics,https://cran.r-project.org/package=pedometrics,https://github.com/EBjerrum/Deep-Chemometrics,https://github.com/caseykneale/ChemometricsTools.jl,https://pypi.org/project/chemometrics/,https://cran.r-project.org/package=chemometrics,https://github.com/rwehrens/ChemometricsWithR,https://github.com/Gscorreia89/pyChemometrics</t>
         </is>
       </c>
       <c r="K222" t="inlineStr"/>
@@ -12305,7 +12305,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=corpmetrics,https://github.com/maruedt/chemometrics,https://cran.r-project.org/package=pedometrics,https://github.com/EBjerrum/Deep-Chemometrics,https://cran.r-project.org/package=chemometrics,https://cran.r-project.org/package=recometrics,https://github.com/caseykneale/ChemometricsTools.jl,https://github.com/rwehrens/ChemometricsWithR,https://github.com/cran/chemometrics,https://pypi.org/project/chemometrics/,https://github.com/Gscorreia89/pyChemometrics</t>
+          <t>https://cran.r-project.org/package=corpmetrics,https://cran.r-project.org/package=recometrics,https://github.com/cran/chemometrics,https://github.com/maruedt/chemometrics,https://cran.r-project.org/package=pedometrics,https://github.com/EBjerrum/Deep-Chemometrics,https://github.com/caseykneale/ChemometricsTools.jl,https://pypi.org/project/chemometrics/,https://cran.r-project.org/package=chemometrics,https://github.com/rwehrens/ChemometricsWithR,https://github.com/Gscorreia89/pyChemometrics</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -12361,7 +12361,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=corpmetrics,https://github.com/maruedt/chemometrics,https://cran.r-project.org/package=pedometrics,https://github.com/EBjerrum/Deep-Chemometrics,https://cran.r-project.org/package=chemometrics,https://cran.r-project.org/package=recometrics,https://github.com/caseykneale/ChemometricsTools.jl,https://github.com/rwehrens/ChemometricsWithR,https://github.com/cran/chemometrics,https://pypi.org/project/chemometrics/,https://github.com/Gscorreia89/pyChemometrics</t>
+          <t>https://cran.r-project.org/package=corpmetrics,https://cran.r-project.org/package=recometrics,https://github.com/cran/chemometrics,https://github.com/maruedt/chemometrics,https://cran.r-project.org/package=pedometrics,https://github.com/EBjerrum/Deep-Chemometrics,https://github.com/caseykneale/ChemometricsTools.jl,https://pypi.org/project/chemometrics/,https://cran.r-project.org/package=chemometrics,https://github.com/rwehrens/ChemometricsWithR,https://github.com/Gscorreia89/pyChemometrics</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -12417,7 +12417,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=corpmetrics,https://github.com/maruedt/chemometrics,https://cran.r-project.org/package=pedometrics,https://github.com/EBjerrum/Deep-Chemometrics,https://cran.r-project.org/package=chemometrics,https://cran.r-project.org/package=recometrics,https://github.com/caseykneale/ChemometricsTools.jl,https://github.com/rwehrens/ChemometricsWithR,https://github.com/cran/chemometrics,https://pypi.org/project/chemometrics/,https://github.com/Gscorreia89/pyChemometrics</t>
+          <t>https://cran.r-project.org/package=corpmetrics,https://cran.r-project.org/package=recometrics,https://github.com/cran/chemometrics,https://github.com/maruedt/chemometrics,https://cran.r-project.org/package=pedometrics,https://github.com/EBjerrum/Deep-Chemometrics,https://github.com/caseykneale/ChemometricsTools.jl,https://pypi.org/project/chemometrics/,https://cran.r-project.org/package=chemometrics,https://github.com/rwehrens/ChemometricsWithR,https://github.com/Gscorreia89/pyChemometrics</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -12473,7 +12473,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>https://github.com/cran/cobs,https://cran.r-project.org/package=cosa,https://cran.r-project.org/package=ecos,https://github.com/bingmann/cobs,https://github.com/jamesmunns/cobs.rs,https://cran.r-project.org/package=cobs,https://pypi.org/project/cobs/,https://github.com/clvoloshin/COBS,https://github.com/cmcqueen/cobs-python,https://cran.r-project.org/package=cops,https://github.com/cmcqueen/cobs-c,https://github.com/jacquesf/COBS-Consistent-Overhead-Byte-Stuffing</t>
+          <t>https://github.com/cmcqueen/cobs-c,https://github.com/jacquesf/COBS-Consistent-Overhead-Byte-Stuffing,https://cran.r-project.org/package=cops,https://cran.r-project.org/package=cobs,https://github.com/cran/cobs,https://cran.r-project.org/package=ecos,https://github.com/clvoloshin/COBS,https://cran.r-project.org/package=cosa,https://github.com/bingmann/cobs,https://github.com/jamesmunns/cobs.rs,https://pypi.org/project/cobs/,https://github.com/cmcqueen/cobs-python</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -12529,7 +12529,7 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=cumSeg,https://cran.r-project.org/package=ceg,https://cran.r-project.org/package=Ecume,https://cran.r-project.org/package=crmReg,https://github.com/cran/cumSeg</t>
+          <t>https://github.com/cran/cumSeg,https://cran.r-project.org/package=cumSeg,https://cran.r-project.org/package=ceg,https://cran.r-project.org/package=Ecume,https://cran.r-project.org/package=crmReg</t>
         </is>
       </c>
       <c r="K227" t="inlineStr"/>
@@ -12577,7 +12577,7 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=cumSeg,https://cran.r-project.org/package=ceg,https://cran.r-project.org/package=Ecume,https://cran.r-project.org/package=crmReg,https://github.com/cran/cumSeg</t>
+          <t>https://github.com/cran/cumSeg,https://cran.r-project.org/package=cumSeg,https://cran.r-project.org/package=ceg,https://cran.r-project.org/package=Ecume,https://cran.r-project.org/package=crmReg</t>
         </is>
       </c>
       <c r="K228" t="inlineStr"/>
@@ -12625,7 +12625,7 @@
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=cumSeg,https://cran.r-project.org/package=ceg,https://cran.r-project.org/package=Ecume,https://cran.r-project.org/package=crmReg,https://github.com/cran/cumSeg</t>
+          <t>https://github.com/cran/cumSeg,https://cran.r-project.org/package=cumSeg,https://cran.r-project.org/package=ceg,https://cran.r-project.org/package=Ecume,https://cran.r-project.org/package=crmReg</t>
         </is>
       </c>
       <c r="K229" t="inlineStr"/>
@@ -12673,7 +12673,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=cumSeg,https://cran.r-project.org/package=ceg,https://cran.r-project.org/package=Ecume,https://cran.r-project.org/package=crmReg,https://github.com/cran/cumSeg</t>
+          <t>https://github.com/cran/cumSeg,https://cran.r-project.org/package=cumSeg,https://cran.r-project.org/package=ceg,https://cran.r-project.org/package=Ecume,https://cran.r-project.org/package=crmReg</t>
         </is>
       </c>
       <c r="K230" t="inlineStr"/>
@@ -12721,7 +12721,7 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=cumSeg,https://cran.r-project.org/package=ceg,https://cran.r-project.org/package=Ecume,https://cran.r-project.org/package=crmReg,https://github.com/cran/cumSeg</t>
+          <t>https://github.com/cran/cumSeg,https://cran.r-project.org/package=cumSeg,https://cran.r-project.org/package=ceg,https://cran.r-project.org/package=Ecume,https://cran.r-project.org/package=crmReg</t>
         </is>
       </c>
       <c r="K231" t="inlineStr"/>
@@ -12769,7 +12769,7 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=recodeflow,https://cran.r-project.org/package=cartograflow,https://github.com/cytoflow/cytoflow-examples,https://cran.r-project.org/package=cytofan,https://github.com/cytoflow/cytoflow,https://github.com/ZhangYongChang/cytoflow,https://cran.r-project.org/package=tensorflow,https://github.com/jiawu/cytoflow,https://pypi.org/project/cytoflow/,https://cran.r-project.org/package=flow,https://github.com/aicb-ZhangLabs/CytoFlow</t>
+          <t>https://github.com/ZhangYongChang/cytoflow,https://github.com/cytoflow/cytoflow-examples,https://github.com/aicb-ZhangLabs/CytoFlow,https://cran.r-project.org/package=cartograflow,https://cran.r-project.org/package=flow,https://cran.r-project.org/package=cytofan,https://github.com/jiawu/cytoflow,https://cran.r-project.org/package=recodeflow,https://github.com/cytoflow/cytoflow,https://pypi.org/project/cytoflow/,https://cran.r-project.org/package=tensorflow</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -12825,7 +12825,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dae,https://github.com/daeuniverse/dae,https://github.com/xingda920813/HelloDaemon,https://github.com/DustinBrett/daedalOS,https://cran.r-project.org/package=daewr,https://github.com/sevlyar/go-daemon,https://cran.r-project.org/package=date,https://github.com/Marswin/MarsDaemon,https://github.com/briencj/dae,https://github.com/cran/dae,https://cran.r-project.org/package=NPBBBDAefficiency</t>
+          <t>https://github.com/DustinBrett/daedalOS,https://github.com/xingda920813/HelloDaemon,https://github.com/cran/dae,https://github.com/daeuniverse/dae,https://cran.r-project.org/package=NPBBBDAefficiency,https://github.com/briencj/dae,https://cran.r-project.org/package=dae,https://cran.r-project.org/package=daewr,https://github.com/sevlyar/go-daemon,https://github.com/Marswin/MarsDaemon,https://cran.r-project.org/package=date</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -12881,7 +12881,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dae,https://github.com/daeuniverse/dae,https://github.com/xingda920813/HelloDaemon,https://github.com/DustinBrett/daedalOS,https://cran.r-project.org/package=daewr,https://github.com/sevlyar/go-daemon,https://cran.r-project.org/package=date,https://github.com/Marswin/MarsDaemon,https://github.com/briencj/dae,https://github.com/cran/dae,https://cran.r-project.org/package=NPBBBDAefficiency</t>
+          <t>https://github.com/DustinBrett/daedalOS,https://github.com/xingda920813/HelloDaemon,https://github.com/cran/dae,https://github.com/daeuniverse/dae,https://cran.r-project.org/package=NPBBBDAefficiency,https://github.com/briencj/dae,https://cran.r-project.org/package=dae,https://cran.r-project.org/package=daewr,https://github.com/sevlyar/go-daemon,https://github.com/Marswin/MarsDaemon,https://cran.r-project.org/package=date</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -12937,7 +12937,7 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dae,https://github.com/daeuniverse/dae,https://github.com/xingda920813/HelloDaemon,https://github.com/DustinBrett/daedalOS,https://cran.r-project.org/package=daewr,https://github.com/sevlyar/go-daemon,https://cran.r-project.org/package=date,https://github.com/Marswin/MarsDaemon,https://github.com/briencj/dae,https://github.com/cran/dae,https://cran.r-project.org/package=NPBBBDAefficiency</t>
+          <t>https://github.com/DustinBrett/daedalOS,https://github.com/xingda920813/HelloDaemon,https://github.com/cran/dae,https://github.com/daeuniverse/dae,https://cran.r-project.org/package=NPBBBDAefficiency,https://github.com/briencj/dae,https://cran.r-project.org/package=dae,https://cran.r-project.org/package=daewr,https://github.com/sevlyar/go-daemon,https://github.com/Marswin/MarsDaemon,https://cran.r-project.org/package=date</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -12993,7 +12993,7 @@
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dae,https://github.com/daeuniverse/dae,https://github.com/xingda920813/HelloDaemon,https://github.com/DustinBrett/daedalOS,https://cran.r-project.org/package=daewr,https://github.com/sevlyar/go-daemon,https://cran.r-project.org/package=date,https://github.com/Marswin/MarsDaemon,https://github.com/briencj/dae,https://github.com/cran/dae,https://cran.r-project.org/package=NPBBBDAefficiency</t>
+          <t>https://github.com/DustinBrett/daedalOS,https://github.com/xingda920813/HelloDaemon,https://github.com/cran/dae,https://github.com/daeuniverse/dae,https://cran.r-project.org/package=NPBBBDAefficiency,https://github.com/briencj/dae,https://cran.r-project.org/package=dae,https://cran.r-project.org/package=daewr,https://github.com/sevlyar/go-daemon,https://github.com/Marswin/MarsDaemon,https://cran.r-project.org/package=date</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -13049,7 +13049,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=atable,https://github.com/jbetancur/react-data-table-component,https://github.com/Rdatatable/data.table,https://github.com/DataTables/DataTables,https://cran.r-project.org/package=data.table,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=rqdatatable,https://github.com/daniel-nagy/md-data-table,https://github.com/cran/data.table</t>
+          <t>https://cran.r-project.org/package=atable,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=data.table,https://github.com/DataTables/DataTables,https://github.com/cran/data.table,https://github.com/daniel-nagy/md-data-table,https://cran.r-project.org/package=rqdatatable,https://github.com/Rdatatable/data.table,https://github.com/jbetancur/react-data-table-component</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -13105,7 +13105,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=atable,https://github.com/jbetancur/react-data-table-component,https://github.com/Rdatatable/data.table,https://github.com/DataTables/DataTables,https://cran.r-project.org/package=data.table,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=rqdatatable,https://github.com/daniel-nagy/md-data-table,https://github.com/cran/data.table</t>
+          <t>https://cran.r-project.org/package=atable,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=data.table,https://github.com/DataTables/DataTables,https://github.com/cran/data.table,https://github.com/daniel-nagy/md-data-table,https://cran.r-project.org/package=rqdatatable,https://github.com/Rdatatable/data.table,https://github.com/jbetancur/react-data-table-component</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -13161,7 +13161,7 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=atable,https://github.com/jbetancur/react-data-table-component,https://github.com/Rdatatable/data.table,https://github.com/DataTables/DataTables,https://cran.r-project.org/package=data.table,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=rqdatatable,https://github.com/daniel-nagy/md-data-table,https://github.com/cran/data.table</t>
+          <t>https://cran.r-project.org/package=atable,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=data.table,https://github.com/DataTables/DataTables,https://github.com/cran/data.table,https://github.com/daniel-nagy/md-data-table,https://cran.r-project.org/package=rqdatatable,https://github.com/Rdatatable/data.table,https://github.com/jbetancur/react-data-table-component</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -13217,7 +13217,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=atable,https://github.com/jbetancur/react-data-table-component,https://github.com/Rdatatable/data.table,https://github.com/DataTables/DataTables,https://cran.r-project.org/package=data.table,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=rqdatatable,https://github.com/daniel-nagy/md-data-table,https://github.com/cran/data.table</t>
+          <t>https://cran.r-project.org/package=atable,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=data.table,https://github.com/DataTables/DataTables,https://github.com/cran/data.table,https://github.com/daniel-nagy/md-data-table,https://cran.r-project.org/package=rqdatatable,https://github.com/Rdatatable/data.table,https://github.com/jbetancur/react-data-table-component</t>
         </is>
       </c>
       <c r="K240" t="inlineStr"/>
@@ -13269,7 +13269,7 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=atable,https://github.com/jbetancur/react-data-table-component,https://github.com/Rdatatable/data.table,https://github.com/DataTables/DataTables,https://cran.r-project.org/package=data.table,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=rqdatatable,https://github.com/daniel-nagy/md-data-table,https://github.com/cran/data.table</t>
+          <t>https://cran.r-project.org/package=atable,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=data.table,https://github.com/DataTables/DataTables,https://github.com/cran/data.table,https://github.com/daniel-nagy/md-data-table,https://cran.r-project.org/package=rqdatatable,https://github.com/Rdatatable/data.table,https://github.com/jbetancur/react-data-table-component</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -13325,7 +13325,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=atable,https://github.com/jbetancur/react-data-table-component,https://github.com/Rdatatable/data.table,https://github.com/DataTables/DataTables,https://cran.r-project.org/package=data.table,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=rqdatatable,https://github.com/daniel-nagy/md-data-table,https://github.com/cran/data.table</t>
+          <t>https://cran.r-project.org/package=atable,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=data.table,https://github.com/DataTables/DataTables,https://github.com/cran/data.table,https://github.com/daniel-nagy/md-data-table,https://cran.r-project.org/package=rqdatatable,https://github.com/Rdatatable/data.table,https://github.com/jbetancur/react-data-table-component</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -13381,7 +13381,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=atable,https://github.com/jbetancur/react-data-table-component,https://github.com/Rdatatable/data.table,https://github.com/DataTables/DataTables,https://cran.r-project.org/package=data.table,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=rqdatatable,https://github.com/daniel-nagy/md-data-table,https://github.com/cran/data.table</t>
+          <t>https://cran.r-project.org/package=atable,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=data.table,https://github.com/DataTables/DataTables,https://github.com/cran/data.table,https://github.com/daniel-nagy/md-data-table,https://cran.r-project.org/package=rqdatatable,https://github.com/Rdatatable/data.table,https://github.com/jbetancur/react-data-table-component</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -13437,7 +13437,7 @@
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=atable,https://github.com/jbetancur/react-data-table-component,https://github.com/Rdatatable/data.table,https://github.com/DataTables/DataTables,https://cran.r-project.org/package=data.table,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=rqdatatable,https://github.com/daniel-nagy/md-data-table,https://github.com/cran/data.table</t>
+          <t>https://cran.r-project.org/package=atable,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=data.table,https://github.com/DataTables/DataTables,https://github.com/cran/data.table,https://github.com/daniel-nagy/md-data-table,https://cran.r-project.org/package=rqdatatable,https://github.com/Rdatatable/data.table,https://github.com/jbetancur/react-data-table-component</t>
         </is>
       </c>
       <c r="K244" t="inlineStr"/>
@@ -13489,7 +13489,7 @@
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=atable,https://github.com/jbetancur/react-data-table-component,https://github.com/Rdatatable/data.table,https://github.com/DataTables/DataTables,https://cran.r-project.org/package=data.table,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=rqdatatable,https://github.com/daniel-nagy/md-data-table,https://github.com/cran/data.table</t>
+          <t>https://cran.r-project.org/package=atable,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=data.table,https://github.com/DataTables/DataTables,https://github.com/cran/data.table,https://github.com/daniel-nagy/md-data-table,https://cran.r-project.org/package=rqdatatable,https://github.com/Rdatatable/data.table,https://github.com/jbetancur/react-data-table-component</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -13545,7 +13545,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=atable,https://github.com/jbetancur/react-data-table-component,https://github.com/Rdatatable/data.table,https://github.com/DataTables/DataTables,https://cran.r-project.org/package=data.table,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=rqdatatable,https://github.com/daniel-nagy/md-data-table,https://github.com/cran/data.table</t>
+          <t>https://cran.r-project.org/package=atable,https://github.com/facebookarchive/fixed-data-table,https://cran.r-project.org/package=data.table.threads,https://cran.r-project.org/package=data.table,https://github.com/DataTables/DataTables,https://github.com/cran/data.table,https://github.com/daniel-nagy/md-data-table,https://cran.r-project.org/package=rqdatatable,https://github.com/Rdatatable/data.table,https://github.com/jbetancur/react-data-table-component</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -13601,7 +13601,7 @@
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=deepdive,https://github.com/cran/deepredeff,https://cran.r-project.org/package=deepdep,https://cran.r-project.org/package=deepredeff,https://github.com/ruthkr/deepredeff,https://cran.r-project.org/package=depcoeff,https://github.com/darcyabjones/deepredeff-py</t>
+          <t>https://cran.r-project.org/package=depcoeff,https://github.com/ruthkr/deepredeff,https://cran.r-project.org/package=deepredeff,https://github.com/darcyabjones/deepredeff-py,https://github.com/cran/deepredeff,https://cran.r-project.org/package=deepdive,https://cran.r-project.org/package=deepdep</t>
         </is>
       </c>
       <c r="K247" t="inlineStr"/>
@@ -13701,7 +13701,7 @@
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dtplyr,https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://github.com/snowflakedb/dplyr-snowflakedb,https://github.com/cran/dplyr,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://github.com/DPLYR-dev/SplashScreenFlutterPackage</t>
+          <t>https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://cran.r-project.org/package=dtplyr,https://github.com/cran/dplyr,https://github.com/DPLYR-dev/SplashScreenFlutterPackage,https://github.com/snowflakedb/dplyr-snowflakedb,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -13757,7 +13757,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dtplyr,https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://github.com/snowflakedb/dplyr-snowflakedb,https://github.com/cran/dplyr,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://github.com/DPLYR-dev/SplashScreenFlutterPackage</t>
+          <t>https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://cran.r-project.org/package=dtplyr,https://github.com/cran/dplyr,https://github.com/DPLYR-dev/SplashScreenFlutterPackage,https://github.com/snowflakedb/dplyr-snowflakedb,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -13813,7 +13813,7 @@
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dtplyr,https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://github.com/snowflakedb/dplyr-snowflakedb,https://github.com/cran/dplyr,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://github.com/DPLYR-dev/SplashScreenFlutterPackage</t>
+          <t>https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://cran.r-project.org/package=dtplyr,https://github.com/cran/dplyr,https://github.com/DPLYR-dev/SplashScreenFlutterPackage,https://github.com/snowflakedb/dplyr-snowflakedb,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -13869,7 +13869,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dtplyr,https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://github.com/snowflakedb/dplyr-snowflakedb,https://github.com/cran/dplyr,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://github.com/DPLYR-dev/SplashScreenFlutterPackage</t>
+          <t>https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://cran.r-project.org/package=dtplyr,https://github.com/cran/dplyr,https://github.com/DPLYR-dev/SplashScreenFlutterPackage,https://github.com/snowflakedb/dplyr-snowflakedb,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -13925,7 +13925,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dtplyr,https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://github.com/snowflakedb/dplyr-snowflakedb,https://github.com/cran/dplyr,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://github.com/DPLYR-dev/SplashScreenFlutterPackage</t>
+          <t>https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://cran.r-project.org/package=dtplyr,https://github.com/cran/dplyr,https://github.com/DPLYR-dev/SplashScreenFlutterPackage,https://github.com/snowflakedb/dplyr-snowflakedb,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K253" t="inlineStr"/>
@@ -13977,7 +13977,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dtplyr,https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://github.com/snowflakedb/dplyr-snowflakedb,https://github.com/cran/dplyr,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://github.com/DPLYR-dev/SplashScreenFlutterPackage</t>
+          <t>https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://cran.r-project.org/package=dtplyr,https://github.com/cran/dplyr,https://github.com/DPLYR-dev/SplashScreenFlutterPackage,https://github.com/snowflakedb/dplyr-snowflakedb,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -14033,7 +14033,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dtplyr,https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://github.com/snowflakedb/dplyr-snowflakedb,https://github.com/cran/dplyr,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://github.com/DPLYR-dev/SplashScreenFlutterPackage</t>
+          <t>https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://cran.r-project.org/package=dtplyr,https://github.com/cran/dplyr,https://github.com/DPLYR-dev/SplashScreenFlutterPackage,https://github.com/snowflakedb/dplyr-snowflakedb,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -14089,7 +14089,7 @@
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dtplyr,https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://github.com/snowflakedb/dplyr-snowflakedb,https://github.com/cran/dplyr,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://github.com/DPLYR-dev/SplashScreenFlutterPackage</t>
+          <t>https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://cran.r-project.org/package=dtplyr,https://github.com/cran/dplyr,https://github.com/DPLYR-dev/SplashScreenFlutterPackage,https://github.com/snowflakedb/dplyr-snowflakedb,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -14145,7 +14145,7 @@
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dtplyr,https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://github.com/snowflakedb/dplyr-snowflakedb,https://github.com/cran/dplyr,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://github.com/DPLYR-dev/SplashScreenFlutterPackage</t>
+          <t>https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://cran.r-project.org/package=dtplyr,https://github.com/cran/dplyr,https://github.com/DPLYR-dev/SplashScreenFlutterPackage,https://github.com/snowflakedb/dplyr-snowflakedb,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -14201,7 +14201,7 @@
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dtplyr,https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://github.com/snowflakedb/dplyr-snowflakedb,https://github.com/cran/dplyr,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://github.com/DPLYR-dev/SplashScreenFlutterPackage</t>
+          <t>https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://cran.r-project.org/package=dtplyr,https://github.com/cran/dplyr,https://github.com/DPLYR-dev/SplashScreenFlutterPackage,https://github.com/snowflakedb/dplyr-snowflakedb,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K258" t="inlineStr"/>
@@ -14253,7 +14253,7 @@
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dtplyr,https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://github.com/snowflakedb/dplyr-snowflakedb,https://github.com/cran/dplyr,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://github.com/DPLYR-dev/SplashScreenFlutterPackage</t>
+          <t>https://cran.r-project.org/package=multidplyr,https://github.com/justmarkham/dplyr-tutorial,https://cran.r-project.org/package=dtplyr,https://github.com/cran/dplyr,https://github.com/DPLYR-dev/SplashScreenFlutterPackage,https://github.com/snowflakedb/dplyr-snowflakedb,https://cran.r-project.org/package=dplyrAssist,https://github.com/coolbutuseless/dplyr-cli,https://cran.r-project.org/package=dplyr,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -14309,7 +14309,7 @@
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=PQLseq,https://cran.r-project.org/package=QTLRel,https://cran.r-project.org/package=CSeQTL,https://cran.r-project.org/package=dQTG.seq</t>
+          <t>https://cran.r-project.org/package=QTLRel,https://pypi.org/project/eQTLseq/,https://github.com/dvav/eQTLseq,https://cran.r-project.org/package=PQLseq,https://cran.r-project.org/package=dQTG.seq,https://cran.r-project.org/package=CSeQTL</t>
         </is>
       </c>
       <c r="K260" t="inlineStr"/>
@@ -14357,7 +14357,7 @@
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=PQLseq,https://cran.r-project.org/package=QTLRel,https://cran.r-project.org/package=CSeQTL,https://cran.r-project.org/package=dQTG.seq</t>
+          <t>https://cran.r-project.org/package=QTLRel,https://pypi.org/project/eQTLseq/,https://github.com/dvav/eQTLseq,https://cran.r-project.org/package=PQLseq,https://cran.r-project.org/package=dQTG.seq,https://cran.r-project.org/package=CSeQTL</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -14409,7 +14409,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=PQLseq,https://cran.r-project.org/package=QTLRel,https://cran.r-project.org/package=CSeQTL,https://cran.r-project.org/package=dQTG.seq</t>
+          <t>https://cran.r-project.org/package=QTLRel,https://pypi.org/project/eQTLseq/,https://github.com/dvav/eQTLseq,https://cran.r-project.org/package=PQLseq,https://cran.r-project.org/package=dQTG.seq,https://cran.r-project.org/package=CSeQTL</t>
         </is>
       </c>
       <c r="K262" t="inlineStr"/>
@@ -14457,7 +14457,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=PQLseq,https://cran.r-project.org/package=QTLRel,https://cran.r-project.org/package=CSeQTL,https://cran.r-project.org/package=dQTG.seq</t>
+          <t>https://cran.r-project.org/package=QTLRel,https://pypi.org/project/eQTLseq/,https://github.com/dvav/eQTLseq,https://cran.r-project.org/package=PQLseq,https://cran.r-project.org/package=dQTG.seq,https://cran.r-project.org/package=CSeQTL</t>
         </is>
       </c>
       <c r="K263" t="inlineStr"/>
@@ -14505,7 +14505,7 @@
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=PQLseq,https://cran.r-project.org/package=QTLRel,https://cran.r-project.org/package=CSeQTL,https://cran.r-project.org/package=dQTG.seq</t>
+          <t>https://cran.r-project.org/package=QTLRel,https://pypi.org/project/eQTLseq/,https://github.com/dvav/eQTLseq,https://cran.r-project.org/package=PQLseq,https://cran.r-project.org/package=dQTG.seq,https://cran.r-project.org/package=CSeQTL</t>
         </is>
       </c>
       <c r="K264" t="inlineStr"/>
@@ -14553,7 +14553,7 @@
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=earthdatalogin,https://cran.r-project.org/package=earth,https://github.com/cuixueshe/earthworm,https://cran.r-project.org/package=earthtide,https://cran.r-project.org/package=rnaturalearth,https://github.com/cran/earth,https://github.com/earthly/earthly,https://github.com/google/earthengine-api,https://github.com/google/earthenterprise,https://cran.r-project.org/package=earthtones,https://github.com/cambecc/earth</t>
+          <t>https://cran.r-project.org/package=earth,https://github.com/cran/earth,https://cran.r-project.org/package=earthtones,https://github.com/cuixueshe/earthworm,https://github.com/cambecc/earth,https://cran.r-project.org/package=rnaturalearth,https://cran.r-project.org/package=earthtide,https://github.com/google/earthengine-api,https://cran.r-project.org/package=earthdatalogin,https://github.com/earthly/earthly,https://github.com/google/earthenterprise</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -14609,7 +14609,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=earthdatalogin,https://cran.r-project.org/package=earth,https://github.com/cuixueshe/earthworm,https://cran.r-project.org/package=earthtide,https://cran.r-project.org/package=rnaturalearth,https://github.com/cran/earth,https://github.com/earthly/earthly,https://github.com/google/earthengine-api,https://github.com/google/earthenterprise,https://cran.r-project.org/package=earthtones,https://github.com/cambecc/earth</t>
+          <t>https://cran.r-project.org/package=earth,https://github.com/cran/earth,https://cran.r-project.org/package=earthtones,https://github.com/cuixueshe/earthworm,https://github.com/cambecc/earth,https://cran.r-project.org/package=rnaturalearth,https://cran.r-project.org/package=earthtide,https://github.com/google/earthengine-api,https://cran.r-project.org/package=earthdatalogin,https://github.com/earthly/earthly,https://github.com/google/earthenterprise</t>
         </is>
       </c>
       <c r="K266" t="inlineStr"/>
@@ -14661,7 +14661,7 @@
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=earthdatalogin,https://cran.r-project.org/package=earth,https://github.com/cuixueshe/earthworm,https://cran.r-project.org/package=earthtide,https://cran.r-project.org/package=rnaturalearth,https://github.com/cran/earth,https://github.com/earthly/earthly,https://github.com/google/earthengine-api,https://github.com/google/earthenterprise,https://cran.r-project.org/package=earthtones,https://github.com/cambecc/earth</t>
+          <t>https://cran.r-project.org/package=earth,https://github.com/cran/earth,https://cran.r-project.org/package=earthtones,https://github.com/cuixueshe/earthworm,https://github.com/cambecc/earth,https://cran.r-project.org/package=rnaturalearth,https://cran.r-project.org/package=earthtide,https://github.com/google/earthengine-api,https://cran.r-project.org/package=earthdatalogin,https://github.com/earthly/earthly,https://github.com/google/earthenterprise</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -14717,7 +14717,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=earthdatalogin,https://cran.r-project.org/package=earth,https://github.com/cuixueshe/earthworm,https://cran.r-project.org/package=earthtide,https://cran.r-project.org/package=rnaturalearth,https://github.com/cran/earth,https://github.com/earthly/earthly,https://github.com/google/earthengine-api,https://github.com/google/earthenterprise,https://cran.r-project.org/package=earthtones,https://github.com/cambecc/earth</t>
+          <t>https://cran.r-project.org/package=earth,https://github.com/cran/earth,https://cran.r-project.org/package=earthtones,https://github.com/cuixueshe/earthworm,https://github.com/cambecc/earth,https://cran.r-project.org/package=rnaturalearth,https://cran.r-project.org/package=earthtide,https://github.com/google/earthengine-api,https://cran.r-project.org/package=earthdatalogin,https://github.com/earthly/earthly,https://github.com/google/earthenterprise</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -14773,7 +14773,7 @@
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=earthdatalogin,https://cran.r-project.org/package=earth,https://github.com/cuixueshe/earthworm,https://cran.r-project.org/package=earthtide,https://cran.r-project.org/package=rnaturalearth,https://github.com/cran/earth,https://github.com/earthly/earthly,https://github.com/google/earthengine-api,https://github.com/google/earthenterprise,https://cran.r-project.org/package=earthtones,https://github.com/cambecc/earth</t>
+          <t>https://cran.r-project.org/package=earth,https://github.com/cran/earth,https://cran.r-project.org/package=earthtones,https://github.com/cuixueshe/earthworm,https://github.com/cambecc/earth,https://cran.r-project.org/package=rnaturalearth,https://cran.r-project.org/package=earthtide,https://github.com/google/earthengine-api,https://cran.r-project.org/package=earthdatalogin,https://github.com/earthly/earthly,https://github.com/google/earthenterprise</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -14829,7 +14829,7 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr">
         <is>
-          <t>https://github.com/Erland366/edd_utils,https://cran.r-project.org/package=dynutils,https://cran.r-project.org/package=ageutils,https://pypi.org/project/edd-utils/,https://github.com/JBEI/edd-utils,https://github.com/arraypress/edd-utils,https://cran.r-project.org/package=webutils,https://cran.r-project.org/package=reutils,https://github.com/IIC2133-PUC/edd_utils,https://github.com/GlitchedPolygons/eddsa-utils,https://cran.r-project.org/package=xutils</t>
+          <t>https://cran.r-project.org/package=reutils,https://github.com/JBEI/edd-utils,https://github.com/IIC2133-PUC/edd_utils,https://pypi.org/project/edd-utils/,https://github.com/GlitchedPolygons/eddsa-utils,https://github.com/arraypress/edd-utils,https://cran.r-project.org/package=dynutils,https://github.com/Erland366/edd_utils,https://cran.r-project.org/package=webutils,https://cran.r-project.org/package=xutils,https://cran.r-project.org/package=ageutils</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -14881,7 +14881,7 @@
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
-          <t>https://github.com/Erland366/edd_utils,https://cran.r-project.org/package=dynutils,https://cran.r-project.org/package=ageutils,https://pypi.org/project/edd-utils/,https://github.com/JBEI/edd-utils,https://github.com/arraypress/edd-utils,https://cran.r-project.org/package=webutils,https://cran.r-project.org/package=reutils,https://github.com/IIC2133-PUC/edd_utils,https://github.com/GlitchedPolygons/eddsa-utils,https://cran.r-project.org/package=xutils</t>
+          <t>https://cran.r-project.org/package=reutils,https://github.com/JBEI/edd-utils,https://github.com/IIC2133-PUC/edd_utils,https://pypi.org/project/edd-utils/,https://github.com/GlitchedPolygons/eddsa-utils,https://github.com/arraypress/edd-utils,https://cran.r-project.org/package=dynutils,https://github.com/Erland366/edd_utils,https://cran.r-project.org/package=webutils,https://cran.r-project.org/package=xutils,https://cran.r-project.org/package=ageutils</t>
         </is>
       </c>
       <c r="K271" t="inlineStr"/>
@@ -14929,7 +14929,7 @@
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr">
         <is>
-          <t>https://github.com/fatmasevinck/enetLTS,https://cran.r-project.org/package=genTS,https://github.com/cran/enetLTS,https://cran.r-project.org/package=regnet,https://cran.r-project.org/package=einet,https://github.com/VincentWtrs/enetLTS,https://cran.r-project.org/package=enetLTS</t>
+          <t>https://cran.r-project.org/package=enetLTS,https://github.com/VincentWtrs/enetLTS,https://cran.r-project.org/package=genTS,https://cran.r-project.org/package=regnet,https://github.com/fatmasevinck/enetLTS,https://cran.r-project.org/package=einet,https://github.com/cran/enetLTS</t>
         </is>
       </c>
       <c r="K272" t="inlineStr"/>
@@ -14981,7 +14981,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>https://github.com/fatmasevinck/enetLTS,https://cran.r-project.org/package=genTS,https://github.com/cran/enetLTS,https://cran.r-project.org/package=regnet,https://cran.r-project.org/package=einet,https://github.com/VincentWtrs/enetLTS,https://cran.r-project.org/package=enetLTS</t>
+          <t>https://cran.r-project.org/package=enetLTS,https://github.com/VincentWtrs/enetLTS,https://cran.r-project.org/package=genTS,https://cran.r-project.org/package=regnet,https://github.com/fatmasevinck/enetLTS,https://cran.r-project.org/package=einet,https://github.com/cran/enetLTS</t>
         </is>
       </c>
       <c r="K273" t="inlineStr"/>
@@ -15033,7 +15033,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>https://github.com/fatmasevinck/enetLTS,https://cran.r-project.org/package=genTS,https://github.com/cran/enetLTS,https://cran.r-project.org/package=regnet,https://cran.r-project.org/package=einet,https://github.com/VincentWtrs/enetLTS,https://cran.r-project.org/package=enetLTS</t>
+          <t>https://cran.r-project.org/package=enetLTS,https://github.com/VincentWtrs/enetLTS,https://cran.r-project.org/package=genTS,https://cran.r-project.org/package=regnet,https://github.com/fatmasevinck/enetLTS,https://cran.r-project.org/package=einet,https://github.com/cran/enetLTS</t>
         </is>
       </c>
       <c r="K274" t="inlineStr"/>
@@ -15085,7 +15085,7 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
         <is>
-          <t>https://github.com/fatmasevinck/enetLTS,https://cran.r-project.org/package=genTS,https://github.com/cran/enetLTS,https://cran.r-project.org/package=regnet,https://cran.r-project.org/package=einet,https://github.com/VincentWtrs/enetLTS,https://cran.r-project.org/package=enetLTS</t>
+          <t>https://cran.r-project.org/package=enetLTS,https://github.com/VincentWtrs/enetLTS,https://cran.r-project.org/package=genTS,https://cran.r-project.org/package=regnet,https://github.com/fatmasevinck/enetLTS,https://cran.r-project.org/package=einet,https://github.com/cran/enetLTS</t>
         </is>
       </c>
       <c r="K275" t="inlineStr"/>
@@ -15137,7 +15137,7 @@
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr">
         <is>
-          <t>https://github.com/fatmasevinck/enetLTS,https://cran.r-project.org/package=genTS,https://github.com/cran/enetLTS,https://cran.r-project.org/package=regnet,https://cran.r-project.org/package=einet,https://github.com/VincentWtrs/enetLTS,https://cran.r-project.org/package=enetLTS</t>
+          <t>https://cran.r-project.org/package=enetLTS,https://github.com/VincentWtrs/enetLTS,https://cran.r-project.org/package=genTS,https://cran.r-project.org/package=regnet,https://github.com/fatmasevinck/enetLTS,https://cran.r-project.org/package=einet,https://github.com/cran/enetLTS</t>
         </is>
       </c>
       <c r="K276" t="inlineStr"/>
@@ -15189,7 +15189,7 @@
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr">
         <is>
-          <t>https://github.com/r-hub2/sanguine-eolithic-olm-fastDummies,https://github.com/jacobkap/fastDummies,https://cran.r-project.org/package=rfordummies,https://cran.r-project.org/package=fastDummies,https://cran.r-project.org/package=fastmit,https://github.com/conda-forge/r-fastdummies-feedstock,https://github.com/cran/fastDummies,https://cran.r-project.org/package=makedummies,https://github.com/burningdrop/fastDummiesDot</t>
+          <t>https://github.com/cran/fastDummies,https://github.com/burningdrop/fastDummiesDot,https://cran.r-project.org/package=makedummies,https://cran.r-project.org/package=rfordummies,https://cran.r-project.org/package=fastmit,https://github.com/conda-forge/r-fastdummies-feedstock,https://github.com/r-hub2/sanguine-eolithic-olm-fastDummies,https://cran.r-project.org/package=fastDummies,https://github.com/jacobkap/fastDummies</t>
         </is>
       </c>
       <c r="K277" t="inlineStr"/>
@@ -15237,7 +15237,7 @@
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr">
         <is>
-          <t>https://github.com/jcartw/fullfact,https://cran.r-project.org/package=fullfact,https://github.com/jialutu/Fullfact,https://github.com/cran/fullfact,https://cran.r-project.org/package=float,https://cran.r-project.org/package=lfactors,https://cran.r-project.org/package=nflfastR,https://github.com/lhzclick/fullFactor,https://github.com/FullFact/claim-review-schema-wordpress-plugin</t>
+          <t>https://cran.r-project.org/package=lfactors,https://cran.r-project.org/package=float,https://cran.r-project.org/package=nflfastR,https://github.com/cran/fullfact,https://cran.r-project.org/package=fullfact,https://github.com/jialutu/Fullfact,https://github.com/FullFact/claim-review-schema-wordpress-plugin,https://github.com/lhzclick/fullFactor,https://github.com/jcartw/fullfact</t>
         </is>
       </c>
       <c r="K278" t="inlineStr"/>
@@ -15289,7 +15289,7 @@
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr">
         <is>
-          <t>https://github.com/jcartw/fullfact,https://cran.r-project.org/package=fullfact,https://github.com/jialutu/Fullfact,https://github.com/cran/fullfact,https://cran.r-project.org/package=float,https://cran.r-project.org/package=lfactors,https://cran.r-project.org/package=nflfastR,https://github.com/lhzclick/fullFactor,https://github.com/FullFact/claim-review-schema-wordpress-plugin</t>
+          <t>https://cran.r-project.org/package=lfactors,https://cran.r-project.org/package=float,https://cran.r-project.org/package=nflfastR,https://github.com/cran/fullfact,https://cran.r-project.org/package=fullfact,https://github.com/jialutu/Fullfact,https://github.com/FullFact/claim-review-schema-wordpress-plugin,https://github.com/lhzclick/fullFactor,https://github.com/jcartw/fullfact</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -15345,7 +15345,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>https://github.com/jcartw/fullfact,https://cran.r-project.org/package=fullfact,https://github.com/jialutu/Fullfact,https://github.com/cran/fullfact,https://cran.r-project.org/package=float,https://cran.r-project.org/package=lfactors,https://cran.r-project.org/package=nflfastR,https://github.com/lhzclick/fullFactor,https://github.com/FullFact/claim-review-schema-wordpress-plugin</t>
+          <t>https://cran.r-project.org/package=lfactors,https://cran.r-project.org/package=float,https://cran.r-project.org/package=nflfastR,https://github.com/cran/fullfact,https://cran.r-project.org/package=fullfact,https://github.com/jialutu/Fullfact,https://github.com/FullFact/claim-review-schema-wordpress-plugin,https://github.com/lhzclick/fullFactor,https://github.com/jcartw/fullfact</t>
         </is>
       </c>
       <c r="K280" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>https://github.com/jcartw/fullfact,https://cran.r-project.org/package=fullfact,https://github.com/jialutu/Fullfact,https://github.com/cran/fullfact,https://cran.r-project.org/package=float,https://cran.r-project.org/package=lfactors,https://cran.r-project.org/package=nflfastR,https://github.com/lhzclick/fullFactor,https://github.com/FullFact/claim-review-schema-wordpress-plugin</t>
+          <t>https://cran.r-project.org/package=lfactors,https://cran.r-project.org/package=float,https://cran.r-project.org/package=nflfastR,https://github.com/cran/fullfact,https://cran.r-project.org/package=fullfact,https://github.com/jialutu/Fullfact,https://github.com/FullFact/claim-review-schema-wordpress-plugin,https://github.com/lhzclick/fullFactor,https://github.com/jcartw/fullfact</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -15453,7 +15453,7 @@
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr">
         <is>
-          <t>https://github.com/jcartw/fullfact,https://cran.r-project.org/package=fullfact,https://github.com/jialutu/Fullfact,https://github.com/cran/fullfact,https://cran.r-project.org/package=float,https://cran.r-project.org/package=lfactors,https://cran.r-project.org/package=nflfastR,https://github.com/lhzclick/fullFactor,https://github.com/FullFact/claim-review-schema-wordpress-plugin</t>
+          <t>https://cran.r-project.org/package=lfactors,https://cran.r-project.org/package=float,https://cran.r-project.org/package=nflfastR,https://github.com/cran/fullfact,https://cran.r-project.org/package=fullfact,https://github.com/jialutu/Fullfact,https://github.com/FullFact/claim-review-schema-wordpress-plugin,https://github.com/lhzclick/fullFactor,https://github.com/jcartw/fullfact</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -15509,7 +15509,7 @@
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=fun,https://github.com/Femista/FunFemiStuff,https://cran.r-project.org/package=funLBM,https://cran.r-project.org/package=funFEM,https://cran.r-project.org/package=xfun,https://github.com/adrienhaxaire/funfem,https://github.com/cran/funFEM</t>
+          <t>https://github.com/cran/funFEM,https://github.com/adrienhaxaire/funfem,https://cran.r-project.org/package=funLBM,https://cran.r-project.org/package=xfun,https://cran.r-project.org/package=funFEM,https://github.com/Femista/FunFemiStuff,https://cran.r-project.org/package=fun</t>
         </is>
       </c>
       <c r="K283" t="inlineStr"/>
@@ -15557,7 +15557,7 @@
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=fun,https://github.com/Femista/FunFemiStuff,https://cran.r-project.org/package=funLBM,https://cran.r-project.org/package=funFEM,https://cran.r-project.org/package=xfun,https://github.com/adrienhaxaire/funfem,https://github.com/cran/funFEM</t>
+          <t>https://github.com/cran/funFEM,https://github.com/adrienhaxaire/funfem,https://cran.r-project.org/package=funLBM,https://cran.r-project.org/package=xfun,https://cran.r-project.org/package=funFEM,https://github.com/Femista/FunFemiStuff,https://cran.r-project.org/package=fun</t>
         </is>
       </c>
       <c r="K284" t="inlineStr"/>
@@ -15605,7 +15605,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=furniture,https://cran.r-project.org/package=fitur,https://github.com/JideGuru/FlutterFurnitureAppUI,https://github.com/abuanwar072/furniture_app_flutter,https://github.com/TysonStanley/furniture,https://cran.r-project.org/package=future,https://cran.r-project.org/package=funique,https://github.com/cran/furniture,https://github.com/clvrai/furniture,https://github.com/rajayogan/flutterui-furnitureapp,https://github.com/abuanwar072/Furniture-App-UI-2-Flutter</t>
+          <t>https://cran.r-project.org/package=funique,https://github.com/TysonStanley/furniture,https://pypi.org/project/furniture/,https://github.com/rajayogan/flutterui-furnitureapp,https://github.com/clvrai/furniture,https://github.com/abuanwar072/Furniture-App-UI-2-Flutter,https://github.com/abuanwar072/furniture_app_flutter,https://cran.r-project.org/package=fitur,https://cran.r-project.org/package=furniture,https://github.com/cran/furniture,https://github.com/JideGuru/FlutterFurnitureAppUI,https://cran.r-project.org/package=future,https://github.com/stenson/furniture</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -15657,7 +15657,7 @@
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=furniture,https://cran.r-project.org/package=fitur,https://github.com/JideGuru/FlutterFurnitureAppUI,https://github.com/abuanwar072/furniture_app_flutter,https://github.com/TysonStanley/furniture,https://cran.r-project.org/package=future,https://cran.r-project.org/package=funique,https://github.com/cran/furniture,https://github.com/clvrai/furniture,https://github.com/rajayogan/flutterui-furnitureapp,https://github.com/abuanwar072/Furniture-App-UI-2-Flutter</t>
+          <t>https://cran.r-project.org/package=funique,https://github.com/TysonStanley/furniture,https://pypi.org/project/furniture/,https://github.com/rajayogan/flutterui-furnitureapp,https://github.com/clvrai/furniture,https://github.com/abuanwar072/Furniture-App-UI-2-Flutter,https://github.com/abuanwar072/furniture_app_flutter,https://cran.r-project.org/package=fitur,https://cran.r-project.org/package=furniture,https://github.com/cran/furniture,https://github.com/JideGuru/FlutterFurnitureAppUI,https://cran.r-project.org/package=future,https://github.com/stenson/furniture</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -15709,7 +15709,7 @@
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr">
         <is>
-          <t>https://github.com/molpopgen/fwdpy,https://github.com/molpopgen/fwdpy11_infinitesimal,https://cran.r-project.org/package=fplyr,https://cran.r-project.org/package=widyr,https://cran.r-project.org/package=tfdeploy,https://github.com/BCFZzw/rerun_fwdpy,https://cran.r-project.org/package=wdpar,https://cran.r-project.org/package=sfdep,https://pypi.org/project/fwdpy/,https://github.com/molpopgen/fwdpy11,https://github.com/molpopgen/fwdpy11_arg_example</t>
+          <t>https://github.com/molpopgen/fwdpy11_infinitesimal,https://github.com/molpopgen/fwdpy11,https://github.com/molpopgen/fwdpy,https://pypi.org/project/fwdpy/,https://cran.r-project.org/package=wdpar,https://cran.r-project.org/package=tfdeploy,https://github.com/molpopgen/fwdpy11_arg_example,https://cran.r-project.org/package=fplyr,https://github.com/BCFZzw/rerun_fwdpy,https://cran.r-project.org/package=widyr,https://cran.r-project.org/package=sfdep</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -15765,7 +15765,7 @@
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr">
         <is>
-          <t>https://pypi.org/project/gdsCAD/,https://github.com/JiaweiZhuang/gdscad_docker,https://github.com/gdscadypsoe/gdscadypsoe.github.io,https://cran.r-project.org/package=gds,https://cran.r-project.org/package=gscaLCA,https://cran.r-project.org/package=CADF,https://github.com/RickKoster/gdsCAD,https://github.com/gdscadypsoe/gdscadypsoe,https://github.com/hohlraum/gdsCAD</t>
+          <t>https://cran.r-project.org/package=gds,https://github.com/RickKoster/gdsCAD,https://pypi.org/project/gdsCAD/,https://github.com/hohlraum/gdsCAD,https://github.com/gdscadypsoe/gdscadypsoe,https://cran.r-project.org/package=gscaLCA,https://github.com/JiaweiZhuang/gdscad_docker,https://cran.r-project.org/package=CADF,https://github.com/gdscadypsoe/gdscadypsoe.github.io</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -15817,7 +15817,7 @@
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=gor,https://github.com/cran/geobr,https://github.com/geobricks/geobricks_qgis_plugin_faostat,https://github.com/max-mapper/geobrowser,https://pypi.org/project/geobr/,https://github.com/ipeaGIT/geobr,https://github.com/geobricks/geobricks_qgis_plugin_world_bank,https://cran.r-project.org/package=geoAr,https://cran.r-project.org/package=glober,https://cran.r-project.org/package=geobr,https://github.com/geobricks/geobricks_qgis_plugin_trmm</t>
+          <t>https://github.com/max-mapper/geobrowser,https://cran.r-project.org/package=geobr,https://github.com/geobricks/geobricks_qgis_plugin_faostat,https://github.com/geobricks/geobricks_qgis_plugin_trmm,https://cran.r-project.org/package=glober,https://pypi.org/project/geobr/,https://cran.r-project.org/package=gor,https://cran.r-project.org/package=geoAr,https://github.com/cran/geobr,https://github.com/ipeaGIT/geobr,https://github.com/geobricks/geobricks_qgis_plugin_world_bank</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -15869,7 +15869,7 @@
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=gor,https://github.com/cran/geobr,https://github.com/geobricks/geobricks_qgis_plugin_faostat,https://github.com/max-mapper/geobrowser,https://pypi.org/project/geobr/,https://github.com/ipeaGIT/geobr,https://github.com/geobricks/geobricks_qgis_plugin_world_bank,https://cran.r-project.org/package=geoAr,https://cran.r-project.org/package=glober,https://cran.r-project.org/package=geobr,https://github.com/geobricks/geobricks_qgis_plugin_trmm</t>
+          <t>https://github.com/max-mapper/geobrowser,https://cran.r-project.org/package=geobr,https://github.com/geobricks/geobricks_qgis_plugin_faostat,https://github.com/geobricks/geobricks_qgis_plugin_trmm,https://cran.r-project.org/package=glober,https://pypi.org/project/geobr/,https://cran.r-project.org/package=gor,https://cran.r-project.org/package=geoAr,https://github.com/cran/geobr,https://github.com/ipeaGIT/geobr,https://github.com/geobricks/geobricks_qgis_plugin_world_bank</t>
         </is>
       </c>
       <c r="K290" t="inlineStr"/>
@@ -15917,7 +15917,7 @@
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=gor,https://github.com/cran/geobr,https://github.com/geobricks/geobricks_qgis_plugin_faostat,https://github.com/max-mapper/geobrowser,https://pypi.org/project/geobr/,https://github.com/ipeaGIT/geobr,https://github.com/geobricks/geobricks_qgis_plugin_world_bank,https://cran.r-project.org/package=geoAr,https://cran.r-project.org/package=glober,https://cran.r-project.org/package=geobr,https://github.com/geobricks/geobricks_qgis_plugin_trmm</t>
+          <t>https://github.com/max-mapper/geobrowser,https://cran.r-project.org/package=geobr,https://github.com/geobricks/geobricks_qgis_plugin_faostat,https://github.com/geobricks/geobricks_qgis_plugin_trmm,https://cran.r-project.org/package=glober,https://pypi.org/project/geobr/,https://cran.r-project.org/package=gor,https://cran.r-project.org/package=geoAr,https://github.com/cran/geobr,https://github.com/ipeaGIT/geobr,https://github.com/geobricks/geobricks_qgis_plugin_world_bank</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -15969,7 +15969,7 @@
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=newscatcheR,https://github.com/cran/ggnewscale,https://cran.r-project.org/package=geoscale,https://github.com/eliocamp/ggnewscale,https://cran.r-project.org/package=networkscaleup,https://github.com/conda-forge/r-ggnewscale-feedstock,https://cran.r-project.org/package=ggnewscale</t>
+          <t>https://cran.r-project.org/package=ggnewscale,https://cran.r-project.org/package=newscatcheR,https://github.com/conda-forge/r-ggnewscale-feedstock,https://github.com/cran/ggnewscale,https://cran.r-project.org/package=geoscale,https://github.com/eliocamp/ggnewscale,https://cran.r-project.org/package=networkscaleup</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -16021,7 +16021,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=newscatcheR,https://github.com/cran/ggnewscale,https://cran.r-project.org/package=geoscale,https://github.com/eliocamp/ggnewscale,https://cran.r-project.org/package=networkscaleup,https://github.com/conda-forge/r-ggnewscale-feedstock,https://cran.r-project.org/package=ggnewscale</t>
+          <t>https://cran.r-project.org/package=ggnewscale,https://cran.r-project.org/package=newscatcheR,https://github.com/conda-forge/r-ggnewscale-feedstock,https://github.com/cran/ggnewscale,https://cran.r-project.org/package=geoscale,https://github.com/eliocamp/ggnewscale,https://cran.r-project.org/package=networkscaleup</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -16073,7 +16073,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=newscatcheR,https://github.com/cran/ggnewscale,https://cran.r-project.org/package=geoscale,https://github.com/eliocamp/ggnewscale,https://cran.r-project.org/package=networkscaleup,https://github.com/conda-forge/r-ggnewscale-feedstock,https://cran.r-project.org/package=ggnewscale</t>
+          <t>https://cran.r-project.org/package=ggnewscale,https://cran.r-project.org/package=newscatcheR,https://github.com/conda-forge/r-ggnewscale-feedstock,https://github.com/cran/ggnewscale,https://cran.r-project.org/package=geoscale,https://github.com/eliocamp/ggnewscale,https://cran.r-project.org/package=networkscaleup</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -16125,7 +16125,7 @@
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=newscatcheR,https://github.com/cran/ggnewscale,https://cran.r-project.org/package=geoscale,https://github.com/eliocamp/ggnewscale,https://cran.r-project.org/package=networkscaleup,https://github.com/conda-forge/r-ggnewscale-feedstock,https://cran.r-project.org/package=ggnewscale</t>
+          <t>https://cran.r-project.org/package=ggnewscale,https://cran.r-project.org/package=newscatcheR,https://github.com/conda-forge/r-ggnewscale-feedstock,https://github.com/cran/ggnewscale,https://cran.r-project.org/package=geoscale,https://github.com/eliocamp/ggnewscale,https://cran.r-project.org/package=networkscaleup</t>
         </is>
       </c>
       <c r="K295" t="inlineStr"/>
@@ -16173,7 +16173,7 @@
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=newscatcheR,https://github.com/cran/ggnewscale,https://cran.r-project.org/package=geoscale,https://github.com/eliocamp/ggnewscale,https://cran.r-project.org/package=networkscaleup,https://github.com/conda-forge/r-ggnewscale-feedstock,https://cran.r-project.org/package=ggnewscale</t>
+          <t>https://cran.r-project.org/package=ggnewscale,https://cran.r-project.org/package=newscatcheR,https://github.com/conda-forge/r-ggnewscale-feedstock,https://github.com/cran/ggnewscale,https://cran.r-project.org/package=geoscale,https://github.com/eliocamp/ggnewscale,https://cran.r-project.org/package=networkscaleup</t>
         </is>
       </c>
       <c r="K296" t="inlineStr"/>
@@ -16221,7 +16221,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=ggplot2,https://github.com/thomasp85/ggplot2_workshop,https://github.com/cran/ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/erikgahner/awesome-ggplot2,https://github.com/hadley/ggplot2-book,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://cran.r-project.org/package=ggplot2.utils</t>
+          <t>https://cran.r-project.org/package=ggplot2.utils,https://cran.r-project.org/package=ggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/thomasp85/ggplot2_workshop,https://github.com/tidyverse/ggplot2,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://github.com/cran/ggplot2,https://github.com/erikgahner/awesome-ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://github.com/hadley/ggplot2-book</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -16277,7 +16277,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=ggplot2,https://github.com/thomasp85/ggplot2_workshop,https://github.com/cran/ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/erikgahner/awesome-ggplot2,https://github.com/hadley/ggplot2-book,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://cran.r-project.org/package=ggplot2.utils</t>
+          <t>https://cran.r-project.org/package=ggplot2.utils,https://cran.r-project.org/package=ggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/thomasp85/ggplot2_workshop,https://github.com/tidyverse/ggplot2,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://github.com/cran/ggplot2,https://github.com/erikgahner/awesome-ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://github.com/hadley/ggplot2-book</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -16333,7 +16333,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=ggplot2,https://github.com/thomasp85/ggplot2_workshop,https://github.com/cran/ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/erikgahner/awesome-ggplot2,https://github.com/hadley/ggplot2-book,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://cran.r-project.org/package=ggplot2.utils</t>
+          <t>https://cran.r-project.org/package=ggplot2.utils,https://cran.r-project.org/package=ggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/thomasp85/ggplot2_workshop,https://github.com/tidyverse/ggplot2,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://github.com/cran/ggplot2,https://github.com/erikgahner/awesome-ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://github.com/hadley/ggplot2-book</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -16389,7 +16389,7 @@
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=ggplot2,https://github.com/thomasp85/ggplot2_workshop,https://github.com/cran/ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/erikgahner/awesome-ggplot2,https://github.com/hadley/ggplot2-book,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://cran.r-project.org/package=ggplot2.utils</t>
+          <t>https://cran.r-project.org/package=ggplot2.utils,https://cran.r-project.org/package=ggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/thomasp85/ggplot2_workshop,https://github.com/tidyverse/ggplot2,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://github.com/cran/ggplot2,https://github.com/erikgahner/awesome-ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://github.com/hadley/ggplot2-book</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -16445,7 +16445,7 @@
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=ggplot2,https://github.com/thomasp85/ggplot2_workshop,https://github.com/cran/ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/erikgahner/awesome-ggplot2,https://github.com/hadley/ggplot2-book,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://cran.r-project.org/package=ggplot2.utils</t>
+          <t>https://cran.r-project.org/package=ggplot2.utils,https://cran.r-project.org/package=ggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/thomasp85/ggplot2_workshop,https://github.com/tidyverse/ggplot2,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://github.com/cran/ggplot2,https://github.com/erikgahner/awesome-ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://github.com/hadley/ggplot2-book</t>
         </is>
       </c>
       <c r="K301" t="inlineStr"/>
@@ -16497,7 +16497,7 @@
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=ggplot2,https://github.com/thomasp85/ggplot2_workshop,https://github.com/cran/ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/erikgahner/awesome-ggplot2,https://github.com/hadley/ggplot2-book,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://cran.r-project.org/package=ggplot2.utils</t>
+          <t>https://cran.r-project.org/package=ggplot2.utils,https://cran.r-project.org/package=ggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/thomasp85/ggplot2_workshop,https://github.com/tidyverse/ggplot2,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://github.com/cran/ggplot2,https://github.com/erikgahner/awesome-ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://github.com/hadley/ggplot2-book</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -16553,7 +16553,7 @@
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=ggplot2,https://github.com/thomasp85/ggplot2_workshop,https://github.com/cran/ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/erikgahner/awesome-ggplot2,https://github.com/hadley/ggplot2-book,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://cran.r-project.org/package=ggplot2.utils</t>
+          <t>https://cran.r-project.org/package=ggplot2.utils,https://cran.r-project.org/package=ggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/thomasp85/ggplot2_workshop,https://github.com/tidyverse/ggplot2,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://github.com/cran/ggplot2,https://github.com/erikgahner/awesome-ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://github.com/hadley/ggplot2-book</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -16609,7 +16609,7 @@
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=ggplot2,https://github.com/thomasp85/ggplot2_workshop,https://github.com/cran/ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/erikgahner/awesome-ggplot2,https://github.com/hadley/ggplot2-book,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://cran.r-project.org/package=ggplot2.utils</t>
+          <t>https://cran.r-project.org/package=ggplot2.utils,https://cran.r-project.org/package=ggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/thomasp85/ggplot2_workshop,https://github.com/tidyverse/ggplot2,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://github.com/cran/ggplot2,https://github.com/erikgahner/awesome-ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://github.com/hadley/ggplot2-book</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -16665,7 +16665,7 @@
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=ggplot2,https://github.com/thomasp85/ggplot2_workshop,https://github.com/cran/ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/erikgahner/awesome-ggplot2,https://github.com/hadley/ggplot2-book,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://cran.r-project.org/package=ggplot2.utils</t>
+          <t>https://cran.r-project.org/package=ggplot2.utils,https://cran.r-project.org/package=ggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/thomasp85/ggplot2_workshop,https://github.com/tidyverse/ggplot2,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://github.com/cran/ggplot2,https://github.com/erikgahner/awesome-ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://github.com/hadley/ggplot2-book</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -16721,7 +16721,7 @@
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=ggplot2,https://github.com/thomasp85/ggplot2_workshop,https://github.com/cran/ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/erikgahner/awesome-ggplot2,https://github.com/hadley/ggplot2-book,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://cran.r-project.org/package=ggplot2.utils</t>
+          <t>https://cran.r-project.org/package=ggplot2.utils,https://cran.r-project.org/package=ggplot2,https://cran.r-project.org/package=ggplot2movies,https://github.com/thomasp85/ggplot2_workshop,https://github.com/tidyverse/ggplot2,https://github.com/ASKurz/Statistical_Rethinking_with_brms_ggplot2_and_the_tidyverse,https://github.com/cran/ggplot2,https://github.com/erikgahner/awesome-ggplot2,https://cran.r-project.org/package=RcmdrPlugin.KMggplot2,https://github.com/hadley/ggplot2-book</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -16777,7 +16777,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmice,https://github.com/cran/ggpmisc,https://github.com/aphalo/ggpmisc,https://cran.r-project.org/package=prmisc,https://cran.r-project.org/package=mapmisc,https://cran.r-project.org/package=ggpmisc,https://github.com/conda-forge/r-ggpmisc-feedstock</t>
+          <t>https://cran.r-project.org/package=ggpmisc,https://cran.r-project.org/package=prmisc,https://github.com/cran/ggpmisc,https://github.com/aphalo/ggpmisc,https://cran.r-project.org/package=mapmisc,https://github.com/conda-forge/r-ggpmisc-feedstock,https://cran.r-project.org/package=ggmice</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -16833,7 +16833,7 @@
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmice,https://github.com/cran/ggpmisc,https://github.com/aphalo/ggpmisc,https://cran.r-project.org/package=prmisc,https://cran.r-project.org/package=mapmisc,https://cran.r-project.org/package=ggpmisc,https://github.com/conda-forge/r-ggpmisc-feedstock</t>
+          <t>https://cran.r-project.org/package=ggpmisc,https://cran.r-project.org/package=prmisc,https://github.com/cran/ggpmisc,https://github.com/aphalo/ggpmisc,https://cran.r-project.org/package=mapmisc,https://github.com/conda-forge/r-ggpmisc-feedstock,https://cran.r-project.org/package=ggmice</t>
         </is>
       </c>
       <c r="K308" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmice,https://github.com/cran/ggpmisc,https://github.com/aphalo/ggpmisc,https://cran.r-project.org/package=prmisc,https://cran.r-project.org/package=mapmisc,https://cran.r-project.org/package=ggpmisc,https://github.com/conda-forge/r-ggpmisc-feedstock</t>
+          <t>https://cran.r-project.org/package=ggpmisc,https://cran.r-project.org/package=prmisc,https://github.com/cran/ggpmisc,https://github.com/aphalo/ggpmisc,https://cran.r-project.org/package=mapmisc,https://github.com/conda-forge/r-ggpmisc-feedstock,https://cran.r-project.org/package=ggmice</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -16941,7 +16941,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmice,https://github.com/cran/ggpmisc,https://github.com/aphalo/ggpmisc,https://cran.r-project.org/package=prmisc,https://cran.r-project.org/package=mapmisc,https://cran.r-project.org/package=ggpmisc,https://github.com/conda-forge/r-ggpmisc-feedstock</t>
+          <t>https://cran.r-project.org/package=ggpmisc,https://cran.r-project.org/package=prmisc,https://github.com/cran/ggpmisc,https://github.com/aphalo/ggpmisc,https://cran.r-project.org/package=mapmisc,https://github.com/conda-forge/r-ggpmisc-feedstock,https://cran.r-project.org/package=ggmice</t>
         </is>
       </c>
       <c r="K310" t="inlineStr"/>
@@ -16993,7 +16993,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmice,https://github.com/cran/ggpmisc,https://github.com/aphalo/ggpmisc,https://cran.r-project.org/package=prmisc,https://cran.r-project.org/package=mapmisc,https://cran.r-project.org/package=ggpmisc,https://github.com/conda-forge/r-ggpmisc-feedstock</t>
+          <t>https://cran.r-project.org/package=ggpmisc,https://cran.r-project.org/package=prmisc,https://github.com/cran/ggpmisc,https://github.com/aphalo/ggpmisc,https://cran.r-project.org/package=mapmisc,https://github.com/conda-forge/r-ggpmisc-feedstock,https://cran.r-project.org/package=ggmice</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -17049,7 +17049,7 @@
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggsci,https://cran.r-project.org/package=ggscidca,https://cran.r-project.org/package=ggsmc,https://github.com/conda-forge/r-ggsci-feedstock,https://github.com/XiaonaZhao/ggsci,https://github.com/cran/ggsci,https://github.com/nanxstats/ggsci,https://github.com/liuqiang070488/ggscitable</t>
+          <t>https://cran.r-project.org/package=ggsmc,https://github.com/nanxstats/ggsci,https://github.com/conda-forge/r-ggsci-feedstock,https://github.com/liuqiang070488/ggscitable,https://github.com/cran/ggsci,https://cran.r-project.org/package=ggscidca,https://cran.r-project.org/package=ggsci,https://github.com/XiaonaZhao/ggsci</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -17105,7 +17105,7 @@
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggsci,https://cran.r-project.org/package=ggscidca,https://cran.r-project.org/package=ggsmc,https://github.com/conda-forge/r-ggsci-feedstock,https://github.com/XiaonaZhao/ggsci,https://github.com/cran/ggsci,https://github.com/nanxstats/ggsci,https://github.com/liuqiang070488/ggscitable</t>
+          <t>https://cran.r-project.org/package=ggsmc,https://github.com/nanxstats/ggsci,https://github.com/conda-forge/r-ggsci-feedstock,https://github.com/liuqiang070488/ggscitable,https://github.com/cran/ggsci,https://cran.r-project.org/package=ggscidca,https://cran.r-project.org/package=ggsci,https://github.com/XiaonaZhao/ggsci</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -17161,7 +17161,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggsci,https://cran.r-project.org/package=ggscidca,https://cran.r-project.org/package=ggsmc,https://github.com/conda-forge/r-ggsci-feedstock,https://github.com/XiaonaZhao/ggsci,https://github.com/cran/ggsci,https://github.com/nanxstats/ggsci,https://github.com/liuqiang070488/ggscitable</t>
+          <t>https://cran.r-project.org/package=ggsmc,https://github.com/nanxstats/ggsci,https://github.com/conda-forge/r-ggsci-feedstock,https://github.com/liuqiang070488/ggscitable,https://github.com/cran/ggsci,https://cran.r-project.org/package=ggscidca,https://cran.r-project.org/package=ggsci,https://github.com/XiaonaZhao/ggsci</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -17217,7 +17217,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggsci,https://cran.r-project.org/package=ggscidca,https://cran.r-project.org/package=ggsmc,https://github.com/conda-forge/r-ggsci-feedstock,https://github.com/XiaonaZhao/ggsci,https://github.com/cran/ggsci,https://github.com/nanxstats/ggsci,https://github.com/liuqiang070488/ggscitable</t>
+          <t>https://cran.r-project.org/package=ggsmc,https://github.com/nanxstats/ggsci,https://github.com/conda-forge/r-ggsci-feedstock,https://github.com/liuqiang070488/ggscitable,https://github.com/cran/ggsci,https://cran.r-project.org/package=ggscidca,https://cran.r-project.org/package=ggsci,https://github.com/XiaonaZhao/ggsci</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -17273,7 +17273,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggsci,https://cran.r-project.org/package=ggscidca,https://cran.r-project.org/package=ggsmc,https://github.com/conda-forge/r-ggsci-feedstock,https://github.com/XiaonaZhao/ggsci,https://github.com/cran/ggsci,https://github.com/nanxstats/ggsci,https://github.com/liuqiang070488/ggscitable</t>
+          <t>https://cran.r-project.org/package=ggsmc,https://github.com/nanxstats/ggsci,https://github.com/conda-forge/r-ggsci-feedstock,https://github.com/liuqiang070488/ggscitable,https://github.com/cran/ggsci,https://cran.r-project.org/package=ggscidca,https://cran.r-project.org/package=ggsci,https://github.com/XiaonaZhao/ggsci</t>
         </is>
       </c>
       <c r="K316" t="inlineStr"/>
@@ -17325,7 +17325,7 @@
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=siplab,https://github.com/gitlabhq/gitlabhq,https://cran.r-project.org/package=vistla,https://github.com/firecow/gitlab-ci-local,https://cran.r-project.org/package=gitlabr,https://cran.r-project.org/package=tab,https://github.com/python-gitlab/python-gitlab,https://github.com/xanzy/go-gitlab,https://github.com/sameersbn/docker-gitlab</t>
+          <t>https://github.com/python-gitlab/python-gitlab,https://cran.r-project.org/package=siplab,https://github.com/firecow/gitlab-ci-local,https://cran.r-project.org/package=tab,https://github.com/gitlabhq/gitlabhq,https://cran.r-project.org/package=gitlabr,https://github.com/sameersbn/docker-gitlab,https://github.com/xanzy/go-gitlab,https://pypi.org/project/gitlab/,https://cran.r-project.org/package=vistla</t>
         </is>
       </c>
       <c r="K317" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=siplab,https://github.com/gitlabhq/gitlabhq,https://cran.r-project.org/package=vistla,https://github.com/firecow/gitlab-ci-local,https://cran.r-project.org/package=gitlabr,https://cran.r-project.org/package=tab,https://github.com/python-gitlab/python-gitlab,https://github.com/xanzy/go-gitlab,https://github.com/sameersbn/docker-gitlab</t>
+          <t>https://github.com/python-gitlab/python-gitlab,https://cran.r-project.org/package=siplab,https://github.com/firecow/gitlab-ci-local,https://cran.r-project.org/package=tab,https://github.com/gitlabhq/gitlabhq,https://cran.r-project.org/package=gitlabr,https://github.com/sameersbn/docker-gitlab,https://github.com/xanzy/go-gitlab,https://pypi.org/project/gitlab/,https://cran.r-project.org/package=vistla</t>
         </is>
       </c>
       <c r="K318" t="inlineStr"/>
@@ -17429,7 +17429,7 @@
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=siplab,https://github.com/gitlabhq/gitlabhq,https://cran.r-project.org/package=vistla,https://github.com/firecow/gitlab-ci-local,https://cran.r-project.org/package=gitlabr,https://cran.r-project.org/package=tab,https://github.com/python-gitlab/python-gitlab,https://github.com/xanzy/go-gitlab,https://github.com/sameersbn/docker-gitlab</t>
+          <t>https://github.com/python-gitlab/python-gitlab,https://cran.r-project.org/package=siplab,https://github.com/firecow/gitlab-ci-local,https://cran.r-project.org/package=tab,https://github.com/gitlabhq/gitlabhq,https://cran.r-project.org/package=gitlabr,https://github.com/sameersbn/docker-gitlab,https://github.com/xanzy/go-gitlab,https://pypi.org/project/gitlab/,https://cran.r-project.org/package=vistla</t>
         </is>
       </c>
       <c r="K319" t="inlineStr"/>
@@ -17481,7 +17481,7 @@
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=siplab,https://github.com/gitlabhq/gitlabhq,https://cran.r-project.org/package=vistla,https://github.com/firecow/gitlab-ci-local,https://cran.r-project.org/package=gitlabr,https://cran.r-project.org/package=tab,https://github.com/python-gitlab/python-gitlab,https://github.com/xanzy/go-gitlab,https://github.com/sameersbn/docker-gitlab</t>
+          <t>https://github.com/python-gitlab/python-gitlab,https://cran.r-project.org/package=siplab,https://github.com/firecow/gitlab-ci-local,https://cran.r-project.org/package=tab,https://github.com/gitlabhq/gitlabhq,https://cran.r-project.org/package=gitlabr,https://github.com/sameersbn/docker-gitlab,https://github.com/xanzy/go-gitlab,https://pypi.org/project/gitlab/,https://cran.r-project.org/package=vistla</t>
         </is>
       </c>
       <c r="K320" t="inlineStr"/>
@@ -17533,7 +17533,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>https://github.com/HabitRPG/habitica,https://cran.r-project.org/package=adehabitatHR,https://cran.r-project.org/package=adehabitatHS,https://github.com/habitat-sh/habitat,https://github.com/basille/hab,https://github.com/HabitRPG/habitica-android,https://cran.r-project.org/package=adehabitatMA,https://cran.r-project.org/package=adehabitatLT,https://github.com/facebookresearch/habitat-lab,https://github.com/blurstudio/hab,https://pypi.org/project/hab/,https://github.com/facebookresearch/habitat-sim,https://cran.r-project.org/package=alphabetr</t>
+          <t>https://cran.r-project.org/package=alphabetr,https://cran.r-project.org/package=adehabitatMA,https://cran.r-project.org/package=adehabitatHS,https://cran.r-project.org/package=adehabitatHR,https://cran.r-project.org/package=adehabitatLT,https://github.com/basille/hab,https://pypi.org/project/hab/,https://github.com/HabitRPG/habitica,https://github.com/HabitRPG/habitica-android,https://github.com/facebookresearch/habitat-sim,https://github.com/habitat-sh/habitat,https://github.com/facebookresearch/habitat-lab,https://github.com/blurstudio/hab</t>
         </is>
       </c>
       <c r="K321" t="inlineStr"/>
@@ -17585,7 +17585,7 @@
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr">
         <is>
-          <t>https://github.com/HabitRPG/habitica,https://cran.r-project.org/package=adehabitatHR,https://cran.r-project.org/package=adehabitatHS,https://github.com/habitat-sh/habitat,https://github.com/basille/hab,https://github.com/HabitRPG/habitica-android,https://cran.r-project.org/package=adehabitatMA,https://cran.r-project.org/package=adehabitatLT,https://github.com/facebookresearch/habitat-lab,https://github.com/blurstudio/hab,https://pypi.org/project/hab/,https://github.com/facebookresearch/habitat-sim,https://cran.r-project.org/package=alphabetr</t>
+          <t>https://cran.r-project.org/package=alphabetr,https://cran.r-project.org/package=adehabitatMA,https://cran.r-project.org/package=adehabitatHS,https://cran.r-project.org/package=adehabitatHR,https://cran.r-project.org/package=adehabitatLT,https://github.com/basille/hab,https://pypi.org/project/hab/,https://github.com/HabitRPG/habitica,https://github.com/HabitRPG/habitica-android,https://github.com/facebookresearch/habitat-sim,https://github.com/habitat-sh/habitat,https://github.com/facebookresearch/habitat-lab,https://github.com/blurstudio/hab</t>
         </is>
       </c>
       <c r="K322" t="inlineStr"/>
@@ -17637,7 +17637,7 @@
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=httping,https://cran.r-project.org/package=tcplfit2,https://github.com/jcgregorio/httplib2,https://github.com/googleapis/google-auth-library-python-httplib2,https://cran.r-project.org/package=httr2,https://github.com/fffonion/httplib2-exp,https://pypi.org/project/httplib2/,https://github.com/httplib2/httplib2,https://cran.r-project.org/package=h3lib,https://github.com/GoogleCloudPlatform/httplib2shim</t>
+          <t>https://github.com/googleapis/google-auth-library-python-httplib2,https://cran.r-project.org/package=httping,https://github.com/GoogleCloudPlatform/httplib2shim,https://github.com/httplib2/httplib2,https://cran.r-project.org/package=h3lib,https://github.com/fffonion/httplib2-exp,https://pypi.org/project/httplib2/,https://github.com/jcgregorio/httplib2,https://cran.r-project.org/package=tcplfit2,https://cran.r-project.org/package=httr2</t>
         </is>
       </c>
       <c r="K323" t="inlineStr"/>
@@ -17689,7 +17689,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>https://github.com/sysu19351064/Pressure_Insole,https://cran.r-project.org/package=tinsel,https://github.com/CliMA/Insolation.jl,https://cran.r-project.org/package=Rlinsolve,https://github.com/MindSetLib/Insolver,https://github.com/InsolenceWillow/insolencetvgo,https://github.com/cran/insol,https://cran.r-project.org/package=palinsol,https://cran.r-project.org/package=intsel,https://github.com/insolar/insolar</t>
+          <t>https://github.com/cran/insol,https://github.com/sysu19351064/Pressure_Insole,https://github.com/insolar/insolar,https://cran.r-project.org/package=intsel,https://cran.r-project.org/package=Rlinsolve,https://cran.r-project.org/package=palinsol,https://github.com/InsolenceWillow/insolencetvgo,https://github.com/MindSetLib/Insolver,https://github.com/CliMA/Insolation.jl,https://cran.r-project.org/package=tinsel</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -17745,7 +17745,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>https://github.com/sysu19351064/Pressure_Insole,https://cran.r-project.org/package=tinsel,https://github.com/CliMA/Insolation.jl,https://cran.r-project.org/package=Rlinsolve,https://github.com/MindSetLib/Insolver,https://github.com/InsolenceWillow/insolencetvgo,https://github.com/cran/insol,https://cran.r-project.org/package=palinsol,https://cran.r-project.org/package=intsel,https://github.com/insolar/insolar</t>
+          <t>https://github.com/cran/insol,https://github.com/sysu19351064/Pressure_Insole,https://github.com/insolar/insolar,https://cran.r-project.org/package=intsel,https://cran.r-project.org/package=Rlinsolve,https://cran.r-project.org/package=palinsol,https://github.com/InsolenceWillow/insolencetvgo,https://github.com/MindSetLib/Insolver,https://github.com/CliMA/Insolation.jl,https://cran.r-project.org/package=tinsel</t>
         </is>
       </c>
       <c r="K325" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr">
         <is>
-          <t>https://github.com/sysu19351064/Pressure_Insole,https://cran.r-project.org/package=tinsel,https://github.com/CliMA/Insolation.jl,https://cran.r-project.org/package=Rlinsolve,https://github.com/MindSetLib/Insolver,https://github.com/InsolenceWillow/insolencetvgo,https://github.com/cran/insol,https://cran.r-project.org/package=palinsol,https://cran.r-project.org/package=intsel,https://github.com/insolar/insolar</t>
+          <t>https://github.com/cran/insol,https://github.com/sysu19351064/Pressure_Insole,https://github.com/insolar/insolar,https://cran.r-project.org/package=intsel,https://cran.r-project.org/package=Rlinsolve,https://cran.r-project.org/package=palinsol,https://github.com/InsolenceWillow/insolencetvgo,https://github.com/MindSetLib/Insolver,https://github.com/CliMA/Insolation.jl,https://cran.r-project.org/package=tinsel</t>
         </is>
       </c>
       <c r="K326" t="inlineStr"/>
@@ -17849,7 +17849,7 @@
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr">
         <is>
-          <t>https://github.com/sysu19351064/Pressure_Insole,https://cran.r-project.org/package=tinsel,https://github.com/CliMA/Insolation.jl,https://cran.r-project.org/package=Rlinsolve,https://github.com/MindSetLib/Insolver,https://github.com/InsolenceWillow/insolencetvgo,https://github.com/cran/insol,https://cran.r-project.org/package=palinsol,https://cran.r-project.org/package=intsel,https://github.com/insolar/insolar</t>
+          <t>https://github.com/cran/insol,https://github.com/sysu19351064/Pressure_Insole,https://github.com/insolar/insolar,https://cran.r-project.org/package=intsel,https://cran.r-project.org/package=Rlinsolve,https://cran.r-project.org/package=palinsol,https://github.com/InsolenceWillow/insolencetvgo,https://github.com/MindSetLib/Insolver,https://github.com/CliMA/Insolation.jl,https://cran.r-project.org/package=tinsel</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -17905,7 +17905,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>https://github.com/yingstat/intePareto-Supplementary,https://github.com/cran/intePareto,https://github.com/yingstat/intePareto,https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=interpret,https://cran.r-project.org/package=interep,https://cran.r-project.org/package=intePareto,https://cran.r-project.org/package=Pareto</t>
+          <t>https://cran.r-project.org/package=interpret,https://cran.r-project.org/package=GPareto,https://github.com/cran/intePareto,https://github.com/yingstat/intePareto-Supplementary,https://cran.r-project.org/package=TunePareto,https://github.com/yingstat/intePareto,https://cran.r-project.org/package=Pareto,https://cran.r-project.org/package=intePareto,https://cran.r-project.org/package=interep</t>
         </is>
       </c>
       <c r="K328" t="inlineStr"/>
@@ -17957,7 +17957,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>https://github.com/yingstat/intePareto-Supplementary,https://github.com/cran/intePareto,https://github.com/yingstat/intePareto,https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=interpret,https://cran.r-project.org/package=interep,https://cran.r-project.org/package=intePareto,https://cran.r-project.org/package=Pareto</t>
+          <t>https://cran.r-project.org/package=interpret,https://cran.r-project.org/package=GPareto,https://github.com/cran/intePareto,https://github.com/yingstat/intePareto-Supplementary,https://cran.r-project.org/package=TunePareto,https://github.com/yingstat/intePareto,https://cran.r-project.org/package=Pareto,https://cran.r-project.org/package=intePareto,https://cran.r-project.org/package=interep</t>
         </is>
       </c>
       <c r="K329" t="inlineStr"/>
@@ -18009,7 +18009,7 @@
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr">
         <is>
-          <t>https://github.com/yingstat/intePareto-Supplementary,https://github.com/cran/intePareto,https://github.com/yingstat/intePareto,https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=interpret,https://cran.r-project.org/package=interep,https://cran.r-project.org/package=intePareto,https://cran.r-project.org/package=Pareto</t>
+          <t>https://cran.r-project.org/package=interpret,https://cran.r-project.org/package=GPareto,https://github.com/cran/intePareto,https://github.com/yingstat/intePareto-Supplementary,https://cran.r-project.org/package=TunePareto,https://github.com/yingstat/intePareto,https://cran.r-project.org/package=Pareto,https://cran.r-project.org/package=intePareto,https://cran.r-project.org/package=interep</t>
         </is>
       </c>
       <c r="K330" t="inlineStr"/>
@@ -18061,7 +18061,7 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr">
         <is>
-          <t>https://github.com/yingstat/intePareto-Supplementary,https://github.com/cran/intePareto,https://github.com/yingstat/intePareto,https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=interpret,https://cran.r-project.org/package=interep,https://cran.r-project.org/package=intePareto,https://cran.r-project.org/package=Pareto</t>
+          <t>https://cran.r-project.org/package=interpret,https://cran.r-project.org/package=GPareto,https://github.com/cran/intePareto,https://github.com/yingstat/intePareto-Supplementary,https://cran.r-project.org/package=TunePareto,https://github.com/yingstat/intePareto,https://cran.r-project.org/package=Pareto,https://cran.r-project.org/package=intePareto,https://cran.r-project.org/package=interep</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -18117,7 +18117,7 @@
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr">
         <is>
-          <t>https://github.com/yingstat/intePareto-Supplementary,https://github.com/cran/intePareto,https://github.com/yingstat/intePareto,https://cran.r-project.org/package=TunePareto,https://cran.r-project.org/package=GPareto,https://cran.r-project.org/package=interpret,https://cran.r-project.org/package=interep,https://cran.r-project.org/package=intePareto,https://cran.r-project.org/package=Pareto</t>
+          <t>https://cran.r-project.org/package=interpret,https://cran.r-project.org/package=GPareto,https://github.com/cran/intePareto,https://github.com/yingstat/intePareto-Supplementary,https://cran.r-project.org/package=TunePareto,https://github.com/yingstat/intePareto,https://cran.r-project.org/package=Pareto,https://cran.r-project.org/package=intePareto,https://cran.r-project.org/package=interep</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -18173,7 +18173,7 @@
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=iterpc,https://github.com/interep-project/voting-app,https://github.com/cran/interep,https://github.com/feizhoustat/interep,https://cran.r-project.org/package=interep,https://github.com/interep-project/reputation-service,https://cran.r-project.org/package=interp,https://github.com/interep-project/contracts,https://github.com/interep-project/interep.js,https://github.com/interep-project/subgraph,https://cran.r-project.org/package=tinter</t>
+          <t>https://cran.r-project.org/package=iterpc,https://github.com/interep-project/interep.js,https://github.com/interep-project/reputation-service,https://github.com/cran/interep,https://github.com/interep-project/subgraph,https://cran.r-project.org/package=interp,https://github.com/interep-project/voting-app,https://github.com/interep-project/contracts,https://cran.r-project.org/package=tinter,https://github.com/feizhoustat/interep,https://cran.r-project.org/package=interep</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -18229,7 +18229,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=intsurv,https://cran.r-project.org/package=intsvy,https://github.com/CambridgeAssessmentResearch/intsvyExtras,https://github.com/cran/intsvy,https://github.com/dickli/intsvy2,https://cran.r-project.org/package=mmints,https://github.com/INTsvyatkov211/INTsvyatkov211,https://github.com/eldafani/intsvy,https://cran.r-project.org/package=minty</t>
+          <t>https://cran.r-project.org/package=mmints,https://github.com/dickli/intsvy2,https://cran.r-project.org/package=minty,https://cran.r-project.org/package=intsurv,https://github.com/cran/intsvy,https://github.com/CambridgeAssessmentResearch/intsvyExtras,https://github.com/eldafani/intsvy,https://github.com/INTsvyatkov211/INTsvyatkov211,https://cran.r-project.org/package=intsvy</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -18285,7 +18285,7 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ezknitr,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr-examples,https://cran.r-project.org/package=docknitr,https://cran.r-project.org/package=knitrdata,https://github.com/betanalpha/knitr_case_studies,https://cran.r-project.org/package=knitrBootstrap,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitr,https://github.com/cran/knitr</t>
+          <t>https://cran.r-project.org/package=knitr,https://github.com/cran/knitr,https://cran.r-project.org/package=ezknitr,https://cran.r-project.org/package=knitrBootstrap,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitrdata,https://cran.r-project.org/package=docknitr,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr-examples,https://github.com/betanalpha/knitr_case_studies</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -18341,7 +18341,7 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ezknitr,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr-examples,https://cran.r-project.org/package=docknitr,https://cran.r-project.org/package=knitrdata,https://github.com/betanalpha/knitr_case_studies,https://cran.r-project.org/package=knitrBootstrap,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitr,https://github.com/cran/knitr</t>
+          <t>https://cran.r-project.org/package=knitr,https://github.com/cran/knitr,https://cran.r-project.org/package=ezknitr,https://cran.r-project.org/package=knitrBootstrap,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitrdata,https://cran.r-project.org/package=docknitr,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr-examples,https://github.com/betanalpha/knitr_case_studies</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -18397,7 +18397,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ezknitr,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr-examples,https://cran.r-project.org/package=docknitr,https://cran.r-project.org/package=knitrdata,https://github.com/betanalpha/knitr_case_studies,https://cran.r-project.org/package=knitrBootstrap,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitr,https://github.com/cran/knitr</t>
+          <t>https://cran.r-project.org/package=knitr,https://github.com/cran/knitr,https://cran.r-project.org/package=ezknitr,https://cran.r-project.org/package=knitrBootstrap,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitrdata,https://cran.r-project.org/package=docknitr,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr-examples,https://github.com/betanalpha/knitr_case_studies</t>
         </is>
       </c>
       <c r="K337" t="inlineStr"/>
@@ -18449,7 +18449,7 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ezknitr,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr-examples,https://cran.r-project.org/package=docknitr,https://cran.r-project.org/package=knitrdata,https://github.com/betanalpha/knitr_case_studies,https://cran.r-project.org/package=knitrBootstrap,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitr,https://github.com/cran/knitr</t>
+          <t>https://cran.r-project.org/package=knitr,https://github.com/cran/knitr,https://cran.r-project.org/package=ezknitr,https://cran.r-project.org/package=knitrBootstrap,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitrdata,https://cran.r-project.org/package=docknitr,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr-examples,https://github.com/betanalpha/knitr_case_studies</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -18505,7 +18505,7 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ezknitr,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr-examples,https://cran.r-project.org/package=docknitr,https://cran.r-project.org/package=knitrdata,https://github.com/betanalpha/knitr_case_studies,https://cran.r-project.org/package=knitrBootstrap,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitr,https://github.com/cran/knitr</t>
+          <t>https://cran.r-project.org/package=knitr,https://github.com/cran/knitr,https://cran.r-project.org/package=ezknitr,https://cran.r-project.org/package=knitrBootstrap,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitrdata,https://cran.r-project.org/package=docknitr,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr-examples,https://github.com/betanalpha/knitr_case_studies</t>
         </is>
       </c>
       <c r="K339" t="inlineStr"/>
@@ -18557,7 +18557,7 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ezknitr,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr-examples,https://cran.r-project.org/package=docknitr,https://cran.r-project.org/package=knitrdata,https://github.com/betanalpha/knitr_case_studies,https://cran.r-project.org/package=knitrBootstrap,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitr,https://github.com/cran/knitr</t>
+          <t>https://cran.r-project.org/package=knitr,https://github.com/cran/knitr,https://cran.r-project.org/package=ezknitr,https://cran.r-project.org/package=knitrBootstrap,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitrdata,https://cran.r-project.org/package=docknitr,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr-examples,https://github.com/betanalpha/knitr_case_studies</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -18613,7 +18613,7 @@
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ezknitr,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr-examples,https://cran.r-project.org/package=docknitr,https://cran.r-project.org/package=knitrdata,https://github.com/betanalpha/knitr_case_studies,https://cran.r-project.org/package=knitrBootstrap,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitr,https://github.com/cran/knitr</t>
+          <t>https://cran.r-project.org/package=knitr,https://github.com/cran/knitr,https://cran.r-project.org/package=ezknitr,https://cran.r-project.org/package=knitrBootstrap,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitrdata,https://cran.r-project.org/package=docknitr,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr-examples,https://github.com/betanalpha/knitr_case_studies</t>
         </is>
       </c>
       <c r="K341" t="inlineStr"/>
@@ -18665,7 +18665,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ezknitr,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr-examples,https://cran.r-project.org/package=docknitr,https://cran.r-project.org/package=knitrdata,https://github.com/betanalpha/knitr_case_studies,https://cran.r-project.org/package=knitrBootstrap,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitr,https://github.com/cran/knitr</t>
+          <t>https://cran.r-project.org/package=knitr,https://github.com/cran/knitr,https://cran.r-project.org/package=ezknitr,https://cran.r-project.org/package=knitrBootstrap,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitrdata,https://cran.r-project.org/package=docknitr,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr-examples,https://github.com/betanalpha/knitr_case_studies</t>
         </is>
       </c>
       <c r="K342" t="inlineStr"/>
@@ -18717,7 +18717,7 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ezknitr,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr-examples,https://cran.r-project.org/package=docknitr,https://cran.r-project.org/package=knitrdata,https://github.com/betanalpha/knitr_case_studies,https://cran.r-project.org/package=knitrBootstrap,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitr,https://github.com/cran/knitr</t>
+          <t>https://cran.r-project.org/package=knitr,https://github.com/cran/knitr,https://cran.r-project.org/package=ezknitr,https://cran.r-project.org/package=knitrBootstrap,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitrdata,https://cran.r-project.org/package=docknitr,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr-examples,https://github.com/betanalpha/knitr_case_studies</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -18773,7 +18773,7 @@
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ezknitr,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr-examples,https://cran.r-project.org/package=docknitr,https://cran.r-project.org/package=knitrdata,https://github.com/betanalpha/knitr_case_studies,https://cran.r-project.org/package=knitrBootstrap,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitr,https://github.com/cran/knitr</t>
+          <t>https://cran.r-project.org/package=knitr,https://github.com/cran/knitr,https://cran.r-project.org/package=ezknitr,https://cran.r-project.org/package=knitrBootstrap,https://github.com/jimhester/knitrBootstrap,https://github.com/yihui/knitr,https://cran.r-project.org/package=knitrdata,https://cran.r-project.org/package=docknitr,https://github.com/yihui/knitr-book,https://github.com/yihui/knitr-examples,https://github.com/betanalpha/knitr_case_studies</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -18829,7 +18829,7 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=controlTest,https://cran.r-project.org/package=netcontrol,https://cran.r-project.org/package=rcontroll,https://github.com/alpsarikisla/PokeDev_WinFormsKontrolleri,https://github.com/emonetlab/kontroller,https://github.com/raghavk92/Kontroller,https://github.com/alpsarikisla/AgeOf_WinformsKontrolleri,https://github.com/meromelo/Kontroller,https://cran.r-project.org/package=poolHelper,https://cran.r-project.org/package=control,https://github.com/tpneill/nanoKontroller</t>
+          <t>https://cran.r-project.org/package=control,https://cran.r-project.org/package=rcontroll,https://github.com/alpsarikisla/AgeOf_WinformsKontrolleri,https://github.com/raghavk92/Kontroller,https://github.com/alpsarikisla/PokeDev_WinFormsKontrolleri,https://github.com/tpneill/nanoKontroller,https://pypi.org/project/kontroller/,https://cran.r-project.org/package=netcontrol,https://github.com/meromelo/Kontroller,https://github.com/emonetlab/kontroller,https://cran.r-project.org/package=controlTest,https://cran.r-project.org/package=poolHelper,https://github.com/caruccio/kontroller</t>
         </is>
       </c>
       <c r="K345" t="inlineStr"/>
@@ -18881,7 +18881,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=controlTest,https://cran.r-project.org/package=netcontrol,https://cran.r-project.org/package=rcontroll,https://github.com/alpsarikisla/PokeDev_WinFormsKontrolleri,https://github.com/emonetlab/kontroller,https://github.com/raghavk92/Kontroller,https://github.com/alpsarikisla/AgeOf_WinformsKontrolleri,https://github.com/meromelo/Kontroller,https://cran.r-project.org/package=poolHelper,https://cran.r-project.org/package=control,https://github.com/tpneill/nanoKontroller</t>
+          <t>https://cran.r-project.org/package=control,https://cran.r-project.org/package=rcontroll,https://github.com/alpsarikisla/AgeOf_WinformsKontrolleri,https://github.com/raghavk92/Kontroller,https://github.com/alpsarikisla/PokeDev_WinFormsKontrolleri,https://github.com/tpneill/nanoKontroller,https://pypi.org/project/kontroller/,https://cran.r-project.org/package=netcontrol,https://github.com/meromelo/Kontroller,https://github.com/emonetlab/kontroller,https://cran.r-project.org/package=controlTest,https://cran.r-project.org/package=poolHelper,https://github.com/caruccio/kontroller</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -18937,7 +18937,7 @@
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr">
         <is>
-          <t>https://github.com/libMesh/Documents,https://github.com/libMesh/libmesh,https://pypi.org/project/libmesh/,https://github.com/superdima05/mesh,https://cran.r-project.org/package=clime,https://cran.r-project.org/package=lime,https://cran.r-project.org/package=libgeos,https://github.com/LoicMarechal/libMeshb,https://github.com/Ylianst/LibMeshCtrl,https://cran.r-project.org/package=limexhub,https://github.com/libMesh/TIMPI,https://cran.r-project.org/package=calibmsm</t>
+          <t>https://cran.r-project.org/package=libgeos,https://github.com/LoicMarechal/libMeshb,https://pypi.org/project/libmesh/,https://github.com/libMesh/Documents,https://cran.r-project.org/package=calibmsm,https://github.com/Ylianst/LibMeshCtrl,https://cran.r-project.org/package=clime,https://cran.r-project.org/package=limexhub,https://github.com/libMesh/libmesh,https://cran.r-project.org/package=lime,https://github.com/libMesh/TIMPI,https://github.com/superdima05/mesh</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -18993,7 +18993,7 @@
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr">
         <is>
-          <t>https://github.com/francescoalemanno/LogSpline.jl,https://cran.r-project.org/package=lgspline,https://cran.r-project.org/package=logspline,https://cran.r-project.org/package=lspline,https://github.com/OpenMandrivaAssociation/R-logspline,https://github.com/clearlinux-pkgs/R-logspline,https://github.com/cran/logspline,https://github.com/mlr3learners/mlr3learners.logspline,https://cran.r-project.org/package=polspline</t>
+          <t>https://cran.r-project.org/package=polspline,https://github.com/mlr3learners/mlr3learners.logspline,https://cran.r-project.org/package=lgspline,https://github.com/francescoalemanno/LogSpline.jl,https://cran.r-project.org/package=lspline,https://cran.r-project.org/package=logspline,https://github.com/clearlinux-pkgs/R-logspline,https://github.com/cran/logspline,https://github.com/OpenMandrivaAssociation/R-logspline</t>
         </is>
       </c>
       <c r="K348" t="inlineStr"/>
@@ -19045,7 +19045,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>https://github.com/francescoalemanno/LogSpline.jl,https://cran.r-project.org/package=lgspline,https://cran.r-project.org/package=logspline,https://cran.r-project.org/package=lspline,https://github.com/OpenMandrivaAssociation/R-logspline,https://github.com/clearlinux-pkgs/R-logspline,https://github.com/cran/logspline,https://github.com/mlr3learners/mlr3learners.logspline,https://cran.r-project.org/package=polspline</t>
+          <t>https://cran.r-project.org/package=polspline,https://github.com/mlr3learners/mlr3learners.logspline,https://cran.r-project.org/package=lgspline,https://github.com/francescoalemanno/LogSpline.jl,https://cran.r-project.org/package=lspline,https://cran.r-project.org/package=logspline,https://github.com/clearlinux-pkgs/R-logspline,https://github.com/cran/logspline,https://github.com/OpenMandrivaAssociation/R-logspline</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -19101,7 +19101,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>https://github.com/francescoalemanno/LogSpline.jl,https://cran.r-project.org/package=lgspline,https://cran.r-project.org/package=logspline,https://cran.r-project.org/package=lspline,https://github.com/OpenMandrivaAssociation/R-logspline,https://github.com/clearlinux-pkgs/R-logspline,https://github.com/cran/logspline,https://github.com/mlr3learners/mlr3learners.logspline,https://cran.r-project.org/package=polspline</t>
+          <t>https://cran.r-project.org/package=polspline,https://github.com/mlr3learners/mlr3learners.logspline,https://cran.r-project.org/package=lgspline,https://github.com/francescoalemanno/LogSpline.jl,https://cran.r-project.org/package=lspline,https://cran.r-project.org/package=logspline,https://github.com/clearlinux-pkgs/R-logspline,https://github.com/cran/logspline,https://github.com/OpenMandrivaAssociation/R-logspline</t>
         </is>
       </c>
       <c r="K350" t="inlineStr"/>
@@ -19153,7 +19153,7 @@
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/cran/lubridate,https://github.com/tidyverse/lubridate,https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://github.com/ellisvalentiner/lubridateExtras,https://cran.r-project.org/package=umbridge</t>
+          <t>https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://cran.r-project.org/package=lubridate,https://github.com/tidyverse/lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/cran/lubridate,https://cran.r-project.org/package=umbridge,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/ellisvalentiner/lubridateExtras</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -19209,7 +19209,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/cran/lubridate,https://github.com/tidyverse/lubridate,https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://github.com/ellisvalentiner/lubridateExtras,https://cran.r-project.org/package=umbridge</t>
+          <t>https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://cran.r-project.org/package=lubridate,https://github.com/tidyverse/lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/cran/lubridate,https://cran.r-project.org/package=umbridge,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/ellisvalentiner/lubridateExtras</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -19265,7 +19265,7 @@
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/cran/lubridate,https://github.com/tidyverse/lubridate,https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://github.com/ellisvalentiner/lubridateExtras,https://cran.r-project.org/package=umbridge</t>
+          <t>https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://cran.r-project.org/package=lubridate,https://github.com/tidyverse/lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/cran/lubridate,https://cran.r-project.org/package=umbridge,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/ellisvalentiner/lubridateExtras</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -19321,7 +19321,7 @@
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/cran/lubridate,https://github.com/tidyverse/lubridate,https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://github.com/ellisvalentiner/lubridateExtras,https://cran.r-project.org/package=umbridge</t>
+          <t>https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://cran.r-project.org/package=lubridate,https://github.com/tidyverse/lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/cran/lubridate,https://cran.r-project.org/package=umbridge,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/ellisvalentiner/lubridateExtras</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -19377,7 +19377,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/cran/lubridate,https://github.com/tidyverse/lubridate,https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://github.com/ellisvalentiner/lubridateExtras,https://cran.r-project.org/package=umbridge</t>
+          <t>https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://cran.r-project.org/package=lubridate,https://github.com/tidyverse/lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/cran/lubridate,https://cran.r-project.org/package=umbridge,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/ellisvalentiner/lubridateExtras</t>
         </is>
       </c>
       <c r="K355" t="inlineStr"/>
@@ -19429,7 +19429,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/cran/lubridate,https://github.com/tidyverse/lubridate,https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://github.com/ellisvalentiner/lubridateExtras,https://cran.r-project.org/package=umbridge</t>
+          <t>https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://cran.r-project.org/package=lubridate,https://github.com/tidyverse/lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/cran/lubridate,https://cran.r-project.org/package=umbridge,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/ellisvalentiner/lubridateExtras</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -19485,7 +19485,7 @@
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/cran/lubridate,https://github.com/tidyverse/lubridate,https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://github.com/ellisvalentiner/lubridateExtras,https://cran.r-project.org/package=umbridge</t>
+          <t>https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://cran.r-project.org/package=lubridate,https://github.com/tidyverse/lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/cran/lubridate,https://cran.r-project.org/package=umbridge,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/ellisvalentiner/lubridateExtras</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -19541,7 +19541,7 @@
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/cran/lubridate,https://github.com/tidyverse/lubridate,https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://github.com/ellisvalentiner/lubridateExtras,https://cran.r-project.org/package=umbridge</t>
+          <t>https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://cran.r-project.org/package=lubridate,https://github.com/tidyverse/lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/cran/lubridate,https://cran.r-project.org/package=umbridge,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/ellisvalentiner/lubridateExtras</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -19597,7 +19597,7 @@
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/cran/lubridate,https://github.com/tidyverse/lubridate,https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://github.com/ellisvalentiner/lubridateExtras,https://cran.r-project.org/package=umbridge</t>
+          <t>https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://cran.r-project.org/package=lubridate,https://github.com/tidyverse/lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/cran/lubridate,https://cran.r-project.org/package=umbridge,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/ellisvalentiner/lubridateExtras</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -19653,7 +19653,7 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/cran/lubridate,https://github.com/tidyverse/lubridate,https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://github.com/ellisvalentiner/lubridateExtras,https://cran.r-project.org/package=umbridge</t>
+          <t>https://github.com/MeganBeckett/lubridate-heatmaps_tutorial,https://cran.r-project.org/package=lubridate,https://github.com/tidyverse/lubridate,https://cran.r-project.org/package=validate,https://cran.r-project.org/package=lidaRtRee,https://github.com/cran/lubridate,https://cran.r-project.org/package=umbridge,https://github.com/itsame-mcl/learnr-lubridate,https://github.com/ellisvalentiner/lubridateExtras</t>
         </is>
       </c>
       <c r="K360" t="inlineStr"/>
@@ -19705,7 +19705,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>https://github.com/Melledy/LunarCore,https://github.com/alin23/Lunar,https://github.com/Sanakan8472/copy-dialog-lunar-lander,https://github.com/cran/lunar,https://cran.r-project.org/package=luajr,https://github.com/LunarVim/LunarVim,https://cran.r-project.org/package=lacunr,https://cran.r-project.org/package=lar,https://cran.r-project.org/package=lunar,https://github.com/lunarphp/lunar</t>
+          <t>https://cran.r-project.org/package=lar,https://github.com/Sanakan8472/copy-dialog-lunar-lander,https://github.com/cran/lunar,https://cran.r-project.org/package=lunar,https://github.com/lunarphp/lunar,https://github.com/alin23/Lunar,https://github.com/Melledy/LunarCore,https://cran.r-project.org/package=luajr,https://cran.r-project.org/package=lacunr,https://pypi.org/project/lunar/,https://github.com/LunarVim/LunarVim</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -19761,7 +19761,7 @@
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr">
         <is>
-          <t>https://github.com/Melledy/LunarCore,https://github.com/alin23/Lunar,https://github.com/Sanakan8472/copy-dialog-lunar-lander,https://github.com/cran/lunar,https://cran.r-project.org/package=luajr,https://github.com/LunarVim/LunarVim,https://cran.r-project.org/package=lacunr,https://cran.r-project.org/package=lar,https://cran.r-project.org/package=lunar,https://github.com/lunarphp/lunar</t>
+          <t>https://cran.r-project.org/package=lar,https://github.com/Sanakan8472/copy-dialog-lunar-lander,https://github.com/cran/lunar,https://cran.r-project.org/package=lunar,https://github.com/lunarphp/lunar,https://github.com/alin23/Lunar,https://github.com/Melledy/LunarCore,https://cran.r-project.org/package=luajr,https://cran.r-project.org/package=lacunr,https://pypi.org/project/lunar/,https://github.com/LunarVim/LunarVim</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -19817,7 +19817,7 @@
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr">
         <is>
-          <t>https://github.com/Melledy/LunarCore,https://github.com/alin23/Lunar,https://github.com/Sanakan8472/copy-dialog-lunar-lander,https://github.com/cran/lunar,https://cran.r-project.org/package=luajr,https://github.com/LunarVim/LunarVim,https://cran.r-project.org/package=lacunr,https://cran.r-project.org/package=lar,https://cran.r-project.org/package=lunar,https://github.com/lunarphp/lunar</t>
+          <t>https://cran.r-project.org/package=lar,https://github.com/Sanakan8472/copy-dialog-lunar-lander,https://github.com/cran/lunar,https://cran.r-project.org/package=lunar,https://github.com/lunarphp/lunar,https://github.com/alin23/Lunar,https://github.com/Melledy/LunarCore,https://cran.r-project.org/package=luajr,https://cran.r-project.org/package=lacunr,https://pypi.org/project/lunar/,https://github.com/LunarVim/LunarVim</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -19873,7 +19873,7 @@
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr">
         <is>
-          <t>https://github.com/leeper/margins,https://github.com/imanoupetit/Margins-And-Safe-Area,https://cran.r-project.org/package=ergMargins,https://github.com/abarker/pdfCropMargins,https://cran.r-project.org/package=rmargint,https://github.com/cran/margins,https://github.com/bbolker/margins,https://github.com/writer/writing-in-the-margins,https://cran.r-project.org/package=margins,https://cran.r-project.org/package=brmsmargins,https://github.com/grummble-ai/PathOfExile-SkillGemMargins</t>
+          <t>https://github.com/grummble-ai/PathOfExile-SkillGemMargins,https://cran.r-project.org/package=margins,https://github.com/leeper/margins,https://cran.r-project.org/package=brmsmargins,https://github.com/cran/margins,https://cran.r-project.org/package=rmargint,https://github.com/bbolker/margins,https://cran.r-project.org/package=ergMargins,https://github.com/writer/writing-in-the-margins,https://github.com/abarker/pdfCropMargins,https://github.com/imanoupetit/Margins-And-Safe-Area</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -19929,7 +19929,7 @@
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr">
         <is>
-          <t>https://github.com/leeper/margins,https://github.com/imanoupetit/Margins-And-Safe-Area,https://cran.r-project.org/package=ergMargins,https://github.com/abarker/pdfCropMargins,https://cran.r-project.org/package=rmargint,https://github.com/cran/margins,https://github.com/bbolker/margins,https://github.com/writer/writing-in-the-margins,https://cran.r-project.org/package=margins,https://cran.r-project.org/package=brmsmargins,https://github.com/grummble-ai/PathOfExile-SkillGemMargins</t>
+          <t>https://github.com/grummble-ai/PathOfExile-SkillGemMargins,https://cran.r-project.org/package=margins,https://github.com/leeper/margins,https://cran.r-project.org/package=brmsmargins,https://github.com/cran/margins,https://cran.r-project.org/package=rmargint,https://github.com/bbolker/margins,https://cran.r-project.org/package=ergMargins,https://github.com/writer/writing-in-the-margins,https://github.com/abarker/pdfCropMargins,https://github.com/imanoupetit/Margins-And-Safe-Area</t>
         </is>
       </c>
       <c r="K365" t="inlineStr"/>
@@ -19981,7 +19981,7 @@
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr">
         <is>
-          <t>https://github.com/leeper/margins,https://github.com/imanoupetit/Margins-And-Safe-Area,https://cran.r-project.org/package=ergMargins,https://github.com/abarker/pdfCropMargins,https://cran.r-project.org/package=rmargint,https://github.com/cran/margins,https://github.com/bbolker/margins,https://github.com/writer/writing-in-the-margins,https://cran.r-project.org/package=margins,https://cran.r-project.org/package=brmsmargins,https://github.com/grummble-ai/PathOfExile-SkillGemMargins</t>
+          <t>https://github.com/grummble-ai/PathOfExile-SkillGemMargins,https://cran.r-project.org/package=margins,https://github.com/leeper/margins,https://cran.r-project.org/package=brmsmargins,https://github.com/cran/margins,https://cran.r-project.org/package=rmargint,https://github.com/bbolker/margins,https://cran.r-project.org/package=ergMargins,https://github.com/writer/writing-in-the-margins,https://github.com/abarker/pdfCropMargins,https://github.com/imanoupetit/Margins-And-Safe-Area</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -20037,7 +20037,7 @@
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=datplot,https://github.com/lava/matplotlib-cpp,https://cran.r-project.org/package=autoplotly,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=matlib,https://github.com/matplotlib/mplfinance,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/matplotlib,https://github.com/matplotlib/cheatsheets</t>
+          <t>https://cran.r-project.org/package=datplot,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=autoplotly,https://github.com/matplotlib/matplotlib,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=matlib,https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/cheatsheets,https://github.com/lava/matplotlib-cpp,https://github.com/matplotlib/mplfinance</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -20093,7 +20093,7 @@
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=datplot,https://github.com/lava/matplotlib-cpp,https://cran.r-project.org/package=autoplotly,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=matlib,https://github.com/matplotlib/mplfinance,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/matplotlib,https://github.com/matplotlib/cheatsheets</t>
+          <t>https://cran.r-project.org/package=datplot,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=autoplotly,https://github.com/matplotlib/matplotlib,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=matlib,https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/cheatsheets,https://github.com/lava/matplotlib-cpp,https://github.com/matplotlib/mplfinance</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -20149,7 +20149,7 @@
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=datplot,https://github.com/lava/matplotlib-cpp,https://cran.r-project.org/package=autoplotly,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=matlib,https://github.com/matplotlib/mplfinance,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/matplotlib,https://github.com/matplotlib/cheatsheets</t>
+          <t>https://cran.r-project.org/package=datplot,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=autoplotly,https://github.com/matplotlib/matplotlib,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=matlib,https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/cheatsheets,https://github.com/lava/matplotlib-cpp,https://github.com/matplotlib/mplfinance</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -20205,7 +20205,7 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=datplot,https://github.com/lava/matplotlib-cpp,https://cran.r-project.org/package=autoplotly,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=matlib,https://github.com/matplotlib/mplfinance,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/matplotlib,https://github.com/matplotlib/cheatsheets</t>
+          <t>https://cran.r-project.org/package=datplot,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=autoplotly,https://github.com/matplotlib/matplotlib,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=matlib,https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/cheatsheets,https://github.com/lava/matplotlib-cpp,https://github.com/matplotlib/mplfinance</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -20261,7 +20261,7 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=datplot,https://github.com/lava/matplotlib-cpp,https://cran.r-project.org/package=autoplotly,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=matlib,https://github.com/matplotlib/mplfinance,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/matplotlib,https://github.com/matplotlib/cheatsheets</t>
+          <t>https://cran.r-project.org/package=datplot,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=autoplotly,https://github.com/matplotlib/matplotlib,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=matlib,https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/cheatsheets,https://github.com/lava/matplotlib-cpp,https://github.com/matplotlib/mplfinance</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -20317,7 +20317,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=datplot,https://github.com/lava/matplotlib-cpp,https://cran.r-project.org/package=autoplotly,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=matlib,https://github.com/matplotlib/mplfinance,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/matplotlib,https://github.com/matplotlib/cheatsheets</t>
+          <t>https://cran.r-project.org/package=datplot,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=autoplotly,https://github.com/matplotlib/matplotlib,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=matlib,https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/cheatsheets,https://github.com/lava/matplotlib-cpp,https://github.com/matplotlib/mplfinance</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -20373,7 +20373,7 @@
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=datplot,https://github.com/lava/matplotlib-cpp,https://cran.r-project.org/package=autoplotly,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=matlib,https://github.com/matplotlib/mplfinance,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/matplotlib,https://github.com/matplotlib/cheatsheets</t>
+          <t>https://cran.r-project.org/package=datplot,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=autoplotly,https://github.com/matplotlib/matplotlib,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=matlib,https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/cheatsheets,https://github.com/lava/matplotlib-cpp,https://github.com/matplotlib/mplfinance</t>
         </is>
       </c>
       <c r="K373" t="inlineStr"/>
@@ -20425,7 +20425,7 @@
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=datplot,https://github.com/lava/matplotlib-cpp,https://cran.r-project.org/package=autoplotly,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=matlib,https://github.com/matplotlib/mplfinance,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/matplotlib,https://github.com/matplotlib/cheatsheets</t>
+          <t>https://cran.r-project.org/package=datplot,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=autoplotly,https://github.com/matplotlib/matplotlib,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=matlib,https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/cheatsheets,https://github.com/lava/matplotlib-cpp,https://github.com/matplotlib/mplfinance</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -20481,7 +20481,7 @@
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=datplot,https://github.com/lava/matplotlib-cpp,https://cran.r-project.org/package=autoplotly,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=matlib,https://github.com/matplotlib/mplfinance,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/matplotlib,https://github.com/matplotlib/cheatsheets</t>
+          <t>https://cran.r-project.org/package=datplot,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=autoplotly,https://github.com/matplotlib/matplotlib,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=matlib,https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/cheatsheets,https://github.com/lava/matplotlib-cpp,https://github.com/matplotlib/mplfinance</t>
         </is>
       </c>
       <c r="K375" t="inlineStr"/>
@@ -20533,7 +20533,7 @@
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=datplot,https://github.com/lava/matplotlib-cpp,https://cran.r-project.org/package=autoplotly,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=matlib,https://github.com/matplotlib/mplfinance,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/matplotlib,https://github.com/matplotlib/cheatsheets</t>
+          <t>https://cran.r-project.org/package=datplot,https://pypi.org/project/matplotlib/,https://cran.r-project.org/package=autoplotly,https://github.com/matplotlib/matplotlib,https://github.com/rougier/matplotlib-tutorial,https://cran.r-project.org/package=matlib,https://cran.r-project.org/package=ggmatplot,https://cran.r-project.org/package=plotcli,https://github.com/matplotlib/cheatsheets,https://github.com/lava/matplotlib-cpp,https://github.com/matplotlib/mplfinance</t>
         </is>
       </c>
       <c r="K376" t="inlineStr"/>
@@ -20585,7 +20585,7 @@
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=spellcheckr,https://pypi.org/project/methylcheck/,https://github.com/FOXOBioScience/methylcheck,https://cran.r-project.org/package=tweetcheck,https://cran.r-project.org/package=pomcheckr,https://cran.r-project.org/package=rcmdcheck,https://github.com/FoxoTech/methylcheck,https://cran.r-project.org/package=statcheck</t>
+          <t>https://cran.r-project.org/package=statcheck,https://github.com/FoxoTech/methylcheck,https://cran.r-project.org/package=tweetcheck,https://cran.r-project.org/package=spellcheckr,https://cran.r-project.org/package=pomcheckr,https://github.com/FOXOBioScience/methylcheck,https://pypi.org/project/methylcheck/,https://cran.r-project.org/package=rcmdcheck</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -20641,7 +20641,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>https://github.com/philchalmers/mirt/,https://github.com/BioMedIA/MIRTK,https://github.com/JeffFessler/mirt,https://cran.r-project.org/package=mirt,https://cran.r-project.org/package=D3mirt,https://github.com/mirth-lang/mirth,https://cran.r-project.org/package=mirtCAT,https://github.com/cran/mirt,https://github.com/guanhuaw/MIRTorch,https://cran.r-project.org/package=emIRT,https://cran.r-project.org/package=miRtest</t>
+          <t>https://github.com/JeffFessler/mirt,https://github.com/cran/mirt,https://github.com/philchalmers/mirt/,https://cran.r-project.org/package=mirt,https://cran.r-project.org/package=emIRT,https://cran.r-project.org/package=D3mirt,https://github.com/guanhuaw/MIRTorch,https://github.com/mirth-lang/mirth,https://github.com/BioMedIA/MIRTK,https://cran.r-project.org/package=mirtCAT,https://cran.r-project.org/package=miRtest</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -20697,7 +20697,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>https://github.com/philchalmers/mirt/,https://github.com/BioMedIA/MIRTK,https://github.com/JeffFessler/mirt,https://cran.r-project.org/package=mirt,https://cran.r-project.org/package=D3mirt,https://github.com/mirth-lang/mirth,https://cran.r-project.org/package=mirtCAT,https://github.com/cran/mirt,https://github.com/guanhuaw/MIRTorch,https://cran.r-project.org/package=emIRT,https://cran.r-project.org/package=miRtest</t>
+          <t>https://github.com/JeffFessler/mirt,https://github.com/cran/mirt,https://github.com/philchalmers/mirt/,https://cran.r-project.org/package=mirt,https://cran.r-project.org/package=emIRT,https://cran.r-project.org/package=D3mirt,https://github.com/guanhuaw/MIRTorch,https://github.com/mirth-lang/mirth,https://github.com/BioMedIA/MIRTK,https://cran.r-project.org/package=mirtCAT,https://cran.r-project.org/package=miRtest</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -20753,7 +20753,7 @@
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr">
         <is>
-          <t>https://github.com/philchalmers/mirt/,https://github.com/BioMedIA/MIRTK,https://github.com/JeffFessler/mirt,https://cran.r-project.org/package=mirt,https://cran.r-project.org/package=D3mirt,https://github.com/mirth-lang/mirth,https://cran.r-project.org/package=mirtCAT,https://github.com/cran/mirt,https://github.com/guanhuaw/MIRTorch,https://cran.r-project.org/package=emIRT,https://cran.r-project.org/package=miRtest</t>
+          <t>https://github.com/JeffFessler/mirt,https://github.com/cran/mirt,https://github.com/philchalmers/mirt/,https://cran.r-project.org/package=mirt,https://cran.r-project.org/package=emIRT,https://cran.r-project.org/package=D3mirt,https://github.com/guanhuaw/MIRTorch,https://github.com/mirth-lang/mirth,https://github.com/BioMedIA/MIRTK,https://cran.r-project.org/package=mirtCAT,https://cran.r-project.org/package=miRtest</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -20809,7 +20809,7 @@
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr">
         <is>
-          <t>https://github.com/philchalmers/mirt/,https://github.com/BioMedIA/MIRTK,https://github.com/JeffFessler/mirt,https://cran.r-project.org/package=mirt,https://cran.r-project.org/package=D3mirt,https://github.com/mirth-lang/mirth,https://cran.r-project.org/package=mirtCAT,https://github.com/cran/mirt,https://github.com/guanhuaw/MIRTorch,https://cran.r-project.org/package=emIRT,https://cran.r-project.org/package=miRtest</t>
+          <t>https://github.com/JeffFessler/mirt,https://github.com/cran/mirt,https://github.com/philchalmers/mirt/,https://cran.r-project.org/package=mirt,https://cran.r-project.org/package=emIRT,https://cran.r-project.org/package=D3mirt,https://github.com/guanhuaw/MIRTorch,https://github.com/mirth-lang/mirth,https://github.com/BioMedIA/MIRTK,https://cran.r-project.org/package=mirtCAT,https://cran.r-project.org/package=miRtest</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -20865,7 +20865,7 @@
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr">
         <is>
-          <t>https://github.com/philchalmers/mirt/,https://github.com/BioMedIA/MIRTK,https://github.com/JeffFessler/mirt,https://cran.r-project.org/package=mirt,https://cran.r-project.org/package=D3mirt,https://github.com/mirth-lang/mirth,https://cran.r-project.org/package=mirtCAT,https://github.com/cran/mirt,https://github.com/guanhuaw/MIRTorch,https://cran.r-project.org/package=emIRT,https://cran.r-project.org/package=miRtest</t>
+          <t>https://github.com/JeffFessler/mirt,https://github.com/cran/mirt,https://github.com/philchalmers/mirt/,https://cran.r-project.org/package=mirt,https://cran.r-project.org/package=emIRT,https://cran.r-project.org/package=D3mirt,https://github.com/guanhuaw/MIRTorch,https://github.com/mirth-lang/mirth,https://github.com/BioMedIA/MIRTK,https://cran.r-project.org/package=mirtCAT,https://cran.r-project.org/package=miRtest</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -20921,7 +20921,7 @@
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr">
         <is>
-          <t>https://github.com/cran/mixKernel,https://cran.r-project.org/package=KernelKnn,https://cran.r-project.org/package=GoFKernel,https://github.com/ipfgao/mixkernel,https://github.com/PayamEmami/data_integration_mixkernel,https://cran.r-project.org/package=isokernel,https://cran.r-project.org/package=mixKernel</t>
+          <t>https://cran.r-project.org/package=GoFKernel,https://github.com/ipfgao/mixkernel,https://cran.r-project.org/package=KernelKnn,https://cran.r-project.org/package=mixKernel,https://cran.r-project.org/package=isokernel,https://github.com/cran/mixKernel,https://github.com/PayamEmami/data_integration_mixkernel</t>
         </is>
       </c>
       <c r="K383" t="inlineStr"/>
@@ -20973,7 +20973,7 @@
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr">
         <is>
-          <t>https://github.com/cran/mixKernel,https://cran.r-project.org/package=KernelKnn,https://cran.r-project.org/package=GoFKernel,https://github.com/ipfgao/mixkernel,https://github.com/PayamEmami/data_integration_mixkernel,https://cran.r-project.org/package=isokernel,https://cran.r-project.org/package=mixKernel</t>
+          <t>https://cran.r-project.org/package=GoFKernel,https://github.com/ipfgao/mixkernel,https://cran.r-project.org/package=KernelKnn,https://cran.r-project.org/package=mixKernel,https://cran.r-project.org/package=isokernel,https://github.com/cran/mixKernel,https://github.com/PayamEmami/data_integration_mixkernel</t>
         </is>
       </c>
       <c r="K384" t="inlineStr"/>
@@ -21025,7 +21025,7 @@
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr">
         <is>
-          <t>https://github.com/cran/mixKernel,https://cran.r-project.org/package=KernelKnn,https://cran.r-project.org/package=GoFKernel,https://github.com/ipfgao/mixkernel,https://github.com/PayamEmami/data_integration_mixkernel,https://cran.r-project.org/package=isokernel,https://cran.r-project.org/package=mixKernel</t>
+          <t>https://cran.r-project.org/package=GoFKernel,https://github.com/ipfgao/mixkernel,https://cran.r-project.org/package=KernelKnn,https://cran.r-project.org/package=mixKernel,https://cran.r-project.org/package=isokernel,https://github.com/cran/mixKernel,https://github.com/PayamEmami/data_integration_mixkernel</t>
         </is>
       </c>
       <c r="K385" t="inlineStr"/>
@@ -21077,7 +21077,7 @@
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr">
         <is>
-          <t>https://github.com/cran/mixKernel,https://cran.r-project.org/package=KernelKnn,https://cran.r-project.org/package=GoFKernel,https://github.com/ipfgao/mixkernel,https://github.com/PayamEmami/data_integration_mixkernel,https://cran.r-project.org/package=isokernel,https://cran.r-project.org/package=mixKernel</t>
+          <t>https://cran.r-project.org/package=GoFKernel,https://github.com/ipfgao/mixkernel,https://cran.r-project.org/package=KernelKnn,https://cran.r-project.org/package=mixKernel,https://cran.r-project.org/package=isokernel,https://github.com/cran/mixKernel,https://github.com/PayamEmami/data_integration_mixkernel</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -21133,7 +21133,7 @@
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr">
         <is>
-          <t>https://github.com/cran/mixKernel,https://cran.r-project.org/package=KernelKnn,https://cran.r-project.org/package=GoFKernel,https://github.com/ipfgao/mixkernel,https://github.com/PayamEmami/data_integration_mixkernel,https://cran.r-project.org/package=isokernel,https://cran.r-project.org/package=mixKernel</t>
+          <t>https://cran.r-project.org/package=GoFKernel,https://github.com/ipfgao/mixkernel,https://cran.r-project.org/package=KernelKnn,https://cran.r-project.org/package=mixKernel,https://cran.r-project.org/package=isokernel,https://github.com/cran/mixKernel,https://github.com/PayamEmami/data_integration_mixkernel</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -21189,7 +21189,7 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
-          <t>https://github.com/granatumx/gbox-mnnpy,https://cran.r-project.org/package=nn2poly,https://cran.r-project.org/package=mnonr,https://github.com/aysalama/mnnpython,https://cran.r-project.org/package=mpoly,https://cran.r-project.org/package=nplyr,https://cran.r-project.org/package=knnp</t>
+          <t>https://cran.r-project.org/package=mpoly,https://pypi.org/project/mnnpy/,https://github.com/aysalama/mnnpython,https://github.com/chriscainx/mnnpy,https://github.com/granatumx/gbox-mnnpy,https://cran.r-project.org/package=nplyr,https://cran.r-project.org/package=knnp,https://cran.r-project.org/package=nn2poly,https://cran.r-project.org/package=mnonr</t>
         </is>
       </c>
       <c r="K388" t="inlineStr"/>
@@ -21237,7 +21237,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>https://github.com/granatumx/gbox-mnnpy,https://cran.r-project.org/package=nn2poly,https://cran.r-project.org/package=mnonr,https://github.com/aysalama/mnnpython,https://cran.r-project.org/package=mpoly,https://cran.r-project.org/package=nplyr,https://cran.r-project.org/package=knnp</t>
+          <t>https://cran.r-project.org/package=mpoly,https://pypi.org/project/mnnpy/,https://github.com/aysalama/mnnpython,https://github.com/chriscainx/mnnpy,https://github.com/granatumx/gbox-mnnpy,https://cran.r-project.org/package=nplyr,https://cran.r-project.org/package=knnp,https://cran.r-project.org/package=nn2poly,https://cran.r-project.org/package=mnonr</t>
         </is>
       </c>
       <c r="K389" t="inlineStr"/>
@@ -21285,7 +21285,7 @@
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr">
         <is>
-          <t>https://github.com/granatumx/gbox-mnnpy,https://cran.r-project.org/package=nn2poly,https://cran.r-project.org/package=mnonr,https://github.com/aysalama/mnnpython,https://cran.r-project.org/package=mpoly,https://cran.r-project.org/package=nplyr,https://cran.r-project.org/package=knnp</t>
+          <t>https://cran.r-project.org/package=mpoly,https://pypi.org/project/mnnpy/,https://github.com/aysalama/mnnpython,https://github.com/chriscainx/mnnpy,https://github.com/granatumx/gbox-mnnpy,https://cran.r-project.org/package=nplyr,https://cran.r-project.org/package=knnp,https://cran.r-project.org/package=nn2poly,https://cran.r-project.org/package=mnonr</t>
         </is>
       </c>
       <c r="K390" t="inlineStr"/>
@@ -21333,7 +21333,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=modules,https://github.com/lexborisov/Modest,https://cran.r-project.org/package=modest,https://github.com/sathish-deevi/modes-Package,https://github.com/bistromath/gr-air-modes,https://cran.r-project.org/package=modesto,https://github.com/stamen/modestmaps-js,https://github.com/heygrady/scss-blend-modes,https://cran.r-project.org/package=ModEstM,https://github.com/mvllow/modes.nvim</t>
+          <t>https://github.com/sathish-deevi/modes-Package,https://cran.r-project.org/package=modesto,https://github.com/mvllow/modes.nvim,https://cran.r-project.org/package=modest,https://github.com/stamen/modestmaps-js,https://github.com/lexborisov/Modest,https://cran.r-project.org/package=modules,https://github.com/bistromath/gr-air-modes,https://github.com/heygrady/scss-blend-modes,https://cran.r-project.org/package=ModEstM</t>
         </is>
       </c>
       <c r="K391" t="inlineStr"/>
@@ -21385,7 +21385,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=modules,https://github.com/lexborisov/Modest,https://cran.r-project.org/package=modest,https://github.com/sathish-deevi/modes-Package,https://github.com/bistromath/gr-air-modes,https://cran.r-project.org/package=modesto,https://github.com/stamen/modestmaps-js,https://github.com/heygrady/scss-blend-modes,https://cran.r-project.org/package=ModEstM,https://github.com/mvllow/modes.nvim</t>
+          <t>https://github.com/sathish-deevi/modes-Package,https://cran.r-project.org/package=modesto,https://github.com/mvllow/modes.nvim,https://cran.r-project.org/package=modest,https://github.com/stamen/modestmaps-js,https://github.com/lexborisov/Modest,https://cran.r-project.org/package=modules,https://github.com/bistromath/gr-air-modes,https://github.com/heygrady/scss-blend-modes,https://cran.r-project.org/package=ModEstM</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -21441,7 +21441,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>https://github.com/lg626/Mokken,https://github.com/GrafGenerator/mokken,https://github.com/vandenman/mokken,https://github.com/FAHRISETIAWAN/mokken,https://github.com/cran/mokken,https://cran.r-project.org/package=pokemon,https://cran.r-project.org/package=smoke,https://cran.r-project.org/package=mokken,https://cran.r-project.org/package=lokern</t>
+          <t>https://cran.r-project.org/package=smoke,https://cran.r-project.org/package=mokken,https://cran.r-project.org/package=pokemon,https://github.com/FAHRISETIAWAN/mokken,https://cran.r-project.org/package=lokern,https://github.com/lg626/Mokken,https://github.com/GrafGenerator/mokken,https://github.com/vandenman/mokken,https://github.com/cran/mokken</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -21497,7 +21497,7 @@
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr">
         <is>
-          <t>https://github.com/lg626/Mokken,https://github.com/GrafGenerator/mokken,https://github.com/vandenman/mokken,https://github.com/FAHRISETIAWAN/mokken,https://github.com/cran/mokken,https://cran.r-project.org/package=pokemon,https://cran.r-project.org/package=smoke,https://cran.r-project.org/package=mokken,https://cran.r-project.org/package=lokern</t>
+          <t>https://cran.r-project.org/package=smoke,https://cran.r-project.org/package=mokken,https://cran.r-project.org/package=pokemon,https://github.com/FAHRISETIAWAN/mokken,https://cran.r-project.org/package=lokern,https://github.com/lg626/Mokken,https://github.com/GrafGenerator/mokken,https://github.com/vandenman/mokken,https://github.com/cran/mokken</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -21553,7 +21553,7 @@
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr">
         <is>
-          <t>https://github.com/lg626/Mokken,https://github.com/GrafGenerator/mokken,https://github.com/vandenman/mokken,https://github.com/FAHRISETIAWAN/mokken,https://github.com/cran/mokken,https://cran.r-project.org/package=pokemon,https://cran.r-project.org/package=smoke,https://cran.r-project.org/package=mokken,https://cran.r-project.org/package=lokern</t>
+          <t>https://cran.r-project.org/package=smoke,https://cran.r-project.org/package=mokken,https://cran.r-project.org/package=pokemon,https://github.com/FAHRISETIAWAN/mokken,https://cran.r-project.org/package=lokern,https://github.com/lg626/Mokken,https://github.com/GrafGenerator/mokken,https://github.com/vandenman/mokken,https://github.com/cran/mokken</t>
         </is>
       </c>
       <c r="K395" t="inlineStr"/>
@@ -21605,7 +21605,7 @@
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr">
         <is>
-          <t>https://github.com/lg626/Mokken,https://github.com/GrafGenerator/mokken,https://github.com/vandenman/mokken,https://github.com/FAHRISETIAWAN/mokken,https://github.com/cran/mokken,https://cran.r-project.org/package=pokemon,https://cran.r-project.org/package=smoke,https://cran.r-project.org/package=mokken,https://cran.r-project.org/package=lokern</t>
+          <t>https://cran.r-project.org/package=smoke,https://cran.r-project.org/package=mokken,https://cran.r-project.org/package=pokemon,https://github.com/FAHRISETIAWAN/mokken,https://cran.r-project.org/package=lokern,https://github.com/lg626/Mokken,https://github.com/GrafGenerator/mokken,https://github.com/vandenman/mokken,https://github.com/cran/mokken</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -21661,7 +21661,7 @@
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr">
         <is>
-          <t>https://github.com/lg626/Mokken,https://github.com/GrafGenerator/mokken,https://github.com/vandenman/mokken,https://github.com/FAHRISETIAWAN/mokken,https://github.com/cran/mokken,https://cran.r-project.org/package=pokemon,https://cran.r-project.org/package=smoke,https://cran.r-project.org/package=mokken,https://cran.r-project.org/package=lokern</t>
+          <t>https://cran.r-project.org/package=smoke,https://cran.r-project.org/package=mokken,https://cran.r-project.org/package=pokemon,https://github.com/FAHRISETIAWAN/mokken,https://cran.r-project.org/package=lokern,https://github.com/lg626/Mokken,https://github.com/GrafGenerator/mokken,https://github.com/vandenman/mokken,https://github.com/cran/mokken</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -21717,7 +21717,7 @@
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr">
         <is>
-          <t>https://github.com/fabianp/mord,https://github.com/ajalt/mordant,https://cran.r-project.org/package=tmod,https://github.com/mozy/mordor,https://github.com/mordred-descriptor/mordred,https://cran.r-project.org/package=mvord,https://cran.r-project.org/package=ordr,https://cran.r-project.org/package=nord,https://cran.r-project.org/package=mod,https://github.com/openeventdata/mordecai</t>
+          <t>https://cran.r-project.org/package=mvord,https://cran.r-project.org/package=tmod,https://pypi.org/project/mord/,https://cran.r-project.org/package=mod,https://github.com/openeventdata/mordecai,https://github.com/mordred-descriptor/mordred,https://cran.r-project.org/package=ordr,https://github.com/ajalt/mordant,https://cran.r-project.org/package=nord,https://github.com/fabianp/mord,https://github.com/mozy/mordor</t>
         </is>
       </c>
       <c r="K398" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=impimp,https://cran.r-project.org/package=mi4p,https://github.com/mpi4py/setup-mpi,https://cran.r-project.org/package=imp4p,https://github.com/jbornschein/mpi4py-examples,https://github.com/mpi4py/mpi4py-fft,https://pypi.org/project/mpi4py/,https://cran.r-project.org/package=mappoly,https://cran.r-project.org/package=epiphy,https://github.com/pyscf/mpi4pyscf,https://github.com/mpi4py/mpi4py/,https://github.com/mpi4py/mpi4py</t>
+          <t>https://github.com/mpi4py/setup-mpi,https://github.com/mpi4py/mpi4py/,https://cran.r-project.org/package=imp4p,https://cran.r-project.org/package=impimp,https://cran.r-project.org/package=mappoly,https://github.com/pyscf/mpi4pyscf,https://pypi.org/project/mpi4py/,https://cran.r-project.org/package=epiphy,https://cran.r-project.org/package=mi4p,https://github.com/mpi4py/mpi4py-fft,https://github.com/jbornschein/mpi4py-examples,https://github.com/mpi4py/mpi4py</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -21825,7 +21825,7 @@
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=impimp,https://cran.r-project.org/package=mi4p,https://github.com/mpi4py/setup-mpi,https://cran.r-project.org/package=imp4p,https://github.com/jbornschein/mpi4py-examples,https://github.com/mpi4py/mpi4py-fft,https://pypi.org/project/mpi4py/,https://cran.r-project.org/package=mappoly,https://cran.r-project.org/package=epiphy,https://github.com/pyscf/mpi4pyscf,https://github.com/mpi4py/mpi4py/,https://github.com/mpi4py/mpi4py</t>
+          <t>https://github.com/mpi4py/setup-mpi,https://github.com/mpi4py/mpi4py/,https://cran.r-project.org/package=imp4p,https://cran.r-project.org/package=impimp,https://cran.r-project.org/package=mappoly,https://github.com/pyscf/mpi4pyscf,https://pypi.org/project/mpi4py/,https://cran.r-project.org/package=epiphy,https://cran.r-project.org/package=mi4p,https://github.com/mpi4py/mpi4py-fft,https://github.com/jbornschein/mpi4py-examples,https://github.com/mpi4py/mpi4py</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -21881,7 +21881,7 @@
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=impimp,https://cran.r-project.org/package=mi4p,https://github.com/mpi4py/setup-mpi,https://cran.r-project.org/package=imp4p,https://github.com/jbornschein/mpi4py-examples,https://github.com/mpi4py/mpi4py-fft,https://pypi.org/project/mpi4py/,https://cran.r-project.org/package=mappoly,https://cran.r-project.org/package=epiphy,https://github.com/pyscf/mpi4pyscf,https://github.com/mpi4py/mpi4py/,https://github.com/mpi4py/mpi4py</t>
+          <t>https://github.com/mpi4py/setup-mpi,https://github.com/mpi4py/mpi4py/,https://cran.r-project.org/package=imp4p,https://cran.r-project.org/package=impimp,https://cran.r-project.org/package=mappoly,https://github.com/pyscf/mpi4pyscf,https://pypi.org/project/mpi4py/,https://cran.r-project.org/package=epiphy,https://cran.r-project.org/package=mi4p,https://github.com/mpi4py/mpi4py-fft,https://github.com/jbornschein/mpi4py-examples,https://github.com/mpi4py/mpi4py</t>
         </is>
       </c>
       <c r="K401" t="inlineStr"/>
@@ -21933,7 +21933,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=impimp,https://cran.r-project.org/package=mi4p,https://github.com/mpi4py/setup-mpi,https://cran.r-project.org/package=imp4p,https://github.com/jbornschein/mpi4py-examples,https://github.com/mpi4py/mpi4py-fft,https://pypi.org/project/mpi4py/,https://cran.r-project.org/package=mappoly,https://cran.r-project.org/package=epiphy,https://github.com/pyscf/mpi4pyscf,https://github.com/mpi4py/mpi4py/,https://github.com/mpi4py/mpi4py</t>
+          <t>https://github.com/mpi4py/setup-mpi,https://github.com/mpi4py/mpi4py/,https://cran.r-project.org/package=imp4p,https://cran.r-project.org/package=impimp,https://cran.r-project.org/package=mappoly,https://github.com/pyscf/mpi4pyscf,https://pypi.org/project/mpi4py/,https://cran.r-project.org/package=epiphy,https://cran.r-project.org/package=mi4p,https://github.com/mpi4py/mpi4py-fft,https://github.com/jbornschein/mpi4py-examples,https://github.com/mpi4py/mpi4py</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -21989,7 +21989,7 @@
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=impimp,https://cran.r-project.org/package=mi4p,https://github.com/mpi4py/setup-mpi,https://cran.r-project.org/package=imp4p,https://github.com/jbornschein/mpi4py-examples,https://github.com/mpi4py/mpi4py-fft,https://pypi.org/project/mpi4py/,https://cran.r-project.org/package=mappoly,https://cran.r-project.org/package=epiphy,https://github.com/pyscf/mpi4pyscf,https://github.com/mpi4py/mpi4py/,https://github.com/mpi4py/mpi4py</t>
+          <t>https://github.com/mpi4py/setup-mpi,https://github.com/mpi4py/mpi4py/,https://cran.r-project.org/package=imp4p,https://cran.r-project.org/package=impimp,https://cran.r-project.org/package=mappoly,https://github.com/pyscf/mpi4pyscf,https://pypi.org/project/mpi4py/,https://cran.r-project.org/package=epiphy,https://cran.r-project.org/package=mi4p,https://github.com/mpi4py/mpi4py-fft,https://github.com/jbornschein/mpi4py-examples,https://github.com/mpi4py/mpi4py</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -22045,7 +22045,7 @@
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rEMM,https://github.com/SudhakarBasu/GWAS-using-mrMLM,https://github.com/YuanmingZhang65/mrMLM,https://cran.r-project.org/package=mrMLM.GUI,https://cran.r-project.org/package=mrMLM,https://github.com/r-forge/mrmlm,https://github.com/cran/mrMLM.GUI,https://github.com/cran/mrMLM</t>
+          <t>https://github.com/cran/mrMLM,https://github.com/r-forge/mrmlm,https://cran.r-project.org/package=mrMLM,https://github.com/cran/mrMLM.GUI,https://github.com/SudhakarBasu/GWAS-using-mrMLM,https://cran.r-project.org/package=mrMLM.GUI,https://cran.r-project.org/package=rEMM,https://github.com/YuanmingZhang65/mrMLM</t>
         </is>
       </c>
       <c r="K404" t="inlineStr"/>
@@ -22097,7 +22097,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rEMM,https://github.com/SudhakarBasu/GWAS-using-mrMLM,https://github.com/YuanmingZhang65/mrMLM,https://cran.r-project.org/package=mrMLM.GUI,https://cran.r-project.org/package=mrMLM,https://github.com/r-forge/mrmlm,https://github.com/cran/mrMLM.GUI,https://github.com/cran/mrMLM</t>
+          <t>https://github.com/cran/mrMLM,https://github.com/r-forge/mrmlm,https://cran.r-project.org/package=mrMLM,https://github.com/cran/mrMLM.GUI,https://github.com/SudhakarBasu/GWAS-using-mrMLM,https://cran.r-project.org/package=mrMLM.GUI,https://cran.r-project.org/package=rEMM,https://github.com/YuanmingZhang65/mrMLM</t>
         </is>
       </c>
       <c r="K405" t="inlineStr"/>
@@ -22149,7 +22149,7 @@
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rEMM,https://github.com/SudhakarBasu/GWAS-using-mrMLM,https://github.com/YuanmingZhang65/mrMLM,https://cran.r-project.org/package=mrMLM.GUI,https://cran.r-project.org/package=mrMLM,https://github.com/r-forge/mrmlm,https://github.com/cran/mrMLM.GUI,https://github.com/cran/mrMLM</t>
+          <t>https://github.com/cran/mrMLM,https://github.com/r-forge/mrmlm,https://cran.r-project.org/package=mrMLM,https://github.com/cran/mrMLM.GUI,https://github.com/SudhakarBasu/GWAS-using-mrMLM,https://cran.r-project.org/package=mrMLM.GUI,https://cran.r-project.org/package=rEMM,https://github.com/YuanmingZhang65/mrMLM</t>
         </is>
       </c>
       <c r="K406" t="inlineStr"/>
@@ -22201,7 +22201,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rEMM,https://github.com/SudhakarBasu/GWAS-using-mrMLM,https://github.com/YuanmingZhang65/mrMLM,https://cran.r-project.org/package=mrMLM.GUI,https://cran.r-project.org/package=mrMLM,https://github.com/r-forge/mrmlm,https://github.com/cran/mrMLM.GUI,https://github.com/cran/mrMLM</t>
+          <t>https://github.com/cran/mrMLM,https://github.com/r-forge/mrmlm,https://cran.r-project.org/package=mrMLM,https://github.com/cran/mrMLM.GUI,https://github.com/SudhakarBasu/GWAS-using-mrMLM,https://cran.r-project.org/package=mrMLM.GUI,https://cran.r-project.org/package=rEMM,https://github.com/YuanmingZhang65/mrMLM</t>
         </is>
       </c>
       <c r="K407" t="inlineStr"/>
@@ -22253,7 +22253,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rEMM,https://github.com/SudhakarBasu/GWAS-using-mrMLM,https://github.com/YuanmingZhang65/mrMLM,https://cran.r-project.org/package=mrMLM.GUI,https://cran.r-project.org/package=mrMLM,https://github.com/r-forge/mrmlm,https://github.com/cran/mrMLM.GUI,https://github.com/cran/mrMLM</t>
+          <t>https://github.com/cran/mrMLM,https://github.com/r-forge/mrmlm,https://cran.r-project.org/package=mrMLM,https://github.com/cran/mrMLM.GUI,https://github.com/SudhakarBasu/GWAS-using-mrMLM,https://cran.r-project.org/package=mrMLM.GUI,https://cran.r-project.org/package=rEMM,https://github.com/YuanmingZhang65/mrMLM</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -22309,7 +22309,7 @@
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr">
         <is>
-          <t>https://github.com/ndl-lab/ndlocr_cli,https://github.com/ndless-nspire/Ndless,https://github.com/GiulioRossetti/ndlib,https://github.com/mlcommons/GaNDLF,https://cran.r-project.org/package=edgebundle,https://cran.r-project.org/package=edgebundleR,https://github.com/cran/ndl,https://cran.r-project.org/package=ndl,https://cran.r-project.org/package=friendlynumber,https://cran.r-project.org/package=bundle,https://github.com/ensemble-core/NdLinear</t>
+          <t>https://github.com/cran/ndl,https://github.com/ndless-nspire/Ndless,https://github.com/ndl-lab/ndlocr_cli,https://cran.r-project.org/package=edgebundleR,https://github.com/GiulioRossetti/ndlib,https://cran.r-project.org/package=friendlynumber,https://cran.r-project.org/package=ndl,https://github.com/ensemble-core/NdLinear,https://pypi.org/project/ndl/,https://cran.r-project.org/package=edgebundle,https://cran.r-project.org/package=bundle,https://github.com/mlcommons/GaNDLF,https://github.com/msull/needle</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -22365,7 +22365,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>https://github.com/ndl-lab/ndlocr_cli,https://github.com/ndless-nspire/Ndless,https://github.com/GiulioRossetti/ndlib,https://github.com/mlcommons/GaNDLF,https://cran.r-project.org/package=edgebundle,https://cran.r-project.org/package=edgebundleR,https://github.com/cran/ndl,https://cran.r-project.org/package=ndl,https://cran.r-project.org/package=friendlynumber,https://cran.r-project.org/package=bundle,https://github.com/ensemble-core/NdLinear</t>
+          <t>https://github.com/cran/ndl,https://github.com/ndless-nspire/Ndless,https://github.com/ndl-lab/ndlocr_cli,https://cran.r-project.org/package=edgebundleR,https://github.com/GiulioRossetti/ndlib,https://cran.r-project.org/package=friendlynumber,https://cran.r-project.org/package=ndl,https://github.com/ensemble-core/NdLinear,https://pypi.org/project/ndl/,https://cran.r-project.org/package=edgebundle,https://cran.r-project.org/package=bundle,https://github.com/mlcommons/GaNDLF,https://github.com/msull/needle</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -22421,7 +22421,7 @@
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr">
         <is>
-          <t>https://github.com/ndl-lab/ndlocr_cli,https://github.com/ndless-nspire/Ndless,https://github.com/GiulioRossetti/ndlib,https://github.com/mlcommons/GaNDLF,https://cran.r-project.org/package=edgebundle,https://cran.r-project.org/package=edgebundleR,https://github.com/cran/ndl,https://cran.r-project.org/package=ndl,https://cran.r-project.org/package=friendlynumber,https://cran.r-project.org/package=bundle,https://github.com/ensemble-core/NdLinear</t>
+          <t>https://github.com/cran/ndl,https://github.com/ndless-nspire/Ndless,https://github.com/ndl-lab/ndlocr_cli,https://cran.r-project.org/package=edgebundleR,https://github.com/GiulioRossetti/ndlib,https://cran.r-project.org/package=friendlynumber,https://cran.r-project.org/package=ndl,https://github.com/ensemble-core/NdLinear,https://pypi.org/project/ndl/,https://cran.r-project.org/package=edgebundle,https://cran.r-project.org/package=bundle,https://github.com/mlcommons/GaNDLF,https://github.com/msull/needle</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -22477,7 +22477,7 @@
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr">
         <is>
-          <t>https://github.com/paulvan/ngCGH-master,https://github.com/paulvan/ngCGH,https://github.com/seandavi/ngCGH,https://pypi.org/project/ngCGH/</t>
+          <t>https://github.com/paulvan/ngCGH-master,https://pypi.org/project/ngCGH/,https://github.com/seandavi/ngCGH,https://github.com/paulvan/ngCGH</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -22533,7 +22533,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>https://github.com/paulvan/ngCGH-master,https://github.com/paulvan/ngCGH,https://github.com/seandavi/ngCGH,https://pypi.org/project/ngCGH/</t>
+          <t>https://github.com/paulvan/ngCGH-master,https://pypi.org/project/ngCGH/,https://github.com/seandavi/ngCGH,https://github.com/paulvan/ngCGH</t>
         </is>
       </c>
       <c r="K413" t="inlineStr"/>
@@ -22585,7 +22585,7 @@
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr">
         <is>
-          <t>https://github.com/paulvan/ngCGH-master,https://github.com/paulvan/ngCGH,https://github.com/seandavi/ngCGH,https://pypi.org/project/ngCGH/</t>
+          <t>https://github.com/paulvan/ngCGH-master,https://pypi.org/project/ngCGH/,https://github.com/seandavi/ngCGH,https://github.com/paulvan/ngCGH</t>
         </is>
       </c>
       <c r="K414" t="inlineStr"/>
@@ -22637,7 +22637,7 @@
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr">
         <is>
-          <t>https://github.com/paulvan/ngCGH-master,https://github.com/paulvan/ngCGH,https://github.com/seandavi/ngCGH,https://pypi.org/project/ngCGH/</t>
+          <t>https://github.com/paulvan/ngCGH-master,https://pypi.org/project/ngCGH/,https://github.com/seandavi/ngCGH,https://github.com/paulvan/ngCGH</t>
         </is>
       </c>
       <c r="K415" t="inlineStr"/>
@@ -22689,7 +22689,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>https://github.com/paulvan/ngCGH-master,https://github.com/paulvan/ngCGH,https://github.com/seandavi/ngCGH,https://pypi.org/project/ngCGH/</t>
+          <t>https://github.com/paulvan/ngCGH-master,https://pypi.org/project/ngCGH/,https://github.com/seandavi/ngCGH,https://github.com/paulvan/ngCGH</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -22745,7 +22745,7 @@
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=nic,https://github.com/cran/nlsic,https://cran.r-project.org/package=onls,https://cran.r-project.org/package=nlsic,https://github.com/MathsCell/nlsic,https://github.com/conda-forge/r-nlsic-feedstock,https://cran.r-project.org/package=nlstac</t>
+          <t>https://github.com/sgsokol/nlsic_py,https://github.com/MathsCell/nlsic,https://cran.r-project.org/package=nlsic,https://cran.r-project.org/package=onls,https://pypi.org/project/nlsic/,https://github.com/cran/nlsic,https://github.com/conda-forge/r-nlsic-feedstock,https://cran.r-project.org/package=nlstac,https://cran.r-project.org/package=nic</t>
         </is>
       </c>
       <c r="K417" t="inlineStr"/>
@@ -22797,7 +22797,7 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=nic,https://github.com/cran/nlsic,https://cran.r-project.org/package=onls,https://cran.r-project.org/package=nlsic,https://github.com/MathsCell/nlsic,https://github.com/conda-forge/r-nlsic-feedstock,https://cran.r-project.org/package=nlstac</t>
+          <t>https://github.com/sgsokol/nlsic_py,https://github.com/MathsCell/nlsic,https://cran.r-project.org/package=nlsic,https://cran.r-project.org/package=onls,https://pypi.org/project/nlsic/,https://github.com/cran/nlsic,https://github.com/conda-forge/r-nlsic-feedstock,https://cran.r-project.org/package=nlstac,https://cran.r-project.org/package=nic</t>
         </is>
       </c>
       <c r="K418" t="inlineStr"/>
@@ -22849,7 +22849,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>https://github.com/abel8260/noldsys_dev,https://cran.r-project.org/package=oldr,https://github.com/arnold-O/NoldStores,https://cran.r-project.org/package=nos,https://github.com/noldswift360/noldswift360,https://cran.r-project.org/package=onls,https://pypi.org/project/nolds/,https://github.com/CSchoel/nolds,https://github.com/arnold-O/Noldstore,https://cran.r-project.org/package=nord,https://cran.r-project.org/package=poldis</t>
+          <t>https://github.com/CSchoel/nolds,https://cran.r-project.org/package=onls,https://cran.r-project.org/package=poldis,https://cran.r-project.org/package=nos,https://pypi.org/project/nolds/,https://github.com/arnold-O/NoldStores,https://cran.r-project.org/package=oldr,https://cran.r-project.org/package=nord,https://github.com/arnold-O/Noldstore,https://github.com/noldswift360/noldswift360,https://github.com/abel8260/noldsys_dev</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -22905,7 +22905,7 @@
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr">
         <is>
-          <t>https://github.com/abel8260/noldsys_dev,https://cran.r-project.org/package=oldr,https://github.com/arnold-O/NoldStores,https://cran.r-project.org/package=nos,https://github.com/noldswift360/noldswift360,https://cran.r-project.org/package=onls,https://pypi.org/project/nolds/,https://github.com/CSchoel/nolds,https://github.com/arnold-O/Noldstore,https://cran.r-project.org/package=nord,https://cran.r-project.org/package=poldis</t>
+          <t>https://github.com/CSchoel/nolds,https://cran.r-project.org/package=onls,https://cran.r-project.org/package=poldis,https://cran.r-project.org/package=nos,https://pypi.org/project/nolds/,https://github.com/arnold-O/NoldStores,https://cran.r-project.org/package=oldr,https://cran.r-project.org/package=nord,https://github.com/arnold-O/Noldstore,https://github.com/noldswift360/noldswift360,https://github.com/abel8260/noldsys_dev</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -22961,7 +22961,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>https://github.com/abel8260/noldsys_dev,https://cran.r-project.org/package=oldr,https://github.com/arnold-O/NoldStores,https://cran.r-project.org/package=nos,https://github.com/noldswift360/noldswift360,https://cran.r-project.org/package=onls,https://pypi.org/project/nolds/,https://github.com/CSchoel/nolds,https://github.com/arnold-O/Noldstore,https://cran.r-project.org/package=nord,https://cran.r-project.org/package=poldis</t>
+          <t>https://github.com/CSchoel/nolds,https://cran.r-project.org/package=onls,https://cran.r-project.org/package=poldis,https://cran.r-project.org/package=nos,https://pypi.org/project/nolds/,https://github.com/arnold-O/NoldStores,https://cran.r-project.org/package=oldr,https://cran.r-project.org/package=nord,https://github.com/arnold-O/Noldstore,https://github.com/noldswift360/noldswift360,https://github.com/abel8260/noldsys_dev</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -23017,7 +23017,7 @@
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=inum,https://github.com/rougier/from-python-to-numpy,https://github.com/ddbourgin/numpy-ml,https://cran.r-project.org/package=cnum,https://github.com/numpy/numpy,https://github.com/rougier/numpy-100,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=umap,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ncdump,https://github.com/pyro-ppl/numpyro</t>
+          <t>https://github.com/numpy/numpy,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=ncdump,https://cran.r-project.org/package=cnum,https://github.com/ddbourgin/numpy-ml,https://github.com/rougier/from-python-to-numpy,https://github.com/pyro-ppl/numpyro,https://cran.r-project.org/package=inum,https://cran.r-project.org/package=umap,https://github.com/rougier/numpy-100</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -23073,7 +23073,7 @@
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=inum,https://github.com/rougier/from-python-to-numpy,https://github.com/ddbourgin/numpy-ml,https://cran.r-project.org/package=cnum,https://github.com/numpy/numpy,https://github.com/rougier/numpy-100,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=umap,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ncdump,https://github.com/pyro-ppl/numpyro</t>
+          <t>https://github.com/numpy/numpy,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=ncdump,https://cran.r-project.org/package=cnum,https://github.com/ddbourgin/numpy-ml,https://github.com/rougier/from-python-to-numpy,https://github.com/pyro-ppl/numpyro,https://cran.r-project.org/package=inum,https://cran.r-project.org/package=umap,https://github.com/rougier/numpy-100</t>
         </is>
       </c>
       <c r="K423" t="inlineStr"/>
@@ -23125,7 +23125,7 @@
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=inum,https://github.com/rougier/from-python-to-numpy,https://github.com/ddbourgin/numpy-ml,https://cran.r-project.org/package=cnum,https://github.com/numpy/numpy,https://github.com/rougier/numpy-100,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=umap,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ncdump,https://github.com/pyro-ppl/numpyro</t>
+          <t>https://github.com/numpy/numpy,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=ncdump,https://cran.r-project.org/package=cnum,https://github.com/ddbourgin/numpy-ml,https://github.com/rougier/from-python-to-numpy,https://github.com/pyro-ppl/numpyro,https://cran.r-project.org/package=inum,https://cran.r-project.org/package=umap,https://github.com/rougier/numpy-100</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -23181,7 +23181,7 @@
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=inum,https://github.com/rougier/from-python-to-numpy,https://github.com/ddbourgin/numpy-ml,https://cran.r-project.org/package=cnum,https://github.com/numpy/numpy,https://github.com/rougier/numpy-100,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=umap,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ncdump,https://github.com/pyro-ppl/numpyro</t>
+          <t>https://github.com/numpy/numpy,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=ncdump,https://cran.r-project.org/package=cnum,https://github.com/ddbourgin/numpy-ml,https://github.com/rougier/from-python-to-numpy,https://github.com/pyro-ppl/numpyro,https://cran.r-project.org/package=inum,https://cran.r-project.org/package=umap,https://github.com/rougier/numpy-100</t>
         </is>
       </c>
       <c r="K425" t="inlineStr"/>
@@ -23233,7 +23233,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=inum,https://github.com/rougier/from-python-to-numpy,https://github.com/ddbourgin/numpy-ml,https://cran.r-project.org/package=cnum,https://github.com/numpy/numpy,https://github.com/rougier/numpy-100,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=umap,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ncdump,https://github.com/pyro-ppl/numpyro</t>
+          <t>https://github.com/numpy/numpy,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=ncdump,https://cran.r-project.org/package=cnum,https://github.com/ddbourgin/numpy-ml,https://github.com/rougier/from-python-to-numpy,https://github.com/pyro-ppl/numpyro,https://cran.r-project.org/package=inum,https://cran.r-project.org/package=umap,https://github.com/rougier/numpy-100</t>
         </is>
       </c>
       <c r="K426" t="inlineStr"/>
@@ -23285,7 +23285,7 @@
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=inum,https://github.com/rougier/from-python-to-numpy,https://github.com/ddbourgin/numpy-ml,https://cran.r-project.org/package=cnum,https://github.com/numpy/numpy,https://github.com/rougier/numpy-100,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=umap,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ncdump,https://github.com/pyro-ppl/numpyro</t>
+          <t>https://github.com/numpy/numpy,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=ncdump,https://cran.r-project.org/package=cnum,https://github.com/ddbourgin/numpy-ml,https://github.com/rougier/from-python-to-numpy,https://github.com/pyro-ppl/numpyro,https://cran.r-project.org/package=inum,https://cran.r-project.org/package=umap,https://github.com/rougier/numpy-100</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -23341,7 +23341,7 @@
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=inum,https://github.com/rougier/from-python-to-numpy,https://github.com/ddbourgin/numpy-ml,https://cran.r-project.org/package=cnum,https://github.com/numpy/numpy,https://github.com/rougier/numpy-100,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=umap,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ncdump,https://github.com/pyro-ppl/numpyro</t>
+          <t>https://github.com/numpy/numpy,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=ncdump,https://cran.r-project.org/package=cnum,https://github.com/ddbourgin/numpy-ml,https://github.com/rougier/from-python-to-numpy,https://github.com/pyro-ppl/numpyro,https://cran.r-project.org/package=inum,https://cran.r-project.org/package=umap,https://github.com/rougier/numpy-100</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -23397,7 +23397,7 @@
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=inum,https://github.com/rougier/from-python-to-numpy,https://github.com/ddbourgin/numpy-ml,https://cran.r-project.org/package=cnum,https://github.com/numpy/numpy,https://github.com/rougier/numpy-100,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=umap,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ncdump,https://github.com/pyro-ppl/numpyro</t>
+          <t>https://github.com/numpy/numpy,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=ncdump,https://cran.r-project.org/package=cnum,https://github.com/ddbourgin/numpy-ml,https://github.com/rougier/from-python-to-numpy,https://github.com/pyro-ppl/numpyro,https://cran.r-project.org/package=inum,https://cran.r-project.org/package=umap,https://github.com/rougier/numpy-100</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -23453,7 +23453,7 @@
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=inum,https://github.com/rougier/from-python-to-numpy,https://github.com/ddbourgin/numpy-ml,https://cran.r-project.org/package=cnum,https://github.com/numpy/numpy,https://github.com/rougier/numpy-100,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=umap,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ncdump,https://github.com/pyro-ppl/numpyro</t>
+          <t>https://github.com/numpy/numpy,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=ncdump,https://cran.r-project.org/package=cnum,https://github.com/ddbourgin/numpy-ml,https://github.com/rougier/from-python-to-numpy,https://github.com/pyro-ppl/numpyro,https://cran.r-project.org/package=inum,https://cran.r-project.org/package=umap,https://github.com/rougier/numpy-100</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -23509,7 +23509,7 @@
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=inum,https://github.com/rougier/from-python-to-numpy,https://github.com/ddbourgin/numpy-ml,https://cran.r-project.org/package=cnum,https://github.com/numpy/numpy,https://github.com/rougier/numpy-100,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=umap,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ncdump,https://github.com/pyro-ppl/numpyro</t>
+          <t>https://github.com/numpy/numpy,https://pypi.org/project/numpy/,https://cran.r-project.org/package=ump,https://cran.r-project.org/package=ncdump,https://cran.r-project.org/package=cnum,https://github.com/ddbourgin/numpy-ml,https://github.com/rougier/from-python-to-numpy,https://github.com/pyro-ppl/numpyro,https://cran.r-project.org/package=inum,https://cran.r-project.org/package=umap,https://github.com/rougier/numpy-100</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -23565,7 +23565,7 @@
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr">
         <is>
-          <t>https://github.com/microsoft/onnxruntime,https://github.com/daquexian/onnx-simplifier,https://github.com/k2-fsa/sherpa-onnx,https://github.com/onnx/onnx,https://cran.r-project.org/package=onion,https://cran.r-project.org/package=bonn,https://cran.r-project.org/package=ox,https://cran.r-project.org/package=onnx,https://pypi.org/project/onnx/,https://github.com/onnx/models</t>
+          <t>https://github.com/daquexian/onnx-simplifier,https://cran.r-project.org/package=onion,https://github.com/microsoft/onnxruntime,https://github.com/onnx/models,https://github.com/onnx/onnx,https://pypi.org/project/onnx/,https://cran.r-project.org/package=onnx,https://cran.r-project.org/package=bonn,https://cran.r-project.org/package=ox,https://github.com/k2-fsa/sherpa-onnx</t>
         </is>
       </c>
       <c r="K432" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr">
         <is>
-          <t>https://github.com/GIScience/openrouteservice-py,https://github.com/GIScience/openrouteservice,https://github.com/GIScience/openrouteservice-r,https://cran.r-project.org/package=openrouteservice,https://github.com/GIScience/openrouteservice-js,https://cran.r-project.org/package=cymruservices,https://cran.r-project.org/package=ttservice,https://cran.r-project.org/package=centiserve,https://github.com/GIScience/openrouteservice-app,https://pypi.org/project/openrouteservice/</t>
+          <t>https://github.com/GIScience/openrouteservice-app,https://github.com/GIScience/openrouteservice-py,https://cran.r-project.org/package=cymruservices,https://cran.r-project.org/package=openrouteservice,https://cran.r-project.org/package=ttservice,https://pypi.org/project/openrouteservice/,https://github.com/GIScience/openrouteservice-js,https://github.com/GIScience/openrouteservice,https://github.com/GIScience/openrouteservice-r,https://cran.r-project.org/package=centiserve</t>
         </is>
       </c>
       <c r="K433" t="inlineStr"/>
@@ -23669,7 +23669,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>https://github.com/GIScience/openrouteservice-py,https://github.com/GIScience/openrouteservice,https://github.com/GIScience/openrouteservice-r,https://cran.r-project.org/package=openrouteservice,https://github.com/GIScience/openrouteservice-js,https://cran.r-project.org/package=cymruservices,https://cran.r-project.org/package=ttservice,https://cran.r-project.org/package=centiserve,https://github.com/GIScience/openrouteservice-app,https://pypi.org/project/openrouteservice/</t>
+          <t>https://github.com/GIScience/openrouteservice-app,https://github.com/GIScience/openrouteservice-py,https://cran.r-project.org/package=cymruservices,https://cran.r-project.org/package=openrouteservice,https://cran.r-project.org/package=ttservice,https://pypi.org/project/openrouteservice/,https://github.com/GIScience/openrouteservice-js,https://github.com/GIScience/openrouteservice,https://github.com/GIScience/openrouteservice-r,https://cran.r-project.org/package=centiserve</t>
         </is>
       </c>
       <c r="K434" t="inlineStr"/>
@@ -23721,7 +23721,7 @@
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr">
         <is>
-          <t>https://github.com/gitpan/B-OptreeShortestPath,https://cran.r-project.org/package=pretest,https://github.com/mfontcada/optrees,https://cran.r-project.org/package=optrefine,https://cran.r-project.org/package=tree,https://cran.r-project.org/package=maptree,https://github.com/cran/optrees,https://github.com/asanchezyali/optrees,https://cran.r-project.org/package=threejs,https://cran.r-project.org/web/packages/optrees/index.html</t>
+          <t>https://cran.r-project.org/package=tree,https://cran.r-project.org/package=optrefine,https://cran.r-project.org/package=maptree,https://github.com/asanchezyali/optrees,https://cran.r-project.org/web/packages/optrees/index.html,https://github.com/gitpan/B-OptreeShortestPath,https://cran.r-project.org/package=pretest,https://github.com/mfontcada/optrees,https://cran.r-project.org/package=threejs,https://github.com/cran/optrees</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -23773,7 +23773,7 @@
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=osmdata,https://github.com/cran/osmdata,https://cran.r-project.org/package=simdata,https://cran.r-project.org/package=smdata,https://github.com/fossgis/osmdata,https://github.com/iwer/OSMDataAssets,https://github.com/ropensci/osmdata,https://github.com/osmdatar/osmdatar,https://cran.r-project.org/package=nsm3data,https://github.com/chubrik/OsmDataKit</t>
+          <t>https://github.com/iwer/OSMDataAssets,https://github.com/cran/osmdata,https://github.com/osmdatar/osmdatar,https://cran.r-project.org/package=nsm3data,https://github.com/ropensci/osmdata,https://cran.r-project.org/package=osmdata,https://github.com/fossgis/osmdata,https://github.com/chubrik/OsmDataKit,https://cran.r-project.org/package=smdata,https://cran.r-project.org/package=simdata</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -23829,7 +23829,7 @@
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=osmdata,https://github.com/cran/osmdata,https://cran.r-project.org/package=simdata,https://cran.r-project.org/package=smdata,https://github.com/fossgis/osmdata,https://github.com/iwer/OSMDataAssets,https://github.com/ropensci/osmdata,https://github.com/osmdatar/osmdatar,https://cran.r-project.org/package=nsm3data,https://github.com/chubrik/OsmDataKit</t>
+          <t>https://github.com/iwer/OSMDataAssets,https://github.com/cran/osmdata,https://github.com/osmdatar/osmdatar,https://cran.r-project.org/package=nsm3data,https://github.com/ropensci/osmdata,https://cran.r-project.org/package=osmdata,https://github.com/fossgis/osmdata,https://github.com/chubrik/OsmDataKit,https://cran.r-project.org/package=smdata,https://cran.r-project.org/package=simdata</t>
         </is>
       </c>
       <c r="K437" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ExPanDaR,https://github.com/sinaptik-ai/pandas-ai,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=RPANDA,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda,https://cran.r-project.org/package=pan</t>
+          <t>https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=RPANDA,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=ExPanDaR,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/chakra-ui/panda,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=pan</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -23937,7 +23937,7 @@
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ExPanDaR,https://github.com/sinaptik-ai/pandas-ai,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=RPANDA,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda,https://cran.r-project.org/package=pan</t>
+          <t>https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=RPANDA,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=ExPanDaR,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/chakra-ui/panda,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=pan</t>
         </is>
       </c>
       <c r="K439" t="inlineStr"/>
@@ -23989,7 +23989,7 @@
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ExPanDaR,https://github.com/sinaptik-ai/pandas-ai,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=RPANDA,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda,https://cran.r-project.org/package=pan</t>
+          <t>https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=RPANDA,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=ExPanDaR,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/chakra-ui/panda,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=pan</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -24045,7 +24045,7 @@
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ExPanDaR,https://github.com/sinaptik-ai/pandas-ai,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=RPANDA,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda,https://cran.r-project.org/package=pan</t>
+          <t>https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=RPANDA,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=ExPanDaR,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/chakra-ui/panda,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=pan</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -24101,7 +24101,7 @@
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ExPanDaR,https://github.com/sinaptik-ai/pandas-ai,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=RPANDA,https://github.com/jvns/pandas-cookbook,https://github.com/chakra-ui/panda,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda,https://cran.r-project.org/package=pan</t>
+          <t>https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=RPANDA,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=ExPanDaR,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/chakra-ui/panda,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=pan</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -24157,7 +24157,7 @@
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -24213,7 +24213,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -24269,7 +24269,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K445" t="inlineStr"/>
@@ -24321,7 +24321,7 @@
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -24377,7 +24377,7 @@
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -24433,7 +24433,7 @@
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K448" t="inlineStr"/>
@@ -24485,7 +24485,7 @@
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K449" t="inlineStr"/>
@@ -24537,7 +24537,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -24593,7 +24593,7 @@
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -24649,7 +24649,7 @@
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -24705,7 +24705,7 @@
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -24761,7 +24761,7 @@
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -24817,7 +24817,7 @@
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -24873,7 +24873,7 @@
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -24929,7 +24929,7 @@
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -24985,7 +24985,7 @@
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr">
         <is>
-          <t>https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=repana,https://github.com/datawhalechina/joyful-pandas,https://github.com/guipsamora/pandas_exercises,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=epandist,https://github.com/jvns/pandas-cookbook,https://cran.r-project.org/package=adass,https://cran.r-project.org/package=pnd,https://pypi.org/project/pandas/,https://cran.r-project.org/package=pda</t>
+          <t>https://cran.r-project.org/package=adass,https://github.com/datawhalechina/joyful-pandas,https://github.com/pandas-dev/pandas,https://cran.r-project.org/package=pnd,https://cran.r-project.org/package=repana,https://github.com/guipsamora/pandas_exercises,https://cran.r-project.org/package=pda,https://github.com/jvns/pandas-cookbook,https://pypi.org/project/pandas/,https://github.com/sinaptik-ai/pandas-ai,https://cran.r-project.org/package=epandist</t>
         </is>
       </c>
       <c r="K458" t="inlineStr"/>
@@ -25037,7 +25037,7 @@
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=permutest,https://cran.r-project.org/package=params,https://github.com/Shin-Matsuoka/paramTest,https://github.com/hpgrahsl/junit5-paramtests-json,https://github.com/jeff-hughes/paramtest,https://github.com/cran/paramtest,https://cran.r-project.org/package=parameters,https://cran.r-project.org/package=paramtest,https://github.com/msboufanzi/ParamTest_Project,https://github.com/CAPHTECH/ParamTestSwift</t>
+          <t>https://cran.r-project.org/package=paramtest,https://github.com/cran/paramtest,https://github.com/hpgrahsl/junit5-paramtests-json,https://cran.r-project.org/package=parameters,https://github.com/CAPHTECH/ParamTestSwift,https://github.com/msboufanzi/ParamTest_Project,https://github.com/Shin-Matsuoka/paramTest,https://cran.r-project.org/package=params,https://github.com/jeff-hughes/paramtest,https://cran.r-project.org/package=permutest</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -25093,7 +25093,7 @@
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=permutest,https://cran.r-project.org/package=params,https://github.com/Shin-Matsuoka/paramTest,https://github.com/hpgrahsl/junit5-paramtests-json,https://github.com/jeff-hughes/paramtest,https://github.com/cran/paramtest,https://cran.r-project.org/package=parameters,https://cran.r-project.org/package=paramtest,https://github.com/msboufanzi/ParamTest_Project,https://github.com/CAPHTECH/ParamTestSwift</t>
+          <t>https://cran.r-project.org/package=paramtest,https://github.com/cran/paramtest,https://github.com/hpgrahsl/junit5-paramtests-json,https://cran.r-project.org/package=parameters,https://github.com/CAPHTECH/ParamTestSwift,https://github.com/msboufanzi/ParamTest_Project,https://github.com/Shin-Matsuoka/paramTest,https://cran.r-project.org/package=params,https://github.com/jeff-hughes/paramtest,https://cran.r-project.org/package=permutest</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -25149,7 +25149,7 @@
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=permutest,https://cran.r-project.org/package=params,https://github.com/Shin-Matsuoka/paramTest,https://github.com/hpgrahsl/junit5-paramtests-json,https://github.com/jeff-hughes/paramtest,https://github.com/cran/paramtest,https://cran.r-project.org/package=parameters,https://cran.r-project.org/package=paramtest,https://github.com/msboufanzi/ParamTest_Project,https://github.com/CAPHTECH/ParamTestSwift</t>
+          <t>https://cran.r-project.org/package=paramtest,https://github.com/cran/paramtest,https://github.com/hpgrahsl/junit5-paramtests-json,https://cran.r-project.org/package=parameters,https://github.com/CAPHTECH/ParamTestSwift,https://github.com/msboufanzi/ParamTest_Project,https://github.com/Shin-Matsuoka/paramTest,https://cran.r-project.org/package=params,https://github.com/jeff-hughes/paramtest,https://cran.r-project.org/package=permutest</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -25205,7 +25205,7 @@
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=spNetwork,https://github.com/jlord/patchwork,https://github.com/patched-codes/patchwork,https://github.com/thomasp85/patchwork,https://cran.r-project.org/package=patchwork,https://cran.r-project.org/package=platowork,https://github.com/url-kaist/patchwork-plusplus,https://github.com/ssbc/patchwork,https://github.com/cran/patchwork,https://cran.r-project.org/package=ptycho</t>
+          <t>https://cran.r-project.org/package=ptycho,https://cran.r-project.org/package=patchwork,https://cran.r-project.org/package=platowork,https://github.com/jlord/patchwork,https://github.com/cran/patchwork,https://pypi.org/project/patchwork/,https://github.com/thomasp85/patchwork,https://github.com/url-kaist/patchwork-plusplus,https://github.com/patched-codes/patchwork,https://github.com/ssbc/patchwork,https://cran.r-project.org/package=spNetwork</t>
         </is>
       </c>
       <c r="K462" t="inlineStr"/>
@@ -25257,7 +25257,7 @@
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=spNetwork,https://github.com/jlord/patchwork,https://github.com/patched-codes/patchwork,https://github.com/thomasp85/patchwork,https://cran.r-project.org/package=patchwork,https://cran.r-project.org/package=platowork,https://github.com/url-kaist/patchwork-plusplus,https://github.com/ssbc/patchwork,https://github.com/cran/patchwork,https://cran.r-project.org/package=ptycho</t>
+          <t>https://cran.r-project.org/package=ptycho,https://cran.r-project.org/package=patchwork,https://cran.r-project.org/package=platowork,https://github.com/jlord/patchwork,https://github.com/cran/patchwork,https://pypi.org/project/patchwork/,https://github.com/thomasp85/patchwork,https://github.com/url-kaist/patchwork-plusplus,https://github.com/patched-codes/patchwork,https://github.com/ssbc/patchwork,https://cran.r-project.org/package=spNetwork</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -25313,7 +25313,7 @@
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=spNetwork,https://github.com/jlord/patchwork,https://github.com/patched-codes/patchwork,https://github.com/thomasp85/patchwork,https://cran.r-project.org/package=patchwork,https://cran.r-project.org/package=platowork,https://github.com/url-kaist/patchwork-plusplus,https://github.com/ssbc/patchwork,https://github.com/cran/patchwork,https://cran.r-project.org/package=ptycho</t>
+          <t>https://cran.r-project.org/package=ptycho,https://cran.r-project.org/package=patchwork,https://cran.r-project.org/package=platowork,https://github.com/jlord/patchwork,https://github.com/cran/patchwork,https://pypi.org/project/patchwork/,https://github.com/thomasp85/patchwork,https://github.com/url-kaist/patchwork-plusplus,https://github.com/patched-codes/patchwork,https://github.com/ssbc/patchwork,https://cran.r-project.org/package=spNetwork</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -25369,7 +25369,7 @@
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=spNetwork,https://github.com/jlord/patchwork,https://github.com/patched-codes/patchwork,https://github.com/thomasp85/patchwork,https://cran.r-project.org/package=patchwork,https://cran.r-project.org/package=platowork,https://github.com/url-kaist/patchwork-plusplus,https://github.com/ssbc/patchwork,https://github.com/cran/patchwork,https://cran.r-project.org/package=ptycho</t>
+          <t>https://cran.r-project.org/package=ptycho,https://cran.r-project.org/package=patchwork,https://cran.r-project.org/package=platowork,https://github.com/jlord/patchwork,https://github.com/cran/patchwork,https://pypi.org/project/patchwork/,https://github.com/thomasp85/patchwork,https://github.com/url-kaist/patchwork-plusplus,https://github.com/patched-codes/patchwork,https://github.com/ssbc/patchwork,https://cran.r-project.org/package=spNetwork</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -25425,7 +25425,7 @@
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=spNetwork,https://github.com/jlord/patchwork,https://github.com/patched-codes/patchwork,https://github.com/thomasp85/patchwork,https://cran.r-project.org/package=patchwork,https://cran.r-project.org/package=platowork,https://github.com/url-kaist/patchwork-plusplus,https://github.com/ssbc/patchwork,https://github.com/cran/patchwork,https://cran.r-project.org/package=ptycho</t>
+          <t>https://cran.r-project.org/package=ptycho,https://cran.r-project.org/package=patchwork,https://cran.r-project.org/package=platowork,https://github.com/jlord/patchwork,https://github.com/cran/patchwork,https://pypi.org/project/patchwork/,https://github.com/thomasp85/patchwork,https://github.com/url-kaist/patchwork-plusplus,https://github.com/patched-codes/patchwork,https://github.com/ssbc/patchwork,https://cran.r-project.org/package=spNetwork</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -25481,7 +25481,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=ptable,https://github.com/expersso/pdftables,https://github.com/cran/pdftables,https://cran.r-project.org/package=tables,https://cran.r-project.org/package=aftables,https://www.github.com/expersso/pdftables,https://github.com/pdftables/python-pdftables-api,https://github.com/pdftables/vba-pdftables-api,https://cran.r-project.org/package=pdftables,https://github.com/chrisdev/pdftables,https://github.com/drj11/pdftables</t>
+          <t>https://cran.r-project.org/package=pdftables,https://cran.r-project.org/package=tables,https://github.com/cran/pdftables,https://cran.r-project.org/package=aftables,https://github.com/expersso/pdftables,https://github.com/pdftables/vba-pdftables-api,https://github.com/pdftables/python-pdftables-api,https://github.com/drj11/pdftables,https://cran.r-project.org/package=ptable,https://github.com/chrisdev/pdftables</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -25533,7 +25533,7 @@
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=phyloTop,https://cran.r-project.org/package=phylin,https://cran.r-project.org/package=polyclip,https://cran.r-project.org/package=rphylopic,https://github.com/phylipweb/phylip,https://github.com/jvollme/fasta2phylip,https://github.com/dunnlab/phylip,https://github.com/edgardomortiz/vcf2phylip,https://cran.r-project.org/package=phylepic,https://github.com/felsenst/phylip</t>
+          <t>https://github.com/jvollme/fasta2phylip,https://cran.r-project.org/package=phylepic,https://github.com/felsenst/phylip,https://github.com/dunnlab/phylip,https://cran.r-project.org/package=rphylopic,https://cran.r-project.org/package=phyloTop,https://github.com/edgardomortiz/vcf2phylip,https://github.com/phylipweb/phylip,https://cran.r-project.org/package=polyclip,https://cran.r-project.org/package=phylin</t>
         </is>
       </c>
       <c r="K468" t="inlineStr"/>
@@ -25585,7 +25585,7 @@
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=phyloTop,https://cran.r-project.org/package=phylin,https://cran.r-project.org/package=polyclip,https://cran.r-project.org/package=rphylopic,https://github.com/phylipweb/phylip,https://github.com/jvollme/fasta2phylip,https://github.com/dunnlab/phylip,https://github.com/edgardomortiz/vcf2phylip,https://cran.r-project.org/package=phylepic,https://github.com/felsenst/phylip</t>
+          <t>https://github.com/jvollme/fasta2phylip,https://cran.r-project.org/package=phylepic,https://github.com/felsenst/phylip,https://github.com/dunnlab/phylip,https://cran.r-project.org/package=rphylopic,https://cran.r-project.org/package=phyloTop,https://github.com/edgardomortiz/vcf2phylip,https://github.com/phylipweb/phylip,https://cran.r-project.org/package=polyclip,https://cran.r-project.org/package=phylin</t>
         </is>
       </c>
       <c r="K469" t="inlineStr"/>
@@ -25637,7 +25637,7 @@
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=phyloTop,https://cran.r-project.org/package=phylin,https://cran.r-project.org/package=polyclip,https://cran.r-project.org/package=rphylopic,https://github.com/phylipweb/phylip,https://github.com/jvollme/fasta2phylip,https://github.com/dunnlab/phylip,https://github.com/edgardomortiz/vcf2phylip,https://cran.r-project.org/package=phylepic,https://github.com/felsenst/phylip</t>
+          <t>https://github.com/jvollme/fasta2phylip,https://cran.r-project.org/package=phylepic,https://github.com/felsenst/phylip,https://github.com/dunnlab/phylip,https://cran.r-project.org/package=rphylopic,https://cran.r-project.org/package=phyloTop,https://github.com/edgardomortiz/vcf2phylip,https://github.com/phylipweb/phylip,https://cran.r-project.org/package=polyclip,https://cran.r-project.org/package=phylin</t>
         </is>
       </c>
       <c r="K470" t="inlineStr"/>
@@ -25689,7 +25689,7 @@
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=phyloTop,https://cran.r-project.org/package=phylin,https://cran.r-project.org/package=polyclip,https://cran.r-project.org/package=rphylopic,https://github.com/phylipweb/phylip,https://github.com/jvollme/fasta2phylip,https://github.com/dunnlab/phylip,https://github.com/edgardomortiz/vcf2phylip,https://cran.r-project.org/package=phylepic,https://github.com/felsenst/phylip</t>
+          <t>https://github.com/jvollme/fasta2phylip,https://cran.r-project.org/package=phylepic,https://github.com/felsenst/phylip,https://github.com/dunnlab/phylip,https://cran.r-project.org/package=rphylopic,https://cran.r-project.org/package=phyloTop,https://github.com/edgardomortiz/vcf2phylip,https://github.com/phylipweb/phylip,https://cran.r-project.org/package=polyclip,https://cran.r-project.org/package=phylin</t>
         </is>
       </c>
       <c r="K471" t="inlineStr"/>
@@ -25741,7 +25741,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=phyloTop,https://cran.r-project.org/package=phylin,https://cran.r-project.org/package=polyclip,https://cran.r-project.org/package=rphylopic,https://github.com/phylipweb/phylip,https://github.com/jvollme/fasta2phylip,https://github.com/dunnlab/phylip,https://github.com/edgardomortiz/vcf2phylip,https://cran.r-project.org/package=phylepic,https://github.com/felsenst/phylip</t>
+          <t>https://github.com/jvollme/fasta2phylip,https://cran.r-project.org/package=phylepic,https://github.com/felsenst/phylip,https://github.com/dunnlab/phylip,https://cran.r-project.org/package=rphylopic,https://cran.r-project.org/package=phyloTop,https://github.com/edgardomortiz/vcf2phylip,https://github.com/phylipweb/phylip,https://cran.r-project.org/package=polyclip,https://cran.r-project.org/package=phylin</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -25797,7 +25797,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=interactionR,https://github.com/cran/powerGWASinteraction,https://cran.r-project.org/package=simpr.interaction,https://cran.r-project.org/package=powerGWASinteraction,https://cran.r-project.org/package=interactions</t>
+          <t>https://cran.r-project.org/package=interactionR,https://cran.r-project.org/package=powerGWASinteraction,https://cran.r-project.org/package=simpr.interaction,https://github.com/cran/powerGWASinteraction,https://cran.r-project.org/package=interactions</t>
         </is>
       </c>
       <c r="K473" t="inlineStr"/>
@@ -25849,7 +25849,7 @@
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=iopsych,https://github.com/ShadowMario/FNF-PsychEngine,https://cran.r-project.org/package=MPsychoR,https://cran.r-project.org/package=PredPsych,https://cran.r-project.org/package=psychmeta,https://github.com/psychopy/psychopy,https://github.com/cran/psych,https://github.com/ruby/psych,https://cran.r-project.org/package=psych,https://github.com/brandonlw/Psychson,https://github.com/jspsych/jsPsych</t>
+          <t>https://cran.r-project.org/package=psychmeta,https://cran.r-project.org/package=PredPsych,https://cran.r-project.org/package=psych,https://github.com/brandonlw/Psychson,https://github.com/jspsych/jsPsych,https://cran.r-project.org/package=iopsych,https://cran.r-project.org/package=MPsychoR,https://github.com/ShadowMario/FNF-PsychEngine,https://github.com/cran/psych,https://pypi.org/project/pSyCH/,https://github.com/psychopy/psychopy,https://github.com/ruby/psych,https://github.com/matiyau/pSyCH</t>
         </is>
       </c>
       <c r="K474" t="inlineStr"/>
@@ -25901,7 +25901,7 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=iopsych,https://github.com/ShadowMario/FNF-PsychEngine,https://cran.r-project.org/package=MPsychoR,https://cran.r-project.org/package=PredPsych,https://cran.r-project.org/package=psychmeta,https://github.com/psychopy/psychopy,https://github.com/cran/psych,https://github.com/ruby/psych,https://cran.r-project.org/package=psych,https://github.com/brandonlw/Psychson,https://github.com/jspsych/jsPsych</t>
+          <t>https://cran.r-project.org/package=psychmeta,https://cran.r-project.org/package=PredPsych,https://cran.r-project.org/package=psych,https://github.com/brandonlw/Psychson,https://github.com/jspsych/jsPsych,https://cran.r-project.org/package=iopsych,https://cran.r-project.org/package=MPsychoR,https://github.com/ShadowMario/FNF-PsychEngine,https://github.com/cran/psych,https://pypi.org/project/pSyCH/,https://github.com/psychopy/psychopy,https://github.com/ruby/psych,https://github.com/matiyau/pSyCH</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -25957,7 +25957,7 @@
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=iopsych,https://github.com/ShadowMario/FNF-PsychEngine,https://cran.r-project.org/package=MPsychoR,https://cran.r-project.org/package=PredPsych,https://cran.r-project.org/package=psychmeta,https://github.com/psychopy/psychopy,https://github.com/cran/psych,https://github.com/ruby/psych,https://cran.r-project.org/package=psych,https://github.com/brandonlw/Psychson,https://github.com/jspsych/jsPsych</t>
+          <t>https://cran.r-project.org/package=psychmeta,https://cran.r-project.org/package=PredPsych,https://cran.r-project.org/package=psych,https://github.com/brandonlw/Psychson,https://github.com/jspsych/jsPsych,https://cran.r-project.org/package=iopsych,https://cran.r-project.org/package=MPsychoR,https://github.com/ShadowMario/FNF-PsychEngine,https://github.com/cran/psych,https://pypi.org/project/pSyCH/,https://github.com/psychopy/psychopy,https://github.com/ruby/psych,https://github.com/matiyau/pSyCH</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -26013,7 +26013,7 @@
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=iopsych,https://github.com/ShadowMario/FNF-PsychEngine,https://cran.r-project.org/package=MPsychoR,https://cran.r-project.org/package=PredPsych,https://cran.r-project.org/package=psychmeta,https://github.com/psychopy/psychopy,https://github.com/cran/psych,https://github.com/ruby/psych,https://cran.r-project.org/package=psych,https://github.com/brandonlw/Psychson,https://github.com/jspsych/jsPsych</t>
+          <t>https://cran.r-project.org/package=psychmeta,https://cran.r-project.org/package=PredPsych,https://cran.r-project.org/package=psych,https://github.com/brandonlw/Psychson,https://github.com/jspsych/jsPsych,https://cran.r-project.org/package=iopsych,https://cran.r-project.org/package=MPsychoR,https://github.com/ShadowMario/FNF-PsychEngine,https://github.com/cran/psych,https://pypi.org/project/pSyCH/,https://github.com/psychopy/psychopy,https://github.com/ruby/psych,https://github.com/matiyau/pSyCH</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -26069,7 +26069,7 @@
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=iopsych,https://github.com/ShadowMario/FNF-PsychEngine,https://cran.r-project.org/package=MPsychoR,https://cran.r-project.org/package=PredPsych,https://cran.r-project.org/package=psychmeta,https://github.com/psychopy/psychopy,https://github.com/cran/psych,https://github.com/ruby/psych,https://cran.r-project.org/package=psych,https://github.com/brandonlw/Psychson,https://github.com/jspsych/jsPsych</t>
+          <t>https://cran.r-project.org/package=psychmeta,https://cran.r-project.org/package=PredPsych,https://cran.r-project.org/package=psych,https://github.com/brandonlw/Psychson,https://github.com/jspsych/jsPsych,https://cran.r-project.org/package=iopsych,https://cran.r-project.org/package=MPsychoR,https://github.com/ShadowMario/FNF-PsychEngine,https://github.com/cran/psych,https://pypi.org/project/pSyCH/,https://github.com/psychopy/psychopy,https://github.com/ruby/psych,https://github.com/matiyau/pSyCH</t>
         </is>
       </c>
       <c r="K478" t="inlineStr"/>
@@ -26121,7 +26121,7 @@
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr">
         <is>
-          <t>https://github.com/kodi-pvr/pvr.iptvsimple,https://cran.r-project.org/package=pvar,https://cran.r-project.org/package=gwrpvr,https://cran.r-project.org/package=PVR,https://github.com/fxgames/pvrtextool_wrapper,https://github.com/mrossini-ethz/camera-calibration-pvr,https://github.com/pvrbook/pvr,https://cran.r-project.org/package=pcvr,https://github.com/cran/PVR,https://github.com/kodi-pvr/pvr.hts,https://cran.r-project.org/package=ypr</t>
+          <t>https://cran.r-project.org/package=pvar,https://github.com/kodi-pvr/pvr.iptvsimple,https://cran.r-project.org/package=gwrpvr,https://github.com/cran/PVR,https://github.com/fxgames/pvrtextool_wrapper,https://github.com/pvrbook/pvr,https://github.com/kodi-pvr/pvr.hts,https://cran.r-project.org/package=ypr,https://cran.r-project.org/package=pcvr,https://cran.r-project.org/package=PVR,https://github.com/mrossini-ethz/camera-calibration-pvr</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -26177,7 +26177,7 @@
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr">
         <is>
-          <t>https://pypi.org/project/pyAFQ/,https://github.com/tractometry/pyAFQ,https://github.com/brainlife/app-pyafq-segment,https://github.com/Anneef/pyAFQ,https://github.com/scitran-apps/pyafq,https://github.com/yeatmanlab/pyAFQ</t>
+          <t>https://pypi.org/project/pyAFQ/,https://github.com/brainlife/app-pyafq-segment,https://github.com/Anneef/pyAFQ,https://github.com/yeatmanlab/pyAFQ,https://github.com/tractometry/pyAFQ,https://github.com/scitran-apps/pyafq</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -26229,7 +26229,7 @@
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr">
         <is>
-          <t>https://pypi.org/project/pyAFQ/,https://github.com/tractometry/pyAFQ,https://github.com/brainlife/app-pyafq-segment,https://github.com/Anneef/pyAFQ,https://github.com/scitran-apps/pyafq,https://github.com/yeatmanlab/pyAFQ</t>
+          <t>https://pypi.org/project/pyAFQ/,https://github.com/brainlife/app-pyafq-segment,https://github.com/Anneef/pyAFQ,https://github.com/yeatmanlab/pyAFQ,https://github.com/tractometry/pyAFQ,https://github.com/scitran-apps/pyafq</t>
         </is>
       </c>
       <c r="K481" t="inlineStr"/>
@@ -26277,7 +26277,7 @@
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr">
         <is>
-          <t>https://github.com/shr3yans/pymagnitude-tutorial,https://github.com/zfang/benchmark_pymagnitude,https://github.com/lambwang/pymagnitude,https://github.com/Sankar16kds/pymagnitude,https://github.com/kamujun/compare_pymagnitude_with_gensim_and_tfhub,https://cran.r-project.org/package=pargasite</t>
+          <t>https://github.com/lambwang/pymagnitude,https://github.com/shr3yans/pymagnitude-tutorial,https://pypi.org/project/pymagnitude/,https://github.com/zfang/benchmark_pymagnitude,https://github.com/kamujun/compare_pymagnitude_with_gensim_and_tfhub,https://cran.r-project.org/package=pargasite,https://github.com/Sankar16kds/pymagnitude</t>
         </is>
       </c>
       <c r="K482" t="inlineStr"/>
@@ -26329,7 +26329,7 @@
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=psyphy,https://github.com/MPBA/pyphysio,https://github.com/RobinSinghYadav/PyPhysio,https://cran.r-project.org/package=plantphysioR,https://cran.r-project.org/package=ctypesio</t>
+          <t>https://cran.r-project.org/package=ctypesio,https://github.com/RobinSinghYadav/PyPhysio,https://cran.r-project.org/package=psyphy,https://cran.r-project.org/package=plantphysioR,https://github.com/MPBA/pyphysio</t>
         </is>
       </c>
       <c r="K483" t="inlineStr"/>
@@ -26381,7 +26381,7 @@
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=psyphy,https://github.com/MPBA/pyphysio,https://github.com/RobinSinghYadav/PyPhysio,https://cran.r-project.org/package=plantphysioR,https://cran.r-project.org/package=ctypesio</t>
+          <t>https://cran.r-project.org/package=ctypesio,https://github.com/RobinSinghYadav/PyPhysio,https://cran.r-project.org/package=psyphy,https://cran.r-project.org/package=plantphysioR,https://github.com/MPBA/pyphysio</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -26437,7 +26437,7 @@
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=psyphy,https://github.com/MPBA/pyphysio,https://github.com/RobinSinghYadav/PyPhysio,https://cran.r-project.org/package=plantphysioR,https://cran.r-project.org/package=ctypesio</t>
+          <t>https://cran.r-project.org/package=ctypesio,https://github.com/RobinSinghYadav/PyPhysio,https://cran.r-project.org/package=psyphy,https://cran.r-project.org/package=plantphysioR,https://github.com/MPBA/pyphysio</t>
         </is>
       </c>
       <c r="K485" t="inlineStr"/>
@@ -26489,7 +26489,7 @@
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=psyphy,https://github.com/MPBA/pyphysio,https://github.com/RobinSinghYadav/PyPhysio,https://cran.r-project.org/package=plantphysioR,https://cran.r-project.org/package=ctypesio</t>
+          <t>https://cran.r-project.org/package=ctypesio,https://github.com/RobinSinghYadav/PyPhysio,https://cran.r-project.org/package=psyphy,https://cran.r-project.org/package=plantphysioR,https://github.com/MPBA/pyphysio</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -26545,7 +26545,7 @@
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=psyphy,https://github.com/MPBA/pyphysio,https://github.com/RobinSinghYadav/PyPhysio,https://cran.r-project.org/package=plantphysioR,https://cran.r-project.org/package=ctypesio</t>
+          <t>https://cran.r-project.org/package=ctypesio,https://github.com/RobinSinghYadav/PyPhysio,https://cran.r-project.org/package=psyphy,https://cran.r-project.org/package=plantphysioR,https://github.com/MPBA/pyphysio</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -26601,7 +26601,7 @@
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=phylin,https://github.com/onrik/pyqiwi,https://github.com/mostm/pyqiwi,https://cran.r-project.org/package=pyinit,https://github.com/ifilot/pyqint,https://github.com/WhiteApfel/pyQiwiP2P,https://github.com/qir-alliance/pyqir</t>
+          <t>https://github.com/ifilot/pyqint,https://github.com/qir-alliance/pyqir,https://cran.r-project.org/package=pyinit,https://github.com/onrik/pyqiwi,https://github.com/WhiteApfel/pyQiwiP2P,https://github.com/mostm/pyqiwi,https://cran.r-project.org/package=phylin</t>
         </is>
       </c>
       <c r="K488" t="inlineStr"/>
@@ -26649,7 +26649,7 @@
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/huggingface/pytorch-image-models,https://github.com/yunjey/pytorch-tutorial,https://pypi.org/project/torch/,https://cran.r-project.org/package=torchopt,https://cran.r-project.org/package=mlr3torch,https://cran.r-project.org/package=psych,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=touch,https://github.com/pytorch/pytorch</t>
+          <t>https://github.com/yunjey/pytorch-tutorial,https://cran.r-project.org/package=touch,https://cran.r-project.org/package=psych,https://cran.r-project.org/package=mlr3torch,https://github.com/pytorch/pytorch,https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=torchopt,https://pypi.org/project/torch/,https://github.com/huggingface/pytorch-image-models</t>
         </is>
       </c>
       <c r="K489" t="inlineStr"/>
@@ -26701,7 +26701,7 @@
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/huggingface/pytorch-image-models,https://github.com/yunjey/pytorch-tutorial,https://pypi.org/project/torch/,https://cran.r-project.org/package=torchopt,https://cran.r-project.org/package=mlr3torch,https://cran.r-project.org/package=psych,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=touch,https://github.com/pytorch/pytorch</t>
+          <t>https://github.com/yunjey/pytorch-tutorial,https://cran.r-project.org/package=touch,https://cran.r-project.org/package=psych,https://cran.r-project.org/package=mlr3torch,https://github.com/pytorch/pytorch,https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=torchopt,https://pypi.org/project/torch/,https://github.com/huggingface/pytorch-image-models</t>
         </is>
       </c>
       <c r="K490" t="inlineStr"/>
@@ -26753,7 +26753,7 @@
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/huggingface/pytorch-image-models,https://github.com/yunjey/pytorch-tutorial,https://pypi.org/project/torch/,https://cran.r-project.org/package=torchopt,https://cran.r-project.org/package=mlr3torch,https://cran.r-project.org/package=psych,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=touch,https://github.com/pytorch/pytorch</t>
+          <t>https://github.com/yunjey/pytorch-tutorial,https://cran.r-project.org/package=touch,https://cran.r-project.org/package=psych,https://cran.r-project.org/package=mlr3torch,https://github.com/pytorch/pytorch,https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=torchopt,https://pypi.org/project/torch/,https://github.com/huggingface/pytorch-image-models</t>
         </is>
       </c>
       <c r="K491" t="inlineStr"/>
@@ -26805,7 +26805,7 @@
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/huggingface/pytorch-image-models,https://github.com/yunjey/pytorch-tutorial,https://pypi.org/project/torch/,https://cran.r-project.org/package=torchopt,https://cran.r-project.org/package=mlr3torch,https://cran.r-project.org/package=psych,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=touch,https://github.com/pytorch/pytorch</t>
+          <t>https://github.com/yunjey/pytorch-tutorial,https://cran.r-project.org/package=touch,https://cran.r-project.org/package=psych,https://cran.r-project.org/package=mlr3torch,https://github.com/pytorch/pytorch,https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=torchopt,https://pypi.org/project/torch/,https://github.com/huggingface/pytorch-image-models</t>
         </is>
       </c>
       <c r="K492" t="inlineStr"/>
@@ -26857,7 +26857,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/huggingface/pytorch-image-models,https://github.com/yunjey/pytorch-tutorial,https://pypi.org/project/torch/,https://cran.r-project.org/package=torchopt,https://cran.r-project.org/package=mlr3torch,https://cran.r-project.org/package=psych,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=touch,https://github.com/pytorch/pytorch</t>
+          <t>https://github.com/yunjey/pytorch-tutorial,https://cran.r-project.org/package=touch,https://cran.r-project.org/package=psych,https://cran.r-project.org/package=mlr3torch,https://github.com/pytorch/pytorch,https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=torchopt,https://pypi.org/project/torch/,https://github.com/huggingface/pytorch-image-models</t>
         </is>
       </c>
       <c r="K493" t="inlineStr"/>
@@ -26909,7 +26909,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/huggingface/pytorch-image-models,https://github.com/yunjey/pytorch-tutorial,https://pypi.org/project/torch/,https://cran.r-project.org/package=torchopt,https://cran.r-project.org/package=mlr3torch,https://cran.r-project.org/package=psych,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=touch,https://github.com/pytorch/pytorch</t>
+          <t>https://github.com/yunjey/pytorch-tutorial,https://cran.r-project.org/package=touch,https://cran.r-project.org/package=psych,https://cran.r-project.org/package=mlr3torch,https://github.com/pytorch/pytorch,https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=torchopt,https://pypi.org/project/torch/,https://github.com/huggingface/pytorch-image-models</t>
         </is>
       </c>
       <c r="K494" t="inlineStr"/>
@@ -26961,7 +26961,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/huggingface/pytorch-image-models,https://github.com/yunjey/pytorch-tutorial,https://pypi.org/project/torch/,https://cran.r-project.org/package=torchopt,https://cran.r-project.org/package=mlr3torch,https://cran.r-project.org/package=psych,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=touch,https://github.com/pytorch/pytorch</t>
+          <t>https://github.com/yunjey/pytorch-tutorial,https://cran.r-project.org/package=touch,https://cran.r-project.org/package=psych,https://cran.r-project.org/package=mlr3torch,https://github.com/pytorch/pytorch,https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=torchopt,https://pypi.org/project/torch/,https://github.com/huggingface/pytorch-image-models</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -27017,7 +27017,7 @@
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/huggingface/pytorch-image-models,https://github.com/yunjey/pytorch-tutorial,https://pypi.org/project/torch/,https://cran.r-project.org/package=torchopt,https://cran.r-project.org/package=mlr3torch,https://cran.r-project.org/package=psych,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=touch,https://github.com/pytorch/pytorch</t>
+          <t>https://github.com/yunjey/pytorch-tutorial,https://cran.r-project.org/package=touch,https://cran.r-project.org/package=psych,https://cran.r-project.org/package=mlr3torch,https://github.com/pytorch/pytorch,https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=torchopt,https://pypi.org/project/torch/,https://github.com/huggingface/pytorch-image-models</t>
         </is>
       </c>
       <c r="K496" t="inlineStr"/>
@@ -27069,7 +27069,7 @@
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/huggingface/pytorch-image-models,https://github.com/yunjey/pytorch-tutorial,https://pypi.org/project/torch/,https://cran.r-project.org/package=torchopt,https://cran.r-project.org/package=mlr3torch,https://cran.r-project.org/package=psych,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=touch,https://github.com/pytorch/pytorch</t>
+          <t>https://github.com/yunjey/pytorch-tutorial,https://cran.r-project.org/package=touch,https://cran.r-project.org/package=psych,https://cran.r-project.org/package=mlr3torch,https://github.com/pytorch/pytorch,https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=torchopt,https://pypi.org/project/torch/,https://github.com/huggingface/pytorch-image-models</t>
         </is>
       </c>
       <c r="K497" t="inlineStr"/>
@@ -27121,7 +27121,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/huggingface/pytorch-image-models,https://github.com/yunjey/pytorch-tutorial,https://pypi.org/project/torch/,https://cran.r-project.org/package=torchopt,https://cran.r-project.org/package=mlr3torch,https://cran.r-project.org/package=psych,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=touch,https://github.com/pytorch/pytorch</t>
+          <t>https://github.com/yunjey/pytorch-tutorial,https://cran.r-project.org/package=touch,https://cran.r-project.org/package=psych,https://cran.r-project.org/package=mlr3torch,https://github.com/pytorch/pytorch,https://cran.r-project.org/package=torch,https://github.com/junyanz/pytorch-CycleGAN-and-pix2pix,https://github.com/Lightning-AI/pytorch-lightning,https://cran.r-project.org/package=torchopt,https://pypi.org/project/torch/,https://github.com/huggingface/pytorch-image-models</t>
         </is>
       </c>
       <c r="K498" t="inlineStr"/>
@@ -27173,7 +27173,7 @@
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=triplot,https://pypi.org/project/pytplot/,https://github.com/pulupa/pytplot,https://cran.r-project.org/package=pplot,https://github.com/MAVENSDC/pytplot,https://cran.r-project.org/package=tttplot,https://github.com/MAVENSDC/PyTplot,https://cran.r-project.org/package=tfplot,https://cran.r-project.org/package=txtplot</t>
+          <t>https://github.com/MAVENSDC/PyTplot,https://cran.r-project.org/package=txtplot,https://cran.r-project.org/package=tttplot,https://github.com/MAVENSDC/pytplot,https://github.com/pulupa/pytplot,https://cran.r-project.org/package=tfplot,https://pypi.org/project/pytplot/,https://cran.r-project.org/package=pplot,https://cran.r-project.org/package=triplot</t>
         </is>
       </c>
       <c r="K499" t="inlineStr"/>
@@ -27221,7 +27221,7 @@
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=BayesianMediationA,https://cran.r-project.org/package=ParBayesianOptimization,https://github.com/yanyachen/rBayesianOptimization,https://cran.r-project.org/package=rBayesianOptimization,https://github.com/cran/rBayesianOptimization</t>
+          <t>https://cran.r-project.org/package=ParBayesianOptimization,https://cran.r-project.org/package=BayesianMediationA,https://github.com/yanyachen/rBayesianOptimization,https://cran.r-project.org/package=rBayesianOptimization,https://github.com/cran/rBayesianOptimization</t>
         </is>
       </c>
       <c r="K500" t="inlineStr"/>
@@ -27273,7 +27273,7 @@
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=BayesianMediationA,https://cran.r-project.org/package=ParBayesianOptimization,https://github.com/yanyachen/rBayesianOptimization,https://cran.r-project.org/package=rBayesianOptimization,https://github.com/cran/rBayesianOptimization</t>
+          <t>https://cran.r-project.org/package=ParBayesianOptimization,https://cran.r-project.org/package=BayesianMediationA,https://github.com/yanyachen/rBayesianOptimization,https://cran.r-project.org/package=rBayesianOptimization,https://github.com/cran/rBayesianOptimization</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -27329,7 +27329,7 @@
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=BayesianMediationA,https://cran.r-project.org/package=ParBayesianOptimization,https://github.com/yanyachen/rBayesianOptimization,https://cran.r-project.org/package=rBayesianOptimization,https://github.com/cran/rBayesianOptimization</t>
+          <t>https://cran.r-project.org/package=ParBayesianOptimization,https://cran.r-project.org/package=BayesianMediationA,https://github.com/yanyachen/rBayesianOptimization,https://cran.r-project.org/package=rBayesianOptimization,https://github.com/cran/rBayesianOptimization</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -27385,7 +27385,7 @@
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=BayesianMediationA,https://cran.r-project.org/package=ParBayesianOptimization,https://github.com/yanyachen/rBayesianOptimization,https://cran.r-project.org/package=rBayesianOptimization,https://github.com/cran/rBayesianOptimization</t>
+          <t>https://cran.r-project.org/package=ParBayesianOptimization,https://cran.r-project.org/package=BayesianMediationA,https://github.com/yanyachen/rBayesianOptimization,https://cran.r-project.org/package=rBayesianOptimization,https://github.com/cran/rBayesianOptimization</t>
         </is>
       </c>
       <c r="K503" t="inlineStr"/>
@@ -27437,7 +27437,7 @@
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=BayesianMediationA,https://cran.r-project.org/package=ParBayesianOptimization,https://github.com/yanyachen/rBayesianOptimization,https://cran.r-project.org/package=rBayesianOptimization,https://github.com/cran/rBayesianOptimization</t>
+          <t>https://cran.r-project.org/package=ParBayesianOptimization,https://cran.r-project.org/package=BayesianMediationA,https://github.com/yanyachen/rBayesianOptimization,https://cran.r-project.org/package=rBayesianOptimization,https://github.com/cran/rBayesianOptimization</t>
         </is>
       </c>
       <c r="K504" t="inlineStr"/>
@@ -27489,7 +27489,7 @@
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=clinicalomicsdbR,https://cran.r-project.org/package=rClinicalCodes,https://github.com/cran/rClinicalCodes,https://github.com/rOpenHealth/rClinicalCodes</t>
+          <t>https://github.com/cran/rClinicalCodes,https://github.com/rOpenHealth/rClinicalCodes,https://cran.r-project.org/package=rClinicalCodes,https://cran.r-project.org/package=clinicalomicsdbR</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -27545,7 +27545,7 @@
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr">
         <is>
-          <t>https://github.com/juliomsevilla/rlidar,https://cran.r-project.org/package=archiDART,https://cran.r-project.org/package=iAR,https://github.com/r-forge/rlidar,https://cran.r-project.org/package=sureLDA,https://cran.r-project.org/package=rLiDAR,https://cran.r-project.org/package=rDEA,https://github.com/cran/rLiDAR,https://github.com/stevenconnorg/rlidar-accuracy,https://github.com/carlos-alberto-silva/rLiDAR,https://cran.r-project.org/package=rADA</t>
+          <t>https://cran.r-project.org/package=archiDART,https://github.com/cran/rLiDAR,https://cran.r-project.org/package=rDEA,https://github.com/carlos-alberto-silva/rLiDAR,https://cran.r-project.org/package=sureLDA,https://github.com/stevenconnorg/rlidar-accuracy,https://github.com/r-forge/rlidar,https://cran.r-project.org/package=rLiDAR,https://cran.r-project.org/package=rADA,https://github.com/juliomsevilla/rlidar,https://cran.r-project.org/package=iAR</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -27601,7 +27601,7 @@
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bulkreadr,https://cran.r-project.org/package=BREADR,https://cran.r-project.org/package=readr,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=bigreadr,https://github.com/cran/readr,https://github.com/tidyverse/readr,https://github.com/Aerolab/readremaining.js,https://cran.r-project.org/package=hildareadR,https://github.com/s3ththompson/readrc,https://github.com/readrops/Readrops</t>
+          <t>https://cran.r-project.org/package=readr,https://github.com/readrops/Readrops,https://github.com/Aerolab/readremaining.js,https://github.com/tidyverse/readr,https://github.com/cran/readr,https://cran.r-project.org/package=bigreadr,https://github.com/s3ththompson/readrc,https://cran.r-project.org/package=BREADR,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=hildareadR,https://cran.r-project.org/package=bulkreadr</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -27657,7 +27657,7 @@
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bulkreadr,https://cran.r-project.org/package=BREADR,https://cran.r-project.org/package=readr,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=bigreadr,https://github.com/cran/readr,https://github.com/tidyverse/readr,https://github.com/Aerolab/readremaining.js,https://cran.r-project.org/package=hildareadR,https://github.com/s3ththompson/readrc,https://github.com/readrops/Readrops</t>
+          <t>https://cran.r-project.org/package=readr,https://github.com/readrops/Readrops,https://github.com/Aerolab/readremaining.js,https://github.com/tidyverse/readr,https://github.com/cran/readr,https://cran.r-project.org/package=bigreadr,https://github.com/s3ththompson/readrc,https://cran.r-project.org/package=BREADR,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=hildareadR,https://cran.r-project.org/package=bulkreadr</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -27713,7 +27713,7 @@
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bulkreadr,https://cran.r-project.org/package=BREADR,https://cran.r-project.org/package=readr,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=bigreadr,https://github.com/cran/readr,https://github.com/tidyverse/readr,https://github.com/Aerolab/readremaining.js,https://cran.r-project.org/package=hildareadR,https://github.com/s3ththompson/readrc,https://github.com/readrops/Readrops</t>
+          <t>https://cran.r-project.org/package=readr,https://github.com/readrops/Readrops,https://github.com/Aerolab/readremaining.js,https://github.com/tidyverse/readr,https://github.com/cran/readr,https://cran.r-project.org/package=bigreadr,https://github.com/s3ththompson/readrc,https://cran.r-project.org/package=BREADR,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=hildareadR,https://cran.r-project.org/package=bulkreadr</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -27769,7 +27769,7 @@
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bulkreadr,https://cran.r-project.org/package=BREADR,https://cran.r-project.org/package=readr,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=bigreadr,https://github.com/cran/readr,https://github.com/tidyverse/readr,https://github.com/Aerolab/readremaining.js,https://cran.r-project.org/package=hildareadR,https://github.com/s3ththompson/readrc,https://github.com/readrops/Readrops</t>
+          <t>https://cran.r-project.org/package=readr,https://github.com/readrops/Readrops,https://github.com/Aerolab/readremaining.js,https://github.com/tidyverse/readr,https://github.com/cran/readr,https://cran.r-project.org/package=bigreadr,https://github.com/s3ththompson/readrc,https://cran.r-project.org/package=BREADR,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=hildareadR,https://cran.r-project.org/package=bulkreadr</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -27825,7 +27825,7 @@
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bulkreadr,https://cran.r-project.org/package=BREADR,https://cran.r-project.org/package=readr,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=bigreadr,https://github.com/cran/readr,https://github.com/tidyverse/readr,https://github.com/Aerolab/readremaining.js,https://cran.r-project.org/package=hildareadR,https://github.com/s3ththompson/readrc,https://github.com/readrops/Readrops</t>
+          <t>https://cran.r-project.org/package=readr,https://github.com/readrops/Readrops,https://github.com/Aerolab/readremaining.js,https://github.com/tidyverse/readr,https://github.com/cran/readr,https://cran.r-project.org/package=bigreadr,https://github.com/s3ththompson/readrc,https://cran.r-project.org/package=BREADR,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=hildareadR,https://cran.r-project.org/package=bulkreadr</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -27881,7 +27881,7 @@
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bulkreadr,https://cran.r-project.org/package=BREADR,https://cran.r-project.org/package=readr,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=bigreadr,https://github.com/cran/readr,https://github.com/tidyverse/readr,https://github.com/Aerolab/readremaining.js,https://cran.r-project.org/package=hildareadR,https://github.com/s3ththompson/readrc,https://github.com/readrops/Readrops</t>
+          <t>https://cran.r-project.org/package=readr,https://github.com/readrops/Readrops,https://github.com/Aerolab/readremaining.js,https://github.com/tidyverse/readr,https://github.com/cran/readr,https://cran.r-project.org/package=bigreadr,https://github.com/s3ththompson/readrc,https://cran.r-project.org/package=BREADR,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=hildareadR,https://cran.r-project.org/package=bulkreadr</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -27937,7 +27937,7 @@
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bulkreadr,https://cran.r-project.org/package=BREADR,https://cran.r-project.org/package=readr,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=bigreadr,https://github.com/cran/readr,https://github.com/tidyverse/readr,https://github.com/Aerolab/readremaining.js,https://cran.r-project.org/package=hildareadR,https://github.com/s3ththompson/readrc,https://github.com/readrops/Readrops</t>
+          <t>https://cran.r-project.org/package=readr,https://github.com/readrops/Readrops,https://github.com/Aerolab/readremaining.js,https://github.com/tidyverse/readr,https://github.com/cran/readr,https://cran.r-project.org/package=bigreadr,https://github.com/s3ththompson/readrc,https://cran.r-project.org/package=BREADR,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=hildareadR,https://cran.r-project.org/package=bulkreadr</t>
         </is>
       </c>
       <c r="K513" t="inlineStr"/>
@@ -27989,7 +27989,7 @@
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bulkreadr,https://cran.r-project.org/package=BREADR,https://cran.r-project.org/package=readr,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=bigreadr,https://github.com/cran/readr,https://github.com/tidyverse/readr,https://github.com/Aerolab/readremaining.js,https://cran.r-project.org/package=hildareadR,https://github.com/s3ththompson/readrc,https://github.com/readrops/Readrops</t>
+          <t>https://cran.r-project.org/package=readr,https://github.com/readrops/Readrops,https://github.com/Aerolab/readremaining.js,https://github.com/tidyverse/readr,https://github.com/cran/readr,https://cran.r-project.org/package=bigreadr,https://github.com/s3ththompson/readrc,https://cran.r-project.org/package=BREADR,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=hildareadR,https://cran.r-project.org/package=bulkreadr</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -28045,7 +28045,7 @@
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bulkreadr,https://cran.r-project.org/package=BREADR,https://cran.r-project.org/package=readr,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=bigreadr,https://github.com/cran/readr,https://github.com/tidyverse/readr,https://github.com/Aerolab/readremaining.js,https://cran.r-project.org/package=hildareadR,https://github.com/s3ththompson/readrc,https://github.com/readrops/Readrops</t>
+          <t>https://cran.r-project.org/package=readr,https://github.com/readrops/Readrops,https://github.com/Aerolab/readremaining.js,https://github.com/tidyverse/readr,https://github.com/cran/readr,https://cran.r-project.org/package=bigreadr,https://github.com/s3ththompson/readrc,https://cran.r-project.org/package=BREADR,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=hildareadR,https://cran.r-project.org/package=bulkreadr</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -28101,7 +28101,7 @@
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=bulkreadr,https://cran.r-project.org/package=BREADR,https://cran.r-project.org/package=readr,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=bigreadr,https://github.com/cran/readr,https://github.com/tidyverse/readr,https://github.com/Aerolab/readremaining.js,https://cran.r-project.org/package=hildareadR,https://github.com/s3ththompson/readrc,https://github.com/readrops/Readrops</t>
+          <t>https://cran.r-project.org/package=readr,https://github.com/readrops/Readrops,https://github.com/Aerolab/readremaining.js,https://github.com/tidyverse/readr,https://github.com/cran/readr,https://cran.r-project.org/package=bigreadr,https://github.com/s3ththompson/readrc,https://cran.r-project.org/package=BREADR,https://github.com/readr-media/readr-data,https://cran.r-project.org/package=hildareadR,https://cran.r-project.org/package=bulkreadr</t>
         </is>
       </c>
       <c r="K516" t="inlineStr"/>
@@ -28153,7 +28153,7 @@
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=relgam,https://github.com/conda-forge/r-relaimpo-feedstock,https://github.com/yusuke0055/Relaimpo,https://cran.r-project.org/package=relaimpo,https://cran.r-project.org/package=relimp,https://cran.r-project.org/package=relSim,https://github.com/cran/relaimpo</t>
+          <t>https://github.com/cran/relaimpo,https://github.com/conda-forge/r-relaimpo-feedstock,https://cran.r-project.org/package=relgam,https://cran.r-project.org/package=relSim,https://cran.r-project.org/package=relimp,https://github.com/yusuke0055/Relaimpo,https://cran.r-project.org/package=relaimpo</t>
         </is>
       </c>
       <c r="K517" t="inlineStr"/>
@@ -28205,7 +28205,7 @@
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=relgam,https://github.com/conda-forge/r-relaimpo-feedstock,https://github.com/yusuke0055/Relaimpo,https://cran.r-project.org/package=relaimpo,https://cran.r-project.org/package=relimp,https://cran.r-project.org/package=relSim,https://github.com/cran/relaimpo</t>
+          <t>https://github.com/cran/relaimpo,https://github.com/conda-forge/r-relaimpo-feedstock,https://cran.r-project.org/package=relgam,https://cran.r-project.org/package=relSim,https://cran.r-project.org/package=relimp,https://github.com/yusuke0055/Relaimpo,https://cran.r-project.org/package=relaimpo</t>
         </is>
       </c>
       <c r="K518" t="inlineStr"/>
@@ -28257,7 +28257,7 @@
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=relgam,https://github.com/conda-forge/r-relaimpo-feedstock,https://github.com/yusuke0055/Relaimpo,https://cran.r-project.org/package=relaimpo,https://cran.r-project.org/package=relimp,https://cran.r-project.org/package=relSim,https://github.com/cran/relaimpo</t>
+          <t>https://github.com/cran/relaimpo,https://github.com/conda-forge/r-relaimpo-feedstock,https://cran.r-project.org/package=relgam,https://cran.r-project.org/package=relSim,https://cran.r-project.org/package=relimp,https://github.com/yusuke0055/Relaimpo,https://cran.r-project.org/package=relaimpo</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -28313,7 +28313,7 @@
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=relgam,https://github.com/conda-forge/r-relaimpo-feedstock,https://github.com/yusuke0055/Relaimpo,https://cran.r-project.org/package=relaimpo,https://cran.r-project.org/package=relimp,https://cran.r-project.org/package=relSim,https://github.com/cran/relaimpo</t>
+          <t>https://github.com/cran/relaimpo,https://github.com/conda-forge/r-relaimpo-feedstock,https://cran.r-project.org/package=relgam,https://cran.r-project.org/package=relSim,https://cran.r-project.org/package=relimp,https://github.com/yusuke0055/Relaimpo,https://cran.r-project.org/package=relaimpo</t>
         </is>
       </c>
       <c r="K520" t="inlineStr"/>
@@ -28365,7 +28365,7 @@
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=relgam,https://github.com/conda-forge/r-relaimpo-feedstock,https://github.com/yusuke0055/Relaimpo,https://cran.r-project.org/package=relaimpo,https://cran.r-project.org/package=relimp,https://cran.r-project.org/package=relSim,https://github.com/cran/relaimpo</t>
+          <t>https://github.com/cran/relaimpo,https://github.com/conda-forge/r-relaimpo-feedstock,https://cran.r-project.org/package=relgam,https://cran.r-project.org/package=relSim,https://cran.r-project.org/package=relimp,https://github.com/yusuke0055/Relaimpo,https://cran.r-project.org/package=relaimpo</t>
         </is>
       </c>
       <c r="K521" t="inlineStr"/>
@@ -28417,7 +28417,7 @@
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr">
         <is>
-          <t>https://pypi.org/project/requests/,https://github.com/psf/requests-html,https://cran.r-project.org/package=treestats,https://cran.r-project.org/package=reqres,https://github.com/ross/requests-futures,https://cran.r-project.org/package=rquest,https://cran.r-project.org/package=quest,https://github.com/requests/requests-oauthlib,https://github.com/WordPress/Requests,https://github.com/psf/requests,https://cran.r-project.org/package=request</t>
+          <t>https://cran.r-project.org/package=quest,https://github.com/psf/requests-html,https://github.com/psf/requests,https://github.com/WordPress/Requests,https://pypi.org/project/requests/,https://cran.r-project.org/package=reqres,https://cran.r-project.org/package=rquest,https://github.com/requests/requests-oauthlib,https://cran.r-project.org/package=request,https://github.com/ross/requests-futures,https://cran.r-project.org/package=treestats</t>
         </is>
       </c>
       <c r="K522" t="inlineStr"/>
@@ -28469,7 +28469,7 @@
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr">
         <is>
-          <t>https://pypi.org/project/requests/,https://github.com/psf/requests-html,https://cran.r-project.org/package=treestats,https://cran.r-project.org/package=reqres,https://github.com/ross/requests-futures,https://cran.r-project.org/package=rquest,https://cran.r-project.org/package=quest,https://github.com/requests/requests-oauthlib,https://github.com/WordPress/Requests,https://github.com/psf/requests,https://cran.r-project.org/package=request</t>
+          <t>https://cran.r-project.org/package=quest,https://github.com/psf/requests-html,https://github.com/psf/requests,https://github.com/WordPress/Requests,https://pypi.org/project/requests/,https://cran.r-project.org/package=reqres,https://cran.r-project.org/package=rquest,https://github.com/requests/requests-oauthlib,https://cran.r-project.org/package=request,https://github.com/ross/requests-futures,https://cran.r-project.org/package=treestats</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -28525,7 +28525,7 @@
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr">
         <is>
-          <t>https://pypi.org/project/requests/,https://github.com/psf/requests-html,https://cran.r-project.org/package=treestats,https://cran.r-project.org/package=reqres,https://github.com/ross/requests-futures,https://cran.r-project.org/package=rquest,https://cran.r-project.org/package=quest,https://github.com/requests/requests-oauthlib,https://github.com/WordPress/Requests,https://github.com/psf/requests,https://cran.r-project.org/package=request</t>
+          <t>https://cran.r-project.org/package=quest,https://github.com/psf/requests-html,https://github.com/psf/requests,https://github.com/WordPress/Requests,https://pypi.org/project/requests/,https://cran.r-project.org/package=reqres,https://cran.r-project.org/package=rquest,https://github.com/requests/requests-oauthlib,https://cran.r-project.org/package=request,https://github.com/ross/requests-futures,https://cran.r-project.org/package=treestats</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -28581,7 +28581,7 @@
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr">
         <is>
-          <t>https://pypi.org/project/requests/,https://github.com/psf/requests-html,https://cran.r-project.org/package=treestats,https://cran.r-project.org/package=reqres,https://github.com/ross/requests-futures,https://cran.r-project.org/package=rquest,https://cran.r-project.org/package=quest,https://github.com/requests/requests-oauthlib,https://github.com/WordPress/Requests,https://github.com/psf/requests,https://cran.r-project.org/package=request</t>
+          <t>https://cran.r-project.org/package=quest,https://github.com/psf/requests-html,https://github.com/psf/requests,https://github.com/WordPress/Requests,https://pypi.org/project/requests/,https://cran.r-project.org/package=reqres,https://cran.r-project.org/package=rquest,https://github.com/requests/requests-oauthlib,https://cran.r-project.org/package=request,https://github.com/ross/requests-futures,https://cran.r-project.org/package=treestats</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -28637,7 +28637,7 @@
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr">
         <is>
-          <t>https://pypi.org/project/requests/,https://github.com/psf/requests-html,https://cran.r-project.org/package=treestats,https://cran.r-project.org/package=reqres,https://github.com/ross/requests-futures,https://cran.r-project.org/package=rquest,https://cran.r-project.org/package=quest,https://github.com/requests/requests-oauthlib,https://github.com/WordPress/Requests,https://github.com/psf/requests,https://cran.r-project.org/package=request</t>
+          <t>https://cran.r-project.org/package=quest,https://github.com/psf/requests-html,https://github.com/psf/requests,https://github.com/WordPress/Requests,https://pypi.org/project/requests/,https://cran.r-project.org/package=reqres,https://cran.r-project.org/package=rquest,https://github.com/requests/requests-oauthlib,https://cran.r-project.org/package=request,https://github.com/ross/requests-futures,https://cran.r-project.org/package=treestats</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -28693,7 +28693,7 @@
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr">
         <is>
-          <t>https://pypi.org/project/requests/,https://github.com/psf/requests-html,https://cran.r-project.org/package=treestats,https://cran.r-project.org/package=reqres,https://github.com/ross/requests-futures,https://cran.r-project.org/package=rquest,https://cran.r-project.org/package=quest,https://github.com/requests/requests-oauthlib,https://github.com/WordPress/Requests,https://github.com/psf/requests,https://cran.r-project.org/package=request</t>
+          <t>https://cran.r-project.org/package=quest,https://github.com/psf/requests-html,https://github.com/psf/requests,https://github.com/WordPress/Requests,https://pypi.org/project/requests/,https://cran.r-project.org/package=reqres,https://cran.r-project.org/package=rquest,https://github.com/requests/requests-oauthlib,https://cran.r-project.org/package=request,https://github.com/ross/requests-futures,https://cran.r-project.org/package=treestats</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -28749,7 +28749,7 @@
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr">
         <is>
-          <t>https://pypi.org/project/requests/,https://github.com/psf/requests-html,https://cran.r-project.org/package=treestats,https://cran.r-project.org/package=reqres,https://github.com/ross/requests-futures,https://cran.r-project.org/package=rquest,https://cran.r-project.org/package=quest,https://github.com/requests/requests-oauthlib,https://github.com/WordPress/Requests,https://github.com/psf/requests,https://cran.r-project.org/package=request</t>
+          <t>https://cran.r-project.org/package=quest,https://github.com/psf/requests-html,https://github.com/psf/requests,https://github.com/WordPress/Requests,https://pypi.org/project/requests/,https://cran.r-project.org/package=reqres,https://cran.r-project.org/package=rquest,https://github.com/requests/requests-oauthlib,https://cran.r-project.org/package=request,https://github.com/ross/requests-futures,https://cran.r-project.org/package=treestats</t>
         </is>
       </c>
       <c r="K528" t="inlineStr"/>
@@ -28801,7 +28801,7 @@
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rgbif,https://cran.r-project.org/package=robis,https://github.com/ropensci-docs/rglobi,https://cran.r-project.org/package=rglobi,https://github.com/ropensci/rglobi,https://cran.r-project.org/package=robin,https://github.com/cran/rglobi</t>
+          <t>https://github.com/cran/rglobi,https://github.com/ropensci/rglobi,https://cran.r-project.org/package=robin,https://cran.r-project.org/package=rglobi,https://cran.r-project.org/package=robis,https://cran.r-project.org/package=rgbif,https://github.com/ropensci-docs/rglobi</t>
         </is>
       </c>
       <c r="K529" t="inlineStr"/>
@@ -28849,7 +28849,7 @@
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rgbif,https://cran.r-project.org/package=robis,https://github.com/ropensci-docs/rglobi,https://cran.r-project.org/package=rglobi,https://github.com/ropensci/rglobi,https://cran.r-project.org/package=robin,https://github.com/cran/rglobi</t>
+          <t>https://github.com/cran/rglobi,https://github.com/ropensci/rglobi,https://cran.r-project.org/package=robin,https://cran.r-project.org/package=rglobi,https://cran.r-project.org/package=robis,https://cran.r-project.org/package=rgbif,https://github.com/ropensci-docs/rglobi</t>
         </is>
       </c>
       <c r="K530" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=rgbif,https://cran.r-project.org/package=robis,https://github.com/ropensci-docs/rglobi,https://cran.r-project.org/package=rglobi,https://github.com/ropensci/rglobi,https://cran.r-project.org/package=robin,https://github.com/cran/rglobi</t>
+          <t>https://github.com/cran/rglobi,https://github.com/ropensci/rglobi,https://cran.r-project.org/package=robin,https://cran.r-project.org/package=rglobi,https://cran.r-project.org/package=robis,https://cran.r-project.org/package=rgbif,https://github.com/ropensci-docs/rglobi</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -28949,7 +28949,7 @@
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr">
         <is>
-          <t>https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=markdown,https://github.com/cosname/rmarkdown-guide,https://github.com/rstudio/rmarkdown-cookbook,https://github.com/vim-pandoc/vim-rmarkdown,https://cran.r-project.org/package=rmarkdown,https://github.com/cran/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/rstudio/rmarkdown</t>
+          <t>https://github.com/rstudio/rmarkdown-cookbook,https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=rmarkdown,https://github.com/rstudio/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://github.com/cosname/rmarkdown-guide,https://cran.r-project.org/package=markdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/cran/rmarkdown,https://github.com/vim-pandoc/vim-rmarkdown</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -29005,7 +29005,7 @@
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr">
         <is>
-          <t>https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=markdown,https://github.com/cosname/rmarkdown-guide,https://github.com/rstudio/rmarkdown-cookbook,https://github.com/vim-pandoc/vim-rmarkdown,https://cran.r-project.org/package=rmarkdown,https://github.com/cran/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/rstudio/rmarkdown</t>
+          <t>https://github.com/rstudio/rmarkdown-cookbook,https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=rmarkdown,https://github.com/rstudio/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://github.com/cosname/rmarkdown-guide,https://cran.r-project.org/package=markdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/cran/rmarkdown,https://github.com/vim-pandoc/vim-rmarkdown</t>
         </is>
       </c>
       <c r="K533" t="inlineStr"/>
@@ -29057,7 +29057,7 @@
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr">
         <is>
-          <t>https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=markdown,https://github.com/cosname/rmarkdown-guide,https://github.com/rstudio/rmarkdown-cookbook,https://github.com/vim-pandoc/vim-rmarkdown,https://cran.r-project.org/package=rmarkdown,https://github.com/cran/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/rstudio/rmarkdown</t>
+          <t>https://github.com/rstudio/rmarkdown-cookbook,https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=rmarkdown,https://github.com/rstudio/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://github.com/cosname/rmarkdown-guide,https://cran.r-project.org/package=markdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/cran/rmarkdown,https://github.com/vim-pandoc/vim-rmarkdown</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -29113,7 +29113,7 @@
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr">
         <is>
-          <t>https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=markdown,https://github.com/cosname/rmarkdown-guide,https://github.com/rstudio/rmarkdown-cookbook,https://github.com/vim-pandoc/vim-rmarkdown,https://cran.r-project.org/package=rmarkdown,https://github.com/cran/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/rstudio/rmarkdown</t>
+          <t>https://github.com/rstudio/rmarkdown-cookbook,https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=rmarkdown,https://github.com/rstudio/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://github.com/cosname/rmarkdown-guide,https://cran.r-project.org/package=markdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/cran/rmarkdown,https://github.com/vim-pandoc/vim-rmarkdown</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -29169,7 +29169,7 @@
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr">
         <is>
-          <t>https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=markdown,https://github.com/cosname/rmarkdown-guide,https://github.com/rstudio/rmarkdown-cookbook,https://github.com/vim-pandoc/vim-rmarkdown,https://cran.r-project.org/package=rmarkdown,https://github.com/cran/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/rstudio/rmarkdown</t>
+          <t>https://github.com/rstudio/rmarkdown-cookbook,https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=rmarkdown,https://github.com/rstudio/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://github.com/cosname/rmarkdown-guide,https://cran.r-project.org/package=markdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/cran/rmarkdown,https://github.com/vim-pandoc/vim-rmarkdown</t>
         </is>
       </c>
       <c r="K536" t="inlineStr"/>
@@ -29221,7 +29221,7 @@
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr">
         <is>
-          <t>https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=markdown,https://github.com/cosname/rmarkdown-guide,https://github.com/rstudio/rmarkdown-cookbook,https://github.com/vim-pandoc/vim-rmarkdown,https://cran.r-project.org/package=rmarkdown,https://github.com/cran/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/rstudio/rmarkdown</t>
+          <t>https://github.com/rstudio/rmarkdown-cookbook,https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=rmarkdown,https://github.com/rstudio/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://github.com/cosname/rmarkdown-guide,https://cran.r-project.org/package=markdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/cran/rmarkdown,https://github.com/vim-pandoc/vim-rmarkdown</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -29277,7 +29277,7 @@
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr">
         <is>
-          <t>https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=markdown,https://github.com/cosname/rmarkdown-guide,https://github.com/rstudio/rmarkdown-cookbook,https://github.com/vim-pandoc/vim-rmarkdown,https://cran.r-project.org/package=rmarkdown,https://github.com/cran/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/rstudio/rmarkdown</t>
+          <t>https://github.com/rstudio/rmarkdown-cookbook,https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=rmarkdown,https://github.com/rstudio/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://github.com/cosname/rmarkdown-guide,https://cran.r-project.org/package=markdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/cran/rmarkdown,https://github.com/vim-pandoc/vim-rmarkdown</t>
         </is>
       </c>
       <c r="K538" t="inlineStr"/>
@@ -29329,7 +29329,7 @@
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr">
         <is>
-          <t>https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=markdown,https://github.com/cosname/rmarkdown-guide,https://github.com/rstudio/rmarkdown-cookbook,https://github.com/vim-pandoc/vim-rmarkdown,https://cran.r-project.org/package=rmarkdown,https://github.com/cran/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/rstudio/rmarkdown</t>
+          <t>https://github.com/rstudio/rmarkdown-cookbook,https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=rmarkdown,https://github.com/rstudio/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://github.com/cosname/rmarkdown-guide,https://cran.r-project.org/package=markdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/cran/rmarkdown,https://github.com/vim-pandoc/vim-rmarkdown</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -29385,7 +29385,7 @@
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr">
         <is>
-          <t>https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=markdown,https://github.com/cosname/rmarkdown-guide,https://github.com/rstudio/rmarkdown-cookbook,https://github.com/vim-pandoc/vim-rmarkdown,https://cran.r-project.org/package=rmarkdown,https://github.com/cran/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/rstudio/rmarkdown</t>
+          <t>https://github.com/rstudio/rmarkdown-cookbook,https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=rmarkdown,https://github.com/rstudio/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://github.com/cosname/rmarkdown-guide,https://cran.r-project.org/package=markdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/cran/rmarkdown,https://github.com/vim-pandoc/vim-rmarkdown</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -29441,7 +29441,7 @@
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr">
         <is>
-          <t>https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=markdown,https://github.com/cosname/rmarkdown-guide,https://github.com/rstudio/rmarkdown-cookbook,https://github.com/vim-pandoc/vim-rmarkdown,https://cran.r-project.org/package=rmarkdown,https://github.com/cran/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/rstudio/rmarkdown</t>
+          <t>https://github.com/rstudio/rmarkdown-cookbook,https://github.com/rstudio/rmarkdown-book,https://cran.r-project.org/package=rmarkdown,https://github.com/rstudio/rmarkdown,https://cran.r-project.org/package=simplermarkdown,https://github.com/cosname/rmarkdown-guide,https://cran.r-project.org/package=markdown,https://cran.r-project.org/package=rjdmarkdown,https://github.com/cran/rmarkdown,https://github.com/vim-pandoc/vim-rmarkdown</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -29497,7 +29497,7 @@
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr">
         <is>
-          <t>https://github.com/MairaJ29/using-scCatch,https://cran.r-project.org/package=simCAT,https://cran.r-project.org/package=scCATCH,https://github.com/zhongmicai/scCATCH_performance_comparison,https://github.com/cran/scCATCH,https://github.com/ZJUFanLab/scCATCH_performance_comparison,https://github.com/ZJUFanLab/scCATCH</t>
+          <t>https://github.com/ZJUFanLab/scCATCH_performance_comparison,https://github.com/zhongmicai/scCATCH_performance_comparison,https://cran.r-project.org/package=scCATCH,https://github.com/cran/scCATCH,https://cran.r-project.org/package=simCAT,https://github.com/ZJUFanLab/scCATCH,https://github.com/MairaJ29/using-scCatch</t>
         </is>
       </c>
       <c r="K542" t="inlineStr"/>
@@ -29549,7 +29549,7 @@
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr">
         <is>
-          <t>https://github.com/MairaJ29/using-scCatch,https://cran.r-project.org/package=simCAT,https://cran.r-project.org/package=scCATCH,https://github.com/zhongmicai/scCATCH_performance_comparison,https://github.com/cran/scCATCH,https://github.com/ZJUFanLab/scCATCH_performance_comparison,https://github.com/ZJUFanLab/scCATCH</t>
+          <t>https://github.com/ZJUFanLab/scCATCH_performance_comparison,https://github.com/zhongmicai/scCATCH_performance_comparison,https://cran.r-project.org/package=scCATCH,https://github.com/cran/scCATCH,https://cran.r-project.org/package=simCAT,https://github.com/ZJUFanLab/scCATCH,https://github.com/MairaJ29/using-scCatch</t>
         </is>
       </c>
       <c r="K543" t="inlineStr"/>
@@ -29601,7 +29601,7 @@
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr">
         <is>
-          <t>https://github.com/MairaJ29/using-scCatch,https://cran.r-project.org/package=simCAT,https://cran.r-project.org/package=scCATCH,https://github.com/zhongmicai/scCATCH_performance_comparison,https://github.com/cran/scCATCH,https://github.com/ZJUFanLab/scCATCH_performance_comparison,https://github.com/ZJUFanLab/scCATCH</t>
+          <t>https://github.com/ZJUFanLab/scCATCH_performance_comparison,https://github.com/zhongmicai/scCATCH_performance_comparison,https://cran.r-project.org/package=scCATCH,https://github.com/cran/scCATCH,https://cran.r-project.org/package=simCAT,https://github.com/ZJUFanLab/scCATCH,https://github.com/MairaJ29/using-scCatch</t>
         </is>
       </c>
       <c r="K544" t="inlineStr"/>
@@ -29653,7 +29653,7 @@
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr">
         <is>
-          <t>https://github.com/MairaJ29/using-scCatch,https://cran.r-project.org/package=simCAT,https://cran.r-project.org/package=scCATCH,https://github.com/zhongmicai/scCATCH_performance_comparison,https://github.com/cran/scCATCH,https://github.com/ZJUFanLab/scCATCH_performance_comparison,https://github.com/ZJUFanLab/scCATCH</t>
+          <t>https://github.com/ZJUFanLab/scCATCH_performance_comparison,https://github.com/zhongmicai/scCATCH_performance_comparison,https://cran.r-project.org/package=scCATCH,https://github.com/cran/scCATCH,https://cran.r-project.org/package=simCAT,https://github.com/ZJUFanLab/scCATCH,https://github.com/MairaJ29/using-scCatch</t>
         </is>
       </c>
       <c r="K545" t="inlineStr"/>
@@ -29705,7 +29705,7 @@
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr">
         <is>
-          <t>https://github.com/MairaJ29/using-scCatch,https://cran.r-project.org/package=simCAT,https://cran.r-project.org/package=scCATCH,https://github.com/zhongmicai/scCATCH_performance_comparison,https://github.com/cran/scCATCH,https://github.com/ZJUFanLab/scCATCH_performance_comparison,https://github.com/ZJUFanLab/scCATCH</t>
+          <t>https://github.com/ZJUFanLab/scCATCH_performance_comparison,https://github.com/zhongmicai/scCATCH_performance_comparison,https://cran.r-project.org/package=scCATCH,https://github.com/cran/scCATCH,https://cran.r-project.org/package=simCAT,https://github.com/ZJUFanLab/scCATCH,https://github.com/MairaJ29/using-scCatch</t>
         </is>
       </c>
       <c r="K546" t="inlineStr"/>
@@ -29757,7 +29757,7 @@
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr">
         <is>
-          <t>https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=clustlearn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=hmclearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/justmarkham/scikit-learn-videos,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=specklestar</t>
+          <t>https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=specklestar,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://pypi.org/project/scikit-learn/,https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=clustlearn,https://cran.r-project.org/package=hmclearn,https://github.com/justmarkham/scikit-learn-videos</t>
         </is>
       </c>
       <c r="K547" t="inlineStr"/>
@@ -29809,7 +29809,7 @@
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr">
         <is>
-          <t>https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=clustlearn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=hmclearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/justmarkham/scikit-learn-videos,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=specklestar</t>
+          <t>https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=specklestar,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://pypi.org/project/scikit-learn/,https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=clustlearn,https://cran.r-project.org/package=hmclearn,https://github.com/justmarkham/scikit-learn-videos</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -29865,7 +29865,7 @@
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr">
         <is>
-          <t>https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=clustlearn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=hmclearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/justmarkham/scikit-learn-videos,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=specklestar</t>
+          <t>https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=specklestar,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://pypi.org/project/scikit-learn/,https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=clustlearn,https://cran.r-project.org/package=hmclearn,https://github.com/justmarkham/scikit-learn-videos</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -29921,7 +29921,7 @@
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr">
         <is>
-          <t>https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=clustlearn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=hmclearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/justmarkham/scikit-learn-videos,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=specklestar</t>
+          <t>https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=specklestar,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://pypi.org/project/scikit-learn/,https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=clustlearn,https://cran.r-project.org/package=hmclearn,https://github.com/justmarkham/scikit-learn-videos</t>
         </is>
       </c>
       <c r="K550" t="inlineStr"/>
@@ -29973,7 +29973,7 @@
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr">
         <is>
-          <t>https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=clustlearn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=hmclearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/justmarkham/scikit-learn-videos,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=specklestar</t>
+          <t>https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=specklestar,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://pypi.org/project/scikit-learn/,https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=clustlearn,https://cran.r-project.org/package=hmclearn,https://github.com/justmarkham/scikit-learn-videos</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -30029,7 +30029,7 @@
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr">
         <is>
-          <t>https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=clustlearn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=hmclearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/justmarkham/scikit-learn-videos,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=specklestar</t>
+          <t>https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=specklestar,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://pypi.org/project/scikit-learn/,https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=clustlearn,https://cran.r-project.org/package=hmclearn,https://github.com/justmarkham/scikit-learn-videos</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -30085,7 +30085,7 @@
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr">
         <is>
-          <t>https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=clustlearn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=hmclearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/justmarkham/scikit-learn-videos,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=specklestar</t>
+          <t>https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=specklestar,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://pypi.org/project/scikit-learn/,https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=clustlearn,https://cran.r-project.org/package=hmclearn,https://github.com/justmarkham/scikit-learn-videos</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -30141,7 +30141,7 @@
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr">
         <is>
-          <t>https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=clustlearn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=hmclearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/justmarkham/scikit-learn-videos,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=specklestar</t>
+          <t>https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=specklestar,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://pypi.org/project/scikit-learn/,https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=clustlearn,https://cran.r-project.org/package=hmclearn,https://github.com/justmarkham/scikit-learn-videos</t>
         </is>
       </c>
       <c r="K554" t="inlineStr"/>
@@ -30193,7 +30193,7 @@
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr">
         <is>
-          <t>https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=clustlearn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=hmclearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/justmarkham/scikit-learn-videos,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=specklestar</t>
+          <t>https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=specklestar,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://pypi.org/project/scikit-learn/,https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=clustlearn,https://cran.r-project.org/package=hmclearn,https://github.com/justmarkham/scikit-learn-videos</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -30249,7 +30249,7 @@
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr">
         <is>
-          <t>https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=clustlearn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=hmclearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/justmarkham/scikit-learn-videos,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=specklestar</t>
+          <t>https://cran.r-project.org/package=asciiruler,https://cran.r-project.org/package=specklestar,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://github.com/scikit-learn-contrib/imbalanced-learn,https://pypi.org/project/scikit-learn/,https://github.com/scikit-learn-contrib/hdbscan,https://cran.r-project.org/package=catlearn,https://cran.r-project.org/package=clustlearn,https://cran.r-project.org/package=hmclearn,https://github.com/justmarkham/scikit-learn-videos</t>
         </is>
       </c>
       <c r="K556" t="inlineStr"/>
@@ -30301,7 +30301,7 @@
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=cluster.datasets,https://cran.r-project.org/package=crimedatasets,https://github.com/ekzhu/SetSimilaritySearch,https://cran.r-project.org/package=sets,https://cran.r-project.org/package=airGRdatasets,https://github.com/GoogleChrome/related-website-sets,https://github.com/cran/sets,https://github.com/hanmq/MachineLearning_Zhouzhihua_ProblemSets,https://github.com/iconify/icon-sets,https://github.com/Darkmux/SETSMS,https://cran.r-project.org/package=cinaRgenesets</t>
+          <t>https://cran.r-project.org/package=crimedatasets,https://cran.r-project.org/package=cinaRgenesets,https://pypi.org/project/sets/,https://github.com/Darkmux/SETSMS,https://github.com/iconify/icon-sets,https://cran.r-project.org/package=cluster.datasets,https://cran.r-project.org/package=sets,https://github.com/ekzhu/SetSimilaritySearch,https://github.com/GoogleChrome/related-website-sets,https://github.com/hanmq/MachineLearning_Zhouzhihua_ProblemSets,https://github.com/cran/sets,https://cran.r-project.org/package=airGRdatasets,https://github.com/danijar/sets</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -30357,7 +30357,7 @@
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr">
         <is>
-          <t>https://github.com/clearlinux-pkgs/R-sfsmisc,https://github.com/conda-forge/r-sfsmisc-feedstock,https://cran.r-project.org/package=sfsmisc,https://cran.r-project.org/package=dsmisc,https://cran.r-project.org/package=sjmisc,https://cran.r-project.org/package=esmisc,https://github.com/cran/sfsmisc,https://github.com/OpenMandrivaAssociation/R-sfsmisc,https://github.com/mmaechler/sfsmisc</t>
+          <t>https://cran.r-project.org/package=sjmisc,https://github.com/mmaechler/sfsmisc,https://github.com/clearlinux-pkgs/R-sfsmisc,https://github.com/conda-forge/r-sfsmisc-feedstock,https://cran.r-project.org/package=esmisc,https://cran.r-project.org/package=sfsmisc,https://github.com/OpenMandrivaAssociation/R-sfsmisc,https://cran.r-project.org/package=dsmisc,https://github.com/cran/sfsmisc</t>
         </is>
       </c>
       <c r="K558" t="inlineStr"/>
@@ -30409,7 +30409,7 @@
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr">
         <is>
-          <t>https://github.com/clearlinux-pkgs/R-sfsmisc,https://github.com/conda-forge/r-sfsmisc-feedstock,https://cran.r-project.org/package=sfsmisc,https://cran.r-project.org/package=dsmisc,https://cran.r-project.org/package=sjmisc,https://cran.r-project.org/package=esmisc,https://github.com/cran/sfsmisc,https://github.com/OpenMandrivaAssociation/R-sfsmisc,https://github.com/mmaechler/sfsmisc</t>
+          <t>https://cran.r-project.org/package=sjmisc,https://github.com/mmaechler/sfsmisc,https://github.com/clearlinux-pkgs/R-sfsmisc,https://github.com/conda-forge/r-sfsmisc-feedstock,https://cran.r-project.org/package=esmisc,https://cran.r-project.org/package=sfsmisc,https://github.com/OpenMandrivaAssociation/R-sfsmisc,https://cran.r-project.org/package=dsmisc,https://github.com/cran/sfsmisc</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -30465,7 +30465,7 @@
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr">
         <is>
-          <t>https://github.com/clearlinux-pkgs/R-sfsmisc,https://github.com/conda-forge/r-sfsmisc-feedstock,https://cran.r-project.org/package=sfsmisc,https://cran.r-project.org/package=dsmisc,https://cran.r-project.org/package=sjmisc,https://cran.r-project.org/package=esmisc,https://github.com/cran/sfsmisc,https://github.com/OpenMandrivaAssociation/R-sfsmisc,https://github.com/mmaechler/sfsmisc</t>
+          <t>https://cran.r-project.org/package=sjmisc,https://github.com/mmaechler/sfsmisc,https://github.com/clearlinux-pkgs/R-sfsmisc,https://github.com/conda-forge/r-sfsmisc-feedstock,https://cran.r-project.org/package=esmisc,https://cran.r-project.org/package=sfsmisc,https://github.com/OpenMandrivaAssociation/R-sfsmisc,https://cran.r-project.org/package=dsmisc,https://github.com/cran/sfsmisc</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -30521,7 +30521,7 @@
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr">
         <is>
-          <t>https://github.com/clearlinux-pkgs/R-sfsmisc,https://github.com/conda-forge/r-sfsmisc-feedstock,https://cran.r-project.org/package=sfsmisc,https://cran.r-project.org/package=dsmisc,https://cran.r-project.org/package=sjmisc,https://cran.r-project.org/package=esmisc,https://github.com/cran/sfsmisc,https://github.com/OpenMandrivaAssociation/R-sfsmisc,https://github.com/mmaechler/sfsmisc</t>
+          <t>https://cran.r-project.org/package=sjmisc,https://github.com/mmaechler/sfsmisc,https://github.com/clearlinux-pkgs/R-sfsmisc,https://github.com/conda-forge/r-sfsmisc-feedstock,https://cran.r-project.org/package=esmisc,https://cran.r-project.org/package=sfsmisc,https://github.com/OpenMandrivaAssociation/R-sfsmisc,https://cran.r-project.org/package=dsmisc,https://github.com/cran/sfsmisc</t>
         </is>
       </c>
       <c r="K561" t="inlineStr"/>
@@ -30573,7 +30573,7 @@
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr">
         <is>
-          <t>https://github.com/clearlinux-pkgs/R-sfsmisc,https://github.com/conda-forge/r-sfsmisc-feedstock,https://cran.r-project.org/package=sfsmisc,https://cran.r-project.org/package=dsmisc,https://cran.r-project.org/package=sjmisc,https://cran.r-project.org/package=esmisc,https://github.com/cran/sfsmisc,https://github.com/OpenMandrivaAssociation/R-sfsmisc,https://github.com/mmaechler/sfsmisc</t>
+          <t>https://cran.r-project.org/package=sjmisc,https://github.com/mmaechler/sfsmisc,https://github.com/clearlinux-pkgs/R-sfsmisc,https://github.com/conda-forge/r-sfsmisc-feedstock,https://cran.r-project.org/package=esmisc,https://cran.r-project.org/package=sfsmisc,https://github.com/OpenMandrivaAssociation/R-sfsmisc,https://cran.r-project.org/package=dsmisc,https://github.com/cran/sfsmisc</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -30629,7 +30629,7 @@
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr">
         <is>
-          <t>https://github.com/shinyorg/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://cran.r-project.org/package=ANOVAShiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=shiny,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=BLRShiny,https://cran.r-project.org/package=autoshiny,https://pypi.org/project/shiny/,https://github.com/cran/shiny,https://github.com/posit-dev/py-shiny,https://github.com/rstudio/shiny</t>
+          <t>https://github.com/cran/shiny,https://cran.r-project.org/package=ANOVAShiny,https://pypi.org/project/shiny/,https://cran.r-project.org/package=autoshiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=BLRShiny,https://github.com/rstudio/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=shiny,https://github.com/shinyorg/shiny,https://github.com/posit-dev/py-shiny</t>
         </is>
       </c>
       <c r="K563" t="inlineStr"/>
@@ -30681,7 +30681,7 @@
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr">
         <is>
-          <t>https://github.com/shinyorg/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://cran.r-project.org/package=ANOVAShiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=shiny,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=BLRShiny,https://cran.r-project.org/package=autoshiny,https://pypi.org/project/shiny/,https://github.com/cran/shiny,https://github.com/posit-dev/py-shiny,https://github.com/rstudio/shiny</t>
+          <t>https://github.com/cran/shiny,https://cran.r-project.org/package=ANOVAShiny,https://pypi.org/project/shiny/,https://cran.r-project.org/package=autoshiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=BLRShiny,https://github.com/rstudio/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=shiny,https://github.com/shinyorg/shiny,https://github.com/posit-dev/py-shiny</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -30737,7 +30737,7 @@
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr">
         <is>
-          <t>https://github.com/shinyorg/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://cran.r-project.org/package=ANOVAShiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=shiny,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=BLRShiny,https://cran.r-project.org/package=autoshiny,https://pypi.org/project/shiny/,https://github.com/cran/shiny,https://github.com/posit-dev/py-shiny,https://github.com/rstudio/shiny</t>
+          <t>https://github.com/cran/shiny,https://cran.r-project.org/package=ANOVAShiny,https://pypi.org/project/shiny/,https://cran.r-project.org/package=autoshiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=BLRShiny,https://github.com/rstudio/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=shiny,https://github.com/shinyorg/shiny,https://github.com/posit-dev/py-shiny</t>
         </is>
       </c>
       <c r="K565" t="inlineStr"/>
@@ -30789,7 +30789,7 @@
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr">
         <is>
-          <t>https://github.com/shinyorg/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://cran.r-project.org/package=ANOVAShiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=shiny,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=BLRShiny,https://cran.r-project.org/package=autoshiny,https://pypi.org/project/shiny/,https://github.com/cran/shiny,https://github.com/posit-dev/py-shiny,https://github.com/rstudio/shiny</t>
+          <t>https://github.com/cran/shiny,https://cran.r-project.org/package=ANOVAShiny,https://pypi.org/project/shiny/,https://cran.r-project.org/package=autoshiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=BLRShiny,https://github.com/rstudio/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=shiny,https://github.com/shinyorg/shiny,https://github.com/posit-dev/py-shiny</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -30845,7 +30845,7 @@
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr">
         <is>
-          <t>https://github.com/shinyorg/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://cran.r-project.org/package=ANOVAShiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=shiny,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=BLRShiny,https://cran.r-project.org/package=autoshiny,https://pypi.org/project/shiny/,https://github.com/cran/shiny,https://github.com/posit-dev/py-shiny,https://github.com/rstudio/shiny</t>
+          <t>https://github.com/cran/shiny,https://cran.r-project.org/package=ANOVAShiny,https://pypi.org/project/shiny/,https://cran.r-project.org/package=autoshiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=BLRShiny,https://github.com/rstudio/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=shiny,https://github.com/shinyorg/shiny,https://github.com/posit-dev/py-shiny</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -30901,7 +30901,7 @@
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr">
         <is>
-          <t>https://github.com/shinyorg/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://cran.r-project.org/package=ANOVAShiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=shiny,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=BLRShiny,https://cran.r-project.org/package=autoshiny,https://pypi.org/project/shiny/,https://github.com/cran/shiny,https://github.com/posit-dev/py-shiny,https://github.com/rstudio/shiny</t>
+          <t>https://github.com/cran/shiny,https://cran.r-project.org/package=ANOVAShiny,https://pypi.org/project/shiny/,https://cran.r-project.org/package=autoshiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=BLRShiny,https://github.com/rstudio/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=shiny,https://github.com/shinyorg/shiny,https://github.com/posit-dev/py-shiny</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -30957,7 +30957,7 @@
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr">
         <is>
-          <t>https://github.com/shinyorg/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://cran.r-project.org/package=ANOVAShiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=shiny,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=BLRShiny,https://cran.r-project.org/package=autoshiny,https://pypi.org/project/shiny/,https://github.com/cran/shiny,https://github.com/posit-dev/py-shiny,https://github.com/rstudio/shiny</t>
+          <t>https://github.com/cran/shiny,https://cran.r-project.org/package=ANOVAShiny,https://pypi.org/project/shiny/,https://cran.r-project.org/package=autoshiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=BLRShiny,https://github.com/rstudio/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=shiny,https://github.com/shinyorg/shiny,https://github.com/posit-dev/py-shiny</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -31013,7 +31013,7 @@
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr">
         <is>
-          <t>https://github.com/shinyorg/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://cran.r-project.org/package=ANOVAShiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=shiny,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=BLRShiny,https://cran.r-project.org/package=autoshiny,https://pypi.org/project/shiny/,https://github.com/cran/shiny,https://github.com/posit-dev/py-shiny,https://github.com/rstudio/shiny</t>
+          <t>https://github.com/cran/shiny,https://cran.r-project.org/package=ANOVAShiny,https://pypi.org/project/shiny/,https://cran.r-project.org/package=autoshiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=BLRShiny,https://github.com/rstudio/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=shiny,https://github.com/shinyorg/shiny,https://github.com/posit-dev/py-shiny</t>
         </is>
       </c>
       <c r="K570" t="inlineStr"/>
@@ -31065,7 +31065,7 @@
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr">
         <is>
-          <t>https://github.com/shinyorg/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://cran.r-project.org/package=ANOVAShiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=shiny,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=BLRShiny,https://cran.r-project.org/package=autoshiny,https://pypi.org/project/shiny/,https://github.com/cran/shiny,https://github.com/posit-dev/py-shiny,https://github.com/rstudio/shiny</t>
+          <t>https://github.com/cran/shiny,https://cran.r-project.org/package=ANOVAShiny,https://pypi.org/project/shiny/,https://cran.r-project.org/package=autoshiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=BLRShiny,https://github.com/rstudio/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=shiny,https://github.com/shinyorg/shiny,https://github.com/posit-dev/py-shiny</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -31121,7 +31121,7 @@
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr">
         <is>
-          <t>https://github.com/shinyorg/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://cran.r-project.org/package=ANOVAShiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=shiny,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=BLRShiny,https://cran.r-project.org/package=autoshiny,https://pypi.org/project/shiny/,https://github.com/cran/shiny,https://github.com/posit-dev/py-shiny,https://github.com/rstudio/shiny</t>
+          <t>https://github.com/cran/shiny,https://cran.r-project.org/package=ANOVAShiny,https://pypi.org/project/shiny/,https://cran.r-project.org/package=autoshiny,https://cran.r-project.org/package=ANOVAShiny2,https://cran.r-project.org/package=BLRShiny,https://github.com/rstudio/shiny,https://github.com/rikschennink/shiny,https://github.com/nanxstats/awesome-shiny-extensions,https://github.com/rstudio/shiny-examples,https://cran.r-project.org/package=shiny,https://github.com/shinyorg/shiny,https://github.com/posit-dev/py-shiny</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -31177,7 +31177,7 @@
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr">
         <is>
-          <t>https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=rdlearn,https://cran.r-project.org/package=bnlearn,https://cran.r-project.org/package=learner,https://github.com/jakevdp/sklearn_tutorial,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/apachecn/sklearn-doc-zh,https://cran.r-project.org/package=skmeans,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=learnr</t>
+          <t>https://cran.r-project.org/package=bnlearn,https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=rdlearn,https://pypi.org/project/sklearn/,https://github.com/apachecn/sklearn-doc-zh,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=learnr,https://pypi.org/project/scikit-learn/,https://cran.r-project.org/package=learner,https://github.com/jakevdp/sklearn_tutorial,https://cran.r-project.org/package=skmeans</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -31233,7 +31233,7 @@
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr">
         <is>
-          <t>https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=rdlearn,https://cran.r-project.org/package=bnlearn,https://cran.r-project.org/package=learner,https://github.com/jakevdp/sklearn_tutorial,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/apachecn/sklearn-doc-zh,https://cran.r-project.org/package=skmeans,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=learnr</t>
+          <t>https://cran.r-project.org/package=bnlearn,https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=rdlearn,https://pypi.org/project/sklearn/,https://github.com/apachecn/sklearn-doc-zh,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=learnr,https://pypi.org/project/scikit-learn/,https://cran.r-project.org/package=learner,https://github.com/jakevdp/sklearn_tutorial,https://cran.r-project.org/package=skmeans</t>
         </is>
       </c>
       <c r="K574" t="inlineStr"/>
@@ -31285,7 +31285,7 @@
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr">
         <is>
-          <t>https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=rdlearn,https://cran.r-project.org/package=bnlearn,https://cran.r-project.org/package=learner,https://github.com/jakevdp/sklearn_tutorial,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/apachecn/sklearn-doc-zh,https://cran.r-project.org/package=skmeans,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=learnr</t>
+          <t>https://cran.r-project.org/package=bnlearn,https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=rdlearn,https://pypi.org/project/sklearn/,https://github.com/apachecn/sklearn-doc-zh,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=learnr,https://pypi.org/project/scikit-learn/,https://cran.r-project.org/package=learner,https://github.com/jakevdp/sklearn_tutorial,https://cran.r-project.org/package=skmeans</t>
         </is>
       </c>
       <c r="K575" t="inlineStr"/>
@@ -31337,7 +31337,7 @@
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr">
         <is>
-          <t>https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=rdlearn,https://cran.r-project.org/package=bnlearn,https://cran.r-project.org/package=learner,https://github.com/jakevdp/sklearn_tutorial,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/apachecn/sklearn-doc-zh,https://cran.r-project.org/package=skmeans,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=learnr</t>
+          <t>https://cran.r-project.org/package=bnlearn,https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=rdlearn,https://pypi.org/project/sklearn/,https://github.com/apachecn/sklearn-doc-zh,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=learnr,https://pypi.org/project/scikit-learn/,https://cran.r-project.org/package=learner,https://github.com/jakevdp/sklearn_tutorial,https://cran.r-project.org/package=skmeans</t>
         </is>
       </c>
       <c r="K576" t="inlineStr"/>
@@ -31389,7 +31389,7 @@
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr">
         <is>
-          <t>https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=rdlearn,https://cran.r-project.org/package=bnlearn,https://cran.r-project.org/package=learner,https://github.com/jakevdp/sklearn_tutorial,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/apachecn/sklearn-doc-zh,https://cran.r-project.org/package=skmeans,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=learnr</t>
+          <t>https://cran.r-project.org/package=bnlearn,https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=rdlearn,https://pypi.org/project/sklearn/,https://github.com/apachecn/sklearn-doc-zh,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=learnr,https://pypi.org/project/scikit-learn/,https://cran.r-project.org/package=learner,https://github.com/jakevdp/sklearn_tutorial,https://cran.r-project.org/package=skmeans</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -31445,7 +31445,7 @@
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr">
         <is>
-          <t>https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=rdlearn,https://cran.r-project.org/package=bnlearn,https://cran.r-project.org/package=learner,https://github.com/jakevdp/sklearn_tutorial,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/apachecn/sklearn-doc-zh,https://cran.r-project.org/package=skmeans,https://github.com/scikit-learn-contrib/sklearn-pandas,https://cran.r-project.org/package=learnr</t>
+          <t>https://cran.r-project.org/package=bnlearn,https://github.com/automl/auto-sklearn,https://cran.r-project.org/package=rdlearn,https://pypi.org/project/sklearn/,https://github.com/apachecn/sklearn-doc-zh,https://github.com/hyperopt/hyperopt-sklearn,https://github.com/scikit-learn-contrib/sklearn-pandas,https://github.com/scikit-learn/scikit-learn,https://cran.r-project.org/package=learnr,https://pypi.org/project/scikit-learn/,https://cran.r-project.org/package=learner,https://github.com/jakevdp/sklearn_tutorial,https://cran.r-project.org/package=skmeans</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -31501,7 +31501,7 @@
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr">
         <is>
-          <t>https://github.com/Soluto/python-flask-sklearn-docker-template,https://github.com/microsoft/python-sklearn-clustering-cookiecutter,https://github.com/Python-templates/sklearn-project-template,https://github.com/scikit-learn/scikit-learn,https://pypi.org/project/scikit-learn/,https://github.com/microsoft/python-sklearn-classifier-cookiecutter,https://cran.r-project.org/package=learnPopGen,https://github.com/13days/Python-sklearn-DataAnalysis</t>
+          <t>https://github.com/13days/Python-sklearn-DataAnalysis,https://github.com/microsoft/python-sklearn-clustering-cookiecutter,https://github.com/scikit-learn/scikit-learn,https://github.com/Python-templates/sklearn-project-template,https://cran.r-project.org/package=learnPopGen,https://github.com/Soluto/python-flask-sklearn-docker-template,https://pypi.org/project/scikit-learn/,https://github.com/microsoft/python-sklearn-classifier-cookiecutter</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -31893,7 +31893,7 @@
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr">
         <is>
-          <t>https://github.com/sureshmopidevi/SMNetworkManager,https://github.com/HuanglabPurdue/smNet,https://github.com/alastairrushworth/smnet,https://github.com/Sangmeebee/SMNetworkChecker,https://cran.r-project.org/package=tsnet,https://cran.r-project.org/package=manet,https://cran.r-project.org/package=mnet,https://cran.r-project.org/package=s2net,https://github.com/Muccul/SMNet,https://github.com/linshideng/SMNet,https://cran.r-project.org/package=set</t>
+          <t>https://cran.r-project.org/package=set,https://cran.r-project.org/package=tsnet,https://cran.r-project.org/package=manet,https://github.com/Sangmeebee/SMNetworkChecker,https://github.com/HuanglabPurdue/smNet,https://cran.r-project.org/package=mnet,https://pypi.org/project/smnet/,https://github.com/sureshmopidevi/SMNetworkManager,https://cran.r-project.org/package=s2net,https://github.com/alastairrushworth/smnet,https://github.com/linshideng/SMNet,https://github.com/Muccul/SMNet,https://github.com/smarsuuuuuuu/SMNet</t>
         </is>
       </c>
       <c r="K586" t="inlineStr"/>
@@ -31945,7 +31945,7 @@
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr">
         <is>
-          <t>https://github.com/sureshmopidevi/SMNetworkManager,https://github.com/HuanglabPurdue/smNet,https://github.com/alastairrushworth/smnet,https://github.com/Sangmeebee/SMNetworkChecker,https://cran.r-project.org/package=tsnet,https://cran.r-project.org/package=manet,https://cran.r-project.org/package=mnet,https://cran.r-project.org/package=s2net,https://github.com/Muccul/SMNet,https://github.com/linshideng/SMNet,https://cran.r-project.org/package=set</t>
+          <t>https://cran.r-project.org/package=set,https://cran.r-project.org/package=tsnet,https://cran.r-project.org/package=manet,https://github.com/Sangmeebee/SMNetworkChecker,https://github.com/HuanglabPurdue/smNet,https://cran.r-project.org/package=mnet,https://pypi.org/project/smnet/,https://github.com/sureshmopidevi/SMNetworkManager,https://cran.r-project.org/package=s2net,https://github.com/alastairrushworth/smnet,https://github.com/linshideng/SMNet,https://github.com/Muccul/SMNet,https://github.com/smarsuuuuuuu/SMNet</t>
         </is>
       </c>
       <c r="K587" t="inlineStr"/>
@@ -31997,7 +31997,7 @@
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=snpReady,https://cran.r-project.org/package=spreadr,https://github.com/cran/snpReady,https://cran.r-project.org/package=sped,https://github.com/italo-granato/snpReady,https://cran.r-project.org/package=spray</t>
+          <t>https://cran.r-project.org/package=snpReady,https://cran.r-project.org/package=sped,https://github.com/cran/snpReady,https://github.com/italo-granato/snpReady,https://cran.r-project.org/package=spray,https://cran.r-project.org/package=spreadr</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -32053,7 +32053,7 @@
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=snpReady,https://cran.r-project.org/package=spreadr,https://github.com/cran/snpReady,https://cran.r-project.org/package=sped,https://github.com/italo-granato/snpReady,https://cran.r-project.org/package=spray</t>
+          <t>https://cran.r-project.org/package=snpReady,https://cran.r-project.org/package=sped,https://github.com/cran/snpReady,https://github.com/italo-granato/snpReady,https://cran.r-project.org/package=spray,https://cran.r-project.org/package=spreadr</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -32109,7 +32109,7 @@
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=snpReady,https://cran.r-project.org/package=spreadr,https://github.com/cran/snpReady,https://cran.r-project.org/package=sped,https://github.com/italo-granato/snpReady,https://cran.r-project.org/package=spray</t>
+          <t>https://cran.r-project.org/package=snpReady,https://cran.r-project.org/package=sped,https://github.com/cran/snpReady,https://github.com/italo-granato/snpReady,https://cran.r-project.org/package=spray,https://cran.r-project.org/package=spreadr</t>
         </is>
       </c>
       <c r="K590" t="inlineStr"/>
@@ -32161,7 +32161,7 @@
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=snpReady,https://cran.r-project.org/package=spreadr,https://github.com/cran/snpReady,https://cran.r-project.org/package=sped,https://github.com/italo-granato/snpReady,https://cran.r-project.org/package=spray</t>
+          <t>https://cran.r-project.org/package=snpReady,https://cran.r-project.org/package=sped,https://github.com/cran/snpReady,https://github.com/italo-granato/snpReady,https://cran.r-project.org/package=spray,https://cran.r-project.org/package=spreadr</t>
         </is>
       </c>
       <c r="K591" t="inlineStr"/>
@@ -32213,7 +32213,7 @@
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=snpReady,https://cran.r-project.org/package=spreadr,https://github.com/cran/snpReady,https://cran.r-project.org/package=sped,https://github.com/italo-granato/snpReady,https://cran.r-project.org/package=spray</t>
+          <t>https://cran.r-project.org/package=snpReady,https://cran.r-project.org/package=sped,https://github.com/cran/snpReady,https://github.com/italo-granato/snpReady,https://cran.r-project.org/package=spray,https://cran.r-project.org/package=spreadr</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -32269,7 +32269,7 @@
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=BayesSurvive,https://cran.r-project.org/package=spBayesSurv,https://cran.r-project.org/package=BayesMFSurv,https://github.com/cran/spBayesSurv,https://cran.r-project.org/package=bayesSurv</t>
+          <t>https://github.com/cran/spBayesSurv,https://cran.r-project.org/package=BayesMFSurv,https://cran.r-project.org/package=bayesSurv,https://cran.r-project.org/package=BayesSurvive,https://cran.r-project.org/package=spBayesSurv</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -32325,7 +32325,7 @@
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=spectacles,https://cran.r-project.org/package=aspace,https://github.com/cran/spacesXYZ,https://cran.r-project.org/package=spacesRGB,https://github.com/conda-forge/r-spacesxyz-feedstock,https://cran.r-project.org/package=spacesXYZ</t>
+          <t>https://cran.r-project.org/package=spacesRGB,https://github.com/conda-forge/r-spacesxyz-feedstock,https://github.com/cran/spacesXYZ,https://cran.r-project.org/package=aspace,https://cran.r-project.org/package=spacesXYZ,https://cran.r-project.org/package=spectacles</t>
         </is>
       </c>
       <c r="K594" t="inlineStr"/>
@@ -32377,7 +32377,7 @@
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=speff2trial,https://cran.r-project.org/package=spectralGP,https://github.com/S-Spektrum-M/SpektralThreads,https://cran.r-project.org/package=spectralR,https://cran.r-project.org/package=l1spectral,https://github.com/danielegrattarola/spektral,https://github.com/spektral/havencore,https://github.com/FilippoMB/Variational-Graph-Auto-encoders-Tensorflow-2-Spektral-,https://cran.r-project.org/package=spectral,https://pypi.org/project/spektral/,https://github.com/tweh/spektrallinien</t>
+          <t>https://cran.r-project.org/package=l1spectral,https://cran.r-project.org/package=spectral,https://github.com/FilippoMB/Variational-Graph-Auto-encoders-Tensorflow-2-Spektral-,https://github.com/spektral/havencore,https://cran.r-project.org/package=spectralGP,https://github.com/S-Spektrum-M/SpektralThreads,https://github.com/danielegrattarola/spektral,https://cran.r-project.org/package=spectralR,https://pypi.org/project/spektral/,https://cran.r-project.org/package=speff2trial,https://github.com/tweh/spektrallinien</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -32433,7 +32433,7 @@
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=speff2trial,https://cran.r-project.org/package=spectralGP,https://github.com/S-Spektrum-M/SpektralThreads,https://cran.r-project.org/package=spectralR,https://cran.r-project.org/package=l1spectral,https://github.com/danielegrattarola/spektral,https://github.com/spektral/havencore,https://github.com/FilippoMB/Variational-Graph-Auto-encoders-Tensorflow-2-Spektral-,https://cran.r-project.org/package=spectral,https://pypi.org/project/spektral/,https://github.com/tweh/spektrallinien</t>
+          <t>https://cran.r-project.org/package=l1spectral,https://cran.r-project.org/package=spectral,https://github.com/FilippoMB/Variational-Graph-Auto-encoders-Tensorflow-2-Spektral-,https://github.com/spektral/havencore,https://cran.r-project.org/package=spectralGP,https://github.com/S-Spektrum-M/SpektralThreads,https://github.com/danielegrattarola/spektral,https://cran.r-project.org/package=spectralR,https://pypi.org/project/spektral/,https://cran.r-project.org/package=speff2trial,https://github.com/tweh/spektrallinien</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -32489,7 +32489,7 @@
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=crosstalk,https://cran.r-project.org/package=CARBayesST,https://github.com/sst/sst,https://github.com/sst/guide,https://cran.r-project.org/package=crosstable,https://github.com/FQrabbit/SSTap-Rule,https://cran.r-project.org/package=AcrossTic,https://github.com/soffes/sstoolkit,https://github.com/sst/ion,https://cran.r-project.org/package=Crosstabs.Loglinear</t>
+          <t>https://pypi.org/project/sst/,https://cran.r-project.org/package=Crosstabs.Loglinear,https://github.com/sst/ion,https://cran.r-project.org/package=CARBayesST,https://github.com/FQrabbit/SSTap-Rule,https://github.com/soffes/sstoolkit,https://cran.r-project.org/package=crosstalk,https://github.com/sst/guide,https://github.com/sst/sst,https://cran.r-project.org/package=AcrossTic,https://cran.r-project.org/package=crosstable</t>
         </is>
       </c>
       <c r="K597" t="inlineStr"/>
@@ -32541,7 +32541,7 @@
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=crosstalk,https://cran.r-project.org/package=CARBayesST,https://github.com/sst/sst,https://github.com/sst/guide,https://cran.r-project.org/package=crosstable,https://github.com/FQrabbit/SSTap-Rule,https://cran.r-project.org/package=AcrossTic,https://github.com/soffes/sstoolkit,https://github.com/sst/ion,https://cran.r-project.org/package=Crosstabs.Loglinear</t>
+          <t>https://pypi.org/project/sst/,https://cran.r-project.org/package=Crosstabs.Loglinear,https://github.com/sst/ion,https://cran.r-project.org/package=CARBayesST,https://github.com/FQrabbit/SSTap-Rule,https://github.com/soffes/sstoolkit,https://cran.r-project.org/package=crosstalk,https://github.com/sst/guide,https://github.com/sst/sst,https://cran.r-project.org/package=AcrossTic,https://cran.r-project.org/package=crosstable</t>
         </is>
       </c>
       <c r="K598" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=countSTAR,https://github.com/sahat/hackathon-starter,https://github.com/starship/starship,https://cran.r-project.org/package=BAYSTAR,https://github.com/google/web-starter-kit,https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DstarM,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=EffectStars</t>
+          <t>https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=BAYSTAR,https://cran.r-project.org/package=DstarM,https://github.com/alexdobin/STAR,https://github.com/google/web-starter-kit,https://cran.r-project.org/package=countSTAR,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/sahat/hackathon-starter</t>
         </is>
       </c>
       <c r="K599" t="inlineStr"/>
@@ -32645,7 +32645,7 @@
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=countSTAR,https://github.com/sahat/hackathon-starter,https://github.com/starship/starship,https://cran.r-project.org/package=BAYSTAR,https://github.com/google/web-starter-kit,https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DstarM,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=EffectStars</t>
+          <t>https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=BAYSTAR,https://cran.r-project.org/package=DstarM,https://github.com/alexdobin/STAR,https://github.com/google/web-starter-kit,https://cran.r-project.org/package=countSTAR,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/sahat/hackathon-starter</t>
         </is>
       </c>
       <c r="K600" t="inlineStr"/>
@@ -32697,7 +32697,7 @@
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=countSTAR,https://github.com/sahat/hackathon-starter,https://github.com/starship/starship,https://cran.r-project.org/package=BAYSTAR,https://github.com/google/web-starter-kit,https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DstarM,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=EffectStars</t>
+          <t>https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=BAYSTAR,https://cran.r-project.org/package=DstarM,https://github.com/alexdobin/STAR,https://github.com/google/web-starter-kit,https://cran.r-project.org/package=countSTAR,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/sahat/hackathon-starter</t>
         </is>
       </c>
       <c r="K601" t="inlineStr"/>
@@ -32749,7 +32749,7 @@
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=countSTAR,https://github.com/sahat/hackathon-starter,https://github.com/starship/starship,https://cran.r-project.org/package=BAYSTAR,https://github.com/google/web-starter-kit,https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DstarM,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=EffectStars</t>
+          <t>https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=BAYSTAR,https://cran.r-project.org/package=DstarM,https://github.com/alexdobin/STAR,https://github.com/google/web-starter-kit,https://cran.r-project.org/package=countSTAR,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/sahat/hackathon-starter</t>
         </is>
       </c>
       <c r="K602" t="inlineStr"/>
@@ -32801,7 +32801,7 @@
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=countSTAR,https://github.com/sahat/hackathon-starter,https://github.com/starship/starship,https://cran.r-project.org/package=BAYSTAR,https://github.com/google/web-starter-kit,https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DstarM,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=EffectStars</t>
+          <t>https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=BAYSTAR,https://cran.r-project.org/package=DstarM,https://github.com/alexdobin/STAR,https://github.com/google/web-starter-kit,https://cran.r-project.org/package=countSTAR,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/sahat/hackathon-starter</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -32857,7 +32857,7 @@
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=countSTAR,https://github.com/sahat/hackathon-starter,https://github.com/starship/starship,https://cran.r-project.org/package=BAYSTAR,https://github.com/google/web-starter-kit,https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DstarM,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/alexdobin/STAR,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=EffectStars</t>
+          <t>https://github.com/kriasoft/react-starter-kit,https://cran.r-project.org/package=DDPstar,https://cran.r-project.org/package=BAYSTAR,https://cran.r-project.org/package=DstarM,https://github.com/alexdobin/STAR,https://github.com/google/web-starter-kit,https://cran.r-project.org/package=countSTAR,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars,https://github.com/ZachGoldberg/Startup-CTO-Handbook,https://github.com/sahat/hackathon-starter</t>
         </is>
       </c>
       <c r="K604" t="inlineStr"/>
@@ -32909,7 +32909,7 @@
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr">
         <is>
-          <t>https://github.com/facebookresearch/StarSpace,https://cran.r-project.org/package=starsExtra,https://github.com/daltoniam/Starscream,https://github.com/starship/starship,https://github.com/zhaoolee/StarsAndClown,https://github.com/cran/stars,https://github.com/r-spatial/stars/,https://cran.r-project.org/package=stars,https://github.com/mingrammer/go-web-framework-stars,https://cran.r-project.org/package=starschemar,https://cran.r-project.org/package=EffectStars,https://cran.r-project.org/package=EffectStars2</t>
+          <t>https://github.com/facebookresearch/StarSpace,https://pypi.org/project/stars/,https://github.com/zhaoolee/StarsAndClown,https://github.com/daltoniam/Starscream,https://github.com/cran/stars,https://github.com/r-spatial/stars/,https://cran.r-project.org/package=stars,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars2,https://cran.r-project.org/package=starschemar,https://cran.r-project.org/package=starsExtra,https://cran.r-project.org/package=EffectStars,https://github.com/mingrammer/go-web-framework-stars,https://github.com/stevencox/stars</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -32965,7 +32965,7 @@
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr">
         <is>
-          <t>https://github.com/facebookresearch/StarSpace,https://cran.r-project.org/package=starsExtra,https://github.com/daltoniam/Starscream,https://github.com/starship/starship,https://github.com/zhaoolee/StarsAndClown,https://github.com/cran/stars,https://github.com/r-spatial/stars/,https://cran.r-project.org/package=stars,https://github.com/mingrammer/go-web-framework-stars,https://cran.r-project.org/package=starschemar,https://cran.r-project.org/package=EffectStars,https://cran.r-project.org/package=EffectStars2</t>
+          <t>https://github.com/facebookresearch/StarSpace,https://pypi.org/project/stars/,https://github.com/zhaoolee/StarsAndClown,https://github.com/daltoniam/Starscream,https://github.com/cran/stars,https://github.com/r-spatial/stars/,https://cran.r-project.org/package=stars,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars2,https://cran.r-project.org/package=starschemar,https://cran.r-project.org/package=starsExtra,https://cran.r-project.org/package=EffectStars,https://github.com/mingrammer/go-web-framework-stars,https://github.com/stevencox/stars</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -33021,7 +33021,7 @@
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr">
         <is>
-          <t>https://github.com/facebookresearch/StarSpace,https://cran.r-project.org/package=starsExtra,https://github.com/daltoniam/Starscream,https://github.com/starship/starship,https://github.com/zhaoolee/StarsAndClown,https://github.com/cran/stars,https://github.com/r-spatial/stars/,https://cran.r-project.org/package=stars,https://github.com/mingrammer/go-web-framework-stars,https://cran.r-project.org/package=starschemar,https://cran.r-project.org/package=EffectStars,https://cran.r-project.org/package=EffectStars2</t>
+          <t>https://github.com/facebookresearch/StarSpace,https://pypi.org/project/stars/,https://github.com/zhaoolee/StarsAndClown,https://github.com/daltoniam/Starscream,https://github.com/cran/stars,https://github.com/r-spatial/stars/,https://cran.r-project.org/package=stars,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars2,https://cran.r-project.org/package=starschemar,https://cran.r-project.org/package=starsExtra,https://cran.r-project.org/package=EffectStars,https://github.com/mingrammer/go-web-framework-stars,https://github.com/stevencox/stars</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -33077,7 +33077,7 @@
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr">
         <is>
-          <t>https://github.com/facebookresearch/StarSpace,https://cran.r-project.org/package=starsExtra,https://github.com/daltoniam/Starscream,https://github.com/starship/starship,https://github.com/zhaoolee/StarsAndClown,https://github.com/cran/stars,https://github.com/r-spatial/stars/,https://cran.r-project.org/package=stars,https://github.com/mingrammer/go-web-framework-stars,https://cran.r-project.org/package=starschemar,https://cran.r-project.org/package=EffectStars,https://cran.r-project.org/package=EffectStars2</t>
+          <t>https://github.com/facebookresearch/StarSpace,https://pypi.org/project/stars/,https://github.com/zhaoolee/StarsAndClown,https://github.com/daltoniam/Starscream,https://github.com/cran/stars,https://github.com/r-spatial/stars/,https://cran.r-project.org/package=stars,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars2,https://cran.r-project.org/package=starschemar,https://cran.r-project.org/package=starsExtra,https://cran.r-project.org/package=EffectStars,https://github.com/mingrammer/go-web-framework-stars,https://github.com/stevencox/stars</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -33133,7 +33133,7 @@
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr">
         <is>
-          <t>https://github.com/facebookresearch/StarSpace,https://cran.r-project.org/package=starsExtra,https://github.com/daltoniam/Starscream,https://github.com/starship/starship,https://github.com/zhaoolee/StarsAndClown,https://github.com/cran/stars,https://github.com/r-spatial/stars/,https://cran.r-project.org/package=stars,https://github.com/mingrammer/go-web-framework-stars,https://cran.r-project.org/package=starschemar,https://cran.r-project.org/package=EffectStars,https://cran.r-project.org/package=EffectStars2</t>
+          <t>https://github.com/facebookresearch/StarSpace,https://pypi.org/project/stars/,https://github.com/zhaoolee/StarsAndClown,https://github.com/daltoniam/Starscream,https://github.com/cran/stars,https://github.com/r-spatial/stars/,https://cran.r-project.org/package=stars,https://github.com/starship/starship,https://cran.r-project.org/package=EffectStars2,https://cran.r-project.org/package=starschemar,https://cran.r-project.org/package=starsExtra,https://cran.r-project.org/package=EffectStars,https://github.com/mingrammer/go-web-framework-stars,https://github.com/stevencox/stars</t>
         </is>
       </c>
       <c r="K609" t="inlineStr"/>
@@ -33185,7 +33185,7 @@
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr">
         <is>
-          <t>https://github.com/sanjayaju/stdreg,https://cran.r-project.org/package=stdReg2,https://github.com/solace933/stdReg,https://github.com/billahmasumcu/stdreg,https://github.com/cran/stdReg,https://cran.r-project.org/package=stdReg,https://github.com/stdreg/stdreg,https://github.com/sachsmc/stdReg2,https://cran.r-project.org/package=tvReg</t>
+          <t>https://github.com/sachsmc/stdReg2,https://cran.r-project.org/package=stdReg,https://cran.r-project.org/package=stdReg2,https://github.com/sanjayaju/stdreg,https://github.com/solace933/stdReg,https://github.com/cran/stdReg,https://cran.r-project.org/package=tvReg,https://github.com/billahmasumcu/stdreg,https://github.com/stdreg/stdreg</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -33241,7 +33241,7 @@
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr">
         <is>
-          <t>https://github.com/sanjayaju/stdreg,https://cran.r-project.org/package=stdReg2,https://github.com/solace933/stdReg,https://github.com/billahmasumcu/stdreg,https://github.com/cran/stdReg,https://cran.r-project.org/package=stdReg,https://github.com/stdreg/stdreg,https://github.com/sachsmc/stdReg2,https://cran.r-project.org/package=tvReg</t>
+          <t>https://github.com/sachsmc/stdReg2,https://cran.r-project.org/package=stdReg,https://cran.r-project.org/package=stdReg2,https://github.com/sanjayaju/stdreg,https://github.com/solace933/stdReg,https://github.com/cran/stdReg,https://cran.r-project.org/package=tvReg,https://github.com/billahmasumcu/stdreg,https://github.com/stdreg/stdreg</t>
         </is>
       </c>
       <c r="K611" t="inlineStr"/>
@@ -33293,7 +33293,7 @@
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr">
         <is>
-          <t>https://github.com/sanjayaju/stdreg,https://cran.r-project.org/package=stdReg2,https://github.com/solace933/stdReg,https://github.com/billahmasumcu/stdreg,https://github.com/cran/stdReg,https://cran.r-project.org/package=stdReg,https://github.com/stdreg/stdreg,https://github.com/sachsmc/stdReg2,https://cran.r-project.org/package=tvReg</t>
+          <t>https://github.com/sachsmc/stdReg2,https://cran.r-project.org/package=stdReg,https://cran.r-project.org/package=stdReg2,https://github.com/sanjayaju/stdreg,https://github.com/solace933/stdReg,https://github.com/cran/stdReg,https://cran.r-project.org/package=tvReg,https://github.com/billahmasumcu/stdreg,https://github.com/stdreg/stdreg</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -33349,7 +33349,7 @@
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr">
         <is>
-          <t>https://github.com/sanjayaju/stdreg,https://cran.r-project.org/package=stdReg2,https://github.com/solace933/stdReg,https://github.com/billahmasumcu/stdreg,https://github.com/cran/stdReg,https://cran.r-project.org/package=stdReg,https://github.com/stdreg/stdreg,https://github.com/sachsmc/stdReg2,https://cran.r-project.org/package=tvReg</t>
+          <t>https://github.com/sachsmc/stdReg2,https://cran.r-project.org/package=stdReg,https://cran.r-project.org/package=stdReg2,https://github.com/sanjayaju/stdreg,https://github.com/solace933/stdReg,https://github.com/cran/stdReg,https://cran.r-project.org/package=tvReg,https://github.com/billahmasumcu/stdreg,https://github.com/stdreg/stdreg</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -33405,7 +33405,7 @@
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr">
         <is>
-          <t>https://github.com/sanjayaju/stdreg,https://cran.r-project.org/package=stdReg2,https://github.com/solace933/stdReg,https://github.com/billahmasumcu/stdreg,https://github.com/cran/stdReg,https://cran.r-project.org/package=stdReg,https://github.com/stdreg/stdreg,https://github.com/sachsmc/stdReg2,https://cran.r-project.org/package=tvReg</t>
+          <t>https://github.com/sachsmc/stdReg2,https://cran.r-project.org/package=stdReg,https://cran.r-project.org/package=stdReg2,https://github.com/sanjayaju/stdreg,https://github.com/solace933/stdReg,https://github.com/cran/stdReg,https://cran.r-project.org/package=tvReg,https://github.com/billahmasumcu/stdreg,https://github.com/stdreg/stdreg</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -33461,7 +33461,7 @@
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=trend,https://github.com/cran/strand,https://cran.r-project.org/package=standby,https://github.com/i2mint/strand,https://github.com/MediaMath/strand,https://github.com/signalbash/how_are_we_stranded_here,https://github.com/strands-project/strands_perception_people,https://github.com/GameDevBuddies/Death-Stranding-Terrain-Scan,https://cran.r-project.org/package=strand,https://pypi.org/project/strand/,https://github.com/strand-tech/strand,https://cran.r-project.org/package=sand,https://github.com/Jhonve/HairStrandsRendering</t>
+          <t>https://github.com/GameDevBuddies/Death-Stranding-Terrain-Scan,https://github.com/strand-tech/strand,https://cran.r-project.org/package=strand,https://github.com/signalbash/how_are_we_stranded_here,https://cran.r-project.org/package=sand,https://github.com/cran/strand,https://github.com/MediaMath/strand,https://github.com/strands-project/strands_perception_people,https://cran.r-project.org/package=standby,https://cran.r-project.org/package=trend,https://pypi.org/project/strand/,https://github.com/Jhonve/HairStrandsRendering,https://github.com/i2mint/strand</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -33517,7 +33517,7 @@
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=nanostringr,https://github.com/marcussacana/StringReloads,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://cran.r-project.org/package=stringr,https://github.com/tidyverse/stringr,https://cran.r-project.org/package=clustringr,https://github.com/johncassil/stringr.plus,https://github.com/cran/stringr,https://cran.r-project.org/package=forstringr</t>
+          <t>https://github.com/marcussacana/StringReloads,https://cran.r-project.org/package=nanostringr,https://cran.r-project.org/package=forstringr,https://github.com/johncassil/stringr.plus,https://cran.r-project.org/package=clustringr,https://cran.r-project.org/package=stringr,https://github.com/cran/stringr,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://github.com/tidyverse/stringr</t>
         </is>
       </c>
       <c r="K616" t="inlineStr"/>
@@ -33569,7 +33569,7 @@
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=nanostringr,https://github.com/marcussacana/StringReloads,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://cran.r-project.org/package=stringr,https://github.com/tidyverse/stringr,https://cran.r-project.org/package=clustringr,https://github.com/johncassil/stringr.plus,https://github.com/cran/stringr,https://cran.r-project.org/package=forstringr</t>
+          <t>https://github.com/marcussacana/StringReloads,https://cran.r-project.org/package=nanostringr,https://cran.r-project.org/package=forstringr,https://github.com/johncassil/stringr.plus,https://cran.r-project.org/package=clustringr,https://cran.r-project.org/package=stringr,https://github.com/cran/stringr,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://github.com/tidyverse/stringr</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -33625,7 +33625,7 @@
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=nanostringr,https://github.com/marcussacana/StringReloads,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://cran.r-project.org/package=stringr,https://github.com/tidyverse/stringr,https://cran.r-project.org/package=clustringr,https://github.com/johncassil/stringr.plus,https://github.com/cran/stringr,https://cran.r-project.org/package=forstringr</t>
+          <t>https://github.com/marcussacana/StringReloads,https://cran.r-project.org/package=nanostringr,https://cran.r-project.org/package=forstringr,https://github.com/johncassil/stringr.plus,https://cran.r-project.org/package=clustringr,https://cran.r-project.org/package=stringr,https://github.com/cran/stringr,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://github.com/tidyverse/stringr</t>
         </is>
       </c>
       <c r="K618" t="inlineStr"/>
@@ -33677,7 +33677,7 @@
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=nanostringr,https://github.com/marcussacana/StringReloads,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://cran.r-project.org/package=stringr,https://github.com/tidyverse/stringr,https://cran.r-project.org/package=clustringr,https://github.com/johncassil/stringr.plus,https://github.com/cran/stringr,https://cran.r-project.org/package=forstringr</t>
+          <t>https://github.com/marcussacana/StringReloads,https://cran.r-project.org/package=nanostringr,https://cran.r-project.org/package=forstringr,https://github.com/johncassil/stringr.plus,https://cran.r-project.org/package=clustringr,https://cran.r-project.org/package=stringr,https://github.com/cran/stringr,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://github.com/tidyverse/stringr</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -33733,7 +33733,7 @@
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=nanostringr,https://github.com/marcussacana/StringReloads,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://cran.r-project.org/package=stringr,https://github.com/tidyverse/stringr,https://cran.r-project.org/package=clustringr,https://github.com/johncassil/stringr.plus,https://github.com/cran/stringr,https://cran.r-project.org/package=forstringr</t>
+          <t>https://github.com/marcussacana/StringReloads,https://cran.r-project.org/package=nanostringr,https://cran.r-project.org/package=forstringr,https://github.com/johncassil/stringr.plus,https://cran.r-project.org/package=clustringr,https://cran.r-project.org/package=stringr,https://github.com/cran/stringr,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://github.com/tidyverse/stringr</t>
         </is>
       </c>
       <c r="K620" t="inlineStr"/>
@@ -33785,7 +33785,7 @@
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=nanostringr,https://github.com/marcussacana/StringReloads,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://cran.r-project.org/package=stringr,https://github.com/tidyverse/stringr,https://cran.r-project.org/package=clustringr,https://github.com/johncassil/stringr.plus,https://github.com/cran/stringr,https://cran.r-project.org/package=forstringr</t>
+          <t>https://github.com/marcussacana/StringReloads,https://cran.r-project.org/package=nanostringr,https://cran.r-project.org/package=forstringr,https://github.com/johncassil/stringr.plus,https://cran.r-project.org/package=clustringr,https://cran.r-project.org/package=stringr,https://github.com/cran/stringr,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://github.com/tidyverse/stringr</t>
         </is>
       </c>
       <c r="K621" t="inlineStr"/>
@@ -33837,7 +33837,7 @@
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=nanostringr,https://github.com/marcussacana/StringReloads,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://cran.r-project.org/package=stringr,https://github.com/tidyverse/stringr,https://cran.r-project.org/package=clustringr,https://github.com/johncassil/stringr.plus,https://github.com/cran/stringr,https://cran.r-project.org/package=forstringr</t>
+          <t>https://github.com/marcussacana/StringReloads,https://cran.r-project.org/package=nanostringr,https://cran.r-project.org/package=forstringr,https://github.com/johncassil/stringr.plus,https://cran.r-project.org/package=clustringr,https://cran.r-project.org/package=stringr,https://github.com/cran/stringr,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://github.com/tidyverse/stringr</t>
         </is>
       </c>
       <c r="K622" t="inlineStr"/>
@@ -33889,7 +33889,7 @@
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=nanostringr,https://github.com/marcussacana/StringReloads,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://cran.r-project.org/package=stringr,https://github.com/tidyverse/stringr,https://cran.r-project.org/package=clustringr,https://github.com/johncassil/stringr.plus,https://github.com/cran/stringr,https://cran.r-project.org/package=forstringr</t>
+          <t>https://github.com/marcussacana/StringReloads,https://cran.r-project.org/package=nanostringr,https://cran.r-project.org/package=forstringr,https://github.com/johncassil/stringr.plus,https://cran.r-project.org/package=clustringr,https://cran.r-project.org/package=stringr,https://github.com/cran/stringr,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://github.com/tidyverse/stringr</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -33945,7 +33945,7 @@
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=nanostringr,https://github.com/marcussacana/StringReloads,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://cran.r-project.org/package=stringr,https://github.com/tidyverse/stringr,https://cran.r-project.org/package=clustringr,https://github.com/johncassil/stringr.plus,https://github.com/cran/stringr,https://cran.r-project.org/package=forstringr</t>
+          <t>https://github.com/marcussacana/StringReloads,https://cran.r-project.org/package=nanostringr,https://cran.r-project.org/package=forstringr,https://github.com/johncassil/stringr.plus,https://cran.r-project.org/package=clustringr,https://cran.r-project.org/package=stringr,https://github.com/cran/stringr,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://github.com/tidyverse/stringr</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -34001,7 +34001,7 @@
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=nanostringr,https://github.com/marcussacana/StringReloads,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://cran.r-project.org/package=stringr,https://github.com/tidyverse/stringr,https://cran.r-project.org/package=clustringr,https://github.com/johncassil/stringr.plus,https://github.com/cran/stringr,https://cran.r-project.org/package=forstringr</t>
+          <t>https://github.com/marcussacana/StringReloads,https://cran.r-project.org/package=nanostringr,https://cran.r-project.org/package=forstringr,https://github.com/johncassil/stringr.plus,https://cran.r-project.org/package=clustringr,https://cran.r-project.org/package=stringr,https://github.com/cran/stringr,https://github.com/mrlacey/StringResourceVisualizer,https://github.com/boku7/StringReaper,https://github.com/tidyverse/stringr</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -34057,7 +34057,7 @@
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr">
         <is>
-          <t>https://github.com/cran/summarytools,https://github.com/dcomtois/summarytools-python,https://cran.r-project.org/package=summarytools,https://cran.r-project.org/package=partools,https://cran.r-project.org/package=urltools,https://github.com/6chaoran/jupyter-summarytools,https://cran.r-project.org/package=suntools,https://github.com/dcomtois/summarytools,https://github.com/lj1337/summarytools,https://pypi.org/project/summarytools/,https://github.com/plutonbacon/summarytools.rb</t>
+          <t>https://cran.r-project.org/package=urltools,https://cran.r-project.org/package=summarytools,https://cran.r-project.org/package=partools,https://github.com/cran/summarytools,https://github.com/dcomtois/summarytools,https://github.com/lj1337/summarytools,https://github.com/dcomtois/summarytools-python,https://github.com/6chaoran/jupyter-summarytools,https://pypi.org/project/summarytools/,https://github.com/plutonbacon/summarytools.rb,https://cran.r-project.org/package=suntools</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -34113,7 +34113,7 @@
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr">
         <is>
-          <t>https://github.com/cran/summarytools,https://github.com/dcomtois/summarytools-python,https://cran.r-project.org/package=summarytools,https://cran.r-project.org/package=partools,https://cran.r-project.org/package=urltools,https://github.com/6chaoran/jupyter-summarytools,https://cran.r-project.org/package=suntools,https://github.com/dcomtois/summarytools,https://github.com/lj1337/summarytools,https://pypi.org/project/summarytools/,https://github.com/plutonbacon/summarytools.rb</t>
+          <t>https://cran.r-project.org/package=urltools,https://cran.r-project.org/package=summarytools,https://cran.r-project.org/package=partools,https://github.com/cran/summarytools,https://github.com/dcomtois/summarytools,https://github.com/lj1337/summarytools,https://github.com/dcomtois/summarytools-python,https://github.com/6chaoran/jupyter-summarytools,https://pypi.org/project/summarytools/,https://github.com/plutonbacon/summarytools.rb,https://cran.r-project.org/package=suntools</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -34169,7 +34169,7 @@
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr">
         <is>
-          <t>https://github.com/cran/summarytools,https://github.com/dcomtois/summarytools-python,https://cran.r-project.org/package=summarytools,https://cran.r-project.org/package=partools,https://cran.r-project.org/package=urltools,https://github.com/6chaoran/jupyter-summarytools,https://cran.r-project.org/package=suntools,https://github.com/dcomtois/summarytools,https://github.com/lj1337/summarytools,https://pypi.org/project/summarytools/,https://github.com/plutonbacon/summarytools.rb</t>
+          <t>https://cran.r-project.org/package=urltools,https://cran.r-project.org/package=summarytools,https://cran.r-project.org/package=partools,https://github.com/cran/summarytools,https://github.com/dcomtois/summarytools,https://github.com/lj1337/summarytools,https://github.com/dcomtois/summarytools-python,https://github.com/6chaoran/jupyter-summarytools,https://pypi.org/project/summarytools/,https://github.com/plutonbacon/summarytools.rb,https://cran.r-project.org/package=suntools</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -34225,7 +34225,7 @@
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr">
         <is>
-          <t>https://github.com/cran/summarytools,https://github.com/dcomtois/summarytools-python,https://cran.r-project.org/package=summarytools,https://cran.r-project.org/package=partools,https://cran.r-project.org/package=urltools,https://github.com/6chaoran/jupyter-summarytools,https://cran.r-project.org/package=suntools,https://github.com/dcomtois/summarytools,https://github.com/lj1337/summarytools,https://pypi.org/project/summarytools/,https://github.com/plutonbacon/summarytools.rb</t>
+          <t>https://cran.r-project.org/package=urltools,https://cran.r-project.org/package=summarytools,https://cran.r-project.org/package=partools,https://github.com/cran/summarytools,https://github.com/dcomtois/summarytools,https://github.com/lj1337/summarytools,https://github.com/dcomtois/summarytools-python,https://github.com/6chaoran/jupyter-summarytools,https://pypi.org/project/summarytools/,https://github.com/plutonbacon/summarytools.rb,https://cran.r-project.org/package=suntools</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -34281,7 +34281,7 @@
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr">
         <is>
-          <t>https://github.com/cran/summarytools,https://github.com/dcomtois/summarytools-python,https://cran.r-project.org/package=summarytools,https://cran.r-project.org/package=partools,https://cran.r-project.org/package=urltools,https://github.com/6chaoran/jupyter-summarytools,https://cran.r-project.org/package=suntools,https://github.com/dcomtois/summarytools,https://github.com/lj1337/summarytools,https://pypi.org/project/summarytools/,https://github.com/plutonbacon/summarytools.rb</t>
+          <t>https://cran.r-project.org/package=urltools,https://cran.r-project.org/package=summarytools,https://cran.r-project.org/package=partools,https://github.com/cran/summarytools,https://github.com/dcomtois/summarytools,https://github.com/lj1337/summarytools,https://github.com/dcomtois/summarytools-python,https://github.com/6chaoran/jupyter-summarytools,https://pypi.org/project/summarytools/,https://github.com/plutonbacon/summarytools.rb,https://cran.r-project.org/package=suntools</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -34337,7 +34337,7 @@
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr">
         <is>
-          <t>https://github.com/svunit/svunit,https://github.com/svalat/svUnitTest,https://cran.r-project.org/package=snplist,https://cran.r-project.org/package=svUnit,https://github.com/svunit/svmock,https://cran.r-project.org/package=RUnit,https://github.com/SciViews/svUnit,https://github.com/cran/svUnit,https://github.com/tudortimi/vgm_svunit_utils,https://cran.r-project.org/package=svglite</t>
+          <t>https://github.com/svunit/svmock,https://github.com/cran/svUnit,https://cran.r-project.org/package=RUnit,https://github.com/tudortimi/vgm_svunit_utils,https://github.com/svalat/svUnitTest,https://cran.r-project.org/package=snplist,https://cran.r-project.org/package=svUnit,https://github.com/SciViews/svUnit,https://cran.r-project.org/package=svglite,https://github.com/svunit/svunit</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -34389,7 +34389,7 @@
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr">
         <is>
-          <t>https://github.com/svunit/svunit,https://github.com/svalat/svUnitTest,https://cran.r-project.org/package=snplist,https://cran.r-project.org/package=svUnit,https://github.com/svunit/svmock,https://cran.r-project.org/package=RUnit,https://github.com/SciViews/svUnit,https://github.com/cran/svUnit,https://github.com/tudortimi/vgm_svunit_utils,https://cran.r-project.org/package=svglite</t>
+          <t>https://github.com/svunit/svmock,https://github.com/cran/svUnit,https://cran.r-project.org/package=RUnit,https://github.com/tudortimi/vgm_svunit_utils,https://github.com/svalat/svUnitTest,https://cran.r-project.org/package=snplist,https://cran.r-project.org/package=svUnit,https://github.com/SciViews/svUnit,https://cran.r-project.org/package=svglite,https://github.com/svunit/svunit</t>
         </is>
       </c>
       <c r="K632" t="inlineStr"/>
@@ -34437,7 +34437,7 @@
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr">
         <is>
-          <t>https://github.com/svunit/svunit,https://github.com/svalat/svUnitTest,https://cran.r-project.org/package=snplist,https://cran.r-project.org/package=svUnit,https://github.com/svunit/svmock,https://cran.r-project.org/package=RUnit,https://github.com/SciViews/svUnit,https://github.com/cran/svUnit,https://github.com/tudortimi/vgm_svunit_utils,https://cran.r-project.org/package=svglite</t>
+          <t>https://github.com/svunit/svmock,https://github.com/cran/svUnit,https://cran.r-project.org/package=RUnit,https://github.com/tudortimi/vgm_svunit_utils,https://github.com/svalat/svUnitTest,https://cran.r-project.org/package=snplist,https://cran.r-project.org/package=svUnit,https://github.com/SciViews/svUnit,https://cran.r-project.org/package=svglite,https://github.com/svunit/svunit</t>
         </is>
       </c>
       <c r="K633" t="inlineStr"/>
@@ -34485,7 +34485,7 @@
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=swirlify,https://github.com/mattprecious/swirl,https://cran.r-project.org/package=swirl,https://github.com/cuigh/swirl,https://github.com/swirldev/swirl_courses,https://github.com/swirlai/swirl-search,https://github.com/swirldev/swirl,https://github.com/cran/swirl,https://cran.r-project.org/package=whirl</t>
+          <t>https://cran.r-project.org/package=whirl,https://github.com/cran/swirl,https://github.com/cuigh/swirl,https://github.com/mattprecious/swirl,https://cran.r-project.org/package=swirlify,https://github.com/swirlai/swirl-search,https://github.com/swirldev/swirl,https://cran.r-project.org/package=swirl,https://github.com/swirldev/swirl_courses</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -34541,7 +34541,7 @@
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=swirlify,https://github.com/Murray2015/r_swirlify,https://github.com/slidify/swirlifyDemo,https://cran.r-project.org/package=tibblify,https://github.com/ignaciolynchb/SWIRLIFY-CARPENTRIES-COURSE,https://github.com/swirldev/swirl,https://cran.r-project.org/package=simplifyNet,https://github.com/swirldev/swirlify,https://github.com/cran/swirlify,https://cran.r-project.org/package=swirl</t>
+          <t>https://github.com/slidify/swirlifyDemo,https://github.com/ignaciolynchb/SWIRLIFY-CARPENTRIES-COURSE,https://cran.r-project.org/package=simplifyNet,https://github.com/cran/swirlify,https://cran.r-project.org/package=swirlify,https://github.com/Murray2015/r_swirlify,https://github.com/swirldev/swirlify,https://github.com/swirldev/swirl,https://cran.r-project.org/package=swirl,https://cran.r-project.org/package=tibblify</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -34597,7 +34597,7 @@
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr">
         <is>
-          <t>https://github.com/typeintandem/tandem,https://cran.r-project.org/package=traudem,https://cran.r-project.org/package=transmem,https://cran.r-project.org/package=TANDEM,https://github.com/tum-vision/tandem,https://github.com/sine-fdn/tandem,https://github.com/Benson-Genomics-Lab/TRF,https://cran.r-project.org/package=trade,https://cran.r-project.org/package=trackdem,https://github.com/philippeller/dragoman,https://pypi.org/project/tandem/,https://github.com/tandem-pt/zustand-yjs,https://github.com/rosszurowski/tandem</t>
+          <t>https://cran.r-project.org/package=TANDEM,https://pypi.org/project/tandem/,https://cran.r-project.org/package=traudem,https://github.com/Benson-Genomics-Lab/TRF,https://github.com/tum-vision/tandem,https://github.com/sine-fdn/tandem,https://cran.r-project.org/package=transmem,https://cran.r-project.org/package=trade,https://github.com/rosszurowski/tandem,https://github.com/tandem-pt/zustand-yjs,https://github.com/typeintandem/tandem,https://cran.r-project.org/package=trackdem,https://github.com/philippeller/dragoman</t>
         </is>
       </c>
       <c r="K636" t="inlineStr"/>
@@ -34649,7 +34649,7 @@
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr">
         <is>
-          <t>https://github.com/typeintandem/tandem,https://cran.r-project.org/package=traudem,https://cran.r-project.org/package=transmem,https://cran.r-project.org/package=TANDEM,https://github.com/tum-vision/tandem,https://github.com/sine-fdn/tandem,https://github.com/Benson-Genomics-Lab/TRF,https://cran.r-project.org/package=trade,https://cran.r-project.org/package=trackdem,https://github.com/philippeller/dragoman,https://pypi.org/project/tandem/,https://github.com/tandem-pt/zustand-yjs,https://github.com/rosszurowski/tandem</t>
+          <t>https://cran.r-project.org/package=TANDEM,https://pypi.org/project/tandem/,https://cran.r-project.org/package=traudem,https://github.com/Benson-Genomics-Lab/TRF,https://github.com/tum-vision/tandem,https://github.com/sine-fdn/tandem,https://cran.r-project.org/package=transmem,https://cran.r-project.org/package=trade,https://github.com/rosszurowski/tandem,https://github.com/tandem-pt/zustand-yjs,https://github.com/typeintandem/tandem,https://cran.r-project.org/package=trackdem,https://github.com/philippeller/dragoman</t>
         </is>
       </c>
       <c r="K637" t="inlineStr"/>
@@ -34701,7 +34701,7 @@
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr">
         <is>
-          <t>https://github.com/typeintandem/tandem,https://cran.r-project.org/package=traudem,https://cran.r-project.org/package=transmem,https://cran.r-project.org/package=TANDEM,https://github.com/tum-vision/tandem,https://github.com/sine-fdn/tandem,https://github.com/Benson-Genomics-Lab/TRF,https://cran.r-project.org/package=trade,https://cran.r-project.org/package=trackdem,https://github.com/philippeller/dragoman,https://pypi.org/project/tandem/,https://github.com/tandem-pt/zustand-yjs,https://github.com/rosszurowski/tandem</t>
+          <t>https://cran.r-project.org/package=TANDEM,https://pypi.org/project/tandem/,https://cran.r-project.org/package=traudem,https://github.com/Benson-Genomics-Lab/TRF,https://github.com/tum-vision/tandem,https://github.com/sine-fdn/tandem,https://cran.r-project.org/package=transmem,https://cran.r-project.org/package=trade,https://github.com/rosszurowski/tandem,https://github.com/tandem-pt/zustand-yjs,https://github.com/typeintandem/tandem,https://cran.r-project.org/package=trackdem,https://github.com/philippeller/dragoman</t>
         </is>
       </c>
       <c r="K638" t="inlineStr"/>
@@ -34753,7 +34753,7 @@
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr">
         <is>
-          <t>https://github.com/cran/tensorflow,https://github.com/jtoy/awesome-tensorflow,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/models,https://cran.r-project.org/package=tensorA,https://cran.r-project.org/package=tensor,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/rstudio/tensorflow,https://github.com/tensorflow/tfjs</t>
+          <t>https://github.com/tensorflow/models,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensor,https://github.com/jtoy/awesome-tensorflow,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/tfjs,https://github.com/rstudio/tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensorflow,https://github.com/cran/tensorflow,https://cran.r-project.org/package=tensorA</t>
         </is>
       </c>
       <c r="K639" t="inlineStr"/>
@@ -34805,7 +34805,7 @@
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr">
         <is>
-          <t>https://github.com/cran/tensorflow,https://github.com/jtoy/awesome-tensorflow,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/models,https://cran.r-project.org/package=tensorA,https://cran.r-project.org/package=tensor,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/rstudio/tensorflow,https://github.com/tensorflow/tfjs</t>
+          <t>https://github.com/tensorflow/models,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensor,https://github.com/jtoy/awesome-tensorflow,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/tfjs,https://github.com/rstudio/tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensorflow,https://github.com/cran/tensorflow,https://cran.r-project.org/package=tensorA</t>
         </is>
       </c>
       <c r="K640" t="inlineStr"/>
@@ -34857,7 +34857,7 @@
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr">
         <is>
-          <t>https://github.com/cran/tensorflow,https://github.com/jtoy/awesome-tensorflow,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/models,https://cran.r-project.org/package=tensorA,https://cran.r-project.org/package=tensor,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/rstudio/tensorflow,https://github.com/tensorflow/tfjs</t>
+          <t>https://github.com/tensorflow/models,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensor,https://github.com/jtoy/awesome-tensorflow,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/tfjs,https://github.com/rstudio/tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensorflow,https://github.com/cran/tensorflow,https://cran.r-project.org/package=tensorA</t>
         </is>
       </c>
       <c r="K641" t="inlineStr"/>
@@ -34909,7 +34909,7 @@
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr">
         <is>
-          <t>https://github.com/cran/tensorflow,https://github.com/jtoy/awesome-tensorflow,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/models,https://cran.r-project.org/package=tensorA,https://cran.r-project.org/package=tensor,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/rstudio/tensorflow,https://github.com/tensorflow/tfjs</t>
+          <t>https://github.com/tensorflow/models,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensor,https://github.com/jtoy/awesome-tensorflow,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/tfjs,https://github.com/rstudio/tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensorflow,https://github.com/cran/tensorflow,https://cran.r-project.org/package=tensorA</t>
         </is>
       </c>
       <c r="K642" t="inlineStr"/>
@@ -34961,7 +34961,7 @@
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr">
         <is>
-          <t>https://github.com/cran/tensorflow,https://github.com/jtoy/awesome-tensorflow,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/models,https://cran.r-project.org/package=tensorA,https://cran.r-project.org/package=tensor,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/rstudio/tensorflow,https://github.com/tensorflow/tfjs</t>
+          <t>https://github.com/tensorflow/models,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensor,https://github.com/jtoy/awesome-tensorflow,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/tfjs,https://github.com/rstudio/tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensorflow,https://github.com/cran/tensorflow,https://cran.r-project.org/package=tensorA</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -35017,7 +35017,7 @@
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr">
         <is>
-          <t>https://github.com/cran/tensorflow,https://github.com/jtoy/awesome-tensorflow,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/models,https://cran.r-project.org/package=tensorA,https://cran.r-project.org/package=tensor,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/rstudio/tensorflow,https://github.com/tensorflow/tfjs</t>
+          <t>https://github.com/tensorflow/models,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensor,https://github.com/jtoy/awesome-tensorflow,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/tfjs,https://github.com/rstudio/tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensorflow,https://github.com/cran/tensorflow,https://cran.r-project.org/package=tensorA</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -35073,7 +35073,7 @@
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr">
         <is>
-          <t>https://github.com/cran/tensorflow,https://github.com/jtoy/awesome-tensorflow,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/models,https://cran.r-project.org/package=tensorA,https://cran.r-project.org/package=tensor,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/rstudio/tensorflow,https://github.com/tensorflow/tfjs</t>
+          <t>https://github.com/tensorflow/models,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensor,https://github.com/jtoy/awesome-tensorflow,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/tfjs,https://github.com/rstudio/tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensorflow,https://github.com/cran/tensorflow,https://cran.r-project.org/package=tensorA</t>
         </is>
       </c>
       <c r="K645" t="inlineStr"/>
@@ -35125,7 +35125,7 @@
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr">
         <is>
-          <t>https://github.com/cran/tensorflow,https://github.com/jtoy/awesome-tensorflow,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/models,https://cran.r-project.org/package=tensorA,https://cran.r-project.org/package=tensor,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/rstudio/tensorflow,https://github.com/tensorflow/tfjs</t>
+          <t>https://github.com/tensorflow/models,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensor,https://github.com/jtoy/awesome-tensorflow,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/tfjs,https://github.com/rstudio/tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensorflow,https://github.com/cran/tensorflow,https://cran.r-project.org/package=tensorA</t>
         </is>
       </c>
       <c r="K646" t="inlineStr"/>
@@ -35177,7 +35177,7 @@
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr">
         <is>
-          <t>https://github.com/cran/tensorflow,https://github.com/jtoy/awesome-tensorflow,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/models,https://cran.r-project.org/package=tensorA,https://cran.r-project.org/package=tensor,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/rstudio/tensorflow,https://github.com/tensorflow/tfjs</t>
+          <t>https://github.com/tensorflow/models,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensor,https://github.com/jtoy/awesome-tensorflow,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/tfjs,https://github.com/rstudio/tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensorflow,https://github.com/cran/tensorflow,https://cran.r-project.org/package=tensorA</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -35233,7 +35233,7 @@
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr">
         <is>
-          <t>https://github.com/cran/tensorflow,https://github.com/jtoy/awesome-tensorflow,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/models,https://cran.r-project.org/package=tensorA,https://cran.r-project.org/package=tensor,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/rstudio/tensorflow,https://github.com/tensorflow/tfjs</t>
+          <t>https://github.com/tensorflow/models,https://github.com/aymericdamien/TensorFlow-Examples,https://github.com/tensorflow/tensorflow,https://cran.r-project.org/package=tensor,https://github.com/jtoy/awesome-tensorflow,https://cran.r-project.org/package=tensr,https://github.com/tensorflow/tfjs,https://github.com/rstudio/tensorflow,https://pypi.org/project/tensorflow/,https://cran.r-project.org/package=tensorflow,https://github.com/cran/tensorflow,https://cran.r-project.org/package=tensorA</t>
         </is>
       </c>
       <c r="K648" t="inlineStr"/>
@@ -35285,7 +35285,7 @@
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/tidyr,https://github.com/dariyasydykova/tidyroc,https://cran.r-project.org/package=tidyr,https://cran.r-project.org/package=tidyrates,https://github.com/cran/tidyr,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyREDCap</t>
+          <t>https://cran.r-project.org/package=tidyREDCap,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/tidyverse/tidyr,https://github.com/cran/tidyr,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/dariyasydykova/tidyroc,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyr,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyrates</t>
         </is>
       </c>
       <c r="K649" t="inlineStr"/>
@@ -35337,7 +35337,7 @@
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/tidyr,https://github.com/dariyasydykova/tidyroc,https://cran.r-project.org/package=tidyr,https://cran.r-project.org/package=tidyrates,https://github.com/cran/tidyr,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyREDCap</t>
+          <t>https://cran.r-project.org/package=tidyREDCap,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/tidyverse/tidyr,https://github.com/cran/tidyr,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/dariyasydykova/tidyroc,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyr,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyrates</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -35393,7 +35393,7 @@
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/tidyr,https://github.com/dariyasydykova/tidyroc,https://cran.r-project.org/package=tidyr,https://cran.r-project.org/package=tidyrates,https://github.com/cran/tidyr,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyREDCap</t>
+          <t>https://cran.r-project.org/package=tidyREDCap,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/tidyverse/tidyr,https://github.com/cran/tidyr,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/dariyasydykova/tidyroc,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyr,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyrates</t>
         </is>
       </c>
       <c r="K651" t="inlineStr"/>
@@ -35445,7 +35445,7 @@
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/tidyr,https://github.com/dariyasydykova/tidyroc,https://cran.r-project.org/package=tidyr,https://cran.r-project.org/package=tidyrates,https://github.com/cran/tidyr,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyREDCap</t>
+          <t>https://cran.r-project.org/package=tidyREDCap,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/tidyverse/tidyr,https://github.com/cran/tidyr,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/dariyasydykova/tidyroc,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyr,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyrates</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -35501,7 +35501,7 @@
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/tidyr,https://github.com/dariyasydykova/tidyroc,https://cran.r-project.org/package=tidyr,https://cran.r-project.org/package=tidyrates,https://github.com/cran/tidyr,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyREDCap</t>
+          <t>https://cran.r-project.org/package=tidyREDCap,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/tidyverse/tidyr,https://github.com/cran/tidyr,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/dariyasydykova/tidyroc,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyr,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyrates</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -35557,7 +35557,7 @@
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/tidyr,https://github.com/dariyasydykova/tidyroc,https://cran.r-project.org/package=tidyr,https://cran.r-project.org/package=tidyrates,https://github.com/cran/tidyr,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyREDCap</t>
+          <t>https://cran.r-project.org/package=tidyREDCap,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/tidyverse/tidyr,https://github.com/cran/tidyr,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/dariyasydykova/tidyroc,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyr,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyrates</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -35613,7 +35613,7 @@
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/tidyr,https://github.com/dariyasydykova/tidyroc,https://cran.r-project.org/package=tidyr,https://cran.r-project.org/package=tidyrates,https://github.com/cran/tidyr,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyREDCap</t>
+          <t>https://cran.r-project.org/package=tidyREDCap,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/tidyverse/tidyr,https://github.com/cran/tidyr,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/dariyasydykova/tidyroc,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyr,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyrates</t>
         </is>
       </c>
       <c r="K655" t="inlineStr"/>
@@ -35665,7 +35665,7 @@
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/tidyr,https://github.com/dariyasydykova/tidyroc,https://cran.r-project.org/package=tidyr,https://cran.r-project.org/package=tidyrates,https://github.com/cran/tidyr,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyREDCap</t>
+          <t>https://cran.r-project.org/package=tidyREDCap,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/tidyverse/tidyr,https://github.com/cran/tidyr,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/dariyasydykova/tidyroc,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyr,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyrates</t>
         </is>
       </c>
       <c r="K656" t="inlineStr"/>
@@ -35717,7 +35717,7 @@
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/tidyr,https://github.com/dariyasydykova/tidyroc,https://cran.r-project.org/package=tidyr,https://cran.r-project.org/package=tidyrates,https://github.com/cran/tidyr,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyREDCap</t>
+          <t>https://cran.r-project.org/package=tidyREDCap,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/tidyverse/tidyr,https://github.com/cran/tidyr,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/dariyasydykova/tidyroc,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyr,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyrates</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -35773,7 +35773,7 @@
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr">
         <is>
-          <t>https://github.com/tidyverse/tidyr,https://github.com/dariyasydykova/tidyroc,https://cran.r-project.org/package=tidyr,https://cran.r-project.org/package=tidyrates,https://github.com/cran/tidyr,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyREDCap</t>
+          <t>https://cran.r-project.org/package=tidyREDCap,https://github.com/r-tidy-remote-sensing/tidyrgee,https://github.com/tidyverse/tidyr,https://github.com/cran/tidyr,https://cran.r-project.org/package=tidyrgee,https://cran.r-project.org/package=tidyRSS,https://github.com/dariyasydykova/tidyroc,https://github.com/RobertMyles/tidyRSS,https://cran.r-project.org/package=tidyr,https://github.com/edgarnadal/vue-tidyroutes,https://cran.r-project.org/package=tidyrates</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -35829,7 +35829,7 @@
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dverse,https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=dsTidyverseClient,https://github.com/tidyverse/tidyr,https://github.com/tidyverse/rvest,https://cran.r-project.org/package=dsTidyverse,https://github.com/tidyverse/tidyverse,https://github.com/cran/tidyverse,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=tidyverse</t>
+          <t>https://github.com/tidyverse/tidyr,https://github.com/cran/tidyverse,https://cran.r-project.org/package=dsTidyverse,https://github.com/tidyverse/rvest,https://github.com/tidyverse/ggplot2,https://github.com/tidyverse/tidyverse,https://cran.r-project.org/package=tidyverse,https://cran.r-project.org/package=dverse,https://cran.r-project.org/package=dsTidyverseClient,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -35885,7 +35885,7 @@
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dverse,https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=dsTidyverseClient,https://github.com/tidyverse/tidyr,https://github.com/tidyverse/rvest,https://cran.r-project.org/package=dsTidyverse,https://github.com/tidyverse/tidyverse,https://github.com/cran/tidyverse,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=tidyverse</t>
+          <t>https://github.com/tidyverse/tidyr,https://github.com/cran/tidyverse,https://cran.r-project.org/package=dsTidyverse,https://github.com/tidyverse/rvest,https://github.com/tidyverse/ggplot2,https://github.com/tidyverse/tidyverse,https://cran.r-project.org/package=tidyverse,https://cran.r-project.org/package=dverse,https://cran.r-project.org/package=dsTidyverseClient,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -35941,7 +35941,7 @@
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dverse,https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=dsTidyverseClient,https://github.com/tidyverse/tidyr,https://github.com/tidyverse/rvest,https://cran.r-project.org/package=dsTidyverse,https://github.com/tidyverse/tidyverse,https://github.com/cran/tidyverse,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=tidyverse</t>
+          <t>https://github.com/tidyverse/tidyr,https://github.com/cran/tidyverse,https://cran.r-project.org/package=dsTidyverse,https://github.com/tidyverse/rvest,https://github.com/tidyverse/ggplot2,https://github.com/tidyverse/tidyverse,https://cran.r-project.org/package=tidyverse,https://cran.r-project.org/package=dverse,https://cran.r-project.org/package=dsTidyverseClient,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -35997,7 +35997,7 @@
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dverse,https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=dsTidyverseClient,https://github.com/tidyverse/tidyr,https://github.com/tidyverse/rvest,https://cran.r-project.org/package=dsTidyverse,https://github.com/tidyverse/tidyverse,https://github.com/cran/tidyverse,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=tidyverse</t>
+          <t>https://github.com/tidyverse/tidyr,https://github.com/cran/tidyverse,https://cran.r-project.org/package=dsTidyverse,https://github.com/tidyverse/rvest,https://github.com/tidyverse/ggplot2,https://github.com/tidyverse/tidyverse,https://cran.r-project.org/package=tidyverse,https://cran.r-project.org/package=dverse,https://cran.r-project.org/package=dsTidyverseClient,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -36053,7 +36053,7 @@
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=dverse,https://github.com/tidyverse/ggplot2,https://cran.r-project.org/package=dsTidyverseClient,https://github.com/tidyverse/tidyr,https://github.com/tidyverse/rvest,https://cran.r-project.org/package=dsTidyverse,https://github.com/tidyverse/tidyverse,https://github.com/cran/tidyverse,https://github.com/tidyverse/dplyr,https://cran.r-project.org/package=tidyverse</t>
+          <t>https://github.com/tidyverse/tidyr,https://github.com/cran/tidyverse,https://cran.r-project.org/package=dsTidyverse,https://github.com/tidyverse/rvest,https://github.com/tidyverse/ggplot2,https://github.com/tidyverse/tidyverse,https://cran.r-project.org/package=tidyverse,https://cran.r-project.org/package=dverse,https://cran.r-project.org/package=dsTidyverseClient,https://github.com/tidyverse/dplyr</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -36109,7 +36109,7 @@
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=tgstat,https://cran.r-project.org/package=treestats,https://github.com/Zeitsperre/tigerstats,https://cran.r-project.org/package=tigers,https://github.com/cran/tigerstats,https://cran.r-project.org/package=tigerstats,https://github.com/homerhanumat/tigerstats,https://cran.r-project.org/package=geostats,https://cran.r-project.org/package=thestats</t>
+          <t>https://cran.r-project.org/package=tigers,https://github.com/homerhanumat/tigerstats,https://cran.r-project.org/package=tgstat,https://cran.r-project.org/package=tigerstats,https://cran.r-project.org/package=thestats,https://github.com/cran/tigerstats,https://github.com/Zeitsperre/tigerstats,https://cran.r-project.org/package=geostats,https://cran.r-project.org/package=treestats</t>
         </is>
       </c>
       <c r="K664" t="inlineStr"/>
@@ -36157,7 +36157,7 @@
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=treeheatr,https://cran.r-project.org/package=treespace,https://github.com/MHM5000/TreehouseShow,https://github.com/treehouses/treehouses.github.io,https://pypi.org/project/treehouse/,https://cran.r-project.org/package=treeClust,https://github.com/treehousedev/treehouse,https://cran.r-project.org/package=treebase,https://cran.r-project.org/package=tremendousr,https://github.com/treehouse/cheatsheets,https://github.com/jaraco/treehouse,https://github.com/JLSteenwyk/treehouse,https://github.com/treehouse-dave/get-acquainted-with-git</t>
+          <t>https://github.com/treehouses/treehouses.github.io,https://cran.r-project.org/package=treeClust,https://cran.r-project.org/package=treespace,https://github.com/treehouse-dave/get-acquainted-with-git,https://pypi.org/project/treehouse/,https://cran.r-project.org/package=treeheatr,https://github.com/MHM5000/TreehouseShow,https://github.com/JLSteenwyk/treehouse,https://github.com/treehouse/cheatsheets,https://cran.r-project.org/package=tremendousr,https://cran.r-project.org/package=treebase,https://github.com/treehousedev/treehouse,https://github.com/jaraco/treehouse</t>
         </is>
       </c>
       <c r="K665" t="inlineStr"/>
@@ -36209,7 +36209,7 @@
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=treeheatr,https://cran.r-project.org/package=treespace,https://github.com/MHM5000/TreehouseShow,https://github.com/treehouses/treehouses.github.io,https://pypi.org/project/treehouse/,https://cran.r-project.org/package=treeClust,https://github.com/treehousedev/treehouse,https://cran.r-project.org/package=treebase,https://cran.r-project.org/package=tremendousr,https://github.com/treehouse/cheatsheets,https://github.com/jaraco/treehouse,https://github.com/JLSteenwyk/treehouse,https://github.com/treehouse-dave/get-acquainted-with-git</t>
+          <t>https://github.com/treehouses/treehouses.github.io,https://cran.r-project.org/package=treeClust,https://cran.r-project.org/package=treespace,https://github.com/treehouse-dave/get-acquainted-with-git,https://pypi.org/project/treehouse/,https://cran.r-project.org/package=treeheatr,https://github.com/MHM5000/TreehouseShow,https://github.com/JLSteenwyk/treehouse,https://github.com/treehouse/cheatsheets,https://cran.r-project.org/package=tremendousr,https://cran.r-project.org/package=treebase,https://github.com/treehousedev/treehouse,https://github.com/jaraco/treehouse</t>
         </is>
       </c>
       <c r="K666" t="inlineStr"/>
@@ -36261,7 +36261,7 @@
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=treeheatr,https://cran.r-project.org/package=treespace,https://github.com/MHM5000/TreehouseShow,https://github.com/treehouses/treehouses.github.io,https://pypi.org/project/treehouse/,https://cran.r-project.org/package=treeClust,https://github.com/treehousedev/treehouse,https://cran.r-project.org/package=treebase,https://cran.r-project.org/package=tremendousr,https://github.com/treehouse/cheatsheets,https://github.com/jaraco/treehouse,https://github.com/JLSteenwyk/treehouse,https://github.com/treehouse-dave/get-acquainted-with-git</t>
+          <t>https://github.com/treehouses/treehouses.github.io,https://cran.r-project.org/package=treeClust,https://cran.r-project.org/package=treespace,https://github.com/treehouse-dave/get-acquainted-with-git,https://pypi.org/project/treehouse/,https://cran.r-project.org/package=treeheatr,https://github.com/MHM5000/TreehouseShow,https://github.com/JLSteenwyk/treehouse,https://github.com/treehouse/cheatsheets,https://cran.r-project.org/package=tremendousr,https://cran.r-project.org/package=treebase,https://github.com/treehousedev/treehouse,https://github.com/jaraco/treehouse</t>
         </is>
       </c>
       <c r="K667" t="inlineStr"/>
@@ -36313,7 +36313,7 @@
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=treeheatr,https://cran.r-project.org/package=treespace,https://github.com/MHM5000/TreehouseShow,https://github.com/treehouses/treehouses.github.io,https://pypi.org/project/treehouse/,https://cran.r-project.org/package=treeClust,https://github.com/treehousedev/treehouse,https://cran.r-project.org/package=treebase,https://cran.r-project.org/package=tremendousr,https://github.com/treehouse/cheatsheets,https://github.com/jaraco/treehouse,https://github.com/JLSteenwyk/treehouse,https://github.com/treehouse-dave/get-acquainted-with-git</t>
+          <t>https://github.com/treehouses/treehouses.github.io,https://cran.r-project.org/package=treeClust,https://cran.r-project.org/package=treespace,https://github.com/treehouse-dave/get-acquainted-with-git,https://pypi.org/project/treehouse/,https://cran.r-project.org/package=treeheatr,https://github.com/MHM5000/TreehouseShow,https://github.com/JLSteenwyk/treehouse,https://github.com/treehouse/cheatsheets,https://cran.r-project.org/package=tremendousr,https://cran.r-project.org/package=treebase,https://github.com/treehousedev/treehouse,https://github.com/jaraco/treehouse</t>
         </is>
       </c>
       <c r="K668" t="inlineStr"/>
@@ -36365,7 +36365,7 @@
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=tipa,https://cran.r-project.org/package=trip,https://cran.r-project.org/package=triplot,https://github.com/tripal/tripal,https://github.com/tripal/tripal_blast,https://cran.r-project.org/package=tripack,https://github.com/galaxy-genome-annotation/docker-tripal,https://cran.r-project.org/package=trialr,https://github.com/tripal/tripal_jbrowse,https://github.com/tripal/tripal_synview</t>
+          <t>https://cran.r-project.org/package=trip,https://github.com/galaxy-genome-annotation/docker-tripal,https://github.com/tripal/tripal_synview,https://github.com/tripal/tripal_blast,https://cran.r-project.org/package=trialr,https://cran.r-project.org/package=tripack,https://github.com/tripal/tripal_jbrowse,https://pypi.org/project/tripal/,https://cran.r-project.org/package=tipa,https://cran.r-project.org/package=triplot,https://github.com/tripal/tripal,https://github.com/galaxy-genome-annotation/python-tripal</t>
         </is>
       </c>
       <c r="K669" t="inlineStr"/>
@@ -36417,7 +36417,7 @@
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=tipa,https://cran.r-project.org/package=trip,https://cran.r-project.org/package=triplot,https://github.com/tripal/tripal,https://github.com/tripal/tripal_blast,https://cran.r-project.org/package=tripack,https://github.com/galaxy-genome-annotation/docker-tripal,https://cran.r-project.org/package=trialr,https://github.com/tripal/tripal_jbrowse,https://github.com/tripal/tripal_synview</t>
+          <t>https://cran.r-project.org/package=trip,https://github.com/galaxy-genome-annotation/docker-tripal,https://github.com/tripal/tripal_synview,https://github.com/tripal/tripal_blast,https://cran.r-project.org/package=trialr,https://cran.r-project.org/package=tripack,https://github.com/tripal/tripal_jbrowse,https://pypi.org/project/tripal/,https://cran.r-project.org/package=tipa,https://cran.r-project.org/package=triplot,https://github.com/tripal/tripal,https://github.com/galaxy-genome-annotation/python-tripal</t>
         </is>
       </c>
       <c r="K670" t="inlineStr"/>
@@ -36469,7 +36469,7 @@
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=funreg,https://cran.r-project.org/package=transreg,https://cran.r-project.org/package=truncreg,https://github.com/r-forge/truncreg,https://cran.r-project.org/package=ncvreg,https://github.com/cran/truncreg,https://github.com/feiran-l/pytorch_truncreg,https://github.com/pstefanou12/TruncReg-Experiments,https://github.com/OpenMandrivaAssociation/R-truncreg</t>
+          <t>https://github.com/OpenMandrivaAssociation/R-truncreg,https://cran.r-project.org/package=transreg,https://cran.r-project.org/package=funreg,https://cran.r-project.org/package=truncreg,https://github.com/feiran-l/pytorch_truncreg,https://github.com/cran/truncreg,https://github.com/pstefanou12/TruncReg-Experiments,https://cran.r-project.org/package=ncvreg,https://github.com/r-forge/truncreg</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -36521,7 +36521,7 @@
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=funreg,https://cran.r-project.org/package=transreg,https://cran.r-project.org/package=truncreg,https://github.com/r-forge/truncreg,https://cran.r-project.org/package=ncvreg,https://github.com/cran/truncreg,https://github.com/feiran-l/pytorch_truncreg,https://github.com/pstefanou12/TruncReg-Experiments,https://github.com/OpenMandrivaAssociation/R-truncreg</t>
+          <t>https://github.com/OpenMandrivaAssociation/R-truncreg,https://cran.r-project.org/package=transreg,https://cran.r-project.org/package=funreg,https://cran.r-project.org/package=truncreg,https://github.com/feiran-l/pytorch_truncreg,https://github.com/cran/truncreg,https://github.com/pstefanou12/TruncReg-Experiments,https://cran.r-project.org/package=ncvreg,https://github.com/r-forge/truncreg</t>
         </is>
       </c>
       <c r="K672" t="inlineStr"/>
@@ -36569,7 +36569,7 @@
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=funreg,https://cran.r-project.org/package=transreg,https://cran.r-project.org/package=truncreg,https://github.com/r-forge/truncreg,https://cran.r-project.org/package=ncvreg,https://github.com/cran/truncreg,https://github.com/feiran-l/pytorch_truncreg,https://github.com/pstefanou12/TruncReg-Experiments,https://github.com/OpenMandrivaAssociation/R-truncreg</t>
+          <t>https://github.com/OpenMandrivaAssociation/R-truncreg,https://cran.r-project.org/package=transreg,https://cran.r-project.org/package=funreg,https://cran.r-project.org/package=truncreg,https://github.com/feiran-l/pytorch_truncreg,https://github.com/cran/truncreg,https://github.com/pstefanou12/TruncReg-Experiments,https://cran.r-project.org/package=ncvreg,https://github.com/r-forge/truncreg</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -36621,7 +36621,7 @@
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=funreg,https://cran.r-project.org/package=transreg,https://cran.r-project.org/package=truncreg,https://github.com/r-forge/truncreg,https://cran.r-project.org/package=ncvreg,https://github.com/cran/truncreg,https://github.com/feiran-l/pytorch_truncreg,https://github.com/pstefanou12/TruncReg-Experiments,https://github.com/OpenMandrivaAssociation/R-truncreg</t>
+          <t>https://github.com/OpenMandrivaAssociation/R-truncreg,https://cran.r-project.org/package=transreg,https://cran.r-project.org/package=funreg,https://cran.r-project.org/package=truncreg,https://github.com/feiran-l/pytorch_truncreg,https://github.com/cran/truncreg,https://github.com/pstefanou12/TruncReg-Experiments,https://cran.r-project.org/package=ncvreg,https://github.com/r-forge/truncreg</t>
         </is>
       </c>
       <c r="K674" t="inlineStr"/>
@@ -36669,7 +36669,7 @@
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr">
         <is>
-          <t>https://github.com/hynd/heka-tsutils-plugins,https://github.com/trnnick/tsutils/,https://cran.r-project.org/package=toscutil,https://cran.r-project.org/package=PottsUtils,https://cran.r-project.org/package=tsutils,https://github.com/cran/tsutils,https://github.com/cartant/tsutils-etc,https://github.com/htinaunglu/tsutils,https://cran.r-project.org/package=ttutils,https://github.com/ajafff/tsutils</t>
+          <t>https://github.com/cran/tsutils,https://cran.r-project.org/package=toscutil,https://cran.r-project.org/package=PottsUtils,https://github.com/ajafff/tsutils,https://github.com/hynd/heka-tsutils-plugins,https://cran.r-project.org/package=tsutils,https://github.com/cartant/tsutils-etc,https://github.com/htinaunglu/tsutils,https://cran.r-project.org/package=ttutils,https://github.com/trnnick/tsutils/</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -36721,7 +36721,7 @@
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr">
         <is>
-          <t>https://github.com/hynd/heka-tsutils-plugins,https://github.com/trnnick/tsutils/,https://cran.r-project.org/package=toscutil,https://cran.r-project.org/package=PottsUtils,https://cran.r-project.org/package=tsutils,https://github.com/cran/tsutils,https://github.com/cartant/tsutils-etc,https://github.com/htinaunglu/tsutils,https://cran.r-project.org/package=ttutils,https://github.com/ajafff/tsutils</t>
+          <t>https://github.com/cran/tsutils,https://cran.r-project.org/package=toscutil,https://cran.r-project.org/package=PottsUtils,https://github.com/ajafff/tsutils,https://github.com/hynd/heka-tsutils-plugins,https://cran.r-project.org/package=tsutils,https://github.com/cartant/tsutils-etc,https://github.com/htinaunglu/tsutils,https://cran.r-project.org/package=ttutils,https://github.com/trnnick/tsutils/</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -36773,7 +36773,7 @@
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=amVennDiagram5,https://github.com/benfred/venn.js,https://github.com/konstantint/matplotlib-venn,https://cran.r-project.org/package=ggVennDiagram,https://cran.r-project.org/package=BioVenn,https://github.com/dusadrian/venn,https://cran.r-project.org/package=ggvenn,https://github.com/ip200/venn-abers,https://github.com/jbyuki/venn.nvim,https://github.com/gaospecial/ggVennDiagram,https://cran.r-project.org/package=venn,https://github.com/cran/venn</t>
+          <t>https://github.com/cran/venn,https://github.com/gaospecial/ggVennDiagram,https://cran.r-project.org/package=BioVenn,https://github.com/jbyuki/venn.nvim,https://cran.r-project.org/package=amVennDiagram5,https://cran.r-project.org/package=ggvenn,https://github.com/dusadrian/venn,https://github.com/benfred/venn.js,https://github.com/konstantint/matplotlib-venn,https://pypi.org/project/venn/,https://github.com/ip200/venn-abers,https://cran.r-project.org/package=ggVennDiagram,https://cran.r-project.org/package=venn</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -36829,7 +36829,7 @@
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=amVennDiagram5,https://github.com/benfred/venn.js,https://github.com/konstantint/matplotlib-venn,https://cran.r-project.org/package=ggVennDiagram,https://cran.r-project.org/package=BioVenn,https://github.com/dusadrian/venn,https://cran.r-project.org/package=ggvenn,https://github.com/ip200/venn-abers,https://github.com/jbyuki/venn.nvim,https://github.com/gaospecial/ggVennDiagram,https://cran.r-project.org/package=venn,https://github.com/cran/venn</t>
+          <t>https://github.com/cran/venn,https://github.com/gaospecial/ggVennDiagram,https://cran.r-project.org/package=BioVenn,https://github.com/jbyuki/venn.nvim,https://cran.r-project.org/package=amVennDiagram5,https://cran.r-project.org/package=ggvenn,https://github.com/dusadrian/venn,https://github.com/benfred/venn.js,https://github.com/konstantint/matplotlib-venn,https://pypi.org/project/venn/,https://github.com/ip200/venn-abers,https://cran.r-project.org/package=ggVennDiagram,https://cran.r-project.org/package=venn</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -36885,7 +36885,7 @@
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=amVennDiagram5,https://github.com/benfred/venn.js,https://github.com/konstantint/matplotlib-venn,https://cran.r-project.org/package=ggVennDiagram,https://cran.r-project.org/package=BioVenn,https://github.com/dusadrian/venn,https://cran.r-project.org/package=ggvenn,https://github.com/ip200/venn-abers,https://github.com/jbyuki/venn.nvim,https://github.com/gaospecial/ggVennDiagram,https://cran.r-project.org/package=venn,https://github.com/cran/venn</t>
+          <t>https://github.com/cran/venn,https://github.com/gaospecial/ggVennDiagram,https://cran.r-project.org/package=BioVenn,https://github.com/jbyuki/venn.nvim,https://cran.r-project.org/package=amVennDiagram5,https://cran.r-project.org/package=ggvenn,https://github.com/dusadrian/venn,https://github.com/benfred/venn.js,https://github.com/konstantint/matplotlib-venn,https://pypi.org/project/venn/,https://github.com/ip200/venn-abers,https://cran.r-project.org/package=ggVennDiagram,https://cran.r-project.org/package=venn</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -36941,7 +36941,7 @@
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=amVennDiagram5,https://github.com/benfred/venn.js,https://github.com/konstantint/matplotlib-venn,https://cran.r-project.org/package=ggVennDiagram,https://cran.r-project.org/package=BioVenn,https://github.com/dusadrian/venn,https://cran.r-project.org/package=ggvenn,https://github.com/ip200/venn-abers,https://github.com/jbyuki/venn.nvim,https://github.com/gaospecial/ggVennDiagram,https://cran.r-project.org/package=venn,https://github.com/cran/venn</t>
+          <t>https://github.com/cran/venn,https://github.com/gaospecial/ggVennDiagram,https://cran.r-project.org/package=BioVenn,https://github.com/jbyuki/venn.nvim,https://cran.r-project.org/package=amVennDiagram5,https://cran.r-project.org/package=ggvenn,https://github.com/dusadrian/venn,https://github.com/benfred/venn.js,https://github.com/konstantint/matplotlib-venn,https://pypi.org/project/venn/,https://github.com/ip200/venn-abers,https://cran.r-project.org/package=ggVennDiagram,https://cran.r-project.org/package=venn</t>
         </is>
       </c>
       <c r="K680" t="inlineStr"/>
@@ -36993,7 +36993,7 @@
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr">
         <is>
-          <t>https://cran.r-project.org/package=amVennDiagram5,https://github.com/benfred/venn.js,https://github.com/konstantint/matplotlib-venn,https://cran.r-project.org/package=ggVennDiagram,https://cran.r-project.org/package=BioVenn,https://github.com/dusadrian/venn,https://cran.r-project.org/package=ggvenn,https://github.com/ip200/venn-abers,https://github.com/jbyuki/venn.nvim,https://github.com/gaospecial/ggVennDiagram,https://cran.r-project.org/package=venn,https://github.com/cran/venn</t>
+          <t>https://github.com/cran/venn,https://github.com/gaospecial/ggVennDiagram,https://cran.r-project.org/package=BioVenn,https://github.com/jbyuki/venn.nvim,https://cran.r-project.org/package=amVennDiagram5,https://cran.r-project.org/package=ggvenn,https://github.com/dusadrian/venn,https://github.com/benfred/venn.js,https://github.com/konstantint/matplotlib-venn,https://pypi.org/project/venn/,https://github.com/ip200/venn-abers,https://cran.r-project.org/package=ggVennDiagram,https://cran.r-project.org/package=venn</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -37049,7 +37049,7 @@
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr">
         <is>
-          <t>https://github.com/cran/whoa,https://cran.r-project.org/package=whoa,https://cran.r-project.org/package=wowa,https://github.com/samdoiron/WhoAmI,https://cran.r-project.org/package=whoami,https://github.com/FiloSottile/whoami.filippo.io,https://github.com/traefik/whoami,https://github.com/enomothem/Whoamifuck,https://github.com/owerdogan/whoami-project,https://github.com/eriqande/whoa</t>
+          <t>https://cran.r-project.org/package=whoami,https://cran.r-project.org/package=whoa,https://github.com/samdoiron/WhoAmI,https://github.com/cran/whoa,https://github.com/FiloSottile/whoami.filippo.io,https://cran.r-project.org/package=wowa,https://github.com/traefik/whoami,https://github.com/eriqande/whoa,https://github.com/owerdogan/whoami-project,https://github.com/enomothem/Whoamifuck</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -37101,7 +37101,7 @@
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr">
         <is>
-          <t>https://github.com/cran/whoa,https://cran.r-project.org/package=whoa,https://cran.r-project.org/package=wowa,https://github.com/samdoiron/WhoAmI,https://cran.r-project.org/package=whoami,https://github.com/FiloSottile/whoami.filippo.io,https://github.com/traefik/whoami,https://github.com/enomothem/Whoamifuck,https://github.com/owerdogan/whoami-project,https://github.com/eriqande/whoa</t>
+          <t>https://cran.r-project.org/package=whoami,https://cran.r-project.org/package=whoa,https://github.com/samdoiron/WhoAmI,https://github.com/cran/whoa,https://github.com/FiloSottile/whoami.filippo.io,https://cran.r-project.org/package=wowa,https://github.com/traefik/whoami,https://github.com/eriqande/whoa,https://github.com/owerdogan/whoami-project,https://github.com/enomothem/Whoamifuck</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
